--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD6C3EE-F661-4F80-9A7C-AA9534227062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.3.メール送信" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6.3.メール送信'!$A$20:$AI$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$129</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$108</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6.3.メール送信'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$127</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$106</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$106</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -704,46 +716,6 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本処理方式では、フィーチャーフォンやキャリアメールでの文字数制限等の制約に対する調節・変換機能は提供しない。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>セイヤク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>チョウセツ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>テイキョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1023,7 +995,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1531,9 +1503,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1545,6 +1517,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1856,11 +1831,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI518"/>
+  <dimension ref="A1:AI516"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1894,7 +1869,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S1" s="81"/>
       <c r="T1" s="81"/>
@@ -2098,7 +2073,7 @@
     <row r="17" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="62"/>
       <c r="E17" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -2118,21 +2093,28 @@
       <c r="K18" s="27"/>
     </row>
     <row r="19" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="62"/>
-      <c r="E19" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="62" t="str">
+        <f>$D$9&amp;"1."</f>
+        <v>6.3.1.1.</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>74</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="F20" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -2142,12 +2124,9 @@
     <row r="21" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="62" t="str">
-        <f>$D$9&amp;"1."</f>
-        <v>6.3.1.1.</v>
-      </c>
+      <c r="E21" s="27"/>
       <c r="F21" s="27" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -2160,7 +2139,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -2169,25 +2148,25 @@
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27" t="s">
-        <v>92</v>
-      </c>
+    <row r="24" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="62" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>6.3.2.</v>
+      </c>
+      <c r="E24" s="27" t="str">
+        <f>D7&amp;"方式"</f>
+        <v>メール送信方式</v>
+      </c>
+      <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -2195,25 +2174,27 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62" t="str">
+        <f>D24&amp;"1."</f>
+        <v>6.3.2.1.</v>
+      </c>
+      <c r="F25" s="27" t="str">
+        <f>E24&amp;"概要"</f>
+        <v>メール送信方式概要</v>
+      </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
     </row>
-    <row r="26" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="62" t="str">
-        <f>$C$7&amp;"2."</f>
-        <v>6.3.2.</v>
-      </c>
-      <c r="E26" s="27" t="str">
-        <f>D7&amp;"方式"</f>
-        <v>メール送信方式</v>
-      </c>
-      <c r="F26" s="27"/>
+    <row r="26" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -2221,107 +2202,147 @@
       <c r="K26" s="27"/>
     </row>
     <row r="27" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="62"/>
-      <c r="E27" s="62" t="str">
-        <f>D26&amp;"1."</f>
-        <v>6.3.2.1.</v>
-      </c>
-      <c r="F27" s="27" t="str">
-        <f>E26&amp;"概要"</f>
-        <v>メール送信方式概要</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-    </row>
-    <row r="29" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="30"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="29"/>
+      <c r="F28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="17"/>
+    </row>
+    <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="29"/>
+      <c r="F29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="20"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="29"/>
-      <c r="F30" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="17"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="23"/>
     </row>
     <row r="31" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="29"/>
-      <c r="F31" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="29"/>
@@ -2332,7 +2353,7 @@
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="21" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -2366,7 +2387,7 @@
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
       <c r="L33" s="21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -2400,7 +2421,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -2434,7 +2455,7 @@
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -2461,107 +2482,107 @@
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="29"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="23"/>
+      <c r="F36" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="38"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="29"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="23"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="33"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="29"/>
-      <c r="F38" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="38"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="33"/>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="29"/>
@@ -2572,7 +2593,7 @@
       <c r="J39" s="32"/>
       <c r="K39" s="32"/>
       <c r="L39" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
@@ -2599,239 +2620,241 @@
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="29"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="39"/>
     </row>
     <row r="41" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="29"/>
       <c r="D41" s="29"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="33"/>
     </row>
     <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="29"/>
       <c r="D42" s="29"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="39"/>
+      <c r="F42" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="29"/>
       <c r="D43" s="29"/>
+      <c r="F43" s="15" t="str">
+        <f>F28</f>
+        <v>方法</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43" s="16"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="17"/>
     </row>
     <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="29"/>
       <c r="D44" s="29"/>
-      <c r="F44" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F44" s="21" t="str">
+        <f>F29</f>
+        <v>定型メール送信</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" s="67"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="53"/>
+      <c r="AD44" s="53"/>
+      <c r="AE44" s="53"/>
+      <c r="AF44" s="53"/>
+      <c r="AG44" s="53"/>
+      <c r="AH44" s="58"/>
     </row>
     <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="29"/>
       <c r="D45" s="29"/>
-      <c r="F45" s="15" t="str">
-        <f>F30</f>
-        <v>方法</v>
-      </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16"/>
-      <c r="AE45" s="16"/>
-      <c r="AF45" s="16"/>
-      <c r="AG45" s="16"/>
-      <c r="AH45" s="17"/>
-    </row>
-    <row r="46" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="F46" s="21" t="str">
-        <f>F31</f>
-        <v>定型メール送信</v>
-      </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="M46" s="67"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="53"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="53"/>
-      <c r="AH46" s="58"/>
-    </row>
-    <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="F47" s="45" t="str">
-        <f>F38</f>
+      <c r="F45" s="45" t="str">
+        <f>F36</f>
         <v>非定型メール送信</v>
       </c>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="66" t="s">
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="M45" s="66"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="M47" s="66"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="71"/>
-      <c r="AA47" s="71"/>
-      <c r="AB47" s="71"/>
-      <c r="AC47" s="71"/>
-      <c r="AD47" s="71"/>
-      <c r="AE47" s="71"/>
-      <c r="AF47" s="71"/>
-      <c r="AG47" s="71"/>
-      <c r="AH47" s="72"/>
-    </row>
-    <row r="48" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="32"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="71"/>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="71"/>
+      <c r="AF45" s="71"/>
+      <c r="AG45" s="71"/>
+      <c r="AH45" s="72"/>
+    </row>
+    <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="32"/>
+      <c r="AF46" s="32"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="32"/>
+    </row>
+    <row r="47" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="30" t="str">
+        <f>D24&amp;"2."</f>
+        <v>6.3.2.2.</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+    </row>
+    <row r="48" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="44" t="s">
+        <v>45</v>
+      </c>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -2840,7 +2863,7 @@
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
       <c r="N48" s="32"/>
-      <c r="O48" s="53"/>
+      <c r="O48" s="32"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
@@ -2862,12 +2885,8 @@
       <c r="AH48" s="32"/>
     </row>
     <row r="49" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="30" t="str">
-        <f>D26&amp;"2."</f>
-        <v>6.3.2.2.</v>
-      </c>
       <c r="F49" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -2899,8 +2918,8 @@
       <c r="AH49" s="32"/>
     </row>
     <row r="50" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="44" t="s">
-        <v>45</v>
+      <c r="F50" s="48" t="s">
+        <v>85</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -2931,336 +2950,352 @@
       <c r="AG50" s="32"/>
       <c r="AH50" s="32"/>
     </row>
-    <row r="51" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F51" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="32"/>
-      <c r="AC51" s="32"/>
-      <c r="AD51" s="32"/>
-      <c r="AE51" s="32"/>
-      <c r="AF51" s="32"/>
-      <c r="AG51" s="32"/>
-      <c r="AH51" s="32"/>
-    </row>
-    <row r="52" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="32"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="32"/>
-      <c r="AA52" s="32"/>
-      <c r="AB52" s="32"/>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="32"/>
-      <c r="AE52" s="32"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="32"/>
-      <c r="AH52" s="32"/>
-    </row>
-    <row r="53" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="49" t="str">
+    <row r="51" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D53" s="49" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.3.3.</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E53" s="48" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="54" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="49"/>
+      <c r="E54" s="49" t="str">
+        <f>D53&amp;"1."</f>
+        <v>6.3.3.1.</v>
+      </c>
+      <c r="F54" s="48" t="str">
+        <f>E53&amp;"機能概要"</f>
+        <v>メールテンプレート機能概要</v>
+      </c>
+    </row>
+    <row r="55" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="56" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="49"/>
-      <c r="E56" s="49" t="str">
-        <f>D55&amp;"1."</f>
-        <v>6.3.3.1.</v>
-      </c>
-      <c r="F56" s="48" t="str">
-        <f>E55&amp;"機能概要"</f>
-        <v>メールテンプレート機能概要</v>
+      <c r="F56" s="48" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F57" s="48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F58" s="48" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="58" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="59" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E59" s="49" t="str">
+        <f>D53&amp;"2."</f>
+        <v>6.3.3.2.</v>
+      </c>
       <c r="F59" s="48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="61" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="49" t="str">
-        <f>D55&amp;"2."</f>
-        <v>6.3.3.2.</v>
-      </c>
-      <c r="F61" s="48" t="s">
-        <v>12</v>
+      <c r="F61" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F62" s="48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F63" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>120</v>
-      </c>
-    </row>
+      <c r="F62" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="64" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F64" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E64" s="49" t="str">
+        <f>D53&amp;"3."</f>
+        <v>6.3.3.3.</v>
+      </c>
+      <c r="F64" s="48" t="str">
+        <f>E53&amp;"手段"</f>
+        <v>メールテンプレート手段</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="51"/>
+      <c r="W65" s="51"/>
+      <c r="X65" s="51"/>
+      <c r="Y65" s="51"/>
+      <c r="Z65" s="51"/>
+      <c r="AA65" s="51"/>
+      <c r="AB65" s="51"/>
+      <c r="AC65" s="51"/>
+      <c r="AD65" s="51"/>
+      <c r="AE65" s="51"/>
+      <c r="AF65" s="51"/>
+      <c r="AG65" s="51"/>
+      <c r="AH65" s="52"/>
+    </row>
     <row r="66" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E66" s="49" t="str">
-        <f>D55&amp;"3."</f>
-        <v>6.3.3.3.</v>
-      </c>
-      <c r="F66" s="48" t="str">
-        <f>E55&amp;"手段"</f>
-        <v>メールテンプレート手段</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F67" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="R67" s="51"/>
-      <c r="S67" s="51"/>
-      <c r="T67" s="51"/>
-      <c r="U67" s="51"/>
-      <c r="V67" s="51"/>
-      <c r="W67" s="51"/>
-      <c r="X67" s="51"/>
-      <c r="Y67" s="51"/>
-      <c r="Z67" s="51"/>
-      <c r="AA67" s="51"/>
-      <c r="AB67" s="51"/>
-      <c r="AC67" s="51"/>
-      <c r="AD67" s="51"/>
-      <c r="AE67" s="51"/>
-      <c r="AF67" s="51"/>
-      <c r="AG67" s="51"/>
-      <c r="AH67" s="52"/>
-    </row>
-    <row r="68" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F68" s="63" t="s">
+      <c r="F66" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="63" t="s">
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="L66" s="66"/>
+      <c r="M66" s="66"/>
+      <c r="N66" s="66"/>
+      <c r="O66" s="66"/>
+      <c r="P66" s="66"/>
+      <c r="Q66" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="R68" s="66"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="66"/>
-      <c r="Y68" s="66"/>
-      <c r="Z68" s="66"/>
-      <c r="AA68" s="66"/>
-      <c r="AB68" s="66"/>
-      <c r="AC68" s="66"/>
-      <c r="AD68" s="66"/>
-      <c r="AE68" s="66"/>
-      <c r="AF68" s="66"/>
-      <c r="AG68" s="66"/>
-      <c r="AH68" s="69"/>
-    </row>
-    <row r="69" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D71" s="49" t="str">
+      <c r="R66" s="66"/>
+      <c r="S66" s="66"/>
+      <c r="T66" s="66"/>
+      <c r="U66" s="66"/>
+      <c r="V66" s="66"/>
+      <c r="W66" s="66"/>
+      <c r="X66" s="66"/>
+      <c r="Y66" s="66"/>
+      <c r="Z66" s="66"/>
+      <c r="AA66" s="66"/>
+      <c r="AB66" s="66"/>
+      <c r="AC66" s="66"/>
+      <c r="AD66" s="66"/>
+      <c r="AE66" s="66"/>
+      <c r="AF66" s="66"/>
+      <c r="AG66" s="66"/>
+      <c r="AH66" s="69"/>
+    </row>
+    <row r="67" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="49" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.3.4.</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E69" s="48" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="70" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="24" t="str">
+        <f>D69&amp;"1."</f>
+        <v>6.3.4.1.</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <f>E69&amp;"手段"</f>
+        <v>メールフォーマット手段</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16"/>
+      <c r="AH71" s="17"/>
+    </row>
     <row r="72" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E72" s="24" t="str">
-        <f>D71&amp;"1."</f>
-        <v>6.3.4.1.</v>
-      </c>
-      <c r="F72" s="4" t="str">
-        <f>E71&amp;"手段"</f>
-        <v>メールフォーマット手段</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F73" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="16"/>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="16"/>
-      <c r="AD73" s="16"/>
-      <c r="AE73" s="16"/>
-      <c r="AF73" s="16"/>
-      <c r="AG73" s="16"/>
-      <c r="AH73" s="17"/>
-    </row>
+      <c r="F72" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="L72" s="71"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="71"/>
+      <c r="Q72" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="R72" s="71"/>
+      <c r="S72" s="71"/>
+      <c r="T72" s="71"/>
+      <c r="U72" s="71"/>
+      <c r="V72" s="71"/>
+      <c r="W72" s="71"/>
+      <c r="X72" s="71"/>
+      <c r="Y72" s="71"/>
+      <c r="Z72" s="71"/>
+      <c r="AA72" s="71"/>
+      <c r="AB72" s="71"/>
+      <c r="AC72" s="71"/>
+      <c r="AD72" s="71"/>
+      <c r="AE72" s="71"/>
+      <c r="AF72" s="71"/>
+      <c r="AG72" s="71"/>
+      <c r="AH72" s="72"/>
+    </row>
+    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F74" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
-      <c r="O74" s="71"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="R74" s="71"/>
-      <c r="S74" s="71"/>
-      <c r="T74" s="71"/>
-      <c r="U74" s="71"/>
-      <c r="V74" s="71"/>
-      <c r="W74" s="71"/>
-      <c r="X74" s="71"/>
-      <c r="Y74" s="71"/>
-      <c r="Z74" s="71"/>
-      <c r="AA74" s="71"/>
-      <c r="AB74" s="71"/>
-      <c r="AC74" s="71"/>
-      <c r="AD74" s="71"/>
-      <c r="AE74" s="71"/>
-      <c r="AF74" s="71"/>
-      <c r="AG74" s="71"/>
-      <c r="AH74" s="72"/>
-    </row>
-    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E74" s="24"/>
+    </row>
+    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="30" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>6.3.5.</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="28"/>
+      <c r="AD75" s="28"/>
+      <c r="AE75" s="28"/>
+      <c r="AF75" s="28"/>
+      <c r="AG75" s="28"/>
+      <c r="AH75" s="28"/>
+      <c r="AI75" s="28"/>
+    </row>
     <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E76" s="24"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30" t="str">
+        <f>D75&amp;"1."</f>
+        <v>6.3.5.1.</v>
+      </c>
+      <c r="F76" s="29" t="str">
+        <f>E75&amp;"機能概要"</f>
+        <v>エラー処理機能概要</v>
+      </c>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
+      <c r="AB76" s="28"/>
+      <c r="AC76" s="28"/>
+      <c r="AD76" s="28"/>
+      <c r="AE76" s="28"/>
+      <c r="AF76" s="28"/>
+      <c r="AG76" s="28"/>
+      <c r="AH76" s="28"/>
+      <c r="AI76" s="28"/>
     </row>
     <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
-      <c r="D77" s="30" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>6.3.5.</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
@@ -3295,15 +3330,9 @@
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30" t="str">
-        <f>D77&amp;"1."</f>
-        <v>6.3.5.1.</v>
-      </c>
-      <c r="F78" s="29" t="str">
-        <f>E77&amp;"機能概要"</f>
-        <v>エラー処理機能概要</v>
-      </c>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
@@ -3339,9 +3368,13 @@
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="29" t="s">
-        <v>47</v>
+      <c r="E79" s="30" t="str">
+        <f>D75&amp;"2."</f>
+        <v>6.3.5.2.</v>
+      </c>
+      <c r="F79" s="29" t="str">
+        <f>E75&amp;"方法"</f>
+        <v>エラー処理方法</v>
       </c>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
@@ -3373,13 +3406,15 @@
       <c r="AH79" s="28"/>
       <c r="AI79" s="28"/>
     </row>
-    <row r="80" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
+      <c r="F80" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
@@ -3410,19 +3445,13 @@
       <c r="AH80" s="28"/>
       <c r="AI80" s="28"/>
     </row>
-    <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
+    <row r="81" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="28"/>
-      <c r="E81" s="30" t="str">
-        <f>D77&amp;"2."</f>
-        <v>6.3.5.2.</v>
-      </c>
-      <c r="F81" s="29" t="str">
-        <f>E77&amp;"方法"</f>
-        <v>エラー処理方法</v>
-      </c>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
@@ -3454,124 +3483,136 @@
       <c r="AI81" s="28"/>
     </row>
     <row r="82" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
-      <c r="F82" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
-      <c r="T82" s="28"/>
-      <c r="U82" s="28"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="28"/>
-      <c r="AA82" s="28"/>
-      <c r="AB82" s="28"/>
-      <c r="AC82" s="28"/>
-      <c r="AD82" s="28"/>
-      <c r="AE82" s="28"/>
-      <c r="AF82" s="28"/>
-      <c r="AG82" s="28"/>
-      <c r="AH82" s="28"/>
-      <c r="AI82" s="28"/>
+      <c r="F82" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="42"/>
+      <c r="W82" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="41"/>
+      <c r="AA82" s="41"/>
+      <c r="AB82" s="41"/>
+      <c r="AC82" s="41"/>
+      <c r="AD82" s="41"/>
+      <c r="AE82" s="41"/>
+      <c r="AF82" s="41"/>
+      <c r="AG82" s="41"/>
+      <c r="AH82" s="42"/>
     </row>
     <row r="83" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="43"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="28"/>
-      <c r="Q83" s="28"/>
-      <c r="R83" s="28"/>
-      <c r="S83" s="28"/>
-      <c r="T83" s="28"/>
-      <c r="U83" s="28"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="28"/>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="28"/>
-      <c r="AA83" s="28"/>
-      <c r="AB83" s="28"/>
-      <c r="AC83" s="28"/>
-      <c r="AD83" s="28"/>
-      <c r="AE83" s="28"/>
-      <c r="AF83" s="28"/>
-      <c r="AG83" s="28"/>
-      <c r="AH83" s="28"/>
-      <c r="AI83" s="28"/>
+      <c r="F83" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="37"/>
+      <c r="Z83" s="37"/>
+      <c r="AA83" s="37"/>
+      <c r="AB83" s="37"/>
+      <c r="AC83" s="37"/>
+      <c r="AD83" s="37"/>
+      <c r="AE83" s="37"/>
+      <c r="AF83" s="37"/>
+      <c r="AG83" s="37"/>
+      <c r="AH83" s="38"/>
     </row>
     <row r="84" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="43"/>
+      <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="43"/>
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="41"/>
-      <c r="O84" s="42"/>
-      <c r="P84" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="41"/>
-      <c r="S84" s="41"/>
-      <c r="T84" s="41"/>
-      <c r="U84" s="41"/>
-      <c r="V84" s="42"/>
-      <c r="W84" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="X84" s="41"/>
-      <c r="Y84" s="41"/>
-      <c r="Z84" s="41"/>
-      <c r="AA84" s="41"/>
-      <c r="AB84" s="41"/>
-      <c r="AC84" s="41"/>
-      <c r="AD84" s="41"/>
-      <c r="AE84" s="41"/>
-      <c r="AF84" s="41"/>
-      <c r="AG84" s="41"/>
-      <c r="AH84" s="42"/>
+      <c r="F84" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="37"/>
+      <c r="Z84" s="37"/>
+      <c r="AA84" s="37"/>
+      <c r="AB84" s="37"/>
+      <c r="AC84" s="37"/>
+      <c r="AD84" s="37"/>
+      <c r="AE84" s="37"/>
+      <c r="AF84" s="37"/>
+      <c r="AG84" s="37"/>
+      <c r="AH84" s="38"/>
     </row>
     <row r="85" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="27"/>
@@ -3579,43 +3620,37 @@
       <c r="C85" s="43"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
-      <c r="F85" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="37"/>
-      <c r="Z85" s="37"/>
-      <c r="AA85" s="37"/>
-      <c r="AB85" s="37"/>
-      <c r="AC85" s="37"/>
-      <c r="AD85" s="37"/>
-      <c r="AE85" s="37"/>
-      <c r="AF85" s="37"/>
-      <c r="AG85" s="37"/>
-      <c r="AH85" s="38"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="32"/>
+      <c r="X85" s="32"/>
+      <c r="Y85" s="32"/>
+      <c r="Z85" s="32"/>
+      <c r="AA85" s="32"/>
+      <c r="AB85" s="32"/>
+      <c r="AC85" s="32"/>
+      <c r="AD85" s="32"/>
+      <c r="AE85" s="32"/>
+      <c r="AF85" s="32"/>
+      <c r="AG85" s="32"/>
+      <c r="AH85" s="33"/>
     </row>
     <row r="86" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
@@ -3623,43 +3658,39 @@
       <c r="C86" s="43"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
-      <c r="F86" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="X86" s="37"/>
-      <c r="Y86" s="37"/>
-      <c r="Z86" s="37"/>
-      <c r="AA86" s="37"/>
-      <c r="AB86" s="37"/>
-      <c r="AC86" s="37"/>
-      <c r="AD86" s="37"/>
-      <c r="AE86" s="37"/>
-      <c r="AF86" s="37"/>
-      <c r="AG86" s="37"/>
-      <c r="AH86" s="38"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+      <c r="AH86" s="39"/>
     </row>
     <row r="87" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="27"/>
@@ -3667,25 +3698,23 @@
       <c r="C87" s="43"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
-      <c r="F87" s="31"/>
+      <c r="F87" s="32"/>
       <c r="G87" s="32"/>
       <c r="H87" s="32"/>
       <c r="I87" s="32"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="35"/>
-      <c r="V87" s="39"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
+      <c r="V87" s="32"/>
       <c r="W87" s="32"/>
       <c r="X87" s="32"/>
       <c r="Y87" s="32"/>
@@ -3697,457 +3726,457 @@
       <c r="AE87" s="32"/>
       <c r="AF87" s="32"/>
       <c r="AG87" s="32"/>
-      <c r="AH87" s="33"/>
+      <c r="AH87" s="32"/>
     </row>
     <row r="88" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="43"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="35"/>
-      <c r="T88" s="35"/>
-      <c r="U88" s="35"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="35"/>
-      <c r="X88" s="35"/>
-      <c r="Y88" s="35"/>
-      <c r="Z88" s="35"/>
-      <c r="AA88" s="35"/>
-      <c r="AB88" s="35"/>
-      <c r="AC88" s="35"/>
-      <c r="AD88" s="35"/>
-      <c r="AE88" s="35"/>
-      <c r="AF88" s="35"/>
-      <c r="AG88" s="35"/>
-      <c r="AH88" s="39"/>
+      <c r="F88" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="28"/>
+      <c r="U88" s="28"/>
+      <c r="V88" s="28"/>
+      <c r="W88" s="28"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="28"/>
+      <c r="AA88" s="28"/>
+      <c r="AB88" s="28"/>
+      <c r="AC88" s="28"/>
+      <c r="AD88" s="28"/>
+      <c r="AE88" s="28"/>
+      <c r="AF88" s="28"/>
+      <c r="AG88" s="28"/>
+      <c r="AH88" s="28"/>
+      <c r="AI88" s="28"/>
     </row>
     <row r="89" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="43"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
-      <c r="O89" s="32"/>
-      <c r="P89" s="32"/>
-      <c r="Q89" s="32"/>
-      <c r="R89" s="32"/>
-      <c r="S89" s="32"/>
-      <c r="T89" s="32"/>
-      <c r="U89" s="32"/>
-      <c r="V89" s="32"/>
-      <c r="W89" s="32"/>
-      <c r="X89" s="32"/>
-      <c r="Y89" s="32"/>
-      <c r="Z89" s="32"/>
-      <c r="AA89" s="32"/>
-      <c r="AB89" s="32"/>
-      <c r="AC89" s="32"/>
-      <c r="AD89" s="32"/>
-      <c r="AE89" s="32"/>
-      <c r="AF89" s="32"/>
-      <c r="AG89" s="32"/>
-      <c r="AH89" s="32"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
+      <c r="R89" s="28"/>
+      <c r="S89" s="28"/>
+      <c r="T89" s="28"/>
+      <c r="U89" s="28"/>
+      <c r="V89" s="28"/>
+      <c r="W89" s="28"/>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="28"/>
+      <c r="AA89" s="28"/>
+      <c r="AB89" s="28"/>
+      <c r="AC89" s="28"/>
+      <c r="AD89" s="28"/>
+      <c r="AE89" s="28"/>
+      <c r="AF89" s="28"/>
+      <c r="AG89" s="28"/>
+      <c r="AH89" s="28"/>
+      <c r="AI89" s="28"/>
     </row>
     <row r="90" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
-      <c r="F90" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="28"/>
-      <c r="P90" s="28"/>
-      <c r="Q90" s="28"/>
-      <c r="R90" s="28"/>
-      <c r="S90" s="28"/>
-      <c r="T90" s="28"/>
-      <c r="U90" s="28"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="28"/>
-      <c r="AA90" s="28"/>
-      <c r="AB90" s="28"/>
-      <c r="AC90" s="28"/>
-      <c r="AD90" s="28"/>
-      <c r="AE90" s="28"/>
-      <c r="AF90" s="28"/>
-      <c r="AG90" s="28"/>
-      <c r="AH90" s="28"/>
-      <c r="AI90" s="28"/>
+      <c r="F90" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="41"/>
+      <c r="N90" s="41"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="41"/>
+      <c r="S90" s="41"/>
+      <c r="T90" s="41"/>
+      <c r="U90" s="41"/>
+      <c r="V90" s="42"/>
+      <c r="W90" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="X90" s="41"/>
+      <c r="Y90" s="41"/>
+      <c r="Z90" s="41"/>
+      <c r="AA90" s="41"/>
+      <c r="AB90" s="41"/>
+      <c r="AC90" s="41"/>
+      <c r="AD90" s="41"/>
+      <c r="AE90" s="41"/>
+      <c r="AF90" s="41"/>
+      <c r="AG90" s="41"/>
+      <c r="AH90" s="42"/>
     </row>
     <row r="91" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="43"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="28"/>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="28"/>
-      <c r="R91" s="28"/>
-      <c r="S91" s="28"/>
-      <c r="T91" s="28"/>
-      <c r="U91" s="28"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="28"/>
-      <c r="AA91" s="28"/>
-      <c r="AB91" s="28"/>
-      <c r="AC91" s="28"/>
-      <c r="AD91" s="28"/>
-      <c r="AE91" s="28"/>
-      <c r="AF91" s="28"/>
-      <c r="AG91" s="28"/>
-      <c r="AH91" s="28"/>
-      <c r="AI91" s="28"/>
+      <c r="F91" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="37"/>
+      <c r="Z91" s="37"/>
+      <c r="AA91" s="37"/>
+      <c r="AB91" s="37"/>
+      <c r="AC91" s="37"/>
+      <c r="AD91" s="37"/>
+      <c r="AE91" s="37"/>
+      <c r="AF91" s="37"/>
+      <c r="AG91" s="37"/>
+      <c r="AH91" s="38"/>
     </row>
     <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="43"/>
+      <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="43"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="K92" s="41"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="41"/>
-      <c r="O92" s="42"/>
-      <c r="P92" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q92" s="41"/>
-      <c r="R92" s="41"/>
-      <c r="S92" s="41"/>
-      <c r="T92" s="41"/>
-      <c r="U92" s="41"/>
-      <c r="V92" s="42"/>
-      <c r="W92" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="X92" s="41"/>
-      <c r="Y92" s="41"/>
-      <c r="Z92" s="41"/>
-      <c r="AA92" s="41"/>
-      <c r="AB92" s="41"/>
-      <c r="AC92" s="41"/>
-      <c r="AD92" s="41"/>
-      <c r="AE92" s="41"/>
-      <c r="AF92" s="41"/>
-      <c r="AG92" s="41"/>
-      <c r="AH92" s="42"/>
-    </row>
-    <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
+      <c r="F92" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q92" s="46"/>
+      <c r="R92" s="46"/>
+      <c r="S92" s="46"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="46"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="X92" s="46"/>
+      <c r="Y92" s="46"/>
+      <c r="Z92" s="46"/>
+      <c r="AA92" s="46"/>
+      <c r="AB92" s="46"/>
+      <c r="AC92" s="46"/>
+      <c r="AD92" s="46"/>
+      <c r="AE92" s="46"/>
+      <c r="AF92" s="46"/>
+      <c r="AG92" s="46"/>
+      <c r="AH92" s="47"/>
+    </row>
+    <row r="93" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="43"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="37"/>
-      <c r="V93" s="38"/>
-      <c r="W93" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="X93" s="37"/>
-      <c r="Y93" s="37"/>
-      <c r="Z93" s="37"/>
-      <c r="AA93" s="37"/>
-      <c r="AB93" s="37"/>
-      <c r="AC93" s="37"/>
-      <c r="AD93" s="37"/>
-      <c r="AE93" s="37"/>
-      <c r="AF93" s="37"/>
-      <c r="AG93" s="37"/>
-      <c r="AH93" s="38"/>
-    </row>
-    <row r="94" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="53"/>
+      <c r="L93" s="53"/>
+      <c r="M93" s="53"/>
+      <c r="N93" s="53"/>
+      <c r="O93" s="53"/>
+      <c r="P93" s="53"/>
+      <c r="Q93" s="53"/>
+      <c r="R93" s="53"/>
+      <c r="S93" s="53"/>
+      <c r="T93" s="53"/>
+      <c r="U93" s="53"/>
+      <c r="V93" s="53"/>
+      <c r="W93" s="53"/>
+      <c r="X93" s="53"/>
+      <c r="Y93" s="53"/>
+      <c r="Z93" s="53"/>
+      <c r="AA93" s="53"/>
+      <c r="AB93" s="53"/>
+      <c r="AC93" s="53"/>
+      <c r="AD93" s="53"/>
+      <c r="AE93" s="53"/>
+      <c r="AF93" s="53"/>
+      <c r="AG93" s="53"/>
+      <c r="AH93" s="53"/>
+    </row>
+    <row r="94" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="43"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="46"/>
-      <c r="J94" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="K94" s="46"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="46"/>
-      <c r="N94" s="46"/>
-      <c r="O94" s="46"/>
-      <c r="P94" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q94" s="46"/>
-      <c r="R94" s="46"/>
-      <c r="S94" s="46"/>
-      <c r="T94" s="46"/>
-      <c r="U94" s="46"/>
-      <c r="V94" s="47"/>
-      <c r="W94" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="X94" s="46"/>
-      <c r="Y94" s="46"/>
-      <c r="Z94" s="46"/>
-      <c r="AA94" s="46"/>
-      <c r="AB94" s="46"/>
-      <c r="AC94" s="46"/>
-      <c r="AD94" s="46"/>
-      <c r="AE94" s="46"/>
-      <c r="AF94" s="46"/>
-      <c r="AG94" s="46"/>
-      <c r="AH94" s="47"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
+      <c r="Q94" s="43"/>
+      <c r="R94" s="43"/>
+      <c r="S94" s="43"/>
+      <c r="T94" s="43"/>
+      <c r="U94" s="43"/>
+      <c r="V94" s="43"/>
+      <c r="W94" s="43"/>
+      <c r="X94" s="43"/>
+      <c r="Y94" s="43"/>
+      <c r="Z94" s="43"/>
+      <c r="AA94" s="43"/>
+      <c r="AB94" s="43"/>
+      <c r="AC94" s="43"/>
+      <c r="AD94" s="43"/>
+      <c r="AE94" s="43"/>
+      <c r="AF94" s="43"/>
+      <c r="AG94" s="43"/>
+      <c r="AH94" s="43"/>
+      <c r="AI94" s="43"/>
     </row>
     <row r="95" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="43"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
-      <c r="M95" s="53"/>
-      <c r="N95" s="53"/>
-      <c r="O95" s="53"/>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="53"/>
-      <c r="R95" s="53"/>
-      <c r="S95" s="53"/>
-      <c r="T95" s="53"/>
-      <c r="U95" s="53"/>
-      <c r="V95" s="53"/>
-      <c r="W95" s="53"/>
-      <c r="X95" s="53"/>
-      <c r="Y95" s="53"/>
-      <c r="Z95" s="53"/>
-      <c r="AA95" s="53"/>
-      <c r="AB95" s="53"/>
-      <c r="AC95" s="53"/>
-      <c r="AD95" s="53"/>
-      <c r="AE95" s="53"/>
-      <c r="AF95" s="53"/>
-      <c r="AG95" s="53"/>
-      <c r="AH95" s="53"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="43"/>
+      <c r="U95" s="43"/>
+      <c r="V95" s="43"/>
+      <c r="W95" s="43"/>
+      <c r="X95" s="43"/>
+      <c r="Y95" s="43"/>
+      <c r="Z95" s="43"/>
+      <c r="AA95" s="43"/>
+      <c r="AB95" s="43"/>
+      <c r="AC95" s="43"/>
+      <c r="AD95" s="43"/>
+      <c r="AE95" s="43"/>
+      <c r="AF95" s="43"/>
+      <c r="AG95" s="43"/>
+      <c r="AH95" s="43"/>
+      <c r="AI95" s="43"/>
     </row>
     <row r="96" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
       <c r="C96" s="43"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
-      <c r="F96" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43"/>
-      <c r="S96" s="43"/>
-      <c r="T96" s="43"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43"/>
-      <c r="W96" s="43"/>
-      <c r="X96" s="43"/>
-      <c r="Y96" s="43"/>
-      <c r="Z96" s="43"/>
-      <c r="AA96" s="43"/>
-      <c r="AB96" s="43"/>
-      <c r="AC96" s="43"/>
-      <c r="AD96" s="43"/>
-      <c r="AE96" s="43"/>
-      <c r="AF96" s="43"/>
-      <c r="AG96" s="43"/>
-      <c r="AH96" s="43"/>
-      <c r="AI96" s="43"/>
-    </row>
-    <row r="97" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
+      <c r="F96" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q96" s="41"/>
+      <c r="R96" s="41"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="42"/>
+      <c r="W96" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="X96" s="41"/>
+      <c r="Y96" s="41"/>
+      <c r="Z96" s="41"/>
+      <c r="AA96" s="41"/>
+      <c r="AB96" s="41"/>
+      <c r="AC96" s="41"/>
+      <c r="AD96" s="41"/>
+      <c r="AE96" s="41"/>
+      <c r="AF96" s="41"/>
+      <c r="AG96" s="41"/>
+      <c r="AH96" s="42"/>
+    </row>
+    <row r="97" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="43"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
-      <c r="K97" s="43"/>
-      <c r="L97" s="43"/>
-      <c r="M97" s="43"/>
-      <c r="N97" s="43"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
-      <c r="R97" s="43"/>
-      <c r="S97" s="43"/>
-      <c r="T97" s="43"/>
-      <c r="U97" s="43"/>
-      <c r="V97" s="43"/>
-      <c r="W97" s="43"/>
-      <c r="X97" s="43"/>
-      <c r="Y97" s="43"/>
-      <c r="Z97" s="43"/>
-      <c r="AA97" s="43"/>
-      <c r="AB97" s="43"/>
-      <c r="AC97" s="43"/>
-      <c r="AD97" s="43"/>
-      <c r="AE97" s="43"/>
-      <c r="AF97" s="43"/>
-      <c r="AG97" s="43"/>
-      <c r="AH97" s="43"/>
-      <c r="AI97" s="43"/>
-    </row>
-    <row r="98" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="43"/>
+      <c r="F97" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="K97" s="55"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="55"/>
+      <c r="N97" s="55"/>
+      <c r="O97" s="55"/>
+      <c r="P97" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q97" s="55"/>
+      <c r="R97" s="55"/>
+      <c r="S97" s="55"/>
+      <c r="T97" s="55"/>
+      <c r="U97" s="55"/>
+      <c r="V97" s="56"/>
+      <c r="W97" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="X97" s="55"/>
+      <c r="Y97" s="55"/>
+      <c r="Z97" s="55"/>
+      <c r="AA97" s="55"/>
+      <c r="AB97" s="55"/>
+      <c r="AC97" s="55"/>
+      <c r="AD97" s="55"/>
+      <c r="AE97" s="55"/>
+      <c r="AF97" s="55"/>
+      <c r="AG97" s="55"/>
+      <c r="AH97" s="56"/>
+    </row>
+    <row r="98" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="43"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
-      <c r="F98" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="42"/>
-      <c r="P98" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q98" s="41"/>
-      <c r="R98" s="41"/>
-      <c r="S98" s="41"/>
-      <c r="T98" s="41"/>
-      <c r="U98" s="41"/>
-      <c r="V98" s="42"/>
-      <c r="W98" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="X98" s="41"/>
-      <c r="Y98" s="41"/>
-      <c r="Z98" s="41"/>
-      <c r="AA98" s="41"/>
-      <c r="AB98" s="41"/>
-      <c r="AC98" s="41"/>
-      <c r="AD98" s="41"/>
-      <c r="AE98" s="41"/>
-      <c r="AF98" s="41"/>
-      <c r="AG98" s="41"/>
-      <c r="AH98" s="42"/>
-    </row>
-    <row r="99" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F98" s="57"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="53"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="57"/>
+      <c r="K98" s="53"/>
+      <c r="L98" s="53"/>
+      <c r="M98" s="53"/>
+      <c r="N98" s="53"/>
+      <c r="O98" s="53"/>
+      <c r="P98" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q98" s="53"/>
+      <c r="R98" s="53"/>
+      <c r="S98" s="53"/>
+      <c r="T98" s="53"/>
+      <c r="U98" s="53"/>
+      <c r="V98" s="58"/>
+      <c r="W98" s="53"/>
+      <c r="X98" s="53"/>
+      <c r="Y98" s="53"/>
+      <c r="Z98" s="53"/>
+      <c r="AA98" s="53"/>
+      <c r="AB98" s="53"/>
+      <c r="AC98" s="53"/>
+      <c r="AD98" s="53"/>
+      <c r="AE98" s="53"/>
+      <c r="AF98" s="53"/>
+      <c r="AG98" s="53"/>
+      <c r="AH98" s="58"/>
+    </row>
+    <row r="99" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="43"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
-      <c r="F99" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="55"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="53"/>
       <c r="J99" s="54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K99" s="55"/>
       <c r="L99" s="55"/>
@@ -4155,7 +4184,7 @@
       <c r="N99" s="55"/>
       <c r="O99" s="55"/>
       <c r="P99" s="54" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="Q99" s="55"/>
       <c r="R99" s="55"/>
@@ -4163,8 +4192,8 @@
       <c r="T99" s="55"/>
       <c r="U99" s="55"/>
       <c r="V99" s="56"/>
-      <c r="W99" s="55" t="s">
-        <v>72</v>
+      <c r="W99" s="54" t="s">
+        <v>73</v>
       </c>
       <c r="X99" s="55"/>
       <c r="Y99" s="55"/>
@@ -4178,167 +4207,170 @@
       <c r="AG99" s="55"/>
       <c r="AH99" s="56"/>
     </row>
-    <row r="100" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="43"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="57"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="53"/>
-      <c r="M100" s="53"/>
-      <c r="N100" s="53"/>
-      <c r="O100" s="53"/>
-      <c r="P100" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q100" s="53"/>
-      <c r="R100" s="53"/>
-      <c r="S100" s="53"/>
-      <c r="T100" s="53"/>
-      <c r="U100" s="53"/>
-      <c r="V100" s="58"/>
-      <c r="W100" s="53"/>
-      <c r="X100" s="53"/>
-      <c r="Y100" s="53"/>
-      <c r="Z100" s="53"/>
-      <c r="AA100" s="53"/>
-      <c r="AB100" s="53"/>
-      <c r="AC100" s="53"/>
-      <c r="AD100" s="53"/>
-      <c r="AE100" s="53"/>
-      <c r="AF100" s="53"/>
-      <c r="AG100" s="53"/>
-      <c r="AH100" s="58"/>
-    </row>
-    <row r="101" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="K100" s="55"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="55"/>
+      <c r="O100" s="55"/>
+      <c r="P100" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="55"/>
+      <c r="R100" s="55"/>
+      <c r="S100" s="55"/>
+      <c r="T100" s="55"/>
+      <c r="U100" s="55"/>
+      <c r="V100" s="56"/>
+      <c r="W100" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="X100" s="55"/>
+      <c r="Y100" s="55"/>
+      <c r="Z100" s="55"/>
+      <c r="AA100" s="55"/>
+      <c r="AB100" s="55"/>
+      <c r="AC100" s="55"/>
+      <c r="AD100" s="55"/>
+      <c r="AE100" s="55"/>
+      <c r="AF100" s="55"/>
+      <c r="AG100" s="55"/>
+      <c r="AH100" s="56"/>
+    </row>
+    <row r="101" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="43"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="K101" s="55"/>
-      <c r="L101" s="55"/>
-      <c r="M101" s="55"/>
-      <c r="N101" s="55"/>
-      <c r="O101" s="55"/>
-      <c r="P101" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q101" s="55"/>
-      <c r="R101" s="55"/>
-      <c r="S101" s="55"/>
-      <c r="T101" s="55"/>
-      <c r="U101" s="55"/>
-      <c r="V101" s="56"/>
-      <c r="W101" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="X101" s="55"/>
-      <c r="Y101" s="55"/>
-      <c r="Z101" s="55"/>
-      <c r="AA101" s="55"/>
-      <c r="AB101" s="55"/>
-      <c r="AC101" s="55"/>
-      <c r="AD101" s="55"/>
-      <c r="AE101" s="55"/>
-      <c r="AF101" s="55"/>
-      <c r="AG101" s="55"/>
-      <c r="AH101" s="56"/>
-    </row>
-    <row r="102" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="59"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="60"/>
+      <c r="J101" s="59"/>
+      <c r="K101" s="60"/>
+      <c r="L101" s="60"/>
+      <c r="M101" s="60"/>
+      <c r="N101" s="60"/>
+      <c r="O101" s="60"/>
+      <c r="P101" s="59"/>
+      <c r="Q101" s="60"/>
+      <c r="R101" s="60"/>
+      <c r="S101" s="60"/>
+      <c r="T101" s="60"/>
+      <c r="U101" s="60"/>
+      <c r="V101" s="61"/>
+      <c r="W101" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="X101" s="60"/>
+      <c r="Y101" s="60"/>
+      <c r="Z101" s="60"/>
+      <c r="AA101" s="60"/>
+      <c r="AB101" s="60"/>
+      <c r="AC101" s="60"/>
+      <c r="AD101" s="60"/>
+      <c r="AE101" s="60"/>
+      <c r="AF101" s="60"/>
+      <c r="AG101" s="60"/>
+      <c r="AH101" s="61"/>
+    </row>
+    <row r="102" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
-      <c r="F102" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="K102" s="55"/>
-      <c r="L102" s="55"/>
-      <c r="M102" s="55"/>
-      <c r="N102" s="55"/>
-      <c r="O102" s="55"/>
-      <c r="P102" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q102" s="55"/>
-      <c r="R102" s="55"/>
-      <c r="S102" s="55"/>
-      <c r="T102" s="55"/>
-      <c r="U102" s="55"/>
-      <c r="V102" s="56"/>
-      <c r="W102" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="X102" s="55"/>
-      <c r="Y102" s="55"/>
-      <c r="Z102" s="55"/>
-      <c r="AA102" s="55"/>
-      <c r="AB102" s="55"/>
-      <c r="AC102" s="55"/>
-      <c r="AD102" s="55"/>
-      <c r="AE102" s="55"/>
-      <c r="AF102" s="55"/>
-      <c r="AG102" s="55"/>
-      <c r="AH102" s="56"/>
-    </row>
-    <row r="103" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
+      <c r="Q102" s="32"/>
+      <c r="R102" s="32"/>
+      <c r="S102" s="32"/>
+      <c r="T102" s="32"/>
+      <c r="U102" s="32"/>
+      <c r="V102" s="32"/>
+      <c r="W102" s="32"/>
+      <c r="X102" s="32"/>
+      <c r="Y102" s="32"/>
+      <c r="Z102" s="32"/>
+      <c r="AA102" s="32"/>
+      <c r="AB102" s="32"/>
+      <c r="AC102" s="32"/>
+      <c r="AD102" s="32"/>
+      <c r="AE102" s="32"/>
+      <c r="AF102" s="32"/>
+      <c r="AG102" s="32"/>
+      <c r="AH102" s="32"/>
+    </row>
+    <row r="103" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
       <c r="C103" s="43"/>
       <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="60"/>
-      <c r="H103" s="60"/>
-      <c r="I103" s="60"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="60"/>
-      <c r="M103" s="60"/>
-      <c r="N103" s="60"/>
-      <c r="O103" s="60"/>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="60"/>
-      <c r="R103" s="60"/>
-      <c r="S103" s="60"/>
-      <c r="T103" s="60"/>
-      <c r="U103" s="60"/>
-      <c r="V103" s="61"/>
-      <c r="W103" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="X103" s="60"/>
-      <c r="Y103" s="60"/>
-      <c r="Z103" s="60"/>
-      <c r="AA103" s="60"/>
-      <c r="AB103" s="60"/>
-      <c r="AC103" s="60"/>
-      <c r="AD103" s="60"/>
-      <c r="AE103" s="60"/>
-      <c r="AF103" s="60"/>
-      <c r="AG103" s="60"/>
-      <c r="AH103" s="61"/>
-    </row>
-    <row r="104" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E103" s="62" t="str">
+        <f>D75&amp;"3."</f>
+        <v>6.3.5.3.</v>
+      </c>
+      <c r="F103" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G103" s="53"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="32"/>
+      <c r="R103" s="32"/>
+      <c r="S103" s="32"/>
+      <c r="T103" s="32"/>
+      <c r="U103" s="32"/>
+      <c r="V103" s="32"/>
+      <c r="W103" s="32"/>
+      <c r="X103" s="32"/>
+      <c r="Y103" s="32"/>
+      <c r="Z103" s="32"/>
+      <c r="AA103" s="32"/>
+      <c r="AB103" s="32"/>
+      <c r="AC103" s="32"/>
+      <c r="AD103" s="32"/>
+      <c r="AE103" s="32"/>
+      <c r="AF103" s="32"/>
+      <c r="AG103" s="32"/>
+      <c r="AH103" s="32"/>
+    </row>
+    <row r="104" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
       <c r="C104" s="43"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
-      <c r="F104" s="53"/>
+      <c r="F104" s="53" t="s">
+        <v>94</v>
+      </c>
       <c r="G104" s="53"/>
       <c r="H104" s="32"/>
       <c r="I104" s="32"/>
@@ -4368,19 +4400,14 @@
       <c r="AG104" s="32"/>
       <c r="AH104" s="32"/>
     </row>
-    <row r="105" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
       <c r="B105" s="27"/>
       <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="62" t="str">
-        <f>D77&amp;"3."</f>
-        <v>6.3.5.3.</v>
-      </c>
-      <c r="F105" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="G105" s="53"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
       <c r="H105" s="32"/>
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
@@ -4409,166 +4436,110 @@
       <c r="AG105" s="32"/>
       <c r="AH105" s="32"/>
     </row>
-    <row r="106" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="G106" s="53"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="32"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="32"/>
-      <c r="R106" s="32"/>
-      <c r="S106" s="32"/>
-      <c r="T106" s="32"/>
-      <c r="U106" s="32"/>
-      <c r="V106" s="32"/>
-      <c r="W106" s="32"/>
-      <c r="X106" s="32"/>
-      <c r="Y106" s="32"/>
-      <c r="Z106" s="32"/>
-      <c r="AA106" s="32"/>
-      <c r="AB106" s="32"/>
-      <c r="AC106" s="32"/>
-      <c r="AD106" s="32"/>
-      <c r="AE106" s="32"/>
-      <c r="AF106" s="32"/>
-      <c r="AG106" s="32"/>
-      <c r="AH106" s="32"/>
-    </row>
-    <row r="107" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
-      <c r="L107" s="32"/>
-      <c r="M107" s="32"/>
-      <c r="N107" s="32"/>
-      <c r="O107" s="32"/>
-      <c r="P107" s="32"/>
-      <c r="Q107" s="32"/>
-      <c r="R107" s="32"/>
-      <c r="S107" s="32"/>
-      <c r="T107" s="32"/>
-      <c r="U107" s="32"/>
-      <c r="V107" s="32"/>
-      <c r="W107" s="32"/>
-      <c r="X107" s="32"/>
-      <c r="Y107" s="32"/>
-      <c r="Z107" s="32"/>
-      <c r="AA107" s="32"/>
-      <c r="AB107" s="32"/>
-      <c r="AC107" s="32"/>
-      <c r="AD107" s="32"/>
-      <c r="AE107" s="32"/>
-      <c r="AF107" s="32"/>
-      <c r="AG107" s="32"/>
-      <c r="AH107" s="32"/>
-    </row>
-    <row r="108" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="27"/>
-    </row>
-    <row r="109" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="27"/>
-      <c r="D109" s="25" t="str">
+    <row r="106" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="27"/>
+    </row>
+    <row r="107" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="27"/>
+      <c r="D107" s="25" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.3.6.</v>
       </c>
-      <c r="E109" s="29" t="s">
+      <c r="E107" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="27"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25" t="str">
+        <f>D107&amp;"1."</f>
+        <v>6.3.6.1.</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="27"/>
+      <c r="D109" s="25"/>
+      <c r="F109" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="27"/>
       <c r="C110" s="27"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25" t="str">
-        <f>D109&amp;"1."</f>
-        <v>6.3.6.1.</v>
-      </c>
-      <c r="F110" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="64"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+    </row>
+    <row r="111" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="27"/>
       <c r="C111" s="27"/>
-      <c r="D111" s="25"/>
-      <c r="F111" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="112" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D111" s="64"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+    </row>
+    <row r="112" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="27"/>
       <c r="C112" s="27"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="27"/>
+      <c r="D112" s="64" t="str">
+        <f>$C$7&amp;"7."</f>
+        <v>6.3.7.</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="F112" s="27"/>
     </row>
-    <row r="113" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="27"/>
       <c r="C113" s="27"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27" t="s">
+        <v>97</v>
+      </c>
       <c r="F113" s="27"/>
     </row>
-    <row r="114" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="27"/>
       <c r="C114" s="27"/>
-      <c r="D114" s="64" t="str">
-        <f>$C$7&amp;"7."</f>
-        <v>6.3.7.</v>
-      </c>
-      <c r="E114" s="27" t="s">
-        <v>97</v>
-      </c>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
       <c r="F114" s="27"/>
     </row>
     <row r="115" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="27"/>
       <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F115" s="27"/>
-    </row>
-    <row r="116" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="27"/>
       <c r="B116" s="27"/>
       <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-    </row>
-    <row r="117" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D116" s="25" t="str">
+        <f>$C$7&amp;"8."</f>
+        <v>6.3.8.</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
       <c r="C117" s="27"/>
-    </row>
-    <row r="118" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D117" s="25"/>
+      <c r="E117" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="27"/>
       <c r="B118" s="27"/>
       <c r="C118" s="27"/>
-      <c r="D118" s="25" t="str">
-        <f>$C$7&amp;"8."</f>
-        <v>6.3.8.</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>105</v>
+      <c r="D118" s="25"/>
+      <c r="E118" s="29" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4577,7 +4548,7 @@
       <c r="C119" s="27"/>
       <c r="D119" s="25"/>
       <c r="E119" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4585,118 +4556,102 @@
       <c r="B120" s="27"/>
       <c r="C120" s="27"/>
       <c r="D120" s="25"/>
-      <c r="E120" s="29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
       <c r="C121" s="27"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="29" t="s">
-        <v>109</v>
+      <c r="E121" s="25" t="str">
+        <f>D116&amp;"1."</f>
+        <v>6.3.8.1.</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="27"/>
-      <c r="B122" s="27"/>
       <c r="C122" s="27"/>
-      <c r="D122" s="25"/>
-    </row>
-    <row r="123" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
+      <c r="F122" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="27"/>
-      <c r="E123" s="25" t="str">
-        <f>D118&amp;"1."</f>
-        <v>6.3.8.1.</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="27"/>
-      <c r="F124" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F124" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G124" s="26"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="L124" s="26"/>
+      <c r="M124" s="26"/>
+      <c r="N124" s="26"/>
+      <c r="O124" s="26"/>
+      <c r="P124" s="65"/>
+    </row>
+    <row r="125" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="27"/>
+      <c r="F125" s="45">
+        <v>1</v>
+      </c>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="L125" s="46"/>
+      <c r="M125" s="46"/>
+      <c r="N125" s="46"/>
+      <c r="O125" s="46"/>
+      <c r="P125" s="47"/>
     </row>
     <row r="126" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="27"/>
-      <c r="F126" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="L126" s="26"/>
-      <c r="M126" s="26"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="26"/>
-      <c r="P126" s="65"/>
+      <c r="F126" s="34">
+        <v>2</v>
+      </c>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+      <c r="J126" s="35"/>
+      <c r="K126" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L126" s="35"/>
+      <c r="M126" s="35"/>
+      <c r="N126" s="35"/>
+      <c r="O126" s="35"/>
+      <c r="P126" s="39"/>
     </row>
     <row r="127" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="27"/>
-      <c r="F127" s="45">
-        <v>1</v>
-      </c>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="46"/>
-      <c r="J127" s="46"/>
-      <c r="K127" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="L127" s="46"/>
-      <c r="M127" s="46"/>
-      <c r="N127" s="46"/>
-      <c r="O127" s="46"/>
-      <c r="P127" s="47"/>
-    </row>
-    <row r="128" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="27"/>
-      <c r="F128" s="34">
-        <v>2</v>
-      </c>
-      <c r="G128" s="35"/>
-      <c r="H128" s="35"/>
-      <c r="I128" s="35"/>
-      <c r="J128" s="35"/>
-      <c r="K128" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="L128" s="35"/>
-      <c r="M128" s="35"/>
-      <c r="N128" s="35"/>
-      <c r="O128" s="35"/>
-      <c r="P128" s="39"/>
-    </row>
-    <row r="129" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F129" s="29"/>
-    </row>
-    <row r="130" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F127" s="29"/>
+    </row>
+    <row r="128" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5069,8 +5024,6 @@
     <row r="514" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="515" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5089,9 +5042,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="34" man="1"/>
-    <brk id="75" max="34" man="1"/>
-    <brk id="116" max="34" man="1"/>
+    <brk id="40" max="34" man="1"/>
+    <brk id="73" max="34" man="1"/>
+    <brk id="114" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD6C3EE-F661-4F80-9A7C-AA9534227062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6487CB4-0FC7-4426-BDE9-7B4CC2ACA855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6.3.メール送信'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$127</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$106</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$132</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$111</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="126">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -541,10 +541,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メールテンプレート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>対象</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -552,10 +548,61 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>手段</t>
+    <t>PJ固有の要件</t>
+    <rPh sb="2" eb="4">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レコードが存在しない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指定されたテンプレートが</t>
     <rPh sb="0" eb="2">
-      <t>シュダン</t>
-    </rPh>
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理方式概要</t>
+    <rPh sb="0" eb="4">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、メール受付時に、メール送信要求を精査する。</t>
+    <rPh sb="6" eb="8">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールフォーマット</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -566,6 +613,47 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>要件のため。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクト名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字コード</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールの文字コードは「UTF-8」を使用する。</t>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大量送信は専用の一斉メールを行うサービスを利用する。</t>
+    <rPh sb="8" eb="10">
+      <t>イッセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>PJ固有の要件</t>
     <rPh sb="2" eb="4">
       <t>コユウ</t>
@@ -576,119 +664,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>レコードが存在しない</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>指定されたテンプレートが</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理方式概要</t>
-    <rPh sb="0" eb="4">
-      <t>ショリホウシキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarch Frameworkのバージョン5u13で推奨されているため。</t>
-    <rPh sb="29" eb="31">
-      <t>スイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、メール受付時に、メール送信要求を精査する。</t>
-    <rPh sb="6" eb="8">
-      <t>ウケツケ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メールフォーマット</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>要件のため。</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プロジェクト名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>文字コード</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メールの文字コードは「UTF-8」を使用する。</t>
-    <rPh sb="4" eb="6">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大量送信は専用の一斉メールを行うサービスを利用する。</t>
-    <rPh sb="8" eb="10">
-      <t>イッセイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PJ固有の要件</t>
-    <rPh sb="2" eb="4">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>不達メール特定機能を使用しないため、不達メール受信時のエラー処理は行わない。</t>
     <rPh sb="0" eb="2">
       <t>フタツ</t>
@@ -958,10 +933,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>E-mail Thymeleafアダプタ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プレースホルダを含むメール本文を、メールテンプレートとして予め登録しておく。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -989,6 +960,75 @@
   </si>
   <si>
     <t>タイミングで再実行する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchでは、メールテンプレート用のアダプタとして以下を提供している。</t>
+    <rPh sb="20" eb="21">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Thymeleafアダプタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FreeMakerアダプタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Velocityアダプタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムではHTML形式のメールを送信する要件があるため、テンプレートをそのままブラウザで開いてスタイルの確認が可能な</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Thymeleafアダプタを採用する。</t>
+    <rPh sb="14" eb="16">
+      <t>サイヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1211,7 +1251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,15 +1401,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1835,7 +1866,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI516"/>
+  <dimension ref="A1:AI521"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1848,48 +1879,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="82"/>
+      <c r="R1" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="76"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="73"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1898,43 +1929,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="85"/>
       <c r="P2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="89" t="s">
+      <c r="R2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="91"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="88"/>
       <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="76"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="73"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1943,39 +1974,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="94"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="91"/>
       <c r="Y3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="76"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="73"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2003,7 +2034,7 @@
         <v>6.3.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2025,7 +2056,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="62"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="27" t="s">
         <v>19</v>
       </c>
@@ -2037,7 +2068,7 @@
       <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="62"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="27" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2080,7 @@
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="62"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -2059,7 +2090,7 @@
       <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="62"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="27" t="s">
         <v>24</v>
       </c>
@@ -2071,9 +2102,9 @@
       <c r="K16" s="27"/>
     </row>
     <row r="17" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="62"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -2083,7 +2114,7 @@
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="62"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -2095,7 +2126,7 @@
     <row r="19" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="62" t="str">
+      <c r="E19" s="59" t="str">
         <f>$D$9&amp;"1."</f>
         <v>6.3.1.1.</v>
       </c>
@@ -2139,7 +2170,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -2158,7 +2189,7 @@
       <c r="K23" s="27"/>
     </row>
     <row r="24" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="62" t="str">
+      <c r="D24" s="59" t="str">
         <f>$C$7&amp;"2."</f>
         <v>6.3.2.</v>
       </c>
@@ -2174,8 +2205,8 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="62"/>
-      <c r="E25" s="62" t="str">
+      <c r="D25" s="59"/>
+      <c r="E25" s="59" t="str">
         <f>D24&amp;"1."</f>
         <v>6.3.2.1.</v>
       </c>
@@ -2715,33 +2746,33 @@
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="23"/>
-      <c r="L44" s="67" t="s">
+      <c r="L44" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="67"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="53"/>
-      <c r="AF44" s="53"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="58"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="55"/>
     </row>
     <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="29"/>
@@ -2755,33 +2786,33 @@
       <c r="I45" s="46"/>
       <c r="J45" s="46"/>
       <c r="K45" s="47"/>
-      <c r="L45" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="M45" s="66"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
-      <c r="AA45" s="71"/>
-      <c r="AB45" s="71"/>
-      <c r="AC45" s="71"/>
-      <c r="AD45" s="71"/>
-      <c r="AE45" s="71"/>
-      <c r="AF45" s="71"/>
-      <c r="AG45" s="71"/>
-      <c r="AH45" s="72"/>
+      <c r="L45" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="M45" s="63"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="68"/>
+      <c r="AC45" s="68"/>
+      <c r="AD45" s="68"/>
+      <c r="AE45" s="68"/>
+      <c r="AF45" s="68"/>
+      <c r="AG45" s="68"/>
+      <c r="AH45" s="69"/>
     </row>
     <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="32"/>
@@ -2793,7 +2824,7 @@
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
       <c r="N46" s="32"/>
-      <c r="O46" s="53"/>
+      <c r="O46" s="50"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
@@ -2919,7 +2950,7 @@
     </row>
     <row r="50" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -2974,17 +3005,17 @@
     </row>
     <row r="55" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F55" s="48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F56" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F57" s="48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3007,12 +3038,12 @@
         <v>11</v>
       </c>
       <c r="G61" s="48" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G62" s="48" t="s">
         <v>37</v>
@@ -3030,391 +3061,166 @@
       </c>
     </row>
     <row r="65" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F65" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="51"/>
-      <c r="Q65" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="R65" s="51"/>
-      <c r="S65" s="51"/>
-      <c r="T65" s="51"/>
-      <c r="U65" s="51"/>
-      <c r="V65" s="51"/>
-      <c r="W65" s="51"/>
-      <c r="X65" s="51"/>
-      <c r="Y65" s="51"/>
-      <c r="Z65" s="51"/>
-      <c r="AA65" s="51"/>
-      <c r="AB65" s="51"/>
-      <c r="AC65" s="51"/>
-      <c r="AD65" s="51"/>
-      <c r="AE65" s="51"/>
-      <c r="AF65" s="51"/>
-      <c r="AG65" s="51"/>
-      <c r="AH65" s="52"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="48" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="66" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F66" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="63" t="s">
+      <c r="E66" s="49"/>
+    </row>
+    <row r="67" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="49"/>
+      <c r="F67" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="L66" s="66"/>
-      <c r="M66" s="66"/>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="R66" s="66"/>
-      <c r="S66" s="66"/>
-      <c r="T66" s="66"/>
-      <c r="U66" s="66"/>
-      <c r="V66" s="66"/>
-      <c r="W66" s="66"/>
-      <c r="X66" s="66"/>
-      <c r="Y66" s="66"/>
-      <c r="Z66" s="66"/>
-      <c r="AA66" s="66"/>
-      <c r="AB66" s="66"/>
-      <c r="AC66" s="66"/>
-      <c r="AD66" s="66"/>
-      <c r="AE66" s="66"/>
-      <c r="AF66" s="66"/>
-      <c r="AG66" s="66"/>
-      <c r="AH66" s="69"/>
-    </row>
-    <row r="67" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="G67" s="48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E68" s="49"/>
+      <c r="F68" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="69" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D69" s="49" t="str">
+      <c r="E69" s="49"/>
+      <c r="F69" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="49"/>
+    </row>
+    <row r="71" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E71" s="49"/>
+      <c r="F71" s="48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E72" s="49"/>
+      <c r="F72" s="48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="49" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.3.4.</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E74" s="48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="24" t="str">
-        <f>D69&amp;"1."</f>
+    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="24" t="str">
+        <f>D74&amp;"1."</f>
         <v>6.3.4.1.</v>
       </c>
-      <c r="F70" s="4" t="str">
-        <f>E69&amp;"手段"</f>
+      <c r="F75" s="4" t="str">
+        <f>E74&amp;"手段"</f>
         <v>メールフォーマット手段</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F71" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="16" t="s">
+    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="16"/>
-      <c r="AE71" s="16"/>
-      <c r="AF71" s="16"/>
-      <c r="AG71" s="16"/>
-      <c r="AH71" s="17"/>
-    </row>
-    <row r="72" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F72" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="R72" s="71"/>
-      <c r="S72" s="71"/>
-      <c r="T72" s="71"/>
-      <c r="U72" s="71"/>
-      <c r="V72" s="71"/>
-      <c r="W72" s="71"/>
-      <c r="X72" s="71"/>
-      <c r="Y72" s="71"/>
-      <c r="Z72" s="71"/>
-      <c r="AA72" s="71"/>
-      <c r="AB72" s="71"/>
-      <c r="AC72" s="71"/>
-      <c r="AD72" s="71"/>
-      <c r="AE72" s="71"/>
-      <c r="AF72" s="71"/>
-      <c r="AG72" s="71"/>
-      <c r="AH72" s="72"/>
-    </row>
-    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E74" s="24"/>
-    </row>
-    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="30" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>6.3.5.</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="28"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
-      <c r="AB75" s="28"/>
-      <c r="AC75" s="28"/>
-      <c r="AD75" s="28"/>
-      <c r="AE75" s="28"/>
-      <c r="AF75" s="28"/>
-      <c r="AG75" s="28"/>
-      <c r="AH75" s="28"/>
-      <c r="AI75" s="28"/>
-    </row>
-    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30" t="str">
-        <f>D75&amp;"1."</f>
-        <v>6.3.5.1.</v>
-      </c>
-      <c r="F76" s="29" t="str">
-        <f>E75&amp;"機能概要"</f>
-        <v>エラー処理機能概要</v>
-      </c>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="28"/>
-      <c r="U76" s="28"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="28"/>
-      <c r="AC76" s="28"/>
-      <c r="AD76" s="28"/>
-      <c r="AE76" s="28"/>
-      <c r="AF76" s="28"/>
-      <c r="AG76" s="28"/>
-      <c r="AH76" s="28"/>
-      <c r="AI76" s="28"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="16"/>
+      <c r="AE76" s="16"/>
+      <c r="AF76" s="16"/>
+      <c r="AG76" s="16"/>
+      <c r="AH76" s="17"/>
     </row>
     <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-      <c r="S77" s="28"/>
-      <c r="T77" s="28"/>
-      <c r="U77" s="28"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-      <c r="AC77" s="28"/>
-      <c r="AD77" s="28"/>
-      <c r="AE77" s="28"/>
-      <c r="AF77" s="28"/>
-      <c r="AG77" s="28"/>
-      <c r="AH77" s="28"/>
-      <c r="AI77" s="28"/>
-    </row>
-    <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="28"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="28"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="28"/>
-      <c r="AE78" s="28"/>
-      <c r="AF78" s="28"/>
-      <c r="AG78" s="28"/>
-      <c r="AH78" s="28"/>
-      <c r="AI78" s="28"/>
-    </row>
+      <c r="F77" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="L77" s="68"/>
+      <c r="M77" s="68"/>
+      <c r="N77" s="68"/>
+      <c r="O77" s="68"/>
+      <c r="P77" s="68"/>
+      <c r="Q77" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="R77" s="68"/>
+      <c r="S77" s="68"/>
+      <c r="T77" s="68"/>
+      <c r="U77" s="68"/>
+      <c r="V77" s="68"/>
+      <c r="W77" s="68"/>
+      <c r="X77" s="68"/>
+      <c r="Y77" s="68"/>
+      <c r="Z77" s="68"/>
+      <c r="AA77" s="68"/>
+      <c r="AB77" s="68"/>
+      <c r="AC77" s="68"/>
+      <c r="AD77" s="68"/>
+      <c r="AE77" s="68"/>
+      <c r="AF77" s="68"/>
+      <c r="AG77" s="68"/>
+      <c r="AH77" s="69"/>
+    </row>
+    <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="30" t="str">
-        <f>D75&amp;"2."</f>
-        <v>6.3.5.2.</v>
-      </c>
-      <c r="F79" s="29" t="str">
-        <f>E75&amp;"方法"</f>
-        <v>エラー処理方法</v>
-      </c>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="28"/>
-      <c r="T79" s="28"/>
-      <c r="U79" s="28"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="28"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="28"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="28"/>
-      <c r="AC79" s="28"/>
-      <c r="AD79" s="28"/>
-      <c r="AE79" s="28"/>
-      <c r="AF79" s="28"/>
-      <c r="AG79" s="28"/>
-      <c r="AH79" s="28"/>
-      <c r="AI79" s="28"/>
-    </row>
-    <row r="80" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E79" s="24"/>
+    </row>
+    <row r="80" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="29" t="s">
-        <v>60</v>
-      </c>
+      <c r="D80" s="30" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>6.3.5.</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="28"/>
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
@@ -3445,13 +3251,19 @@
       <c r="AH80" s="28"/>
       <c r="AI80" s="28"/>
     </row>
-    <row r="81" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
+    <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30" t="str">
+        <f>D80&amp;"1."</f>
+        <v>6.3.5.1.</v>
+      </c>
+      <c r="F81" s="29" t="str">
+        <f>E80&amp;"機能概要"</f>
+        <v>エラー処理機能概要</v>
+      </c>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
@@ -3482,371 +3294,370 @@
       <c r="AH81" s="28"/>
       <c r="AI81" s="28"/>
     </row>
-    <row r="82" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="43"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="43"/>
+    <row r="82" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
-      <c r="F82" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41"/>
-      <c r="O82" s="42"/>
-      <c r="P82" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="41"/>
-      <c r="U82" s="41"/>
-      <c r="V82" s="42"/>
-      <c r="W82" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="X82" s="41"/>
-      <c r="Y82" s="41"/>
-      <c r="Z82" s="41"/>
-      <c r="AA82" s="41"/>
-      <c r="AB82" s="41"/>
-      <c r="AC82" s="41"/>
-      <c r="AD82" s="41"/>
-      <c r="AE82" s="41"/>
-      <c r="AF82" s="41"/>
-      <c r="AG82" s="41"/>
-      <c r="AH82" s="42"/>
-    </row>
-    <row r="83" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="43"/>
+      <c r="F82" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="28"/>
+      <c r="U82" s="28"/>
+      <c r="V82" s="28"/>
+      <c r="W82" s="28"/>
+      <c r="X82" s="28"/>
+      <c r="Y82" s="28"/>
+      <c r="Z82" s="28"/>
+      <c r="AA82" s="28"/>
+      <c r="AB82" s="28"/>
+      <c r="AC82" s="28"/>
+      <c r="AD82" s="28"/>
+      <c r="AE82" s="28"/>
+      <c r="AF82" s="28"/>
+      <c r="AG82" s="28"/>
+      <c r="AH82" s="28"/>
+      <c r="AI82" s="28"/>
+    </row>
+    <row r="83" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="37"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="37"/>
-      <c r="Y83" s="37"/>
-      <c r="Z83" s="37"/>
-      <c r="AA83" s="37"/>
-      <c r="AB83" s="37"/>
-      <c r="AC83" s="37"/>
-      <c r="AD83" s="37"/>
-      <c r="AE83" s="37"/>
-      <c r="AF83" s="37"/>
-      <c r="AG83" s="37"/>
-      <c r="AH83" s="38"/>
-    </row>
-    <row r="84" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="43"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="28"/>
+      <c r="R83" s="28"/>
+      <c r="S83" s="28"/>
+      <c r="T83" s="28"/>
+      <c r="U83" s="28"/>
+      <c r="V83" s="28"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="28"/>
+      <c r="Y83" s="28"/>
+      <c r="Z83" s="28"/>
+      <c r="AA83" s="28"/>
+      <c r="AB83" s="28"/>
+      <c r="AC83" s="28"/>
+      <c r="AD83" s="28"/>
+      <c r="AE83" s="28"/>
+      <c r="AF83" s="28"/>
+      <c r="AG83" s="28"/>
+      <c r="AH83" s="28"/>
+      <c r="AI83" s="28"/>
+    </row>
+    <row r="84" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="37"/>
-      <c r="Z84" s="37"/>
-      <c r="AA84" s="37"/>
-      <c r="AB84" s="37"/>
-      <c r="AC84" s="37"/>
-      <c r="AD84" s="37"/>
-      <c r="AE84" s="37"/>
-      <c r="AF84" s="37"/>
-      <c r="AG84" s="37"/>
-      <c r="AH84" s="38"/>
+      <c r="E84" s="30" t="str">
+        <f>D80&amp;"2."</f>
+        <v>6.3.5.2.</v>
+      </c>
+      <c r="F84" s="29" t="str">
+        <f>E80&amp;"方法"</f>
+        <v>エラー処理方法</v>
+      </c>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="28"/>
+      <c r="S84" s="28"/>
+      <c r="T84" s="28"/>
+      <c r="U84" s="28"/>
+      <c r="V84" s="28"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="28"/>
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
+      <c r="AD84" s="28"/>
+      <c r="AE84" s="28"/>
+      <c r="AF84" s="28"/>
+      <c r="AG84" s="28"/>
+      <c r="AH84" s="28"/>
+      <c r="AI84" s="28"/>
     </row>
     <row r="85" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="43"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="35"/>
-      <c r="V85" s="39"/>
-      <c r="W85" s="32"/>
-      <c r="X85" s="32"/>
-      <c r="Y85" s="32"/>
-      <c r="Z85" s="32"/>
-      <c r="AA85" s="32"/>
-      <c r="AB85" s="32"/>
-      <c r="AC85" s="32"/>
-      <c r="AD85" s="32"/>
-      <c r="AE85" s="32"/>
-      <c r="AF85" s="32"/>
-      <c r="AG85" s="32"/>
-      <c r="AH85" s="33"/>
+      <c r="F85" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="28"/>
+      <c r="Q85" s="28"/>
+      <c r="R85" s="28"/>
+      <c r="S85" s="28"/>
+      <c r="T85" s="28"/>
+      <c r="U85" s="28"/>
+      <c r="V85" s="28"/>
+      <c r="W85" s="28"/>
+      <c r="X85" s="28"/>
+      <c r="Y85" s="28"/>
+      <c r="Z85" s="28"/>
+      <c r="AA85" s="28"/>
+      <c r="AB85" s="28"/>
+      <c r="AC85" s="28"/>
+      <c r="AD85" s="28"/>
+      <c r="AE85" s="28"/>
+      <c r="AF85" s="28"/>
+      <c r="AG85" s="28"/>
+      <c r="AH85" s="28"/>
+      <c r="AI85" s="28"/>
     </row>
     <row r="86" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="43"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="35"/>
-      <c r="AB86" s="35"/>
-      <c r="AC86" s="35"/>
-      <c r="AD86" s="35"/>
-      <c r="AE86" s="35"/>
-      <c r="AF86" s="35"/>
-      <c r="AG86" s="35"/>
-      <c r="AH86" s="39"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="28"/>
+      <c r="W86" s="28"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="28"/>
+      <c r="AA86" s="28"/>
+      <c r="AB86" s="28"/>
+      <c r="AC86" s="28"/>
+      <c r="AD86" s="28"/>
+      <c r="AE86" s="28"/>
+      <c r="AF86" s="28"/>
+      <c r="AG86" s="28"/>
+      <c r="AH86" s="28"/>
+      <c r="AI86" s="28"/>
     </row>
     <row r="87" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="27"/>
+      <c r="A87" s="43"/>
       <c r="B87" s="27"/>
       <c r="C87" s="43"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
-      <c r="V87" s="32"/>
-      <c r="W87" s="32"/>
-      <c r="X87" s="32"/>
-      <c r="Y87" s="32"/>
-      <c r="Z87" s="32"/>
-      <c r="AA87" s="32"/>
-      <c r="AB87" s="32"/>
-      <c r="AC87" s="32"/>
-      <c r="AD87" s="32"/>
-      <c r="AE87" s="32"/>
-      <c r="AF87" s="32"/>
-      <c r="AG87" s="32"/>
-      <c r="AH87" s="32"/>
+      <c r="F87" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="42"/>
+      <c r="W87" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="41"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="41"/>
+      <c r="AE87" s="41"/>
+      <c r="AF87" s="41"/>
+      <c r="AG87" s="41"/>
+      <c r="AH87" s="42"/>
     </row>
     <row r="88" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="28"/>
-      <c r="P88" s="28"/>
-      <c r="Q88" s="28"/>
-      <c r="R88" s="28"/>
-      <c r="S88" s="28"/>
-      <c r="T88" s="28"/>
-      <c r="U88" s="28"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="28"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="28"/>
-      <c r="AC88" s="28"/>
-      <c r="AD88" s="28"/>
-      <c r="AE88" s="28"/>
-      <c r="AF88" s="28"/>
-      <c r="AG88" s="28"/>
-      <c r="AH88" s="28"/>
-      <c r="AI88" s="28"/>
+      <c r="F88" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="37"/>
+      <c r="AA88" s="37"/>
+      <c r="AB88" s="37"/>
+      <c r="AC88" s="37"/>
+      <c r="AD88" s="37"/>
+      <c r="AE88" s="37"/>
+      <c r="AF88" s="37"/>
+      <c r="AG88" s="37"/>
+      <c r="AH88" s="38"/>
     </row>
     <row r="89" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="43"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="28"/>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="28"/>
-      <c r="R89" s="28"/>
-      <c r="S89" s="28"/>
-      <c r="T89" s="28"/>
-      <c r="U89" s="28"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="28"/>
-      <c r="AA89" s="28"/>
-      <c r="AB89" s="28"/>
-      <c r="AC89" s="28"/>
-      <c r="AD89" s="28"/>
-      <c r="AE89" s="28"/>
-      <c r="AF89" s="28"/>
-      <c r="AG89" s="28"/>
-      <c r="AH89" s="28"/>
-      <c r="AI89" s="28"/>
+      <c r="F89" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="37"/>
+      <c r="Z89" s="37"/>
+      <c r="AA89" s="37"/>
+      <c r="AB89" s="37"/>
+      <c r="AC89" s="37"/>
+      <c r="AD89" s="37"/>
+      <c r="AE89" s="37"/>
+      <c r="AF89" s="37"/>
+      <c r="AG89" s="37"/>
+      <c r="AH89" s="38"/>
     </row>
     <row r="90" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="43"/>
+      <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="43"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
-      <c r="F90" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="K90" s="41"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="41"/>
-      <c r="N90" s="41"/>
-      <c r="O90" s="42"/>
-      <c r="P90" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q90" s="41"/>
-      <c r="R90" s="41"/>
-      <c r="S90" s="41"/>
-      <c r="T90" s="41"/>
-      <c r="U90" s="41"/>
-      <c r="V90" s="42"/>
-      <c r="W90" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="X90" s="41"/>
-      <c r="Y90" s="41"/>
-      <c r="Z90" s="41"/>
-      <c r="AA90" s="41"/>
-      <c r="AB90" s="41"/>
-      <c r="AC90" s="41"/>
-      <c r="AD90" s="41"/>
-      <c r="AE90" s="41"/>
-      <c r="AF90" s="41"/>
-      <c r="AG90" s="41"/>
-      <c r="AH90" s="42"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="32"/>
+      <c r="X90" s="32"/>
+      <c r="Y90" s="32"/>
+      <c r="Z90" s="32"/>
+      <c r="AA90" s="32"/>
+      <c r="AB90" s="32"/>
+      <c r="AC90" s="32"/>
+      <c r="AD90" s="32"/>
+      <c r="AE90" s="32"/>
+      <c r="AF90" s="32"/>
+      <c r="AG90" s="32"/>
+      <c r="AH90" s="33"/>
     </row>
     <row r="91" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
@@ -3854,43 +3665,39 @@
       <c r="C91" s="43"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="X91" s="37"/>
-      <c r="Y91" s="37"/>
-      <c r="Z91" s="37"/>
-      <c r="AA91" s="37"/>
-      <c r="AB91" s="37"/>
-      <c r="AC91" s="37"/>
-      <c r="AD91" s="37"/>
-      <c r="AE91" s="37"/>
-      <c r="AF91" s="37"/>
-      <c r="AG91" s="37"/>
-      <c r="AH91" s="38"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
+      <c r="AB91" s="35"/>
+      <c r="AC91" s="35"/>
+      <c r="AD91" s="35"/>
+      <c r="AE91" s="35"/>
+      <c r="AF91" s="35"/>
+      <c r="AG91" s="35"/>
+      <c r="AH91" s="39"/>
     </row>
     <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
@@ -3898,760 +3705,955 @@
       <c r="C92" s="43"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q92" s="46"/>
-      <c r="R92" s="46"/>
-      <c r="S92" s="46"/>
-      <c r="T92" s="46"/>
-      <c r="U92" s="46"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="X92" s="46"/>
-      <c r="Y92" s="46"/>
-      <c r="Z92" s="46"/>
-      <c r="AA92" s="46"/>
-      <c r="AB92" s="46"/>
-      <c r="AC92" s="46"/>
-      <c r="AD92" s="46"/>
-      <c r="AE92" s="46"/>
-      <c r="AF92" s="46"/>
-      <c r="AG92" s="46"/>
-      <c r="AH92" s="47"/>
-    </row>
-    <row r="93" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="53"/>
-      <c r="M93" s="53"/>
-      <c r="N93" s="53"/>
-      <c r="O93" s="53"/>
-      <c r="P93" s="53"/>
-      <c r="Q93" s="53"/>
-      <c r="R93" s="53"/>
-      <c r="S93" s="53"/>
-      <c r="T93" s="53"/>
-      <c r="U93" s="53"/>
-      <c r="V93" s="53"/>
-      <c r="W93" s="53"/>
-      <c r="X93" s="53"/>
-      <c r="Y93" s="53"/>
-      <c r="Z93" s="53"/>
-      <c r="AA93" s="53"/>
-      <c r="AB93" s="53"/>
-      <c r="AC93" s="53"/>
-      <c r="AD93" s="53"/>
-      <c r="AE93" s="53"/>
-      <c r="AF93" s="53"/>
-      <c r="AG93" s="53"/>
-      <c r="AH93" s="53"/>
-    </row>
-    <row r="94" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="32"/>
+      <c r="S92" s="32"/>
+      <c r="T92" s="32"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="32"/>
+      <c r="W92" s="32"/>
+      <c r="X92" s="32"/>
+      <c r="Y92" s="32"/>
+      <c r="Z92" s="32"/>
+      <c r="AA92" s="32"/>
+      <c r="AB92" s="32"/>
+      <c r="AC92" s="32"/>
+      <c r="AD92" s="32"/>
+      <c r="AE92" s="32"/>
+      <c r="AF92" s="32"/>
+      <c r="AG92" s="32"/>
+      <c r="AH92" s="32"/>
+    </row>
+    <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="28"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="28"/>
+      <c r="R93" s="28"/>
+      <c r="S93" s="28"/>
+      <c r="T93" s="28"/>
+      <c r="U93" s="28"/>
+      <c r="V93" s="28"/>
+      <c r="W93" s="28"/>
+      <c r="X93" s="28"/>
+      <c r="Y93" s="28"/>
+      <c r="Z93" s="28"/>
+      <c r="AA93" s="28"/>
+      <c r="AB93" s="28"/>
+      <c r="AC93" s="28"/>
+      <c r="AD93" s="28"/>
+      <c r="AE93" s="28"/>
+      <c r="AF93" s="28"/>
+      <c r="AG93" s="28"/>
+      <c r="AH93" s="28"/>
+      <c r="AI93" s="28"/>
+    </row>
+    <row r="94" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="43"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="43"/>
-      <c r="M94" s="43"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="43"/>
-      <c r="P94" s="43"/>
-      <c r="Q94" s="43"/>
-      <c r="R94" s="43"/>
-      <c r="S94" s="43"/>
-      <c r="T94" s="43"/>
-      <c r="U94" s="43"/>
-      <c r="V94" s="43"/>
-      <c r="W94" s="43"/>
-      <c r="X94" s="43"/>
-      <c r="Y94" s="43"/>
-      <c r="Z94" s="43"/>
-      <c r="AA94" s="43"/>
-      <c r="AB94" s="43"/>
-      <c r="AC94" s="43"/>
-      <c r="AD94" s="43"/>
-      <c r="AE94" s="43"/>
-      <c r="AF94" s="43"/>
-      <c r="AG94" s="43"/>
-      <c r="AH94" s="43"/>
-      <c r="AI94" s="43"/>
-    </row>
-    <row r="95" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="28"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="28"/>
+      <c r="R94" s="28"/>
+      <c r="S94" s="28"/>
+      <c r="T94" s="28"/>
+      <c r="U94" s="28"/>
+      <c r="V94" s="28"/>
+      <c r="W94" s="28"/>
+      <c r="X94" s="28"/>
+      <c r="Y94" s="28"/>
+      <c r="Z94" s="28"/>
+      <c r="AA94" s="28"/>
+      <c r="AB94" s="28"/>
+      <c r="AC94" s="28"/>
+      <c r="AD94" s="28"/>
+      <c r="AE94" s="28"/>
+      <c r="AF94" s="28"/>
+      <c r="AG94" s="28"/>
+      <c r="AH94" s="28"/>
+      <c r="AI94" s="28"/>
+    </row>
+    <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="43"/>
-      <c r="M95" s="43"/>
-      <c r="N95" s="43"/>
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
-      <c r="Q95" s="43"/>
-      <c r="R95" s="43"/>
-      <c r="S95" s="43"/>
-      <c r="T95" s="43"/>
-      <c r="U95" s="43"/>
-      <c r="V95" s="43"/>
-      <c r="W95" s="43"/>
-      <c r="X95" s="43"/>
-      <c r="Y95" s="43"/>
-      <c r="Z95" s="43"/>
-      <c r="AA95" s="43"/>
-      <c r="AB95" s="43"/>
-      <c r="AC95" s="43"/>
-      <c r="AD95" s="43"/>
-      <c r="AE95" s="43"/>
-      <c r="AF95" s="43"/>
-      <c r="AG95" s="43"/>
-      <c r="AH95" s="43"/>
-      <c r="AI95" s="43"/>
-    </row>
-    <row r="96" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="43"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K95" s="41"/>
+      <c r="L95" s="41"/>
+      <c r="M95" s="41"/>
+      <c r="N95" s="41"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="41"/>
+      <c r="S95" s="41"/>
+      <c r="T95" s="41"/>
+      <c r="U95" s="41"/>
+      <c r="V95" s="42"/>
+      <c r="W95" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="X95" s="41"/>
+      <c r="Y95" s="41"/>
+      <c r="Z95" s="41"/>
+      <c r="AA95" s="41"/>
+      <c r="AB95" s="41"/>
+      <c r="AC95" s="41"/>
+      <c r="AD95" s="41"/>
+      <c r="AE95" s="41"/>
+      <c r="AF95" s="41"/>
+      <c r="AG95" s="41"/>
+      <c r="AH95" s="42"/>
+    </row>
+    <row r="96" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="42"/>
-      <c r="P96" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q96" s="41"/>
-      <c r="R96" s="41"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
-      <c r="V96" s="42"/>
-      <c r="W96" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="X96" s="41"/>
-      <c r="Y96" s="41"/>
-      <c r="Z96" s="41"/>
-      <c r="AA96" s="41"/>
-      <c r="AB96" s="41"/>
-      <c r="AC96" s="41"/>
-      <c r="AD96" s="41"/>
-      <c r="AE96" s="41"/>
-      <c r="AF96" s="41"/>
-      <c r="AG96" s="41"/>
-      <c r="AH96" s="42"/>
-    </row>
-    <row r="97" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
+      <c r="Z96" s="37"/>
+      <c r="AA96" s="37"/>
+      <c r="AB96" s="37"/>
+      <c r="AC96" s="37"/>
+      <c r="AD96" s="37"/>
+      <c r="AE96" s="37"/>
+      <c r="AF96" s="37"/>
+      <c r="AG96" s="37"/>
+      <c r="AH96" s="38"/>
+    </row>
+    <row r="97" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="G97" s="55"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="K97" s="55"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="55"/>
-      <c r="N97" s="55"/>
-      <c r="O97" s="55"/>
-      <c r="P97" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q97" s="55"/>
-      <c r="R97" s="55"/>
-      <c r="S97" s="55"/>
-      <c r="T97" s="55"/>
-      <c r="U97" s="55"/>
-      <c r="V97" s="56"/>
-      <c r="W97" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="X97" s="55"/>
-      <c r="Y97" s="55"/>
-      <c r="Z97" s="55"/>
-      <c r="AA97" s="55"/>
-      <c r="AB97" s="55"/>
-      <c r="AC97" s="55"/>
-      <c r="AD97" s="55"/>
-      <c r="AE97" s="55"/>
-      <c r="AF97" s="55"/>
-      <c r="AG97" s="55"/>
-      <c r="AH97" s="56"/>
-    </row>
-    <row r="98" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="46"/>
+      <c r="O97" s="46"/>
+      <c r="P97" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q97" s="46"/>
+      <c r="R97" s="46"/>
+      <c r="S97" s="46"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="46"/>
+      <c r="V97" s="47"/>
+      <c r="W97" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="X97" s="46"/>
+      <c r="Y97" s="46"/>
+      <c r="Z97" s="46"/>
+      <c r="AA97" s="46"/>
+      <c r="AB97" s="46"/>
+      <c r="AC97" s="46"/>
+      <c r="AD97" s="46"/>
+      <c r="AE97" s="46"/>
+      <c r="AF97" s="46"/>
+      <c r="AG97" s="46"/>
+      <c r="AH97" s="47"/>
+    </row>
+    <row r="98" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="43"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="57"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="53"/>
-      <c r="N98" s="53"/>
-      <c r="O98" s="53"/>
-      <c r="P98" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q98" s="53"/>
-      <c r="R98" s="53"/>
-      <c r="S98" s="53"/>
-      <c r="T98" s="53"/>
-      <c r="U98" s="53"/>
-      <c r="V98" s="58"/>
-      <c r="W98" s="53"/>
-      <c r="X98" s="53"/>
-      <c r="Y98" s="53"/>
-      <c r="Z98" s="53"/>
-      <c r="AA98" s="53"/>
-      <c r="AB98" s="53"/>
-      <c r="AC98" s="53"/>
-      <c r="AD98" s="53"/>
-      <c r="AE98" s="53"/>
-      <c r="AF98" s="53"/>
-      <c r="AG98" s="53"/>
-      <c r="AH98" s="58"/>
-    </row>
-    <row r="99" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="50"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="50"/>
+      <c r="P98" s="50"/>
+      <c r="Q98" s="50"/>
+      <c r="R98" s="50"/>
+      <c r="S98" s="50"/>
+      <c r="T98" s="50"/>
+      <c r="U98" s="50"/>
+      <c r="V98" s="50"/>
+      <c r="W98" s="50"/>
+      <c r="X98" s="50"/>
+      <c r="Y98" s="50"/>
+      <c r="Z98" s="50"/>
+      <c r="AA98" s="50"/>
+      <c r="AB98" s="50"/>
+      <c r="AC98" s="50"/>
+      <c r="AD98" s="50"/>
+      <c r="AE98" s="50"/>
+      <c r="AF98" s="50"/>
+      <c r="AG98" s="50"/>
+      <c r="AH98" s="50"/>
+    </row>
+    <row r="99" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="43"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="K99" s="55"/>
-      <c r="L99" s="55"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="55"/>
-      <c r="O99" s="55"/>
-      <c r="P99" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q99" s="55"/>
-      <c r="R99" s="55"/>
-      <c r="S99" s="55"/>
-      <c r="T99" s="55"/>
-      <c r="U99" s="55"/>
-      <c r="V99" s="56"/>
-      <c r="W99" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="X99" s="55"/>
-      <c r="Y99" s="55"/>
-      <c r="Z99" s="55"/>
-      <c r="AA99" s="55"/>
-      <c r="AB99" s="55"/>
-      <c r="AC99" s="55"/>
-      <c r="AD99" s="55"/>
-      <c r="AE99" s="55"/>
-      <c r="AF99" s="55"/>
-      <c r="AG99" s="55"/>
-      <c r="AH99" s="56"/>
-    </row>
-    <row r="100" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F99" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="43"/>
+      <c r="U99" s="43"/>
+      <c r="V99" s="43"/>
+      <c r="W99" s="43"/>
+      <c r="X99" s="43"/>
+      <c r="Y99" s="43"/>
+      <c r="Z99" s="43"/>
+      <c r="AA99" s="43"/>
+      <c r="AB99" s="43"/>
+      <c r="AC99" s="43"/>
+      <c r="AD99" s="43"/>
+      <c r="AE99" s="43"/>
+      <c r="AF99" s="43"/>
+      <c r="AG99" s="43"/>
+      <c r="AH99" s="43"/>
+      <c r="AI99" s="43"/>
+    </row>
+    <row r="100" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
-      <c r="F100" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="K100" s="55"/>
-      <c r="L100" s="55"/>
-      <c r="M100" s="55"/>
-      <c r="N100" s="55"/>
-      <c r="O100" s="55"/>
-      <c r="P100" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="55"/>
-      <c r="R100" s="55"/>
-      <c r="S100" s="55"/>
-      <c r="T100" s="55"/>
-      <c r="U100" s="55"/>
-      <c r="V100" s="56"/>
-      <c r="W100" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="X100" s="55"/>
-      <c r="Y100" s="55"/>
-      <c r="Z100" s="55"/>
-      <c r="AA100" s="55"/>
-      <c r="AB100" s="55"/>
-      <c r="AC100" s="55"/>
-      <c r="AD100" s="55"/>
-      <c r="AE100" s="55"/>
-      <c r="AF100" s="55"/>
-      <c r="AG100" s="55"/>
-      <c r="AH100" s="56"/>
-    </row>
-    <row r="101" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+      <c r="Q100" s="43"/>
+      <c r="R100" s="43"/>
+      <c r="S100" s="43"/>
+      <c r="T100" s="43"/>
+      <c r="U100" s="43"/>
+      <c r="V100" s="43"/>
+      <c r="W100" s="43"/>
+      <c r="X100" s="43"/>
+      <c r="Y100" s="43"/>
+      <c r="Z100" s="43"/>
+      <c r="AA100" s="43"/>
+      <c r="AB100" s="43"/>
+      <c r="AC100" s="43"/>
+      <c r="AD100" s="43"/>
+      <c r="AE100" s="43"/>
+      <c r="AF100" s="43"/>
+      <c r="AG100" s="43"/>
+      <c r="AH100" s="43"/>
+      <c r="AI100" s="43"/>
+    </row>
+    <row r="101" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="43"/>
       <c r="C101" s="43"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="60"/>
-      <c r="J101" s="59"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="60"/>
-      <c r="M101" s="60"/>
-      <c r="N101" s="60"/>
-      <c r="O101" s="60"/>
-      <c r="P101" s="59"/>
-      <c r="Q101" s="60"/>
-      <c r="R101" s="60"/>
-      <c r="S101" s="60"/>
-      <c r="T101" s="60"/>
-      <c r="U101" s="60"/>
-      <c r="V101" s="61"/>
-      <c r="W101" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="X101" s="60"/>
-      <c r="Y101" s="60"/>
-      <c r="Z101" s="60"/>
-      <c r="AA101" s="60"/>
-      <c r="AB101" s="60"/>
-      <c r="AC101" s="60"/>
-      <c r="AD101" s="60"/>
-      <c r="AE101" s="60"/>
-      <c r="AF101" s="60"/>
-      <c r="AG101" s="60"/>
-      <c r="AH101" s="61"/>
-    </row>
-    <row r="102" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
+      <c r="F101" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="42"/>
+      <c r="P101" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q101" s="41"/>
+      <c r="R101" s="41"/>
+      <c r="S101" s="41"/>
+      <c r="T101" s="41"/>
+      <c r="U101" s="41"/>
+      <c r="V101" s="42"/>
+      <c r="W101" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="X101" s="41"/>
+      <c r="Y101" s="41"/>
+      <c r="Z101" s="41"/>
+      <c r="AA101" s="41"/>
+      <c r="AB101" s="41"/>
+      <c r="AC101" s="41"/>
+      <c r="AD101" s="41"/>
+      <c r="AE101" s="41"/>
+      <c r="AF101" s="41"/>
+      <c r="AG101" s="41"/>
+      <c r="AH101" s="42"/>
+    </row>
+    <row r="102" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="32"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
-      <c r="P102" s="32"/>
-      <c r="Q102" s="32"/>
-      <c r="R102" s="32"/>
-      <c r="S102" s="32"/>
-      <c r="T102" s="32"/>
-      <c r="U102" s="32"/>
-      <c r="V102" s="32"/>
-      <c r="W102" s="32"/>
-      <c r="X102" s="32"/>
-      <c r="Y102" s="32"/>
-      <c r="Z102" s="32"/>
-      <c r="AA102" s="32"/>
-      <c r="AB102" s="32"/>
-      <c r="AC102" s="32"/>
-      <c r="AD102" s="32"/>
-      <c r="AE102" s="32"/>
-      <c r="AF102" s="32"/>
-      <c r="AG102" s="32"/>
-      <c r="AH102" s="32"/>
-    </row>
-    <row r="103" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
+      <c r="F102" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K102" s="52"/>
+      <c r="L102" s="52"/>
+      <c r="M102" s="52"/>
+      <c r="N102" s="52"/>
+      <c r="O102" s="52"/>
+      <c r="P102" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q102" s="52"/>
+      <c r="R102" s="52"/>
+      <c r="S102" s="52"/>
+      <c r="T102" s="52"/>
+      <c r="U102" s="52"/>
+      <c r="V102" s="53"/>
+      <c r="W102" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="X102" s="52"/>
+      <c r="Y102" s="52"/>
+      <c r="Z102" s="52"/>
+      <c r="AA102" s="52"/>
+      <c r="AB102" s="52"/>
+      <c r="AC102" s="52"/>
+      <c r="AD102" s="52"/>
+      <c r="AE102" s="52"/>
+      <c r="AF102" s="52"/>
+      <c r="AG102" s="52"/>
+      <c r="AH102" s="53"/>
+    </row>
+    <row r="103" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="43"/>
       <c r="D103" s="43"/>
-      <c r="E103" s="62" t="str">
-        <f>D75&amp;"3."</f>
-        <v>6.3.5.3.</v>
-      </c>
-      <c r="F103" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="G103" s="53"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="32"/>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="32"/>
-      <c r="R103" s="32"/>
-      <c r="S103" s="32"/>
-      <c r="T103" s="32"/>
-      <c r="U103" s="32"/>
-      <c r="V103" s="32"/>
-      <c r="W103" s="32"/>
-      <c r="X103" s="32"/>
-      <c r="Y103" s="32"/>
-      <c r="Z103" s="32"/>
-      <c r="AA103" s="32"/>
-      <c r="AB103" s="32"/>
-      <c r="AC103" s="32"/>
-      <c r="AD103" s="32"/>
-      <c r="AE103" s="32"/>
-      <c r="AF103" s="32"/>
-      <c r="AG103" s="32"/>
-      <c r="AH103" s="32"/>
-    </row>
-    <row r="104" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="50"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="50"/>
+      <c r="N103" s="50"/>
+      <c r="O103" s="50"/>
+      <c r="P103" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q103" s="50"/>
+      <c r="R103" s="50"/>
+      <c r="S103" s="50"/>
+      <c r="T103" s="50"/>
+      <c r="U103" s="50"/>
+      <c r="V103" s="55"/>
+      <c r="W103" s="50"/>
+      <c r="X103" s="50"/>
+      <c r="Y103" s="50"/>
+      <c r="Z103" s="50"/>
+      <c r="AA103" s="50"/>
+      <c r="AB103" s="50"/>
+      <c r="AC103" s="50"/>
+      <c r="AD103" s="50"/>
+      <c r="AE103" s="50"/>
+      <c r="AF103" s="50"/>
+      <c r="AG103" s="50"/>
+      <c r="AH103" s="55"/>
+    </row>
+    <row r="104" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="43"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
-      <c r="F104" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="G104" s="53"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="32"/>
-      <c r="S104" s="32"/>
-      <c r="T104" s="32"/>
-      <c r="U104" s="32"/>
-      <c r="V104" s="32"/>
-      <c r="W104" s="32"/>
-      <c r="X104" s="32"/>
-      <c r="Y104" s="32"/>
-      <c r="Z104" s="32"/>
-      <c r="AA104" s="32"/>
-      <c r="AB104" s="32"/>
-      <c r="AC104" s="32"/>
-      <c r="AD104" s="32"/>
-      <c r="AE104" s="32"/>
-      <c r="AF104" s="32"/>
-      <c r="AG104" s="32"/>
-      <c r="AH104" s="32"/>
-    </row>
-    <row r="105" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="50"/>
+      <c r="J104" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="K104" s="52"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="52"/>
+      <c r="N104" s="52"/>
+      <c r="O104" s="52"/>
+      <c r="P104" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q104" s="52"/>
+      <c r="R104" s="52"/>
+      <c r="S104" s="52"/>
+      <c r="T104" s="52"/>
+      <c r="U104" s="52"/>
+      <c r="V104" s="53"/>
+      <c r="W104" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="X104" s="52"/>
+      <c r="Y104" s="52"/>
+      <c r="Z104" s="52"/>
+      <c r="AA104" s="52"/>
+      <c r="AB104" s="52"/>
+      <c r="AC104" s="52"/>
+      <c r="AD104" s="52"/>
+      <c r="AE104" s="52"/>
+      <c r="AF104" s="52"/>
+      <c r="AG104" s="52"/>
+      <c r="AH104" s="53"/>
+    </row>
+    <row r="105" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="43"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="32"/>
-      <c r="L105" s="32"/>
-      <c r="M105" s="32"/>
-      <c r="N105" s="32"/>
-      <c r="O105" s="32"/>
-      <c r="P105" s="32"/>
-      <c r="Q105" s="32"/>
-      <c r="R105" s="32"/>
-      <c r="S105" s="32"/>
-      <c r="T105" s="32"/>
-      <c r="U105" s="32"/>
-      <c r="V105" s="32"/>
-      <c r="W105" s="32"/>
-      <c r="X105" s="32"/>
-      <c r="Y105" s="32"/>
-      <c r="Z105" s="32"/>
-      <c r="AA105" s="32"/>
-      <c r="AB105" s="32"/>
-      <c r="AC105" s="32"/>
-      <c r="AD105" s="32"/>
-      <c r="AE105" s="32"/>
-      <c r="AF105" s="32"/>
-      <c r="AG105" s="32"/>
-      <c r="AH105" s="32"/>
-    </row>
-    <row r="106" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="27"/>
-    </row>
-    <row r="107" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="27"/>
-      <c r="D107" s="25" t="str">
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="52"/>
+      <c r="J105" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="K105" s="52"/>
+      <c r="L105" s="52"/>
+      <c r="M105" s="52"/>
+      <c r="N105" s="52"/>
+      <c r="O105" s="52"/>
+      <c r="P105" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q105" s="52"/>
+      <c r="R105" s="52"/>
+      <c r="S105" s="52"/>
+      <c r="T105" s="52"/>
+      <c r="U105" s="52"/>
+      <c r="V105" s="53"/>
+      <c r="W105" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="X105" s="52"/>
+      <c r="Y105" s="52"/>
+      <c r="Z105" s="52"/>
+      <c r="AA105" s="52"/>
+      <c r="AB105" s="52"/>
+      <c r="AC105" s="52"/>
+      <c r="AD105" s="52"/>
+      <c r="AE105" s="52"/>
+      <c r="AF105" s="52"/>
+      <c r="AG105" s="52"/>
+      <c r="AH105" s="53"/>
+    </row>
+    <row r="106" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="57"/>
+      <c r="L106" s="57"/>
+      <c r="M106" s="57"/>
+      <c r="N106" s="57"/>
+      <c r="O106" s="57"/>
+      <c r="P106" s="56"/>
+      <c r="Q106" s="57"/>
+      <c r="R106" s="57"/>
+      <c r="S106" s="57"/>
+      <c r="T106" s="57"/>
+      <c r="U106" s="57"/>
+      <c r="V106" s="58"/>
+      <c r="W106" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="X106" s="57"/>
+      <c r="Y106" s="57"/>
+      <c r="Z106" s="57"/>
+      <c r="AA106" s="57"/>
+      <c r="AB106" s="57"/>
+      <c r="AC106" s="57"/>
+      <c r="AD106" s="57"/>
+      <c r="AE106" s="57"/>
+      <c r="AF106" s="57"/>
+      <c r="AG106" s="57"/>
+      <c r="AH106" s="58"/>
+    </row>
+    <row r="107" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="32"/>
+      <c r="P107" s="32"/>
+      <c r="Q107" s="32"/>
+      <c r="R107" s="32"/>
+      <c r="S107" s="32"/>
+      <c r="T107" s="32"/>
+      <c r="U107" s="32"/>
+      <c r="V107" s="32"/>
+      <c r="W107" s="32"/>
+      <c r="X107" s="32"/>
+      <c r="Y107" s="32"/>
+      <c r="Z107" s="32"/>
+      <c r="AA107" s="32"/>
+      <c r="AB107" s="32"/>
+      <c r="AC107" s="32"/>
+      <c r="AD107" s="32"/>
+      <c r="AE107" s="32"/>
+      <c r="AF107" s="32"/>
+      <c r="AG107" s="32"/>
+      <c r="AH107" s="32"/>
+    </row>
+    <row r="108" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="59" t="str">
+        <f>D80&amp;"3."</f>
+        <v>6.3.5.3.</v>
+      </c>
+      <c r="F108" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G108" s="50"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32"/>
+      <c r="S108" s="32"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="32"/>
+      <c r="X108" s="32"/>
+      <c r="Y108" s="32"/>
+      <c r="Z108" s="32"/>
+      <c r="AA108" s="32"/>
+      <c r="AB108" s="32"/>
+      <c r="AC108" s="32"/>
+      <c r="AD108" s="32"/>
+      <c r="AE108" s="32"/>
+      <c r="AF108" s="32"/>
+      <c r="AG108" s="32"/>
+      <c r="AH108" s="32"/>
+    </row>
+    <row r="109" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G109" s="50"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="32"/>
+      <c r="P109" s="32"/>
+      <c r="Q109" s="32"/>
+      <c r="R109" s="32"/>
+      <c r="S109" s="32"/>
+      <c r="T109" s="32"/>
+      <c r="U109" s="32"/>
+      <c r="V109" s="32"/>
+      <c r="W109" s="32"/>
+      <c r="X109" s="32"/>
+      <c r="Y109" s="32"/>
+      <c r="Z109" s="32"/>
+      <c r="AA109" s="32"/>
+      <c r="AB109" s="32"/>
+      <c r="AC109" s="32"/>
+      <c r="AD109" s="32"/>
+      <c r="AE109" s="32"/>
+      <c r="AF109" s="32"/>
+      <c r="AG109" s="32"/>
+      <c r="AH109" s="32"/>
+    </row>
+    <row r="110" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
+      <c r="P110" s="32"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="32"/>
+      <c r="S110" s="32"/>
+      <c r="T110" s="32"/>
+      <c r="U110" s="32"/>
+      <c r="V110" s="32"/>
+      <c r="W110" s="32"/>
+      <c r="X110" s="32"/>
+      <c r="Y110" s="32"/>
+      <c r="Z110" s="32"/>
+      <c r="AA110" s="32"/>
+      <c r="AB110" s="32"/>
+      <c r="AC110" s="32"/>
+      <c r="AD110" s="32"/>
+      <c r="AE110" s="32"/>
+      <c r="AF110" s="32"/>
+      <c r="AG110" s="32"/>
+      <c r="AH110" s="32"/>
+    </row>
+    <row r="111" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="27"/>
+    </row>
+    <row r="112" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="27"/>
+      <c r="D112" s="25" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.3.6.</v>
       </c>
-      <c r="E107" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="108" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="27"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25" t="str">
-        <f>D107&amp;"1."</f>
+      <c r="E112" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="27"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25" t="str">
+        <f>D112&amp;"1."</f>
         <v>6.3.6.1.</v>
       </c>
-      <c r="F108" s="29" t="s">
+      <c r="F113" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="27"/>
-      <c r="D109" s="25"/>
-      <c r="F109" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-    </row>
-    <row r="111" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-    </row>
-    <row r="112" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="64" t="str">
+    <row r="114" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="27"/>
+      <c r="D114" s="25"/>
+      <c r="F114" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="61"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+    </row>
+    <row r="116" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="61"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+    </row>
+    <row r="117" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="61" t="str">
         <f>$C$7&amp;"7."</f>
         <v>6.3.7.</v>
       </c>
-      <c r="E112" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F112" s="27"/>
-    </row>
-    <row r="113" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F113" s="27"/>
-    </row>
-    <row r="114" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-    </row>
-    <row r="115" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="27"/>
-    </row>
-    <row r="116" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="25" t="str">
-        <f>$C$7&amp;"8."</f>
-        <v>6.3.8.</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="27"/>
+      <c r="E117" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F117" s="27"/>
+    </row>
+    <row r="118" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="27"/>
       <c r="C118" s="27"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F118" s="27"/>
+    </row>
+    <row r="119" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="27"/>
       <c r="C119" s="27"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+    </row>
+    <row r="120" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="27"/>
-      <c r="D120" s="25"/>
-    </row>
-    <row r="121" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
       <c r="C121" s="27"/>
-      <c r="E121" s="25" t="str">
-        <f>D116&amp;"1."</f>
+      <c r="D121" s="25" t="str">
+        <f>$C$7&amp;"8."</f>
+        <v>6.3.8.</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="25"/>
+    </row>
+    <row r="126" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="E126" s="25" t="str">
+        <f>D121&amp;"1."</f>
         <v>6.3.8.1.</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="27"/>
-      <c r="F122" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="27"/>
-    </row>
-    <row r="124" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="27"/>
-      <c r="F124" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="L124" s="26"/>
-      <c r="M124" s="26"/>
-      <c r="N124" s="26"/>
-      <c r="O124" s="26"/>
-      <c r="P124" s="65"/>
-    </row>
-    <row r="125" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="27"/>
-      <c r="F125" s="45">
+      <c r="F126" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="27"/>
+      <c r="F127" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="27"/>
+    </row>
+    <row r="129" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="27"/>
+      <c r="F129" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="L129" s="26"/>
+      <c r="M129" s="26"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="26"/>
+      <c r="P129" s="62"/>
+    </row>
+    <row r="130" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="27"/>
+      <c r="F130" s="45">
         <v>1</v>
       </c>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="46"/>
-      <c r="J125" s="46"/>
-      <c r="K125" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="L125" s="46"/>
-      <c r="M125" s="46"/>
-      <c r="N125" s="46"/>
-      <c r="O125" s="46"/>
-      <c r="P125" s="47"/>
-    </row>
-    <row r="126" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="27"/>
-      <c r="F126" s="34">
+      <c r="G130" s="46"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="46"/>
+      <c r="J130" s="46"/>
+      <c r="K130" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="L130" s="46"/>
+      <c r="M130" s="46"/>
+      <c r="N130" s="46"/>
+      <c r="O130" s="46"/>
+      <c r="P130" s="47"/>
+    </row>
+    <row r="131" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="27"/>
+      <c r="F131" s="34">
         <v>2</v>
       </c>
-      <c r="G126" s="35"/>
-      <c r="H126" s="35"/>
-      <c r="I126" s="35"/>
-      <c r="J126" s="35"/>
-      <c r="K126" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="L126" s="35"/>
-      <c r="M126" s="35"/>
-      <c r="N126" s="35"/>
-      <c r="O126" s="35"/>
-      <c r="P126" s="39"/>
-    </row>
-    <row r="127" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F127" s="29"/>
-    </row>
-    <row r="128" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="35"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L131" s="35"/>
+      <c r="M131" s="35"/>
+      <c r="N131" s="35"/>
+      <c r="O131" s="35"/>
+      <c r="P131" s="39"/>
+    </row>
+    <row r="132" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F132" s="29"/>
+    </row>
+    <row r="133" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5024,6 +5026,11 @@
     <row r="514" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="515" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5043,8 +5050,8 @@
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="34" man="1"/>
-    <brk id="73" max="34" man="1"/>
-    <brk id="114" max="34" man="1"/>
+    <brk id="78" max="34" man="1"/>
+    <brk id="119" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6487CB4-0FC7-4426-BDE9-7B4CC2ACA855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AA1737-FF08-483C-8B2E-9044B8227227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1028,6 +1028,33 @@
     <t>Thymeleafアダプタを採用する。</t>
     <rPh sb="14" eb="16">
       <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送信頻度</t>
+    <rPh sb="0" eb="4">
+      <t>ソウシンヒンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1分に1回</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15分に1回</t>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1082,7 +1109,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,6 +1125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,7 +1284,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1530,6 +1563,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1542,6 +1584,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDAEEF3"/>
       <color rgb="FFCCCC00"/>
     </mruColors>
   </colors>
@@ -4585,7 +4628,7 @@
     <row r="128" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="27"/>
     </row>
-    <row r="129" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="27"/>
       <c r="F129" s="40" t="s">
         <v>113</v>
@@ -4602,8 +4645,14 @@
       <c r="N129" s="26"/>
       <c r="O129" s="26"/>
       <c r="P129" s="62"/>
-    </row>
-    <row r="130" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q129" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="R129" s="94"/>
+      <c r="S129" s="94"/>
+      <c r="T129" s="95"/>
+    </row>
+    <row r="130" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C130" s="27"/>
       <c r="F130" s="45">
         <v>1</v>
@@ -4620,8 +4669,14 @@
       <c r="N130" s="46"/>
       <c r="O130" s="46"/>
       <c r="P130" s="47"/>
-    </row>
-    <row r="131" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q130" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="R130" s="46"/>
+      <c r="S130" s="46"/>
+      <c r="T130" s="47"/>
+    </row>
+    <row r="131" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="27"/>
       <c r="F131" s="34">
         <v>2</v>
@@ -4638,22 +4693,28 @@
       <c r="N131" s="35"/>
       <c r="O131" s="35"/>
       <c r="P131" s="39"/>
-    </row>
-    <row r="132" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q131" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="R131" s="46"/>
+      <c r="S131" s="46"/>
+      <c r="T131" s="47"/>
+    </row>
+    <row r="132" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F132" s="29"/>
     </row>
-    <row r="133" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" spans="3:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AA1737-FF08-483C-8B2E-9044B8227227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4448A5-0457-4E07-B41B-2DB5FD591C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6.3.メール送信'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$132</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$111</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$134</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$113</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -161,29 +161,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>添付ファイルの暗号化は行わない。</t>
-  </si>
-  <si>
-    <t>送信先（To、Cc、Bcc）は業務アプリケーションから任意に指定できる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>件名、本文はメールテンプレート管理TBLに予め登録されたテンプレートを使用する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>宛先数の合計の制限値を設ける。To、Cc、Bccの合計で100個までとする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メール1通当たりの添付ファイルのサイズ上限値を設ける。上限値は2MByteとする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メールの件名、本文は業務アプリケーションから任意に指定出来る。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メールテンプレート</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -200,10 +177,6 @@
   </si>
   <si>
     <t>Content-Type</t>
-  </si>
-  <si>
-    <t>テンプレートにはプレースホルダ（置換箇所）を用意する。メールデータ作成時に、</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>メール送信機能でプレースホルダを業務アプリケーションから指定された文字列に置き換える。</t>
@@ -1056,6 +1029,50 @@
     <rPh sb="5" eb="6">
       <t>カイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールの件名、本文は業務アプリケーションから任意に指定出来る。</t>
+  </si>
+  <si>
+    <t>件名、本文はメールテンプレート管理TBLに予め登録されたテンプレートを使用する。</t>
+  </si>
+  <si>
+    <t>テンプレートにはプレースホルダ（置換箇所）を用意する。メールデータ作成時に、</t>
+  </si>
+  <si>
+    <t>また、本システムでは以下のようにメール送信の方針を定める。</t>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・送信先（To、Cc、Bcc）は業務アプリケーションから任意に指定できることとする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・宛先数の合計の制限値を設ける。To、Cc、Bccの合計で100個までとする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メール1通当たりの添付ファイルのサイズ上限値を設ける。上限値は2MByteとする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・添付ファイルの暗号化は行わないものとする</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1498,6 +1515,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1563,15 +1589,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1909,7 +1926,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI521"/>
+  <dimension ref="A1:AI523"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1922,48 +1939,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="79"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="79"/>
+      <c r="R1" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="82"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="73"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="76"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1972,43 +1989,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="88"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="91"/>
       <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="73"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="76"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2017,39 +2034,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="91"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="94"/>
       <c r="Y3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="73"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="76"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2077,7 +2094,7 @@
         <v>6.3.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2147,7 +2164,7 @@
     <row r="17" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="59"/>
       <c r="E17" s="27" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -2174,7 +2191,7 @@
         <v>6.3.1.1.</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -2213,7 +2230,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -2222,6 +2239,7 @@
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -2231,15 +2249,9 @@
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="59" t="str">
-        <f>$C$7&amp;"2."</f>
-        <v>6.3.2.</v>
-      </c>
-      <c r="E24" s="27" t="str">
-        <f>D7&amp;"方式"</f>
-        <v>メール送信方式</v>
-      </c>
+    <row r="24" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
@@ -2247,16 +2259,16 @@
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
     </row>
-    <row r="25" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="59"/>
-      <c r="E25" s="59" t="str">
-        <f>D24&amp;"1."</f>
-        <v>6.3.2.1.</v>
-      </c>
-      <c r="F25" s="27" t="str">
-        <f>E24&amp;"概要"</f>
-        <v>メール送信方式概要</v>
-      </c>
+    <row r="25" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="59" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>6.3.2.</v>
+      </c>
+      <c r="E25" s="27" t="str">
+        <f>D7&amp;"方式"</f>
+        <v>メール送信方式</v>
+      </c>
+      <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -2264,10 +2276,14 @@
       <c r="K25" s="27"/>
     </row>
     <row r="26" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27" t="s">
-        <v>42</v>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59" t="str">
+        <f>D25&amp;"1."</f>
+        <v>6.3.2.1.</v>
+      </c>
+      <c r="F26" s="27" t="str">
+        <f>E25&amp;"概要"</f>
+        <v>メール送信方式概要</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -2276,113 +2292,91 @@
       <c r="K26" s="27"/>
     </row>
     <row r="27" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="29"/>
-      <c r="F28" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="17"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="30"/>
     </row>
     <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="29"/>
-      <c r="F29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="20"/>
+      <c r="F29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="17"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="29"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="22"/>
-      <c r="AH30" s="23"/>
+      <c r="F30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="20"/>
     </row>
     <row r="31" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="29"/>
@@ -2393,7 +2387,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="21" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -2427,7 +2421,7 @@
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -2460,9 +2454,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="L33" s="21"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -2488,377 +2480,394 @@
     </row>
     <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="29"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="23"/>
+      <c r="F34" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="38"/>
     </row>
     <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="29"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="23"/>
-    </row>
-    <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="29"/>
-      <c r="F36" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="37"/>
-      <c r="AF36" s="37"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="38"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="39"/>
+    </row>
+    <row r="36" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="33"/>
+      <c r="F37" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="33"/>
+      <c r="F38" s="15" t="str">
+        <f>F29</f>
+        <v>方法</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="16"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="17"/>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="33"/>
+      <c r="F39" s="21" t="str">
+        <f>F30</f>
+        <v>定型メール送信</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="64"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+      <c r="AH39" s="55"/>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="29"/>
       <c r="D40" s="29"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
-      <c r="AG40" s="35"/>
-      <c r="AH40" s="39"/>
-    </row>
-    <row r="41" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="F42" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="F43" s="15" t="str">
-        <f>F28</f>
-        <v>方法</v>
-      </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M43" s="16"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="16"/>
-      <c r="AF43" s="16"/>
-      <c r="AG43" s="16"/>
-      <c r="AH43" s="17"/>
-    </row>
-    <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="F44" s="21" t="str">
-        <f>F29</f>
-        <v>定型メール送信</v>
-      </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="M44" s="64"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="60" t="s">
+      <c r="F40" s="45" t="str">
+        <f>F34</f>
+        <v>非定型メール送信</v>
+      </c>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="50"/>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="50"/>
-      <c r="AC44" s="50"/>
-      <c r="AD44" s="50"/>
-      <c r="AE44" s="50"/>
-      <c r="AF44" s="50"/>
-      <c r="AG44" s="50"/>
-      <c r="AH44" s="55"/>
-    </row>
-    <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="F45" s="45" t="str">
-        <f>F36</f>
-        <v>非定型メール送信</v>
-      </c>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="M45" s="63"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="68"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
-      <c r="W45" s="68"/>
-      <c r="X45" s="68"/>
-      <c r="Y45" s="68"/>
-      <c r="Z45" s="68"/>
-      <c r="AA45" s="68"/>
-      <c r="AB45" s="68"/>
-      <c r="AC45" s="68"/>
-      <c r="AD45" s="68"/>
-      <c r="AE45" s="68"/>
-      <c r="AF45" s="68"/>
-      <c r="AG45" s="68"/>
-      <c r="AH45" s="69"/>
-    </row>
-    <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="32"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="69"/>
+    </row>
+    <row r="41" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="32"/>
+    </row>
+    <row r="42" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+    </row>
+    <row r="43" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
+      <c r="AF43" s="32"/>
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="32"/>
+    </row>
+    <row r="44" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="32"/>
+      <c r="AF44" s="32"/>
+      <c r="AG44" s="32"/>
+      <c r="AH44" s="32"/>
+    </row>
+    <row r="45" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="32"/>
+      <c r="AF45" s="32"/>
+      <c r="AG45" s="32"/>
+      <c r="AH45" s="32"/>
+    </row>
+    <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="32" t="s">
+        <v>128</v>
+      </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
@@ -2867,7 +2876,7 @@
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
       <c r="N46" s="32"/>
-      <c r="O46" s="50"/>
+      <c r="O46" s="32"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
@@ -2889,12 +2898,8 @@
       <c r="AH46" s="32"/>
     </row>
     <row r="47" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="30" t="str">
-        <f>D24&amp;"2."</f>
-        <v>6.3.2.2.</v>
-      </c>
       <c r="F47" s="32" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -2925,10 +2930,8 @@
       <c r="AG47" s="32"/>
       <c r="AH47" s="32"/>
     </row>
-    <row r="48" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F48" s="44" t="s">
-        <v>45</v>
-      </c>
+    <row r="48" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="32"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -2937,7 +2940,7 @@
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
       <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
+      <c r="O48" s="50"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
@@ -2959,8 +2962,12 @@
       <c r="AH48" s="32"/>
     </row>
     <row r="49" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="30" t="str">
+        <f>D25&amp;"2."</f>
+        <v>6.3.2.2.</v>
+      </c>
       <c r="F49" s="32" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -2992,8 +2999,8 @@
       <c r="AH49" s="32"/>
     </row>
     <row r="50" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="48" t="s">
-        <v>81</v>
+      <c r="F50" s="44" t="s">
+        <v>38</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -3024,328 +3031,312 @@
       <c r="AG50" s="32"/>
       <c r="AH50" s="32"/>
     </row>
-    <row r="51" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="49" t="str">
+    <row r="51" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+    </row>
+    <row r="52" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="32"/>
+      <c r="AC52" s="32"/>
+      <c r="AD52" s="32"/>
+      <c r="AE52" s="32"/>
+      <c r="AF52" s="32"/>
+      <c r="AG52" s="32"/>
+      <c r="AH52" s="32"/>
+    </row>
+    <row r="53" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D55" s="49" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.3.3.</v>
       </c>
-      <c r="E53" s="48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="49"/>
-      <c r="E54" s="49" t="str">
-        <f>D53&amp;"1."</f>
+      <c r="E55" s="48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D56" s="49"/>
+      <c r="E56" s="49" t="str">
+        <f>D55&amp;"1."</f>
         <v>6.3.3.1.</v>
       </c>
-      <c r="F54" s="48" t="str">
-        <f>E53&amp;"機能概要"</f>
+      <c r="F56" s="48" t="str">
+        <f>E55&amp;"機能概要"</f>
         <v>メールテンプレート機能概要</v>
-      </c>
-    </row>
-    <row r="55" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F56" s="48" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F57" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="48" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="59" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="49" t="str">
-        <f>D53&amp;"2."</f>
+      <c r="F59" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E61" s="49" t="str">
+        <f>D55&amp;"2."</f>
         <v>6.3.3.2.</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F61" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F60" s="48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F61" s="49" t="s">
+    <row r="62" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F62" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="G63" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="64" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E64" s="49" t="str">
-        <f>D53&amp;"3."</f>
+      <c r="F64" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E66" s="49" t="str">
+        <f>D55&amp;"3."</f>
         <v>6.3.3.3.</v>
       </c>
-      <c r="F64" s="48" t="str">
-        <f>E53&amp;"手段"</f>
+      <c r="F66" s="48" t="str">
+        <f>E55&amp;"手段"</f>
         <v>メールテンプレート手段</v>
       </c>
     </row>
-    <row r="65" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E65" s="49"/>
-      <c r="F65" s="48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E66" s="49"/>
-    </row>
-    <row r="67" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="49"/>
       <c r="F67" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="G67" s="48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="49"/>
-      <c r="F68" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="G68" s="48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="49"/>
       <c r="F69" s="48" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G69" s="48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="49"/>
-    </row>
-    <row r="71" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="49"/>
       <c r="F71" s="48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+      <c r="G71" s="48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="49"/>
-      <c r="F72" s="48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D74" s="49" t="str">
+    </row>
+    <row r="73" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E73" s="49"/>
+      <c r="F73" s="48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E74" s="49"/>
+      <c r="F74" s="48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D76" s="49" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.3.4.</v>
       </c>
-      <c r="E74" s="48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E75" s="24" t="str">
-        <f>D74&amp;"1."</f>
+      <c r="E76" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E77" s="24" t="str">
+        <f>D76&amp;"1."</f>
         <v>6.3.4.1.</v>
       </c>
-      <c r="F75" s="4" t="str">
-        <f>E74&amp;"手段"</f>
+      <c r="F77" s="4" t="str">
+        <f>E76&amp;"手段"</f>
         <v>メールフォーマット手段</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F76" s="15" t="s">
+    <row r="78" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="16"/>
+      <c r="W78" s="16"/>
+      <c r="X78" s="16"/>
+      <c r="Y78" s="16"/>
+      <c r="Z78" s="16"/>
+      <c r="AA78" s="16"/>
+      <c r="AB78" s="16"/>
+      <c r="AC78" s="16"/>
+      <c r="AD78" s="16"/>
+      <c r="AE78" s="16"/>
+      <c r="AF78" s="16"/>
+      <c r="AG78" s="16"/>
+      <c r="AH78" s="17"/>
+    </row>
+    <row r="79" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F79" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="16"/>
-      <c r="W76" s="16"/>
-      <c r="X76" s="16"/>
-      <c r="Y76" s="16"/>
-      <c r="Z76" s="16"/>
-      <c r="AA76" s="16"/>
-      <c r="AB76" s="16"/>
-      <c r="AC76" s="16"/>
-      <c r="AD76" s="16"/>
-      <c r="AE76" s="16"/>
-      <c r="AF76" s="16"/>
-      <c r="AG76" s="16"/>
-      <c r="AH76" s="17"/>
-    </row>
-    <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F77" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="L77" s="68"/>
-      <c r="M77" s="68"/>
-      <c r="N77" s="68"/>
-      <c r="O77" s="68"/>
-      <c r="P77" s="68"/>
-      <c r="Q77" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="R77" s="68"/>
-      <c r="S77" s="68"/>
-      <c r="T77" s="68"/>
-      <c r="U77" s="68"/>
-      <c r="V77" s="68"/>
-      <c r="W77" s="68"/>
-      <c r="X77" s="68"/>
-      <c r="Y77" s="68"/>
-      <c r="Z77" s="68"/>
-      <c r="AA77" s="68"/>
-      <c r="AB77" s="68"/>
-      <c r="AC77" s="68"/>
-      <c r="AD77" s="68"/>
-      <c r="AE77" s="68"/>
-      <c r="AF77" s="68"/>
-      <c r="AG77" s="68"/>
-      <c r="AH77" s="69"/>
-    </row>
-    <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E79" s="24"/>
-    </row>
-    <row r="80" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="30" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>6.3.5.</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="28"/>
-      <c r="AC80" s="28"/>
-      <c r="AD80" s="28"/>
-      <c r="AE80" s="28"/>
-      <c r="AF80" s="28"/>
-      <c r="AG80" s="28"/>
-      <c r="AH80" s="28"/>
-      <c r="AI80" s="28"/>
-    </row>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="L79" s="68"/>
+      <c r="M79" s="68"/>
+      <c r="N79" s="68"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="68"/>
+      <c r="Q79" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="R79" s="68"/>
+      <c r="S79" s="68"/>
+      <c r="T79" s="68"/>
+      <c r="U79" s="68"/>
+      <c r="V79" s="68"/>
+      <c r="W79" s="68"/>
+      <c r="X79" s="68"/>
+      <c r="Y79" s="68"/>
+      <c r="Z79" s="68"/>
+      <c r="AA79" s="68"/>
+      <c r="AB79" s="68"/>
+      <c r="AC79" s="68"/>
+      <c r="AD79" s="68"/>
+      <c r="AE79" s="68"/>
+      <c r="AF79" s="68"/>
+      <c r="AG79" s="68"/>
+      <c r="AH79" s="69"/>
+    </row>
+    <row r="80" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30" t="str">
-        <f>D80&amp;"1."</f>
-        <v>6.3.5.1.</v>
-      </c>
-      <c r="F81" s="29" t="str">
-        <f>E80&amp;"機能概要"</f>
-        <v>エラー処理機能概要</v>
-      </c>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="28"/>
-      <c r="S81" s="28"/>
-      <c r="T81" s="28"/>
-      <c r="U81" s="28"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="28"/>
-      <c r="AA81" s="28"/>
-      <c r="AB81" s="28"/>
-      <c r="AC81" s="28"/>
-      <c r="AD81" s="28"/>
-      <c r="AE81" s="28"/>
-      <c r="AF81" s="28"/>
-      <c r="AG81" s="28"/>
-      <c r="AH81" s="28"/>
-      <c r="AI81" s="28"/>
+      <c r="E81" s="24"/>
     </row>
     <row r="82" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="29" t="s">
-        <v>47</v>
-      </c>
+      <c r="D82" s="30" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>6.3.5.</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="28"/>
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
@@ -3380,9 +3371,15 @@
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30" t="str">
+        <f>D82&amp;"1."</f>
+        <v>6.3.5.1.</v>
+      </c>
+      <c r="F83" s="29" t="str">
+        <f>E82&amp;"機能概要"</f>
+        <v>エラー処理機能概要</v>
+      </c>
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
@@ -3418,13 +3415,9 @@
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
-      <c r="E84" s="30" t="str">
-        <f>D80&amp;"2."</f>
-        <v>6.3.5.2.</v>
-      </c>
-      <c r="F84" s="29" t="str">
-        <f>E80&amp;"方法"</f>
-        <v>エラー処理方法</v>
+      <c r="E84" s="28"/>
+      <c r="F84" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
@@ -3456,15 +3449,13 @@
       <c r="AH84" s="28"/>
       <c r="AI84" s="28"/>
     </row>
-    <row r="85" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
-      <c r="F85" s="29" t="s">
-        <v>60</v>
-      </c>
+      <c r="F85" s="28"/>
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
@@ -3495,13 +3486,19 @@
       <c r="AH85" s="28"/>
       <c r="AI85" s="28"/>
     </row>
-    <row r="86" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
+    <row r="86" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
+      <c r="E86" s="30" t="str">
+        <f>D82&amp;"2."</f>
+        <v>6.3.5.2.</v>
+      </c>
+      <c r="F86" s="29" t="str">
+        <f>E82&amp;"方法"</f>
+        <v>エラー処理方法</v>
+      </c>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
@@ -3533,136 +3530,124 @@
       <c r="AI86" s="28"/>
     </row>
     <row r="87" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="43"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="43"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
-      <c r="F87" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="42"/>
-      <c r="P87" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
-      <c r="V87" s="42"/>
-      <c r="W87" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="X87" s="41"/>
-      <c r="Y87" s="41"/>
-      <c r="Z87" s="41"/>
-      <c r="AA87" s="41"/>
-      <c r="AB87" s="41"/>
-      <c r="AC87" s="41"/>
-      <c r="AD87" s="41"/>
-      <c r="AE87" s="41"/>
-      <c r="AF87" s="41"/>
-      <c r="AG87" s="41"/>
-      <c r="AH87" s="42"/>
+      <c r="F87" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+      <c r="R87" s="28"/>
+      <c r="S87" s="28"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="28"/>
+      <c r="V87" s="28"/>
+      <c r="W87" s="28"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="28"/>
+      <c r="AA87" s="28"/>
+      <c r="AB87" s="28"/>
+      <c r="AC87" s="28"/>
+      <c r="AD87" s="28"/>
+      <c r="AE87" s="28"/>
+      <c r="AF87" s="28"/>
+      <c r="AG87" s="28"/>
+      <c r="AH87" s="28"/>
+      <c r="AI87" s="28"/>
     </row>
     <row r="88" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="43"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="37"/>
-      <c r="AA88" s="37"/>
-      <c r="AB88" s="37"/>
-      <c r="AC88" s="37"/>
-      <c r="AD88" s="37"/>
-      <c r="AE88" s="37"/>
-      <c r="AF88" s="37"/>
-      <c r="AG88" s="37"/>
-      <c r="AH88" s="38"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="28"/>
+      <c r="U88" s="28"/>
+      <c r="V88" s="28"/>
+      <c r="W88" s="28"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="28"/>
+      <c r="AA88" s="28"/>
+      <c r="AB88" s="28"/>
+      <c r="AC88" s="28"/>
+      <c r="AD88" s="28"/>
+      <c r="AE88" s="28"/>
+      <c r="AF88" s="28"/>
+      <c r="AG88" s="28"/>
+      <c r="AH88" s="28"/>
+      <c r="AI88" s="28"/>
     </row>
     <row r="89" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="27"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="27"/>
       <c r="C89" s="43"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="36" t="s">
+      <c r="F89" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K89" s="41"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="41"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="41"/>
+      <c r="S89" s="41"/>
+      <c r="T89" s="41"/>
+      <c r="U89" s="41"/>
+      <c r="V89" s="42"/>
+      <c r="W89" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="38"/>
-      <c r="W89" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="X89" s="37"/>
-      <c r="Y89" s="37"/>
-      <c r="Z89" s="37"/>
-      <c r="AA89" s="37"/>
-      <c r="AB89" s="37"/>
-      <c r="AC89" s="37"/>
-      <c r="AD89" s="37"/>
-      <c r="AE89" s="37"/>
-      <c r="AF89" s="37"/>
-      <c r="AG89" s="37"/>
-      <c r="AH89" s="38"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="41"/>
+      <c r="Z89" s="41"/>
+      <c r="AA89" s="41"/>
+      <c r="AB89" s="41"/>
+      <c r="AC89" s="41"/>
+      <c r="AD89" s="41"/>
+      <c r="AE89" s="41"/>
+      <c r="AF89" s="41"/>
+      <c r="AG89" s="41"/>
+      <c r="AH89" s="42"/>
     </row>
     <row r="90" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="27"/>
@@ -3670,37 +3655,43 @@
       <c r="C90" s="43"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35"/>
-      <c r="P90" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="35"/>
-      <c r="T90" s="35"/>
-      <c r="U90" s="35"/>
-      <c r="V90" s="39"/>
-      <c r="W90" s="32"/>
-      <c r="X90" s="32"/>
-      <c r="Y90" s="32"/>
-      <c r="Z90" s="32"/>
-      <c r="AA90" s="32"/>
-      <c r="AB90" s="32"/>
-      <c r="AC90" s="32"/>
-      <c r="AD90" s="32"/>
-      <c r="AE90" s="32"/>
-      <c r="AF90" s="32"/>
-      <c r="AG90" s="32"/>
-      <c r="AH90" s="33"/>
+      <c r="F90" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="37"/>
+      <c r="Z90" s="37"/>
+      <c r="AA90" s="37"/>
+      <c r="AB90" s="37"/>
+      <c r="AC90" s="37"/>
+      <c r="AD90" s="37"/>
+      <c r="AE90" s="37"/>
+      <c r="AF90" s="37"/>
+      <c r="AG90" s="37"/>
+      <c r="AH90" s="38"/>
     </row>
     <row r="91" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
@@ -3708,39 +3699,43 @@
       <c r="C91" s="43"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
-      <c r="P91" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="35"/>
-      <c r="X91" s="35"/>
-      <c r="Y91" s="35"/>
-      <c r="Z91" s="35"/>
-      <c r="AA91" s="35"/>
-      <c r="AB91" s="35"/>
-      <c r="AC91" s="35"/>
-      <c r="AD91" s="35"/>
-      <c r="AE91" s="35"/>
-      <c r="AF91" s="35"/>
-      <c r="AG91" s="35"/>
-      <c r="AH91" s="39"/>
+      <c r="F91" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="37"/>
+      <c r="Z91" s="37"/>
+      <c r="AA91" s="37"/>
+      <c r="AB91" s="37"/>
+      <c r="AC91" s="37"/>
+      <c r="AD91" s="37"/>
+      <c r="AE91" s="37"/>
+      <c r="AF91" s="37"/>
+      <c r="AG91" s="37"/>
+      <c r="AH91" s="38"/>
     </row>
     <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
@@ -3748,23 +3743,25 @@
       <c r="C92" s="43"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="32"/>
+      <c r="F92" s="31"/>
       <c r="G92" s="32"/>
       <c r="H92" s="32"/>
       <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
-      <c r="L92" s="32"/>
-      <c r="M92" s="32"/>
-      <c r="N92" s="32"/>
-      <c r="O92" s="32"/>
-      <c r="P92" s="32"/>
-      <c r="Q92" s="32"/>
-      <c r="R92" s="32"/>
-      <c r="S92" s="32"/>
-      <c r="T92" s="32"/>
-      <c r="U92" s="32"/>
-      <c r="V92" s="32"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="39"/>
       <c r="W92" s="32"/>
       <c r="X92" s="32"/>
       <c r="Y92" s="32"/>
@@ -3776,457 +3773,457 @@
       <c r="AE92" s="32"/>
       <c r="AF92" s="32"/>
       <c r="AG92" s="32"/>
-      <c r="AH92" s="32"/>
+      <c r="AH92" s="33"/>
     </row>
     <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
-      <c r="F93" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="28"/>
-      <c r="N93" s="28"/>
-      <c r="O93" s="28"/>
-      <c r="P93" s="28"/>
-      <c r="Q93" s="28"/>
-      <c r="R93" s="28"/>
-      <c r="S93" s="28"/>
-      <c r="T93" s="28"/>
-      <c r="U93" s="28"/>
-      <c r="V93" s="28"/>
-      <c r="W93" s="28"/>
-      <c r="X93" s="28"/>
-      <c r="Y93" s="28"/>
-      <c r="Z93" s="28"/>
-      <c r="AA93" s="28"/>
-      <c r="AB93" s="28"/>
-      <c r="AC93" s="28"/>
-      <c r="AD93" s="28"/>
-      <c r="AE93" s="28"/>
-      <c r="AF93" s="28"/>
-      <c r="AG93" s="28"/>
-      <c r="AH93" s="28"/>
-      <c r="AI93" s="28"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="39"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="35"/>
+      <c r="Y93" s="35"/>
+      <c r="Z93" s="35"/>
+      <c r="AA93" s="35"/>
+      <c r="AB93" s="35"/>
+      <c r="AC93" s="35"/>
+      <c r="AD93" s="35"/>
+      <c r="AE93" s="35"/>
+      <c r="AF93" s="35"/>
+      <c r="AG93" s="35"/>
+      <c r="AH93" s="39"/>
     </row>
     <row r="94" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="43"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="28"/>
-      <c r="O94" s="28"/>
-      <c r="P94" s="28"/>
-      <c r="Q94" s="28"/>
-      <c r="R94" s="28"/>
-      <c r="S94" s="28"/>
-      <c r="T94" s="28"/>
-      <c r="U94" s="28"/>
-      <c r="V94" s="28"/>
-      <c r="W94" s="28"/>
-      <c r="X94" s="28"/>
-      <c r="Y94" s="28"/>
-      <c r="Z94" s="28"/>
-      <c r="AA94" s="28"/>
-      <c r="AB94" s="28"/>
-      <c r="AC94" s="28"/>
-      <c r="AD94" s="28"/>
-      <c r="AE94" s="28"/>
-      <c r="AF94" s="28"/>
-      <c r="AG94" s="28"/>
-      <c r="AH94" s="28"/>
-      <c r="AI94" s="28"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="32"/>
+      <c r="P94" s="32"/>
+      <c r="Q94" s="32"/>
+      <c r="R94" s="32"/>
+      <c r="S94" s="32"/>
+      <c r="T94" s="32"/>
+      <c r="U94" s="32"/>
+      <c r="V94" s="32"/>
+      <c r="W94" s="32"/>
+      <c r="X94" s="32"/>
+      <c r="Y94" s="32"/>
+      <c r="Z94" s="32"/>
+      <c r="AA94" s="32"/>
+      <c r="AB94" s="32"/>
+      <c r="AC94" s="32"/>
+      <c r="AD94" s="32"/>
+      <c r="AE94" s="32"/>
+      <c r="AF94" s="32"/>
+      <c r="AG94" s="32"/>
+      <c r="AH94" s="32"/>
     </row>
     <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="43"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="43"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
-      <c r="F95" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="K95" s="41"/>
-      <c r="L95" s="41"/>
-      <c r="M95" s="41"/>
-      <c r="N95" s="41"/>
-      <c r="O95" s="42"/>
-      <c r="P95" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="41"/>
-      <c r="S95" s="41"/>
-      <c r="T95" s="41"/>
-      <c r="U95" s="41"/>
-      <c r="V95" s="42"/>
-      <c r="W95" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="X95" s="41"/>
-      <c r="Y95" s="41"/>
-      <c r="Z95" s="41"/>
-      <c r="AA95" s="41"/>
-      <c r="AB95" s="41"/>
-      <c r="AC95" s="41"/>
-      <c r="AD95" s="41"/>
-      <c r="AE95" s="41"/>
-      <c r="AF95" s="41"/>
-      <c r="AG95" s="41"/>
-      <c r="AH95" s="42"/>
+      <c r="F95" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="28"/>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="28"/>
+      <c r="R95" s="28"/>
+      <c r="S95" s="28"/>
+      <c r="T95" s="28"/>
+      <c r="U95" s="28"/>
+      <c r="V95" s="28"/>
+      <c r="W95" s="28"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="28"/>
+      <c r="Z95" s="28"/>
+      <c r="AA95" s="28"/>
+      <c r="AB95" s="28"/>
+      <c r="AC95" s="28"/>
+      <c r="AD95" s="28"/>
+      <c r="AE95" s="28"/>
+      <c r="AF95" s="28"/>
+      <c r="AG95" s="28"/>
+      <c r="AH95" s="28"/>
+      <c r="AI95" s="28"/>
     </row>
     <row r="96" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="43"/>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
-      <c r="F96" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="37"/>
-      <c r="S96" s="37"/>
-      <c r="T96" s="37"/>
-      <c r="U96" s="37"/>
-      <c r="V96" s="38"/>
-      <c r="W96" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="X96" s="37"/>
-      <c r="Y96" s="37"/>
-      <c r="Z96" s="37"/>
-      <c r="AA96" s="37"/>
-      <c r="AB96" s="37"/>
-      <c r="AC96" s="37"/>
-      <c r="AD96" s="37"/>
-      <c r="AE96" s="37"/>
-      <c r="AF96" s="37"/>
-      <c r="AG96" s="37"/>
-      <c r="AH96" s="38"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="28"/>
+      <c r="O96" s="28"/>
+      <c r="P96" s="28"/>
+      <c r="Q96" s="28"/>
+      <c r="R96" s="28"/>
+      <c r="S96" s="28"/>
+      <c r="T96" s="28"/>
+      <c r="U96" s="28"/>
+      <c r="V96" s="28"/>
+      <c r="W96" s="28"/>
+      <c r="X96" s="28"/>
+      <c r="Y96" s="28"/>
+      <c r="Z96" s="28"/>
+      <c r="AA96" s="28"/>
+      <c r="AB96" s="28"/>
+      <c r="AC96" s="28"/>
+      <c r="AD96" s="28"/>
+      <c r="AE96" s="28"/>
+      <c r="AF96" s="28"/>
+      <c r="AG96" s="28"/>
+      <c r="AH96" s="28"/>
+      <c r="AI96" s="28"/>
     </row>
     <row r="97" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="27"/>
+      <c r="A97" s="43"/>
       <c r="B97" s="27"/>
       <c r="C97" s="43"/>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
-      <c r="F97" s="45" t="s">
+      <c r="F97" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q97" s="41"/>
+      <c r="R97" s="41"/>
+      <c r="S97" s="41"/>
+      <c r="T97" s="41"/>
+      <c r="U97" s="41"/>
+      <c r="V97" s="42"/>
+      <c r="W97" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="K97" s="46"/>
-      <c r="L97" s="46"/>
-      <c r="M97" s="46"/>
-      <c r="N97" s="46"/>
-      <c r="O97" s="46"/>
-      <c r="P97" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q97" s="46"/>
-      <c r="R97" s="46"/>
-      <c r="S97" s="46"/>
-      <c r="T97" s="46"/>
-      <c r="U97" s="46"/>
-      <c r="V97" s="47"/>
-      <c r="W97" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="X97" s="46"/>
-      <c r="Y97" s="46"/>
-      <c r="Z97" s="46"/>
-      <c r="AA97" s="46"/>
-      <c r="AB97" s="46"/>
-      <c r="AC97" s="46"/>
-      <c r="AD97" s="46"/>
-      <c r="AE97" s="46"/>
-      <c r="AF97" s="46"/>
-      <c r="AG97" s="46"/>
-      <c r="AH97" s="47"/>
-    </row>
-    <row r="98" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X97" s="41"/>
+      <c r="Y97" s="41"/>
+      <c r="Z97" s="41"/>
+      <c r="AA97" s="41"/>
+      <c r="AB97" s="41"/>
+      <c r="AC97" s="41"/>
+      <c r="AD97" s="41"/>
+      <c r="AE97" s="41"/>
+      <c r="AF97" s="41"/>
+      <c r="AG97" s="41"/>
+      <c r="AH97" s="42"/>
+    </row>
+    <row r="98" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="50"/>
-      <c r="N98" s="50"/>
-      <c r="O98" s="50"/>
-      <c r="P98" s="50"/>
-      <c r="Q98" s="50"/>
-      <c r="R98" s="50"/>
-      <c r="S98" s="50"/>
-      <c r="T98" s="50"/>
-      <c r="U98" s="50"/>
-      <c r="V98" s="50"/>
-      <c r="W98" s="50"/>
-      <c r="X98" s="50"/>
-      <c r="Y98" s="50"/>
-      <c r="Z98" s="50"/>
-      <c r="AA98" s="50"/>
-      <c r="AB98" s="50"/>
-      <c r="AC98" s="50"/>
-      <c r="AD98" s="50"/>
-      <c r="AE98" s="50"/>
-      <c r="AF98" s="50"/>
-      <c r="AG98" s="50"/>
-      <c r="AH98" s="50"/>
-    </row>
-    <row r="99" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+      <c r="T98" s="37"/>
+      <c r="U98" s="37"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="X98" s="37"/>
+      <c r="Y98" s="37"/>
+      <c r="Z98" s="37"/>
+      <c r="AA98" s="37"/>
+      <c r="AB98" s="37"/>
+      <c r="AC98" s="37"/>
+      <c r="AD98" s="37"/>
+      <c r="AE98" s="37"/>
+      <c r="AF98" s="37"/>
+      <c r="AG98" s="37"/>
+      <c r="AH98" s="38"/>
+    </row>
+    <row r="99" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="43"/>
-      <c r="M99" s="43"/>
-      <c r="N99" s="43"/>
-      <c r="O99" s="43"/>
-      <c r="P99" s="43"/>
-      <c r="Q99" s="43"/>
-      <c r="R99" s="43"/>
-      <c r="S99" s="43"/>
-      <c r="T99" s="43"/>
-      <c r="U99" s="43"/>
-      <c r="V99" s="43"/>
-      <c r="W99" s="43"/>
-      <c r="X99" s="43"/>
-      <c r="Y99" s="43"/>
-      <c r="Z99" s="43"/>
-      <c r="AA99" s="43"/>
-      <c r="AB99" s="43"/>
-      <c r="AC99" s="43"/>
-      <c r="AD99" s="43"/>
-      <c r="AE99" s="43"/>
-      <c r="AF99" s="43"/>
-      <c r="AG99" s="43"/>
-      <c r="AH99" s="43"/>
-      <c r="AI99" s="43"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="46"/>
+      <c r="P99" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q99" s="46"/>
+      <c r="R99" s="46"/>
+      <c r="S99" s="46"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="46"/>
+      <c r="V99" s="47"/>
+      <c r="W99" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="X99" s="46"/>
+      <c r="Y99" s="46"/>
+      <c r="Z99" s="46"/>
+      <c r="AA99" s="46"/>
+      <c r="AB99" s="46"/>
+      <c r="AC99" s="46"/>
+      <c r="AD99" s="46"/>
+      <c r="AE99" s="46"/>
+      <c r="AF99" s="46"/>
+      <c r="AG99" s="46"/>
+      <c r="AH99" s="47"/>
     </row>
     <row r="100" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="43"/>
-      <c r="M100" s="43"/>
-      <c r="N100" s="43"/>
-      <c r="O100" s="43"/>
-      <c r="P100" s="43"/>
-      <c r="Q100" s="43"/>
-      <c r="R100" s="43"/>
-      <c r="S100" s="43"/>
-      <c r="T100" s="43"/>
-      <c r="U100" s="43"/>
-      <c r="V100" s="43"/>
-      <c r="W100" s="43"/>
-      <c r="X100" s="43"/>
-      <c r="Y100" s="43"/>
-      <c r="Z100" s="43"/>
-      <c r="AA100" s="43"/>
-      <c r="AB100" s="43"/>
-      <c r="AC100" s="43"/>
-      <c r="AD100" s="43"/>
-      <c r="AE100" s="43"/>
-      <c r="AF100" s="43"/>
-      <c r="AG100" s="43"/>
-      <c r="AH100" s="43"/>
-      <c r="AI100" s="43"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="50"/>
+      <c r="M100" s="50"/>
+      <c r="N100" s="50"/>
+      <c r="O100" s="50"/>
+      <c r="P100" s="50"/>
+      <c r="Q100" s="50"/>
+      <c r="R100" s="50"/>
+      <c r="S100" s="50"/>
+      <c r="T100" s="50"/>
+      <c r="U100" s="50"/>
+      <c r="V100" s="50"/>
+      <c r="W100" s="50"/>
+      <c r="X100" s="50"/>
+      <c r="Y100" s="50"/>
+      <c r="Z100" s="50"/>
+      <c r="AA100" s="50"/>
+      <c r="AB100" s="50"/>
+      <c r="AC100" s="50"/>
+      <c r="AD100" s="50"/>
+      <c r="AE100" s="50"/>
+      <c r="AF100" s="50"/>
+      <c r="AG100" s="50"/>
+      <c r="AH100" s="50"/>
     </row>
     <row r="101" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="43"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
-      <c r="F101" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
-      <c r="O101" s="42"/>
-      <c r="P101" s="41" t="s">
+      <c r="F101" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="Q101" s="41"/>
-      <c r="R101" s="41"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="41"/>
-      <c r="U101" s="41"/>
-      <c r="V101" s="42"/>
-      <c r="W101" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="X101" s="41"/>
-      <c r="Y101" s="41"/>
-      <c r="Z101" s="41"/>
-      <c r="AA101" s="41"/>
-      <c r="AB101" s="41"/>
-      <c r="AC101" s="41"/>
-      <c r="AD101" s="41"/>
-      <c r="AE101" s="41"/>
-      <c r="AF101" s="41"/>
-      <c r="AG101" s="41"/>
-      <c r="AH101" s="42"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
+      <c r="O101" s="43"/>
+      <c r="P101" s="43"/>
+      <c r="Q101" s="43"/>
+      <c r="R101" s="43"/>
+      <c r="S101" s="43"/>
+      <c r="T101" s="43"/>
+      <c r="U101" s="43"/>
+      <c r="V101" s="43"/>
+      <c r="W101" s="43"/>
+      <c r="X101" s="43"/>
+      <c r="Y101" s="43"/>
+      <c r="Z101" s="43"/>
+      <c r="AA101" s="43"/>
+      <c r="AB101" s="43"/>
+      <c r="AC101" s="43"/>
+      <c r="AD101" s="43"/>
+      <c r="AE101" s="43"/>
+      <c r="AF101" s="43"/>
+      <c r="AG101" s="43"/>
+      <c r="AH101" s="43"/>
+      <c r="AI101" s="43"/>
     </row>
     <row r="102" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
-      <c r="F102" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G102" s="52"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K102" s="52"/>
-      <c r="L102" s="52"/>
-      <c r="M102" s="52"/>
-      <c r="N102" s="52"/>
-      <c r="O102" s="52"/>
-      <c r="P102" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q102" s="52"/>
-      <c r="R102" s="52"/>
-      <c r="S102" s="52"/>
-      <c r="T102" s="52"/>
-      <c r="U102" s="52"/>
-      <c r="V102" s="53"/>
-      <c r="W102" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="X102" s="52"/>
-      <c r="Y102" s="52"/>
-      <c r="Z102" s="52"/>
-      <c r="AA102" s="52"/>
-      <c r="AB102" s="52"/>
-      <c r="AC102" s="52"/>
-      <c r="AD102" s="52"/>
-      <c r="AE102" s="52"/>
-      <c r="AF102" s="52"/>
-      <c r="AG102" s="52"/>
-      <c r="AH102" s="53"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="43"/>
+      <c r="P102" s="43"/>
+      <c r="Q102" s="43"/>
+      <c r="R102" s="43"/>
+      <c r="S102" s="43"/>
+      <c r="T102" s="43"/>
+      <c r="U102" s="43"/>
+      <c r="V102" s="43"/>
+      <c r="W102" s="43"/>
+      <c r="X102" s="43"/>
+      <c r="Y102" s="43"/>
+      <c r="Z102" s="43"/>
+      <c r="AA102" s="43"/>
+      <c r="AB102" s="43"/>
+      <c r="AC102" s="43"/>
+      <c r="AD102" s="43"/>
+      <c r="AE102" s="43"/>
+      <c r="AF102" s="43"/>
+      <c r="AG102" s="43"/>
+      <c r="AH102" s="43"/>
+      <c r="AI102" s="43"/>
     </row>
     <row r="103" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="43"/>
       <c r="C103" s="43"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="50"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="50"/>
-      <c r="M103" s="50"/>
-      <c r="N103" s="50"/>
-      <c r="O103" s="50"/>
-      <c r="P103" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q103" s="50"/>
-      <c r="R103" s="50"/>
-      <c r="S103" s="50"/>
-      <c r="T103" s="50"/>
-      <c r="U103" s="50"/>
-      <c r="V103" s="55"/>
-      <c r="W103" s="50"/>
-      <c r="X103" s="50"/>
-      <c r="Y103" s="50"/>
-      <c r="Z103" s="50"/>
-      <c r="AA103" s="50"/>
-      <c r="AB103" s="50"/>
-      <c r="AC103" s="50"/>
-      <c r="AD103" s="50"/>
-      <c r="AE103" s="50"/>
-      <c r="AF103" s="50"/>
-      <c r="AG103" s="50"/>
-      <c r="AH103" s="55"/>
+      <c r="F103" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
+      <c r="M103" s="41"/>
+      <c r="N103" s="41"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q103" s="41"/>
+      <c r="R103" s="41"/>
+      <c r="S103" s="41"/>
+      <c r="T103" s="41"/>
+      <c r="U103" s="41"/>
+      <c r="V103" s="42"/>
+      <c r="W103" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="X103" s="41"/>
+      <c r="Y103" s="41"/>
+      <c r="Z103" s="41"/>
+      <c r="AA103" s="41"/>
+      <c r="AB103" s="41"/>
+      <c r="AC103" s="41"/>
+      <c r="AD103" s="41"/>
+      <c r="AE103" s="41"/>
+      <c r="AF103" s="41"/>
+      <c r="AG103" s="41"/>
+      <c r="AH103" s="42"/>
     </row>
     <row r="104" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="43"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="50"/>
+      <c r="F104" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="52"/>
       <c r="J104" s="51" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K104" s="52"/>
       <c r="L104" s="52"/>
@@ -4234,7 +4231,7 @@
       <c r="N104" s="52"/>
       <c r="O104" s="52"/>
       <c r="P104" s="51" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q104" s="52"/>
       <c r="R104" s="52"/>
@@ -4242,8 +4239,8 @@
       <c r="T104" s="52"/>
       <c r="U104" s="52"/>
       <c r="V104" s="53"/>
-      <c r="W104" s="51" t="s">
-        <v>73</v>
+      <c r="W104" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="X104" s="52"/>
       <c r="Y104" s="52"/>
@@ -4261,156 +4258,155 @@
       <c r="C105" s="43"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
-      <c r="F105" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="52"/>
-      <c r="J105" s="51" t="s">
+      <c r="F105" s="54"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="50"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="50"/>
+      <c r="P105" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="K105" s="52"/>
-      <c r="L105" s="52"/>
-      <c r="M105" s="52"/>
-      <c r="N105" s="52"/>
-      <c r="O105" s="52"/>
-      <c r="P105" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q105" s="52"/>
-      <c r="R105" s="52"/>
-      <c r="S105" s="52"/>
-      <c r="T105" s="52"/>
-      <c r="U105" s="52"/>
-      <c r="V105" s="53"/>
-      <c r="W105" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="X105" s="52"/>
-      <c r="Y105" s="52"/>
-      <c r="Z105" s="52"/>
-      <c r="AA105" s="52"/>
-      <c r="AB105" s="52"/>
-      <c r="AC105" s="52"/>
-      <c r="AD105" s="52"/>
-      <c r="AE105" s="52"/>
-      <c r="AF105" s="52"/>
-      <c r="AG105" s="52"/>
-      <c r="AH105" s="53"/>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="50"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="50"/>
+      <c r="U105" s="50"/>
+      <c r="V105" s="55"/>
+      <c r="W105" s="50"/>
+      <c r="X105" s="50"/>
+      <c r="Y105" s="50"/>
+      <c r="Z105" s="50"/>
+      <c r="AA105" s="50"/>
+      <c r="AB105" s="50"/>
+      <c r="AC105" s="50"/>
+      <c r="AD105" s="50"/>
+      <c r="AE105" s="50"/>
+      <c r="AF105" s="50"/>
+      <c r="AG105" s="50"/>
+      <c r="AH105" s="55"/>
     </row>
     <row r="106" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="43"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="56"/>
-      <c r="K106" s="57"/>
-      <c r="L106" s="57"/>
-      <c r="M106" s="57"/>
-      <c r="N106" s="57"/>
-      <c r="O106" s="57"/>
-      <c r="P106" s="56"/>
-      <c r="Q106" s="57"/>
-      <c r="R106" s="57"/>
-      <c r="S106" s="57"/>
-      <c r="T106" s="57"/>
-      <c r="U106" s="57"/>
-      <c r="V106" s="58"/>
-      <c r="W106" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="X106" s="57"/>
-      <c r="Y106" s="57"/>
-      <c r="Z106" s="57"/>
-      <c r="AA106" s="57"/>
-      <c r="AB106" s="57"/>
-      <c r="AC106" s="57"/>
-      <c r="AD106" s="57"/>
-      <c r="AE106" s="57"/>
-      <c r="AF106" s="57"/>
-      <c r="AG106" s="57"/>
-      <c r="AH106" s="58"/>
-    </row>
-    <row r="107" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="K106" s="52"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="52"/>
+      <c r="N106" s="52"/>
+      <c r="O106" s="52"/>
+      <c r="P106" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q106" s="52"/>
+      <c r="R106" s="52"/>
+      <c r="S106" s="52"/>
+      <c r="T106" s="52"/>
+      <c r="U106" s="52"/>
+      <c r="V106" s="53"/>
+      <c r="W106" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="X106" s="52"/>
+      <c r="Y106" s="52"/>
+      <c r="Z106" s="52"/>
+      <c r="AA106" s="52"/>
+      <c r="AB106" s="52"/>
+      <c r="AC106" s="52"/>
+      <c r="AD106" s="52"/>
+      <c r="AE106" s="52"/>
+      <c r="AF106" s="52"/>
+      <c r="AG106" s="52"/>
+      <c r="AH106" s="53"/>
+    </row>
+    <row r="107" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="43"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
-      <c r="F107" s="50"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
-      <c r="L107" s="32"/>
-      <c r="M107" s="32"/>
-      <c r="N107" s="32"/>
-      <c r="O107" s="32"/>
-      <c r="P107" s="32"/>
-      <c r="Q107" s="32"/>
-      <c r="R107" s="32"/>
-      <c r="S107" s="32"/>
-      <c r="T107" s="32"/>
-      <c r="U107" s="32"/>
-      <c r="V107" s="32"/>
-      <c r="W107" s="32"/>
-      <c r="X107" s="32"/>
-      <c r="Y107" s="32"/>
-      <c r="Z107" s="32"/>
-      <c r="AA107" s="32"/>
-      <c r="AB107" s="32"/>
-      <c r="AC107" s="32"/>
-      <c r="AD107" s="32"/>
-      <c r="AE107" s="32"/>
-      <c r="AF107" s="32"/>
-      <c r="AG107" s="32"/>
-      <c r="AH107" s="32"/>
-    </row>
-    <row r="108" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
+      <c r="F107" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
+      <c r="I107" s="52"/>
+      <c r="J107" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="K107" s="52"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="52"/>
+      <c r="N107" s="52"/>
+      <c r="O107" s="52"/>
+      <c r="P107" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q107" s="52"/>
+      <c r="R107" s="52"/>
+      <c r="S107" s="52"/>
+      <c r="T107" s="52"/>
+      <c r="U107" s="52"/>
+      <c r="V107" s="53"/>
+      <c r="W107" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="X107" s="52"/>
+      <c r="Y107" s="52"/>
+      <c r="Z107" s="52"/>
+      <c r="AA107" s="52"/>
+      <c r="AB107" s="52"/>
+      <c r="AC107" s="52"/>
+      <c r="AD107" s="52"/>
+      <c r="AE107" s="52"/>
+      <c r="AF107" s="52"/>
+      <c r="AG107" s="52"/>
+      <c r="AH107" s="53"/>
+    </row>
+    <row r="108" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="43"/>
       <c r="D108" s="43"/>
-      <c r="E108" s="59" t="str">
-        <f>D80&amp;"3."</f>
-        <v>6.3.5.3.</v>
-      </c>
-      <c r="F108" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="G108" s="50"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="32"/>
-      <c r="S108" s="32"/>
-      <c r="T108" s="32"/>
-      <c r="U108" s="32"/>
-      <c r="V108" s="32"/>
-      <c r="W108" s="32"/>
-      <c r="X108" s="32"/>
-      <c r="Y108" s="32"/>
-      <c r="Z108" s="32"/>
-      <c r="AA108" s="32"/>
-      <c r="AB108" s="32"/>
-      <c r="AC108" s="32"/>
-      <c r="AD108" s="32"/>
-      <c r="AE108" s="32"/>
-      <c r="AF108" s="32"/>
-      <c r="AG108" s="32"/>
-      <c r="AH108" s="32"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="56"/>
+      <c r="K108" s="57"/>
+      <c r="L108" s="57"/>
+      <c r="M108" s="57"/>
+      <c r="N108" s="57"/>
+      <c r="O108" s="57"/>
+      <c r="P108" s="56"/>
+      <c r="Q108" s="57"/>
+      <c r="R108" s="57"/>
+      <c r="S108" s="57"/>
+      <c r="T108" s="57"/>
+      <c r="U108" s="57"/>
+      <c r="V108" s="58"/>
+      <c r="W108" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="X108" s="57"/>
+      <c r="Y108" s="57"/>
+      <c r="Z108" s="57"/>
+      <c r="AA108" s="57"/>
+      <c r="AB108" s="57"/>
+      <c r="AC108" s="57"/>
+      <c r="AD108" s="57"/>
+      <c r="AE108" s="57"/>
+      <c r="AF108" s="57"/>
+      <c r="AG108" s="57"/>
+      <c r="AH108" s="58"/>
     </row>
     <row r="109" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="27"/>
@@ -4418,9 +4414,7 @@
       <c r="C109" s="43"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
-      <c r="F109" s="50" t="s">
-        <v>90</v>
-      </c>
+      <c r="F109" s="50"/>
       <c r="G109" s="50"/>
       <c r="H109" s="32"/>
       <c r="I109" s="32"/>
@@ -4454,10 +4448,15 @@
       <c r="A110" s="27"/>
       <c r="B110" s="27"/>
       <c r="C110" s="43"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="32"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="59" t="str">
+        <f>D82&amp;"3."</f>
+        <v>6.3.5.3.</v>
+      </c>
+      <c r="F110" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G110" s="50"/>
       <c r="H110" s="32"/>
       <c r="I110" s="32"/>
       <c r="J110" s="32"/>
@@ -4486,110 +4485,166 @@
       <c r="AG110" s="32"/>
       <c r="AH110" s="32"/>
     </row>
-    <row r="111" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="27"/>
+    <row r="111" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G111" s="50"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="32"/>
+      <c r="P111" s="32"/>
+      <c r="Q111" s="32"/>
+      <c r="R111" s="32"/>
+      <c r="S111" s="32"/>
+      <c r="T111" s="32"/>
+      <c r="U111" s="32"/>
+      <c r="V111" s="32"/>
+      <c r="W111" s="32"/>
+      <c r="X111" s="32"/>
+      <c r="Y111" s="32"/>
+      <c r="Z111" s="32"/>
+      <c r="AA111" s="32"/>
+      <c r="AB111" s="32"/>
+      <c r="AC111" s="32"/>
+      <c r="AD111" s="32"/>
+      <c r="AE111" s="32"/>
+      <c r="AF111" s="32"/>
+      <c r="AG111" s="32"/>
+      <c r="AH111" s="32"/>
     </row>
     <row r="112" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="27"/>
-      <c r="D112" s="25" t="str">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="32"/>
+      <c r="P112" s="32"/>
+      <c r="Q112" s="32"/>
+      <c r="R112" s="32"/>
+      <c r="S112" s="32"/>
+      <c r="T112" s="32"/>
+      <c r="U112" s="32"/>
+      <c r="V112" s="32"/>
+      <c r="W112" s="32"/>
+      <c r="X112" s="32"/>
+      <c r="Y112" s="32"/>
+      <c r="Z112" s="32"/>
+      <c r="AA112" s="32"/>
+      <c r="AB112" s="32"/>
+      <c r="AC112" s="32"/>
+      <c r="AD112" s="32"/>
+      <c r="AE112" s="32"/>
+      <c r="AF112" s="32"/>
+      <c r="AG112" s="32"/>
+      <c r="AH112" s="32"/>
+    </row>
+    <row r="113" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="27"/>
+    </row>
+    <row r="114" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="27"/>
+      <c r="D114" s="25" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.3.6.</v>
       </c>
-      <c r="E112" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="27"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25" t="str">
-        <f>D112&amp;"1."</f>
+      <c r="E114" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="27"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25" t="str">
+        <f>D114&amp;"1."</f>
         <v>6.3.6.1.</v>
       </c>
-      <c r="F113" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="27"/>
-      <c r="D114" s="25"/>
-      <c r="F114" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="61"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
+      <c r="F115" s="29" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="116" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="27"/>
       <c r="C116" s="27"/>
-      <c r="D116" s="61"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-    </row>
-    <row r="117" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D116" s="25"/>
+      <c r="F116" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="27"/>
       <c r="C117" s="27"/>
-      <c r="D117" s="61" t="str">
+      <c r="D117" s="61"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+    </row>
+    <row r="118" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+    </row>
+    <row r="119" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="61" t="str">
         <f>$C$7&amp;"7."</f>
         <v>6.3.7.</v>
       </c>
-      <c r="E117" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F117" s="27"/>
-    </row>
-    <row r="118" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F118" s="27"/>
-    </row>
-    <row r="119" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
+      <c r="E119" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="F119" s="27"/>
     </row>
     <row r="120" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="27"/>
       <c r="C120" s="27"/>
-    </row>
-    <row r="121" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F120" s="27"/>
+    </row>
+    <row r="121" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B121" s="27"/>
       <c r="C121" s="27"/>
-      <c r="D121" s="25" t="str">
-        <f>$C$7&amp;"8."</f>
-        <v>6.3.8.</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="27"/>
-      <c r="B122" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+    </row>
+    <row r="122" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="27"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="27"/>
       <c r="B123" s="27"/>
       <c r="C123" s="27"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="29" t="s">
-        <v>103</v>
+      <c r="D123" s="25" t="str">
+        <f>$C$7&amp;"8."</f>
+        <v>6.3.8.</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4598,7 +4653,7 @@
       <c r="C124" s="27"/>
       <c r="D124" s="25"/>
       <c r="E124" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4606,105 +4661,121 @@
       <c r="B125" s="27"/>
       <c r="C125" s="27"/>
       <c r="D125" s="25"/>
-    </row>
-    <row r="126" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E125" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
       <c r="B126" s="27"/>
       <c r="C126" s="27"/>
-      <c r="E126" s="25" t="str">
-        <f>D121&amp;"1."</f>
+      <c r="D126" s="25"/>
+      <c r="E126" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="25"/>
+    </row>
+    <row r="128" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="E128" s="25" t="str">
+        <f>D123&amp;"1."</f>
         <v>6.3.8.1.</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="27"/>
-      <c r="F127" s="29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="27"/>
-    </row>
-    <row r="129" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="3:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="27"/>
-      <c r="F129" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26"/>
-      <c r="K129" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="L129" s="26"/>
-      <c r="M129" s="26"/>
-      <c r="N129" s="26"/>
-      <c r="O129" s="26"/>
-      <c r="P129" s="62"/>
-      <c r="Q129" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="R129" s="94"/>
-      <c r="S129" s="94"/>
-      <c r="T129" s="95"/>
-    </row>
-    <row r="130" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F129" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="3:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C130" s="27"/>
-      <c r="F130" s="45">
-        <v>1</v>
-      </c>
-      <c r="G130" s="46"/>
-      <c r="H130" s="46"/>
-      <c r="I130" s="46"/>
-      <c r="J130" s="46"/>
-      <c r="K130" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="L130" s="46"/>
-      <c r="M130" s="46"/>
-      <c r="N130" s="46"/>
-      <c r="O130" s="46"/>
-      <c r="P130" s="47"/>
-      <c r="Q130" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="R130" s="46"/>
-      <c r="S130" s="46"/>
-      <c r="T130" s="47"/>
     </row>
     <row r="131" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="27"/>
-      <c r="F131" s="34">
+      <c r="F131" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="L131" s="26"/>
+      <c r="M131" s="26"/>
+      <c r="N131" s="26"/>
+      <c r="O131" s="26"/>
+      <c r="P131" s="62"/>
+      <c r="Q131" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="R131" s="72"/>
+      <c r="S131" s="72"/>
+      <c r="T131" s="73"/>
+    </row>
+    <row r="132" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="27"/>
+      <c r="F132" s="45">
+        <v>1</v>
+      </c>
+      <c r="G132" s="46"/>
+      <c r="H132" s="46"/>
+      <c r="I132" s="46"/>
+      <c r="J132" s="46"/>
+      <c r="K132" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="L132" s="46"/>
+      <c r="M132" s="46"/>
+      <c r="N132" s="46"/>
+      <c r="O132" s="46"/>
+      <c r="P132" s="47"/>
+      <c r="Q132" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="R132" s="46"/>
+      <c r="S132" s="46"/>
+      <c r="T132" s="47"/>
+    </row>
+    <row r="133" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="27"/>
+      <c r="F133" s="34">
         <v>2</v>
       </c>
-      <c r="G131" s="35"/>
-      <c r="H131" s="35"/>
-      <c r="I131" s="35"/>
-      <c r="J131" s="35"/>
-      <c r="K131" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L131" s="35"/>
-      <c r="M131" s="35"/>
-      <c r="N131" s="35"/>
-      <c r="O131" s="35"/>
-      <c r="P131" s="39"/>
-      <c r="Q131" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="R131" s="46"/>
-      <c r="S131" s="46"/>
-      <c r="T131" s="47"/>
-    </row>
-    <row r="132" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F132" s="29"/>
-    </row>
-    <row r="133" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
+      <c r="N133" s="35"/>
+      <c r="O133" s="35"/>
+      <c r="P133" s="39"/>
+      <c r="Q133" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="R133" s="46"/>
+      <c r="S133" s="46"/>
+      <c r="T133" s="47"/>
+    </row>
+    <row r="134" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F134" s="29"/>
+    </row>
     <row r="135" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="136" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="137" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5092,6 +5163,8 @@
     <row r="519" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="520" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="521" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5109,10 +5182,11 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="34" man="1"/>
-    <brk id="78" max="34" man="1"/>
-    <brk id="119" max="34" man="1"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="23" max="34" man="1"/>
+    <brk id="53" max="34" man="1"/>
+    <brk id="80" max="34" man="1"/>
+    <brk id="121" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4448A5-0457-4E07-B41B-2DB5FD591C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB7736-4071-4BC7-B6C7-A231CD3433E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,22 +668,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メールごとに、業務要件に合わせて選択する。</t>
-    <rPh sb="7" eb="9">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>送信履歴</t>
     <rPh sb="0" eb="2">
       <t>ソウシン</t>
@@ -1073,6 +1057,28 @@
   </si>
   <si>
     <t>・添付ファイルの暗号化は行わないものとする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文面の一部だけを変更して送信するメールの要件が存在するため。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソンザイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1960,7 +1966,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S1" s="81"/>
       <c r="T1" s="81"/>
@@ -2164,7 +2170,7 @@
     <row r="17" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="59"/>
       <c r="E17" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -2353,7 +2359,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
@@ -2387,7 +2393,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -2489,7 +2495,7 @@
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -2642,7 +2648,7 @@
       <c r="M39" s="64"/>
       <c r="N39" s="65"/>
       <c r="O39" s="60" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="P39" s="50"/>
       <c r="Q39" s="50"/>
@@ -2677,12 +2683,12 @@
       <c r="J40" s="46"/>
       <c r="K40" s="47"/>
       <c r="L40" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M40" s="63"/>
       <c r="N40" s="66"/>
       <c r="O40" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
@@ -2737,7 +2743,7 @@
     </row>
     <row r="42" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
@@ -2800,7 +2806,7 @@
     </row>
     <row r="44" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -2833,7 +2839,7 @@
     </row>
     <row r="45" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -2866,7 +2872,7 @@
     </row>
     <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -2899,7 +2905,7 @@
     </row>
     <row r="47" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -3121,17 +3127,17 @@
     </row>
     <row r="57" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F57" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F58" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F59" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3154,7 +3160,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3179,7 +3185,7 @@
     <row r="67" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="49"/>
       <c r="F67" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3188,28 +3194,28 @@
     <row r="69" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="49"/>
       <c r="F69" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="48" t="s">
         <v>111</v>
-      </c>
-      <c r="G69" s="48" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="70" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="49"/>
       <c r="F70" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G70" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="49"/>
       <c r="F71" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G71" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3218,13 +3224,13 @@
     <row r="73" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="49"/>
       <c r="F73" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="49"/>
       <c r="F74" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3293,7 +3299,7 @@
       <c r="I79" s="46"/>
       <c r="J79" s="46"/>
       <c r="K79" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L79" s="68"/>
       <c r="M79" s="68"/>
@@ -3794,7 +3800,7 @@
       <c r="N93" s="35"/>
       <c r="O93" s="35"/>
       <c r="P93" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q93" s="35"/>
       <c r="R93" s="35"/>
@@ -4036,7 +4042,7 @@
       <c r="N99" s="46"/>
       <c r="O99" s="46"/>
       <c r="P99" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q99" s="46"/>
       <c r="R99" s="46"/>
@@ -4231,7 +4237,7 @@
       <c r="N104" s="52"/>
       <c r="O104" s="52"/>
       <c r="P104" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q104" s="52"/>
       <c r="R104" s="52"/>
@@ -4349,7 +4355,7 @@
       <c r="N107" s="52"/>
       <c r="O107" s="52"/>
       <c r="P107" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q107" s="52"/>
       <c r="R107" s="52"/>
@@ -4358,7 +4364,7 @@
       <c r="U107" s="52"/>
       <c r="V107" s="53"/>
       <c r="W107" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X107" s="52"/>
       <c r="Y107" s="52"/>
@@ -4394,7 +4400,7 @@
       <c r="U108" s="57"/>
       <c r="V108" s="58"/>
       <c r="W108" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X108" s="57"/>
       <c r="Y108" s="57"/>
@@ -4612,7 +4618,7 @@
         <v>6.3.7.</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F119" s="27"/>
     </row>
@@ -4621,7 +4627,7 @@
       <c r="C120" s="27"/>
       <c r="D120" s="27"/>
       <c r="E120" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F120" s="27"/>
     </row>
@@ -4644,7 +4650,7 @@
         <v>6.3.8.</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4653,7 +4659,7 @@
       <c r="C124" s="27"/>
       <c r="D124" s="25"/>
       <c r="E124" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4662,7 +4668,7 @@
       <c r="C125" s="27"/>
       <c r="D125" s="25"/>
       <c r="E125" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4671,7 +4677,7 @@
       <c r="C126" s="27"/>
       <c r="D126" s="25"/>
       <c r="E126" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4695,7 +4701,7 @@
     <row r="129" spans="3:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="27"/>
       <c r="F129" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="3:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4704,14 +4710,14 @@
     <row r="131" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="27"/>
       <c r="F131" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G131" s="26"/>
       <c r="H131" s="26"/>
       <c r="I131" s="26"/>
       <c r="J131" s="26"/>
       <c r="K131" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L131" s="26"/>
       <c r="M131" s="26"/>
@@ -4719,7 +4725,7 @@
       <c r="O131" s="26"/>
       <c r="P131" s="62"/>
       <c r="Q131" s="71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R131" s="72"/>
       <c r="S131" s="72"/>
@@ -4735,7 +4741,7 @@
       <c r="I132" s="46"/>
       <c r="J132" s="46"/>
       <c r="K132" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L132" s="46"/>
       <c r="M132" s="46"/>
@@ -4743,7 +4749,7 @@
       <c r="O132" s="46"/>
       <c r="P132" s="47"/>
       <c r="Q132" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R132" s="46"/>
       <c r="S132" s="46"/>
@@ -4759,7 +4765,7 @@
       <c r="I133" s="35"/>
       <c r="J133" s="35"/>
       <c r="K133" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L133" s="35"/>
       <c r="M133" s="35"/>
@@ -4767,7 +4773,7 @@
       <c r="O133" s="35"/>
       <c r="P133" s="39"/>
       <c r="Q133" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R133" s="46"/>
       <c r="S133" s="46"/>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB7736-4071-4BC7-B6C7-A231CD3433E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E62D7D-9EA9-46B0-8C87-F98D3CFC24F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6.3.メール送信'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$134</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$113</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$113</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$138</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$117</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -199,14 +199,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>分割して送信したい場合（宛先毎に一通一通、個別に送信したい場合等）は、業務アプリケーションがAPIを、送信回数分呼び出す必要がある。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本出力ライブラリが業務アプリケーションに公開する。各APIは、一回呼び出される毎にメールを一通送信する。同一のメールを複数の宛先に</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー処理</t>
     <rPh sb="3" eb="5">
       <t>ショリ</t>
@@ -556,25 +548,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>また、メール受付時に、メール送信要求を精査する。</t>
-    <rPh sb="6" eb="8">
-      <t>ウケツケ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メールフォーマット</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1078,6 +1051,77 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実際のメール送信は、常駐バッチによって行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/libraries/mail.html#mail-request</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチが検知して、メールの送信を行う）。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務アプリケーションからは、Nablarchが提供するAPIを使用してメール送信の処理要求を登録するように実装する（登録されたメール送信要求を</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchが提供するAPIについては、下記解説書を参照。</t>
+    <rPh sb="9" eb="11">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1089,7 +1133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,6 +1174,15 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1299,15 +1352,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1596,8 +1652,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1932,7 +1992,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI523"/>
+  <dimension ref="A1:AI527"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1945,7 +2005,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1966,7 +2026,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="80" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S1" s="81"/>
       <c r="T1" s="81"/>
@@ -2100,7 +2160,7 @@
         <v>6.3.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2170,7 +2230,7 @@
     <row r="17" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="59"/>
       <c r="E17" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -2197,7 +2257,7 @@
         <v>6.3.1.1.</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -2236,7 +2296,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -2359,7 +2419,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
@@ -2393,7 +2453,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -2495,7 +2555,7 @@
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -2648,7 +2708,7 @@
       <c r="M39" s="64"/>
       <c r="N39" s="65"/>
       <c r="O39" s="60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P39" s="50"/>
       <c r="Q39" s="50"/>
@@ -2683,12 +2743,12 @@
       <c r="J40" s="46"/>
       <c r="K40" s="47"/>
       <c r="L40" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M40" s="63"/>
       <c r="N40" s="66"/>
       <c r="O40" s="67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
@@ -2743,7 +2803,7 @@
     </row>
     <row r="42" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
@@ -2806,7 +2866,7 @@
     </row>
     <row r="44" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -2839,7 +2899,7 @@
     </row>
     <row r="45" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -2872,7 +2932,7 @@
     </row>
     <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -2905,7 +2965,7 @@
     </row>
     <row r="47" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -3005,8 +3065,9 @@
       <c r="AH49" s="32"/>
     </row>
     <row r="50" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="44" t="s">
-        <v>38</v>
+      <c r="E50" s="30"/>
+      <c r="F50" s="32" t="s">
+        <v>127</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -3038,8 +3099,9 @@
       <c r="AH50" s="32"/>
     </row>
     <row r="51" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E51" s="30"/>
       <c r="F51" s="32" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
@@ -3071,8 +3133,9 @@
       <c r="AH51" s="32"/>
     </row>
     <row r="52" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="48" t="s">
-        <v>74</v>
+      <c r="E52" s="30"/>
+      <c r="F52" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -3103,408 +3166,374 @@
       <c r="AG52" s="32"/>
       <c r="AH52" s="32"/>
     </row>
-    <row r="53" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="49" t="str">
+    <row r="53" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="44"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="32"/>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="32"/>
+      <c r="AC53" s="32"/>
+      <c r="AD53" s="32"/>
+      <c r="AE53" s="32"/>
+      <c r="AF53" s="32"/>
+      <c r="AG53" s="32"/>
+      <c r="AH53" s="32"/>
+    </row>
+    <row r="54" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="32"/>
+      <c r="AC54" s="32"/>
+      <c r="AD54" s="32"/>
+      <c r="AE54" s="32"/>
+      <c r="AF54" s="32"/>
+      <c r="AG54" s="32"/>
+      <c r="AH54" s="32"/>
+    </row>
+    <row r="55" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+      <c r="AD55" s="32"/>
+      <c r="AE55" s="32"/>
+      <c r="AF55" s="32"/>
+      <c r="AG55" s="32"/>
+      <c r="AH55" s="32"/>
+    </row>
+    <row r="56" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="32"/>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="32"/>
+      <c r="AC56" s="32"/>
+      <c r="AD56" s="32"/>
+      <c r="AE56" s="32"/>
+      <c r="AF56" s="32"/>
+      <c r="AG56" s="32"/>
+      <c r="AH56" s="32"/>
+    </row>
+    <row r="57" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D59" s="49" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.3.3.</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E59" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="49"/>
-      <c r="E56" s="49" t="str">
-        <f>D55&amp;"1."</f>
+    <row r="60" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="49"/>
+      <c r="E60" s="49" t="str">
+        <f>D59&amp;"1."</f>
         <v>6.3.3.1.</v>
       </c>
-      <c r="F56" s="48" t="str">
-        <f>E55&amp;"機能概要"</f>
+      <c r="F60" s="48" t="str">
+        <f>E59&amp;"機能概要"</f>
         <v>メールテンプレート機能概要</v>
       </c>
     </row>
-    <row r="57" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F57" s="48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F58" s="48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F59" s="48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="61" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="49" t="str">
-        <f>D55&amp;"2."</f>
-        <v>6.3.3.2.</v>
-      </c>
       <c r="F61" s="48" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="49" t="str">
+        <f>D59&amp;"2."</f>
+        <v>6.3.3.2.</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F66" s="48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F63" s="49" t="s">
+    <row r="67" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F64" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" s="48" t="s">
+      <c r="G67" s="48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E66" s="49" t="str">
-        <f>D55&amp;"3."</f>
+    <row r="69" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="49" t="str">
+        <f>D59&amp;"3."</f>
         <v>6.3.3.3.</v>
       </c>
-      <c r="F66" s="48" t="str">
-        <f>E55&amp;"手段"</f>
+      <c r="F70" s="48" t="str">
+        <f>E59&amp;"手段"</f>
         <v>メールテンプレート手段</v>
       </c>
     </row>
-    <row r="67" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E67" s="49"/>
-      <c r="F67" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E68" s="49"/>
-    </row>
-    <row r="69" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E69" s="49"/>
-      <c r="F69" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G69" s="48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="49"/>
-      <c r="F70" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="G70" s="48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="49"/>
       <c r="F71" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="G71" s="48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="49"/>
     </row>
-    <row r="73" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="49"/>
       <c r="F73" s="48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="G73" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="49"/>
       <c r="F74" s="48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D76" s="49" t="str">
+        <v>111</v>
+      </c>
+      <c r="G74" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="49"/>
+      <c r="F75" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" s="48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="49"/>
+    </row>
+    <row r="77" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E77" s="49"/>
+      <c r="F77" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E78" s="49"/>
+      <c r="F78" s="48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D80" s="49" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.3.4.</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E80" s="48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77" s="24" t="str">
-        <f>D76&amp;"1."</f>
+    <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E81" s="24" t="str">
+        <f>D80&amp;"1."</f>
         <v>6.3.4.1.</v>
       </c>
-      <c r="F77" s="4" t="str">
-        <f>E76&amp;"手段"</f>
+      <c r="F81" s="4" t="str">
+        <f>E80&amp;"手段"</f>
         <v>メールフォーマット手段</v>
       </c>
     </row>
-    <row r="78" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F78" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="16" t="s">
+    <row r="82" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F82" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="16"/>
-      <c r="W78" s="16"/>
-      <c r="X78" s="16"/>
-      <c r="Y78" s="16"/>
-      <c r="Z78" s="16"/>
-      <c r="AA78" s="16"/>
-      <c r="AB78" s="16"/>
-      <c r="AC78" s="16"/>
-      <c r="AD78" s="16"/>
-      <c r="AE78" s="16"/>
-      <c r="AF78" s="16"/>
-      <c r="AG78" s="16"/>
-      <c r="AH78" s="17"/>
-    </row>
-    <row r="79" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F79" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="L79" s="68"/>
-      <c r="M79" s="68"/>
-      <c r="N79" s="68"/>
-      <c r="O79" s="68"/>
-      <c r="P79" s="68"/>
-      <c r="Q79" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="R79" s="68"/>
-      <c r="S79" s="68"/>
-      <c r="T79" s="68"/>
-      <c r="U79" s="68"/>
-      <c r="V79" s="68"/>
-      <c r="W79" s="68"/>
-      <c r="X79" s="68"/>
-      <c r="Y79" s="68"/>
-      <c r="Z79" s="68"/>
-      <c r="AA79" s="68"/>
-      <c r="AB79" s="68"/>
-      <c r="AC79" s="68"/>
-      <c r="AD79" s="68"/>
-      <c r="AE79" s="68"/>
-      <c r="AF79" s="68"/>
-      <c r="AG79" s="68"/>
-      <c r="AH79" s="69"/>
-    </row>
-    <row r="80" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E81" s="24"/>
-    </row>
-    <row r="82" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="30" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>6.3.5.</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
-      <c r="T82" s="28"/>
-      <c r="U82" s="28"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="28"/>
-      <c r="AA82" s="28"/>
-      <c r="AB82" s="28"/>
-      <c r="AC82" s="28"/>
-      <c r="AD82" s="28"/>
-      <c r="AE82" s="28"/>
-      <c r="AF82" s="28"/>
-      <c r="AG82" s="28"/>
-      <c r="AH82" s="28"/>
-      <c r="AI82" s="28"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
+      <c r="W82" s="16"/>
+      <c r="X82" s="16"/>
+      <c r="Y82" s="16"/>
+      <c r="Z82" s="16"/>
+      <c r="AA82" s="16"/>
+      <c r="AB82" s="16"/>
+      <c r="AC82" s="16"/>
+      <c r="AD82" s="16"/>
+      <c r="AE82" s="16"/>
+      <c r="AF82" s="16"/>
+      <c r="AG82" s="16"/>
+      <c r="AH82" s="17"/>
     </row>
     <row r="83" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30" t="str">
-        <f>D82&amp;"1."</f>
-        <v>6.3.5.1.</v>
-      </c>
-      <c r="F83" s="29" t="str">
-        <f>E82&amp;"機能概要"</f>
-        <v>エラー処理機能概要</v>
-      </c>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="28"/>
-      <c r="Q83" s="28"/>
-      <c r="R83" s="28"/>
-      <c r="S83" s="28"/>
-      <c r="T83" s="28"/>
-      <c r="U83" s="28"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="28"/>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="28"/>
-      <c r="AA83" s="28"/>
-      <c r="AB83" s="28"/>
-      <c r="AC83" s="28"/>
-      <c r="AD83" s="28"/>
-      <c r="AE83" s="28"/>
-      <c r="AF83" s="28"/>
-      <c r="AG83" s="28"/>
-      <c r="AH83" s="28"/>
-      <c r="AI83" s="28"/>
-    </row>
-    <row r="84" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28"/>
-      <c r="S84" s="28"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
-      <c r="V84" s="28"/>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="28"/>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-      <c r="AC84" s="28"/>
-      <c r="AD84" s="28"/>
-      <c r="AE84" s="28"/>
-      <c r="AF84" s="28"/>
-      <c r="AG84" s="28"/>
-      <c r="AH84" s="28"/>
-      <c r="AI84" s="28"/>
-    </row>
+      <c r="F83" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="L83" s="68"/>
+      <c r="M83" s="68"/>
+      <c r="N83" s="68"/>
+      <c r="O83" s="68"/>
+      <c r="P83" s="68"/>
+      <c r="Q83" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="R83" s="68"/>
+      <c r="S83" s="68"/>
+      <c r="T83" s="68"/>
+      <c r="U83" s="68"/>
+      <c r="V83" s="68"/>
+      <c r="W83" s="68"/>
+      <c r="X83" s="68"/>
+      <c r="Y83" s="68"/>
+      <c r="Z83" s="68"/>
+      <c r="AA83" s="68"/>
+      <c r="AB83" s="68"/>
+      <c r="AC83" s="68"/>
+      <c r="AD83" s="68"/>
+      <c r="AE83" s="68"/>
+      <c r="AF83" s="68"/>
+      <c r="AG83" s="68"/>
+      <c r="AH83" s="69"/>
+    </row>
+    <row r="84" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="85" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="28"/>
-      <c r="O85" s="28"/>
-      <c r="P85" s="28"/>
-      <c r="Q85" s="28"/>
-      <c r="R85" s="28"/>
-      <c r="S85" s="28"/>
-      <c r="T85" s="28"/>
-      <c r="U85" s="28"/>
-      <c r="V85" s="28"/>
-      <c r="W85" s="28"/>
-      <c r="X85" s="28"/>
-      <c r="Y85" s="28"/>
-      <c r="Z85" s="28"/>
-      <c r="AA85" s="28"/>
-      <c r="AB85" s="28"/>
-      <c r="AC85" s="28"/>
-      <c r="AD85" s="28"/>
-      <c r="AE85" s="28"/>
-      <c r="AF85" s="28"/>
-      <c r="AG85" s="28"/>
-      <c r="AH85" s="28"/>
-      <c r="AI85" s="28"/>
+      <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="30" t="str">
-        <f>D82&amp;"2."</f>
-        <v>6.3.5.2.</v>
-      </c>
-      <c r="F86" s="29" t="str">
-        <f>E82&amp;"方法"</f>
-        <v>エラー処理方法</v>
-      </c>
+      <c r="D86" s="30" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>6.3.5.</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" s="28"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
@@ -3535,14 +3564,18 @@
       <c r="AH86" s="28"/>
       <c r="AI86" s="28"/>
     </row>
-    <row r="87" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="29" t="s">
-        <v>53</v>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30" t="str">
+        <f>D86&amp;"1."</f>
+        <v>6.3.5.1.</v>
+      </c>
+      <c r="F87" s="29" t="str">
+        <f>E86&amp;"機能概要"</f>
+        <v>エラー処理機能概要</v>
       </c>
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
@@ -3574,13 +3607,15 @@
       <c r="AH87" s="28"/>
       <c r="AI87" s="28"/>
     </row>
-    <row r="88" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
+    <row r="88" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
+      <c r="F88" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="G88" s="28"/>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
@@ -3611,215 +3646,205 @@
       <c r="AH88" s="28"/>
       <c r="AI88" s="28"/>
     </row>
-    <row r="89" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="43"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="43"/>
+    <row r="89" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K89" s="41"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="42"/>
-      <c r="P89" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="41"/>
-      <c r="S89" s="41"/>
-      <c r="T89" s="41"/>
-      <c r="U89" s="41"/>
-      <c r="V89" s="42"/>
-      <c r="W89" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="X89" s="41"/>
-      <c r="Y89" s="41"/>
-      <c r="Z89" s="41"/>
-      <c r="AA89" s="41"/>
-      <c r="AB89" s="41"/>
-      <c r="AC89" s="41"/>
-      <c r="AD89" s="41"/>
-      <c r="AE89" s="41"/>
-      <c r="AF89" s="41"/>
-      <c r="AG89" s="41"/>
-      <c r="AH89" s="42"/>
-    </row>
-    <row r="90" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="43"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
+      <c r="R89" s="28"/>
+      <c r="S89" s="28"/>
+      <c r="T89" s="28"/>
+      <c r="U89" s="28"/>
+      <c r="V89" s="28"/>
+      <c r="W89" s="28"/>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="28"/>
+      <c r="AA89" s="28"/>
+      <c r="AB89" s="28"/>
+      <c r="AC89" s="28"/>
+      <c r="AD89" s="28"/>
+      <c r="AE89" s="28"/>
+      <c r="AF89" s="28"/>
+      <c r="AG89" s="28"/>
+      <c r="AH89" s="28"/>
+      <c r="AI89" s="28"/>
+    </row>
+    <row r="90" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="X90" s="37"/>
-      <c r="Y90" s="37"/>
-      <c r="Z90" s="37"/>
-      <c r="AA90" s="37"/>
-      <c r="AB90" s="37"/>
-      <c r="AC90" s="37"/>
-      <c r="AD90" s="37"/>
-      <c r="AE90" s="37"/>
-      <c r="AF90" s="37"/>
-      <c r="AG90" s="37"/>
-      <c r="AH90" s="38"/>
+      <c r="E90" s="30" t="str">
+        <f>D86&amp;"2."</f>
+        <v>6.3.5.2.</v>
+      </c>
+      <c r="F90" s="29" t="str">
+        <f>E86&amp;"方法"</f>
+        <v>エラー処理方法</v>
+      </c>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="28"/>
+      <c r="P90" s="28"/>
+      <c r="Q90" s="28"/>
+      <c r="R90" s="28"/>
+      <c r="S90" s="28"/>
+      <c r="T90" s="28"/>
+      <c r="U90" s="28"/>
+      <c r="V90" s="28"/>
+      <c r="W90" s="28"/>
+      <c r="X90" s="28"/>
+      <c r="Y90" s="28"/>
+      <c r="Z90" s="28"/>
+      <c r="AA90" s="28"/>
+      <c r="AB90" s="28"/>
+      <c r="AC90" s="28"/>
+      <c r="AD90" s="28"/>
+      <c r="AE90" s="28"/>
+      <c r="AF90" s="28"/>
+      <c r="AG90" s="28"/>
+      <c r="AH90" s="28"/>
+      <c r="AI90" s="28"/>
     </row>
     <row r="91" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="43"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="X91" s="37"/>
-      <c r="Y91" s="37"/>
-      <c r="Z91" s="37"/>
-      <c r="AA91" s="37"/>
-      <c r="AB91" s="37"/>
-      <c r="AC91" s="37"/>
-      <c r="AD91" s="37"/>
-      <c r="AE91" s="37"/>
-      <c r="AF91" s="37"/>
-      <c r="AG91" s="37"/>
-      <c r="AH91" s="38"/>
+      <c r="F91" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
+      <c r="R91" s="28"/>
+      <c r="S91" s="28"/>
+      <c r="T91" s="28"/>
+      <c r="U91" s="28"/>
+      <c r="V91" s="28"/>
+      <c r="W91" s="28"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="28"/>
+      <c r="Z91" s="28"/>
+      <c r="AA91" s="28"/>
+      <c r="AB91" s="28"/>
+      <c r="AC91" s="28"/>
+      <c r="AD91" s="28"/>
+      <c r="AE91" s="28"/>
+      <c r="AF91" s="28"/>
+      <c r="AG91" s="28"/>
+      <c r="AH91" s="28"/>
+      <c r="AI91" s="28"/>
     </row>
     <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="43"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
-      <c r="P92" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="32"/>
-      <c r="X92" s="32"/>
-      <c r="Y92" s="32"/>
-      <c r="Z92" s="32"/>
-      <c r="AA92" s="32"/>
-      <c r="AB92" s="32"/>
-      <c r="AC92" s="32"/>
-      <c r="AD92" s="32"/>
-      <c r="AE92" s="32"/>
-      <c r="AF92" s="32"/>
-      <c r="AG92" s="32"/>
-      <c r="AH92" s="33"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="28"/>
+      <c r="P92" s="28"/>
+      <c r="Q92" s="28"/>
+      <c r="R92" s="28"/>
+      <c r="S92" s="28"/>
+      <c r="T92" s="28"/>
+      <c r="U92" s="28"/>
+      <c r="V92" s="28"/>
+      <c r="W92" s="28"/>
+      <c r="X92" s="28"/>
+      <c r="Y92" s="28"/>
+      <c r="Z92" s="28"/>
+      <c r="AA92" s="28"/>
+      <c r="AB92" s="28"/>
+      <c r="AC92" s="28"/>
+      <c r="AD92" s="28"/>
+      <c r="AE92" s="28"/>
+      <c r="AF92" s="28"/>
+      <c r="AG92" s="28"/>
+      <c r="AH92" s="28"/>
+      <c r="AI92" s="28"/>
     </row>
     <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="27"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="27"/>
       <c r="C93" s="43"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
-      <c r="P93" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-      <c r="V93" s="39"/>
-      <c r="W93" s="35"/>
-      <c r="X93" s="35"/>
-      <c r="Y93" s="35"/>
-      <c r="Z93" s="35"/>
-      <c r="AA93" s="35"/>
-      <c r="AB93" s="35"/>
-      <c r="AC93" s="35"/>
-      <c r="AD93" s="35"/>
-      <c r="AE93" s="35"/>
-      <c r="AF93" s="35"/>
-      <c r="AG93" s="35"/>
-      <c r="AH93" s="39"/>
+      <c r="F93" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K93" s="41"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="41"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="41"/>
+      <c r="S93" s="41"/>
+      <c r="T93" s="41"/>
+      <c r="U93" s="41"/>
+      <c r="V93" s="42"/>
+      <c r="W93" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="X93" s="41"/>
+      <c r="Y93" s="41"/>
+      <c r="Z93" s="41"/>
+      <c r="AA93" s="41"/>
+      <c r="AB93" s="41"/>
+      <c r="AC93" s="41"/>
+      <c r="AD93" s="41"/>
+      <c r="AE93" s="41"/>
+      <c r="AF93" s="41"/>
+      <c r="AG93" s="41"/>
+      <c r="AH93" s="42"/>
     </row>
     <row r="94" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="27"/>
@@ -3827,155 +3852,165 @@
       <c r="C94" s="43"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="32"/>
-      <c r="M94" s="32"/>
-      <c r="N94" s="32"/>
-      <c r="O94" s="32"/>
-      <c r="P94" s="32"/>
-      <c r="Q94" s="32"/>
-      <c r="R94" s="32"/>
-      <c r="S94" s="32"/>
-      <c r="T94" s="32"/>
-      <c r="U94" s="32"/>
-      <c r="V94" s="32"/>
-      <c r="W94" s="32"/>
-      <c r="X94" s="32"/>
-      <c r="Y94" s="32"/>
-      <c r="Z94" s="32"/>
-      <c r="AA94" s="32"/>
-      <c r="AB94" s="32"/>
-      <c r="AC94" s="32"/>
-      <c r="AD94" s="32"/>
-      <c r="AE94" s="32"/>
-      <c r="AF94" s="32"/>
-      <c r="AG94" s="32"/>
-      <c r="AH94" s="32"/>
+      <c r="F94" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+      <c r="U94" s="37"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="X94" s="37"/>
+      <c r="Y94" s="37"/>
+      <c r="Z94" s="37"/>
+      <c r="AA94" s="37"/>
+      <c r="AB94" s="37"/>
+      <c r="AC94" s="37"/>
+      <c r="AD94" s="37"/>
+      <c r="AE94" s="37"/>
+      <c r="AF94" s="37"/>
+      <c r="AG94" s="37"/>
+      <c r="AH94" s="38"/>
     </row>
     <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="43"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
-      <c r="F95" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="28"/>
-      <c r="O95" s="28"/>
-      <c r="P95" s="28"/>
-      <c r="Q95" s="28"/>
-      <c r="R95" s="28"/>
-      <c r="S95" s="28"/>
-      <c r="T95" s="28"/>
-      <c r="U95" s="28"/>
-      <c r="V95" s="28"/>
-      <c r="W95" s="28"/>
-      <c r="X95" s="28"/>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="28"/>
-      <c r="AA95" s="28"/>
-      <c r="AB95" s="28"/>
-      <c r="AC95" s="28"/>
-      <c r="AD95" s="28"/>
-      <c r="AE95" s="28"/>
-      <c r="AF95" s="28"/>
-      <c r="AG95" s="28"/>
-      <c r="AH95" s="28"/>
-      <c r="AI95" s="28"/>
+      <c r="F95" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="37"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="X95" s="37"/>
+      <c r="Y95" s="37"/>
+      <c r="Z95" s="37"/>
+      <c r="AA95" s="37"/>
+      <c r="AB95" s="37"/>
+      <c r="AC95" s="37"/>
+      <c r="AD95" s="37"/>
+      <c r="AE95" s="37"/>
+      <c r="AF95" s="37"/>
+      <c r="AG95" s="37"/>
+      <c r="AH95" s="38"/>
     </row>
     <row r="96" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="43"/>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="28"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="28"/>
-      <c r="Q96" s="28"/>
-      <c r="R96" s="28"/>
-      <c r="S96" s="28"/>
-      <c r="T96" s="28"/>
-      <c r="U96" s="28"/>
-      <c r="V96" s="28"/>
-      <c r="W96" s="28"/>
-      <c r="X96" s="28"/>
-      <c r="Y96" s="28"/>
-      <c r="Z96" s="28"/>
-      <c r="AA96" s="28"/>
-      <c r="AB96" s="28"/>
-      <c r="AC96" s="28"/>
-      <c r="AD96" s="28"/>
-      <c r="AE96" s="28"/>
-      <c r="AF96" s="28"/>
-      <c r="AG96" s="28"/>
-      <c r="AH96" s="28"/>
-      <c r="AI96" s="28"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="39"/>
+      <c r="W96" s="32"/>
+      <c r="X96" s="32"/>
+      <c r="Y96" s="32"/>
+      <c r="Z96" s="32"/>
+      <c r="AA96" s="32"/>
+      <c r="AB96" s="32"/>
+      <c r="AC96" s="32"/>
+      <c r="AD96" s="32"/>
+      <c r="AE96" s="32"/>
+      <c r="AF96" s="32"/>
+      <c r="AG96" s="32"/>
+      <c r="AH96" s="33"/>
     </row>
     <row r="97" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="43"/>
+      <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="43"/>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
-      <c r="F97" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
-      <c r="O97" s="42"/>
-      <c r="P97" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q97" s="41"/>
-      <c r="R97" s="41"/>
-      <c r="S97" s="41"/>
-      <c r="T97" s="41"/>
-      <c r="U97" s="41"/>
-      <c r="V97" s="42"/>
-      <c r="W97" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="X97" s="41"/>
-      <c r="Y97" s="41"/>
-      <c r="Z97" s="41"/>
-      <c r="AA97" s="41"/>
-      <c r="AB97" s="41"/>
-      <c r="AC97" s="41"/>
-      <c r="AD97" s="41"/>
-      <c r="AE97" s="41"/>
-      <c r="AF97" s="41"/>
-      <c r="AG97" s="41"/>
-      <c r="AH97" s="42"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="35"/>
+      <c r="U97" s="35"/>
+      <c r="V97" s="39"/>
+      <c r="W97" s="35"/>
+      <c r="X97" s="35"/>
+      <c r="Y97" s="35"/>
+      <c r="Z97" s="35"/>
+      <c r="AA97" s="35"/>
+      <c r="AB97" s="35"/>
+      <c r="AC97" s="35"/>
+      <c r="AD97" s="35"/>
+      <c r="AE97" s="35"/>
+      <c r="AF97" s="35"/>
+      <c r="AG97" s="35"/>
+      <c r="AH97" s="39"/>
     </row>
     <row r="98" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="27"/>
@@ -3983,815 +4018,967 @@
       <c r="C98" s="43"/>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
-      <c r="F98" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="K98" s="37"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q98" s="37"/>
-      <c r="R98" s="37"/>
-      <c r="S98" s="37"/>
-      <c r="T98" s="37"/>
-      <c r="U98" s="37"/>
-      <c r="V98" s="38"/>
-      <c r="W98" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="X98" s="37"/>
-      <c r="Y98" s="37"/>
-      <c r="Z98" s="37"/>
-      <c r="AA98" s="37"/>
-      <c r="AB98" s="37"/>
-      <c r="AC98" s="37"/>
-      <c r="AD98" s="37"/>
-      <c r="AE98" s="37"/>
-      <c r="AF98" s="37"/>
-      <c r="AG98" s="37"/>
-      <c r="AH98" s="38"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="32"/>
+      <c r="P98" s="32"/>
+      <c r="Q98" s="32"/>
+      <c r="R98" s="32"/>
+      <c r="S98" s="32"/>
+      <c r="T98" s="32"/>
+      <c r="U98" s="32"/>
+      <c r="V98" s="32"/>
+      <c r="W98" s="32"/>
+      <c r="X98" s="32"/>
+      <c r="Y98" s="32"/>
+      <c r="Z98" s="32"/>
+      <c r="AA98" s="32"/>
+      <c r="AB98" s="32"/>
+      <c r="AC98" s="32"/>
+      <c r="AD98" s="32"/>
+      <c r="AE98" s="32"/>
+      <c r="AF98" s="32"/>
+      <c r="AG98" s="32"/>
+      <c r="AH98" s="32"/>
     </row>
     <row r="99" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="43"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
-      <c r="F99" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="46"/>
-      <c r="J99" s="45" t="s">
+      <c r="F99" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="28"/>
+      <c r="P99" s="28"/>
+      <c r="Q99" s="28"/>
+      <c r="R99" s="28"/>
+      <c r="S99" s="28"/>
+      <c r="T99" s="28"/>
+      <c r="U99" s="28"/>
+      <c r="V99" s="28"/>
+      <c r="W99" s="28"/>
+      <c r="X99" s="28"/>
+      <c r="Y99" s="28"/>
+      <c r="Z99" s="28"/>
+      <c r="AA99" s="28"/>
+      <c r="AB99" s="28"/>
+      <c r="AC99" s="28"/>
+      <c r="AD99" s="28"/>
+      <c r="AE99" s="28"/>
+      <c r="AF99" s="28"/>
+      <c r="AG99" s="28"/>
+      <c r="AH99" s="28"/>
+      <c r="AI99" s="28"/>
+    </row>
+    <row r="100" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="28"/>
+      <c r="O100" s="28"/>
+      <c r="P100" s="28"/>
+      <c r="Q100" s="28"/>
+      <c r="R100" s="28"/>
+      <c r="S100" s="28"/>
+      <c r="T100" s="28"/>
+      <c r="U100" s="28"/>
+      <c r="V100" s="28"/>
+      <c r="W100" s="28"/>
+      <c r="X100" s="28"/>
+      <c r="Y100" s="28"/>
+      <c r="Z100" s="28"/>
+      <c r="AA100" s="28"/>
+      <c r="AB100" s="28"/>
+      <c r="AC100" s="28"/>
+      <c r="AD100" s="28"/>
+      <c r="AE100" s="28"/>
+      <c r="AF100" s="28"/>
+      <c r="AG100" s="28"/>
+      <c r="AH100" s="28"/>
+      <c r="AI100" s="28"/>
+    </row>
+    <row r="101" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="43"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="42"/>
+      <c r="P101" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q101" s="41"/>
+      <c r="R101" s="41"/>
+      <c r="S101" s="41"/>
+      <c r="T101" s="41"/>
+      <c r="U101" s="41"/>
+      <c r="V101" s="42"/>
+      <c r="W101" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="X101" s="41"/>
+      <c r="Y101" s="41"/>
+      <c r="Z101" s="41"/>
+      <c r="AA101" s="41"/>
+      <c r="AB101" s="41"/>
+      <c r="AC101" s="41"/>
+      <c r="AD101" s="41"/>
+      <c r="AE101" s="41"/>
+      <c r="AF101" s="41"/>
+      <c r="AG101" s="41"/>
+      <c r="AH101" s="42"/>
+    </row>
+    <row r="102" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="37"/>
+      <c r="T102" s="37"/>
+      <c r="U102" s="37"/>
+      <c r="V102" s="38"/>
+      <c r="W102" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="K99" s="46"/>
-      <c r="L99" s="46"/>
-      <c r="M99" s="46"/>
-      <c r="N99" s="46"/>
-      <c r="O99" s="46"/>
-      <c r="P99" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q99" s="46"/>
-      <c r="R99" s="46"/>
-      <c r="S99" s="46"/>
-      <c r="T99" s="46"/>
-      <c r="U99" s="46"/>
-      <c r="V99" s="47"/>
-      <c r="W99" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="X99" s="46"/>
-      <c r="Y99" s="46"/>
-      <c r="Z99" s="46"/>
-      <c r="AA99" s="46"/>
-      <c r="AB99" s="46"/>
-      <c r="AC99" s="46"/>
-      <c r="AD99" s="46"/>
-      <c r="AE99" s="46"/>
-      <c r="AF99" s="46"/>
-      <c r="AG99" s="46"/>
-      <c r="AH99" s="47"/>
-    </row>
-    <row r="100" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="50"/>
-      <c r="J100" s="50"/>
-      <c r="K100" s="50"/>
-      <c r="L100" s="50"/>
-      <c r="M100" s="50"/>
-      <c r="N100" s="50"/>
-      <c r="O100" s="50"/>
-      <c r="P100" s="50"/>
-      <c r="Q100" s="50"/>
-      <c r="R100" s="50"/>
-      <c r="S100" s="50"/>
-      <c r="T100" s="50"/>
-      <c r="U100" s="50"/>
-      <c r="V100" s="50"/>
-      <c r="W100" s="50"/>
-      <c r="X100" s="50"/>
-      <c r="Y100" s="50"/>
-      <c r="Z100" s="50"/>
-      <c r="AA100" s="50"/>
-      <c r="AB100" s="50"/>
-      <c r="AC100" s="50"/>
-      <c r="AD100" s="50"/>
-      <c r="AE100" s="50"/>
-      <c r="AF100" s="50"/>
-      <c r="AG100" s="50"/>
-      <c r="AH100" s="50"/>
-    </row>
-    <row r="101" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="43"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="27" t="s">
+      <c r="X102" s="37"/>
+      <c r="Y102" s="37"/>
+      <c r="Z102" s="37"/>
+      <c r="AA102" s="37"/>
+      <c r="AB102" s="37"/>
+      <c r="AC102" s="37"/>
+      <c r="AD102" s="37"/>
+      <c r="AE102" s="37"/>
+      <c r="AF102" s="37"/>
+      <c r="AG102" s="37"/>
+      <c r="AH102" s="38"/>
+    </row>
+    <row r="103" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43"/>
-      <c r="K101" s="43"/>
-      <c r="L101" s="43"/>
-      <c r="M101" s="43"/>
-      <c r="N101" s="43"/>
-      <c r="O101" s="43"/>
-      <c r="P101" s="43"/>
-      <c r="Q101" s="43"/>
-      <c r="R101" s="43"/>
-      <c r="S101" s="43"/>
-      <c r="T101" s="43"/>
-      <c r="U101" s="43"/>
-      <c r="V101" s="43"/>
-      <c r="W101" s="43"/>
-      <c r="X101" s="43"/>
-      <c r="Y101" s="43"/>
-      <c r="Z101" s="43"/>
-      <c r="AA101" s="43"/>
-      <c r="AB101" s="43"/>
-      <c r="AC101" s="43"/>
-      <c r="AD101" s="43"/>
-      <c r="AE101" s="43"/>
-      <c r="AF101" s="43"/>
-      <c r="AG101" s="43"/>
-      <c r="AH101" s="43"/>
-      <c r="AI101" s="43"/>
-    </row>
-    <row r="102" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="43"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="43"/>
-      <c r="M102" s="43"/>
-      <c r="N102" s="43"/>
-      <c r="O102" s="43"/>
-      <c r="P102" s="43"/>
-      <c r="Q102" s="43"/>
-      <c r="R102" s="43"/>
-      <c r="S102" s="43"/>
-      <c r="T102" s="43"/>
-      <c r="U102" s="43"/>
-      <c r="V102" s="43"/>
-      <c r="W102" s="43"/>
-      <c r="X102" s="43"/>
-      <c r="Y102" s="43"/>
-      <c r="Z102" s="43"/>
-      <c r="AA102" s="43"/>
-      <c r="AB102" s="43"/>
-      <c r="AC102" s="43"/>
-      <c r="AD102" s="43"/>
-      <c r="AE102" s="43"/>
-      <c r="AF102" s="43"/>
-      <c r="AG102" s="43"/>
-      <c r="AH102" s="43"/>
-      <c r="AI102" s="43"/>
-    </row>
-    <row r="103" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="41"/>
-      <c r="O103" s="42"/>
-      <c r="P103" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q103" s="41"/>
-      <c r="R103" s="41"/>
-      <c r="S103" s="41"/>
-      <c r="T103" s="41"/>
-      <c r="U103" s="41"/>
-      <c r="V103" s="42"/>
-      <c r="W103" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="X103" s="41"/>
-      <c r="Y103" s="41"/>
-      <c r="Z103" s="41"/>
-      <c r="AA103" s="41"/>
-      <c r="AB103" s="41"/>
-      <c r="AC103" s="41"/>
-      <c r="AD103" s="41"/>
-      <c r="AE103" s="41"/>
-      <c r="AF103" s="41"/>
-      <c r="AG103" s="41"/>
-      <c r="AH103" s="42"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="46"/>
+      <c r="P103" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q103" s="46"/>
+      <c r="R103" s="46"/>
+      <c r="S103" s="46"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="46"/>
+      <c r="V103" s="47"/>
+      <c r="W103" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="X103" s="46"/>
+      <c r="Y103" s="46"/>
+      <c r="Z103" s="46"/>
+      <c r="AA103" s="46"/>
+      <c r="AB103" s="46"/>
+      <c r="AC103" s="46"/>
+      <c r="AD103" s="46"/>
+      <c r="AE103" s="46"/>
+      <c r="AF103" s="46"/>
+      <c r="AG103" s="46"/>
+      <c r="AH103" s="47"/>
     </row>
     <row r="104" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="43"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
-      <c r="F104" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="52"/>
-      <c r="J104" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="K104" s="52"/>
-      <c r="L104" s="52"/>
-      <c r="M104" s="52"/>
-      <c r="N104" s="52"/>
-      <c r="O104" s="52"/>
-      <c r="P104" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q104" s="52"/>
-      <c r="R104" s="52"/>
-      <c r="S104" s="52"/>
-      <c r="T104" s="52"/>
-      <c r="U104" s="52"/>
-      <c r="V104" s="53"/>
-      <c r="W104" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="X104" s="52"/>
-      <c r="Y104" s="52"/>
-      <c r="Z104" s="52"/>
-      <c r="AA104" s="52"/>
-      <c r="AB104" s="52"/>
-      <c r="AC104" s="52"/>
-      <c r="AD104" s="52"/>
-      <c r="AE104" s="52"/>
-      <c r="AF104" s="52"/>
-      <c r="AG104" s="52"/>
-      <c r="AH104" s="53"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="50"/>
+      <c r="J104" s="50"/>
+      <c r="K104" s="50"/>
+      <c r="L104" s="50"/>
+      <c r="M104" s="50"/>
+      <c r="N104" s="50"/>
+      <c r="O104" s="50"/>
+      <c r="P104" s="50"/>
+      <c r="Q104" s="50"/>
+      <c r="R104" s="50"/>
+      <c r="S104" s="50"/>
+      <c r="T104" s="50"/>
+      <c r="U104" s="50"/>
+      <c r="V104" s="50"/>
+      <c r="W104" s="50"/>
+      <c r="X104" s="50"/>
+      <c r="Y104" s="50"/>
+      <c r="Z104" s="50"/>
+      <c r="AA104" s="50"/>
+      <c r="AB104" s="50"/>
+      <c r="AC104" s="50"/>
+      <c r="AD104" s="50"/>
+      <c r="AE104" s="50"/>
+      <c r="AF104" s="50"/>
+      <c r="AG104" s="50"/>
+      <c r="AH104" s="50"/>
     </row>
     <row r="105" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="43"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
-      <c r="F105" s="54"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="50"/>
-      <c r="L105" s="50"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="50"/>
-      <c r="O105" s="50"/>
-      <c r="P105" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q105" s="50"/>
-      <c r="R105" s="50"/>
-      <c r="S105" s="50"/>
-      <c r="T105" s="50"/>
-      <c r="U105" s="50"/>
-      <c r="V105" s="55"/>
-      <c r="W105" s="50"/>
-      <c r="X105" s="50"/>
-      <c r="Y105" s="50"/>
-      <c r="Z105" s="50"/>
-      <c r="AA105" s="50"/>
-      <c r="AB105" s="50"/>
-      <c r="AC105" s="50"/>
-      <c r="AD105" s="50"/>
-      <c r="AE105" s="50"/>
-      <c r="AF105" s="50"/>
-      <c r="AG105" s="50"/>
-      <c r="AH105" s="55"/>
+      <c r="F105" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="43"/>
+      <c r="Q105" s="43"/>
+      <c r="R105" s="43"/>
+      <c r="S105" s="43"/>
+      <c r="T105" s="43"/>
+      <c r="U105" s="43"/>
+      <c r="V105" s="43"/>
+      <c r="W105" s="43"/>
+      <c r="X105" s="43"/>
+      <c r="Y105" s="43"/>
+      <c r="Z105" s="43"/>
+      <c r="AA105" s="43"/>
+      <c r="AB105" s="43"/>
+      <c r="AC105" s="43"/>
+      <c r="AD105" s="43"/>
+      <c r="AE105" s="43"/>
+      <c r="AF105" s="43"/>
+      <c r="AG105" s="43"/>
+      <c r="AH105" s="43"/>
+      <c r="AI105" s="43"/>
     </row>
     <row r="106" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="43"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="50"/>
-      <c r="J106" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="K106" s="52"/>
-      <c r="L106" s="52"/>
-      <c r="M106" s="52"/>
-      <c r="N106" s="52"/>
-      <c r="O106" s="52"/>
-      <c r="P106" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q106" s="52"/>
-      <c r="R106" s="52"/>
-      <c r="S106" s="52"/>
-      <c r="T106" s="52"/>
-      <c r="U106" s="52"/>
-      <c r="V106" s="53"/>
-      <c r="W106" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="X106" s="52"/>
-      <c r="Y106" s="52"/>
-      <c r="Z106" s="52"/>
-      <c r="AA106" s="52"/>
-      <c r="AB106" s="52"/>
-      <c r="AC106" s="52"/>
-      <c r="AD106" s="52"/>
-      <c r="AE106" s="52"/>
-      <c r="AF106" s="52"/>
-      <c r="AG106" s="52"/>
-      <c r="AH106" s="53"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="43"/>
+      <c r="O106" s="43"/>
+      <c r="P106" s="43"/>
+      <c r="Q106" s="43"/>
+      <c r="R106" s="43"/>
+      <c r="S106" s="43"/>
+      <c r="T106" s="43"/>
+      <c r="U106" s="43"/>
+      <c r="V106" s="43"/>
+      <c r="W106" s="43"/>
+      <c r="X106" s="43"/>
+      <c r="Y106" s="43"/>
+      <c r="Z106" s="43"/>
+      <c r="AA106" s="43"/>
+      <c r="AB106" s="43"/>
+      <c r="AC106" s="43"/>
+      <c r="AD106" s="43"/>
+      <c r="AE106" s="43"/>
+      <c r="AF106" s="43"/>
+      <c r="AG106" s="43"/>
+      <c r="AH106" s="43"/>
+      <c r="AI106" s="43"/>
     </row>
     <row r="107" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="43"/>
       <c r="C107" s="43"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
-      <c r="F107" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="52"/>
-      <c r="J107" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="K107" s="52"/>
-      <c r="L107" s="52"/>
-      <c r="M107" s="52"/>
-      <c r="N107" s="52"/>
-      <c r="O107" s="52"/>
-      <c r="P107" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q107" s="52"/>
-      <c r="R107" s="52"/>
-      <c r="S107" s="52"/>
-      <c r="T107" s="52"/>
-      <c r="U107" s="52"/>
-      <c r="V107" s="53"/>
-      <c r="W107" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="X107" s="52"/>
-      <c r="Y107" s="52"/>
-      <c r="Z107" s="52"/>
-      <c r="AA107" s="52"/>
-      <c r="AB107" s="52"/>
-      <c r="AC107" s="52"/>
-      <c r="AD107" s="52"/>
-      <c r="AE107" s="52"/>
-      <c r="AF107" s="52"/>
-      <c r="AG107" s="52"/>
-      <c r="AH107" s="53"/>
+      <c r="F107" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K107" s="41"/>
+      <c r="L107" s="41"/>
+      <c r="M107" s="41"/>
+      <c r="N107" s="41"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="41"/>
+      <c r="S107" s="41"/>
+      <c r="T107" s="41"/>
+      <c r="U107" s="41"/>
+      <c r="V107" s="42"/>
+      <c r="W107" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="X107" s="41"/>
+      <c r="Y107" s="41"/>
+      <c r="Z107" s="41"/>
+      <c r="AA107" s="41"/>
+      <c r="AB107" s="41"/>
+      <c r="AC107" s="41"/>
+      <c r="AD107" s="41"/>
+      <c r="AE107" s="41"/>
+      <c r="AF107" s="41"/>
+      <c r="AG107" s="41"/>
+      <c r="AH107" s="42"/>
     </row>
     <row r="108" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="43"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="57"/>
-      <c r="L108" s="57"/>
-      <c r="M108" s="57"/>
-      <c r="N108" s="57"/>
-      <c r="O108" s="57"/>
-      <c r="P108" s="56"/>
-      <c r="Q108" s="57"/>
-      <c r="R108" s="57"/>
-      <c r="S108" s="57"/>
-      <c r="T108" s="57"/>
-      <c r="U108" s="57"/>
-      <c r="V108" s="58"/>
-      <c r="W108" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="X108" s="57"/>
-      <c r="Y108" s="57"/>
-      <c r="Z108" s="57"/>
-      <c r="AA108" s="57"/>
-      <c r="AB108" s="57"/>
-      <c r="AC108" s="57"/>
-      <c r="AD108" s="57"/>
-      <c r="AE108" s="57"/>
-      <c r="AF108" s="57"/>
-      <c r="AG108" s="57"/>
-      <c r="AH108" s="58"/>
-    </row>
-    <row r="109" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
+      <c r="F108" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="K108" s="52"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="52"/>
+      <c r="N108" s="52"/>
+      <c r="O108" s="52"/>
+      <c r="P108" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q108" s="52"/>
+      <c r="R108" s="52"/>
+      <c r="S108" s="52"/>
+      <c r="T108" s="52"/>
+      <c r="U108" s="52"/>
+      <c r="V108" s="53"/>
+      <c r="W108" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="X108" s="52"/>
+      <c r="Y108" s="52"/>
+      <c r="Z108" s="52"/>
+      <c r="AA108" s="52"/>
+      <c r="AB108" s="52"/>
+      <c r="AC108" s="52"/>
+      <c r="AD108" s="52"/>
+      <c r="AE108" s="52"/>
+      <c r="AF108" s="52"/>
+      <c r="AG108" s="52"/>
+      <c r="AH108" s="53"/>
+    </row>
+    <row r="109" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="43"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
-      <c r="F109" s="50"/>
+      <c r="F109" s="54"/>
       <c r="G109" s="50"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="32"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="32"/>
-      <c r="L109" s="32"/>
-      <c r="M109" s="32"/>
-      <c r="N109" s="32"/>
-      <c r="O109" s="32"/>
-      <c r="P109" s="32"/>
-      <c r="Q109" s="32"/>
-      <c r="R109" s="32"/>
-      <c r="S109" s="32"/>
-      <c r="T109" s="32"/>
-      <c r="U109" s="32"/>
-      <c r="V109" s="32"/>
-      <c r="W109" s="32"/>
-      <c r="X109" s="32"/>
-      <c r="Y109" s="32"/>
-      <c r="Z109" s="32"/>
-      <c r="AA109" s="32"/>
-      <c r="AB109" s="32"/>
-      <c r="AC109" s="32"/>
-      <c r="AD109" s="32"/>
-      <c r="AE109" s="32"/>
-      <c r="AF109" s="32"/>
-      <c r="AG109" s="32"/>
-      <c r="AH109" s="32"/>
-    </row>
-    <row r="110" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="50"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="50"/>
+      <c r="P109" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q109" s="50"/>
+      <c r="R109" s="50"/>
+      <c r="S109" s="50"/>
+      <c r="T109" s="50"/>
+      <c r="U109" s="50"/>
+      <c r="V109" s="55"/>
+      <c r="W109" s="50"/>
+      <c r="X109" s="50"/>
+      <c r="Y109" s="50"/>
+      <c r="Z109" s="50"/>
+      <c r="AA109" s="50"/>
+      <c r="AB109" s="50"/>
+      <c r="AC109" s="50"/>
+      <c r="AD109" s="50"/>
+      <c r="AE109" s="50"/>
+      <c r="AF109" s="50"/>
+      <c r="AG109" s="50"/>
+      <c r="AH109" s="55"/>
+    </row>
+    <row r="110" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="43"/>
       <c r="D110" s="43"/>
-      <c r="E110" s="59" t="str">
-        <f>D82&amp;"3."</f>
-        <v>6.3.5.3.</v>
-      </c>
-      <c r="F110" s="50" t="s">
-        <v>82</v>
-      </c>
+      <c r="E110" s="43"/>
+      <c r="F110" s="54"/>
       <c r="G110" s="50"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="32"/>
-      <c r="L110" s="32"/>
-      <c r="M110" s="32"/>
-      <c r="N110" s="32"/>
-      <c r="O110" s="32"/>
-      <c r="P110" s="32"/>
-      <c r="Q110" s="32"/>
-      <c r="R110" s="32"/>
-      <c r="S110" s="32"/>
-      <c r="T110" s="32"/>
-      <c r="U110" s="32"/>
-      <c r="V110" s="32"/>
-      <c r="W110" s="32"/>
-      <c r="X110" s="32"/>
-      <c r="Y110" s="32"/>
-      <c r="Z110" s="32"/>
-      <c r="AA110" s="32"/>
-      <c r="AB110" s="32"/>
-      <c r="AC110" s="32"/>
-      <c r="AD110" s="32"/>
-      <c r="AE110" s="32"/>
-      <c r="AF110" s="32"/>
-      <c r="AG110" s="32"/>
-      <c r="AH110" s="32"/>
-    </row>
-    <row r="111" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K110" s="52"/>
+      <c r="L110" s="52"/>
+      <c r="M110" s="52"/>
+      <c r="N110" s="52"/>
+      <c r="O110" s="52"/>
+      <c r="P110" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q110" s="52"/>
+      <c r="R110" s="52"/>
+      <c r="S110" s="52"/>
+      <c r="T110" s="52"/>
+      <c r="U110" s="52"/>
+      <c r="V110" s="53"/>
+      <c r="W110" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="X110" s="52"/>
+      <c r="Y110" s="52"/>
+      <c r="Z110" s="52"/>
+      <c r="AA110" s="52"/>
+      <c r="AB110" s="52"/>
+      <c r="AC110" s="52"/>
+      <c r="AD110" s="52"/>
+      <c r="AE110" s="52"/>
+      <c r="AF110" s="52"/>
+      <c r="AG110" s="52"/>
+      <c r="AH110" s="53"/>
+    </row>
+    <row r="111" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="43"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
-      <c r="F111" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="G111" s="50"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="32"/>
-      <c r="J111" s="32"/>
-      <c r="K111" s="32"/>
-      <c r="L111" s="32"/>
-      <c r="M111" s="32"/>
-      <c r="N111" s="32"/>
-      <c r="O111" s="32"/>
-      <c r="P111" s="32"/>
-      <c r="Q111" s="32"/>
-      <c r="R111" s="32"/>
-      <c r="S111" s="32"/>
-      <c r="T111" s="32"/>
-      <c r="U111" s="32"/>
-      <c r="V111" s="32"/>
-      <c r="W111" s="32"/>
-      <c r="X111" s="32"/>
-      <c r="Y111" s="32"/>
-      <c r="Z111" s="32"/>
-      <c r="AA111" s="32"/>
-      <c r="AB111" s="32"/>
-      <c r="AC111" s="32"/>
-      <c r="AD111" s="32"/>
-      <c r="AE111" s="32"/>
-      <c r="AF111" s="32"/>
-      <c r="AG111" s="32"/>
-      <c r="AH111" s="32"/>
-    </row>
-    <row r="112" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
+      <c r="F111" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
+      <c r="I111" s="52"/>
+      <c r="J111" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="K111" s="52"/>
+      <c r="L111" s="52"/>
+      <c r="M111" s="52"/>
+      <c r="N111" s="52"/>
+      <c r="O111" s="52"/>
+      <c r="P111" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q111" s="52"/>
+      <c r="R111" s="52"/>
+      <c r="S111" s="52"/>
+      <c r="T111" s="52"/>
+      <c r="U111" s="52"/>
+      <c r="V111" s="53"/>
+      <c r="W111" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="X111" s="52"/>
+      <c r="Y111" s="52"/>
+      <c r="Z111" s="52"/>
+      <c r="AA111" s="52"/>
+      <c r="AB111" s="52"/>
+      <c r="AC111" s="52"/>
+      <c r="AD111" s="52"/>
+      <c r="AE111" s="52"/>
+      <c r="AF111" s="52"/>
+      <c r="AG111" s="52"/>
+      <c r="AH111" s="53"/>
+    </row>
+    <row r="112" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="43"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="32"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="32"/>
-      <c r="L112" s="32"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="32"/>
-      <c r="P112" s="32"/>
-      <c r="Q112" s="32"/>
-      <c r="R112" s="32"/>
-      <c r="S112" s="32"/>
-      <c r="T112" s="32"/>
-      <c r="U112" s="32"/>
-      <c r="V112" s="32"/>
-      <c r="W112" s="32"/>
-      <c r="X112" s="32"/>
-      <c r="Y112" s="32"/>
-      <c r="Z112" s="32"/>
-      <c r="AA112" s="32"/>
-      <c r="AB112" s="32"/>
-      <c r="AC112" s="32"/>
-      <c r="AD112" s="32"/>
-      <c r="AE112" s="32"/>
-      <c r="AF112" s="32"/>
-      <c r="AG112" s="32"/>
-      <c r="AH112" s="32"/>
-    </row>
-    <row r="113" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="27"/>
-    </row>
-    <row r="114" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="27"/>
-      <c r="D114" s="25" t="str">
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="57"/>
+      <c r="J112" s="56"/>
+      <c r="K112" s="57"/>
+      <c r="L112" s="57"/>
+      <c r="M112" s="57"/>
+      <c r="N112" s="57"/>
+      <c r="O112" s="57"/>
+      <c r="P112" s="56"/>
+      <c r="Q112" s="57"/>
+      <c r="R112" s="57"/>
+      <c r="S112" s="57"/>
+      <c r="T112" s="57"/>
+      <c r="U112" s="57"/>
+      <c r="V112" s="58"/>
+      <c r="W112" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="X112" s="57"/>
+      <c r="Y112" s="57"/>
+      <c r="Z112" s="57"/>
+      <c r="AA112" s="57"/>
+      <c r="AB112" s="57"/>
+      <c r="AC112" s="57"/>
+      <c r="AD112" s="57"/>
+      <c r="AE112" s="57"/>
+      <c r="AF112" s="57"/>
+      <c r="AG112" s="57"/>
+      <c r="AH112" s="58"/>
+    </row>
+    <row r="113" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="32"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
+      <c r="X113" s="32"/>
+      <c r="Y113" s="32"/>
+      <c r="Z113" s="32"/>
+      <c r="AA113" s="32"/>
+      <c r="AB113" s="32"/>
+      <c r="AC113" s="32"/>
+      <c r="AD113" s="32"/>
+      <c r="AE113" s="32"/>
+      <c r="AF113" s="32"/>
+      <c r="AG113" s="32"/>
+      <c r="AH113" s="32"/>
+    </row>
+    <row r="114" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="59" t="str">
+        <f>D86&amp;"3."</f>
+        <v>6.3.5.3.</v>
+      </c>
+      <c r="F114" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G114" s="50"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+      <c r="M114" s="32"/>
+      <c r="N114" s="32"/>
+      <c r="O114" s="32"/>
+      <c r="P114" s="32"/>
+      <c r="Q114" s="32"/>
+      <c r="R114" s="32"/>
+      <c r="S114" s="32"/>
+      <c r="T114" s="32"/>
+      <c r="U114" s="32"/>
+      <c r="V114" s="32"/>
+      <c r="W114" s="32"/>
+      <c r="X114" s="32"/>
+      <c r="Y114" s="32"/>
+      <c r="Z114" s="32"/>
+      <c r="AA114" s="32"/>
+      <c r="AB114" s="32"/>
+      <c r="AC114" s="32"/>
+      <c r="AD114" s="32"/>
+      <c r="AE114" s="32"/>
+      <c r="AF114" s="32"/>
+      <c r="AG114" s="32"/>
+      <c r="AH114" s="32"/>
+    </row>
+    <row r="115" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G115" s="50"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="32"/>
+      <c r="K115" s="32"/>
+      <c r="L115" s="32"/>
+      <c r="M115" s="32"/>
+      <c r="N115" s="32"/>
+      <c r="O115" s="32"/>
+      <c r="P115" s="32"/>
+      <c r="Q115" s="32"/>
+      <c r="R115" s="32"/>
+      <c r="S115" s="32"/>
+      <c r="T115" s="32"/>
+      <c r="U115" s="32"/>
+      <c r="V115" s="32"/>
+      <c r="W115" s="32"/>
+      <c r="X115" s="32"/>
+      <c r="Y115" s="32"/>
+      <c r="Z115" s="32"/>
+      <c r="AA115" s="32"/>
+      <c r="AB115" s="32"/>
+      <c r="AC115" s="32"/>
+      <c r="AD115" s="32"/>
+      <c r="AE115" s="32"/>
+      <c r="AF115" s="32"/>
+      <c r="AG115" s="32"/>
+      <c r="AH115" s="32"/>
+    </row>
+    <row r="116" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="32"/>
+      <c r="M116" s="32"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="32"/>
+      <c r="P116" s="32"/>
+      <c r="Q116" s="32"/>
+      <c r="R116" s="32"/>
+      <c r="S116" s="32"/>
+      <c r="T116" s="32"/>
+      <c r="U116" s="32"/>
+      <c r="V116" s="32"/>
+      <c r="W116" s="32"/>
+      <c r="X116" s="32"/>
+      <c r="Y116" s="32"/>
+      <c r="Z116" s="32"/>
+      <c r="AA116" s="32"/>
+      <c r="AB116" s="32"/>
+      <c r="AC116" s="32"/>
+      <c r="AD116" s="32"/>
+      <c r="AE116" s="32"/>
+      <c r="AF116" s="32"/>
+      <c r="AG116" s="32"/>
+      <c r="AH116" s="32"/>
+    </row>
+    <row r="117" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="27"/>
+    </row>
+    <row r="118" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="27"/>
+      <c r="D118" s="25" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.3.6.</v>
       </c>
-      <c r="E114" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="27"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25" t="str">
-        <f>D114&amp;"1."</f>
+      <c r="E118" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="27"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25" t="str">
+        <f>D118&amp;"1."</f>
         <v>6.3.6.1.</v>
       </c>
-      <c r="F115" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="27"/>
-      <c r="D116" s="25"/>
-      <c r="F116" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="61"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-    </row>
-    <row r="118" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="61"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-    </row>
-    <row r="119" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="61" t="str">
+      <c r="F119" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="27"/>
+      <c r="D120" s="25"/>
+      <c r="F120" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="61"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+    </row>
+    <row r="122" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+    </row>
+    <row r="123" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="61" t="str">
         <f>$C$7&amp;"7."</f>
         <v>6.3.7.</v>
       </c>
-      <c r="E119" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F119" s="27"/>
-    </row>
-    <row r="120" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F120" s="27"/>
-    </row>
-    <row r="121" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-    </row>
-    <row r="122" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="27"/>
-    </row>
-    <row r="123" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="25" t="str">
-        <f>$C$7&amp;"8."</f>
-        <v>6.3.8.</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="27"/>
+      <c r="E123" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F123" s="27"/>
+    </row>
+    <row r="124" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B124" s="27"/>
       <c r="C124" s="27"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F124" s="27"/>
+    </row>
+    <row r="125" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B125" s="27"/>
       <c r="C125" s="27"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+    </row>
+    <row r="126" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="27"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
       <c r="B127" s="27"/>
       <c r="C127" s="27"/>
-      <c r="D127" s="25"/>
-    </row>
-    <row r="128" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D127" s="25" t="str">
+        <f>$C$7&amp;"8."</f>
+        <v>6.3.8.</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
       <c r="B128" s="27"/>
       <c r="C128" s="27"/>
-      <c r="E128" s="25" t="str">
-        <f>D123&amp;"1."</f>
+      <c r="D128" s="25"/>
+      <c r="E128" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="27"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="25"/>
+    </row>
+    <row r="132" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="27"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="E132" s="25" t="str">
+        <f>D127&amp;"1."</f>
         <v>6.3.8.1.</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="129" spans="3:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="27"/>
-      <c r="F129" s="29" t="s">
+      <c r="F132" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="27"/>
+      <c r="F133" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="27"/>
+    </row>
+    <row r="135" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="27"/>
+      <c r="F135" s="40" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="130" spans="3:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="27"/>
-    </row>
-    <row r="131" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="27"/>
-      <c r="F131" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
-      <c r="K131" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="L131" s="26"/>
-      <c r="M131" s="26"/>
-      <c r="N131" s="26"/>
-      <c r="O131" s="26"/>
-      <c r="P131" s="62"/>
-      <c r="Q131" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="R131" s="72"/>
-      <c r="S131" s="72"/>
-      <c r="T131" s="73"/>
-    </row>
-    <row r="132" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="27"/>
-      <c r="F132" s="45">
+      <c r="G135" s="26"/>
+      <c r="H135" s="26"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
+      <c r="K135" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="L135" s="26"/>
+      <c r="M135" s="26"/>
+      <c r="N135" s="26"/>
+      <c r="O135" s="26"/>
+      <c r="P135" s="62"/>
+      <c r="Q135" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="R135" s="72"/>
+      <c r="S135" s="72"/>
+      <c r="T135" s="73"/>
+    </row>
+    <row r="136" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="27"/>
+      <c r="F136" s="45">
         <v>1</v>
       </c>
-      <c r="G132" s="46"/>
-      <c r="H132" s="46"/>
-      <c r="I132" s="46"/>
-      <c r="J132" s="46"/>
-      <c r="K132" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="L132" s="46"/>
-      <c r="M132" s="46"/>
-      <c r="N132" s="46"/>
-      <c r="O132" s="46"/>
-      <c r="P132" s="47"/>
-      <c r="Q132" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="R132" s="46"/>
-      <c r="S132" s="46"/>
-      <c r="T132" s="47"/>
-    </row>
-    <row r="133" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="27"/>
-      <c r="F133" s="34">
+      <c r="G136" s="46"/>
+      <c r="H136" s="46"/>
+      <c r="I136" s="46"/>
+      <c r="J136" s="46"/>
+      <c r="K136" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="L136" s="46"/>
+      <c r="M136" s="46"/>
+      <c r="N136" s="46"/>
+      <c r="O136" s="46"/>
+      <c r="P136" s="47"/>
+      <c r="Q136" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="R136" s="46"/>
+      <c r="S136" s="46"/>
+      <c r="T136" s="47"/>
+    </row>
+    <row r="137" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="27"/>
+      <c r="F137" s="34">
         <v>2</v>
       </c>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="35"/>
-      <c r="J133" s="35"/>
-      <c r="K133" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="L133" s="35"/>
-      <c r="M133" s="35"/>
-      <c r="N133" s="35"/>
-      <c r="O133" s="35"/>
-      <c r="P133" s="39"/>
-      <c r="Q133" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="R133" s="46"/>
-      <c r="S133" s="46"/>
-      <c r="T133" s="47"/>
-    </row>
-    <row r="134" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F134" s="29"/>
-    </row>
-    <row r="135" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="35"/>
+      <c r="J137" s="35"/>
+      <c r="K137" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="L137" s="35"/>
+      <c r="M137" s="35"/>
+      <c r="N137" s="35"/>
+      <c r="O137" s="35"/>
+      <c r="P137" s="39"/>
+      <c r="Q137" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="R137" s="46"/>
+      <c r="S137" s="46"/>
+      <c r="T137" s="47"/>
+    </row>
+    <row r="138" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F138" s="29"/>
+    </row>
+    <row r="139" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5171,6 +5358,10 @@
     <row r="521" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="522" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="523" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5186,13 +5377,16 @@
     <mergeCell ref="AA3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="F56" r:id="rId1" location="mail-request" xr:uid="{7F374098-5A98-4E90-82A7-CEA6FCC88E5A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="23" max="34" man="1"/>
-    <brk id="53" max="34" man="1"/>
-    <brk id="80" max="34" man="1"/>
-    <brk id="121" max="34" man="1"/>
+    <brk id="57" max="34" man="1"/>
+    <brk id="84" max="34" man="1"/>
+    <brk id="125" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E62D7D-9EA9-46B0-8C87-F98D3CFC24F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA92179B-93A4-4D6F-A8FA-B9EAB23846BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6.3.メール送信'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$138</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$117</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$128</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$107</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="123">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -79,17 +79,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理フロー</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>成果物名</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -165,13 +154,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>定型メール本文中に、文字列置換を可能とする機能を提供する。具体的な方法は以下の通り。</t>
-  </si>
-  <si>
-    <t>本出力ライブラリのメールデータ作成機能が、メールデータ作成時に、プレースホルダを業務アプリケーションから渡された文字列に置き換える。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メールフォーマット</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -544,10 +526,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メールフォーマット</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -794,21 +772,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テンプレートに含まれるプレースホルダは、業務アプリケーションから本出力ライブラリに渡される置換用文字列と整合性を取る必要がある。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>そのため、このテンプレートのデータメンテナンスはリリース作業にて行う。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchは業務アプリケーションが使用するメールテンプレートをクラスパスにて管理する。</t>
-    <rPh sb="41" eb="43">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
@@ -860,10 +823,6 @@
     <rPh sb="3" eb="5">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレースホルダを含むメール本文を、メールテンプレートとして予め登録しておく。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1586,6 +1545,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1651,9 +1613,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1992,7 +1951,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI527"/>
+  <dimension ref="A1:AI517"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2005,48 +1964,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="82"/>
+      <c r="R1" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="76"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2055,43 +2014,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="89" t="s">
+      <c r="R2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="92"/>
       <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="76"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2100,47 +2059,47 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="94"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="95"/>
       <c r="Y3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="76"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2150,7 +2109,7 @@
         <v>6.3.</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2160,31 +2119,31 @@
         <v>6.3.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="24"/>
       <c r="E10" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="24"/>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="24"/>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="59"/>
       <c r="E13" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -2196,7 +2155,7 @@
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="59"/>
       <c r="E14" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -2218,7 +2177,7 @@
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="59"/>
       <c r="E16" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -2230,7 +2189,7 @@
     <row r="17" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="59"/>
       <c r="E17" s="27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -2257,7 +2216,7 @@
         <v>6.3.1.1.</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -2270,7 +2229,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -2283,7 +2242,7 @@
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -2296,7 +2255,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -2361,7 +2320,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -2375,7 +2334,7 @@
     <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="29"/>
       <c r="F29" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -2411,7 +2370,7 @@
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="29"/>
       <c r="F30" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -2419,7 +2378,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="18" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
@@ -2453,7 +2412,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="21" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -2487,7 +2446,7 @@
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -2547,7 +2506,7 @@
     <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="29"/>
       <c r="F34" s="36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
@@ -2555,7 +2514,7 @@
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="36" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -2703,12 +2662,12 @@
       <c r="J39" s="22"/>
       <c r="K39" s="23"/>
       <c r="L39" s="64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M39" s="64"/>
       <c r="N39" s="65"/>
       <c r="O39" s="60" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="P39" s="50"/>
       <c r="Q39" s="50"/>
@@ -2743,12 +2702,12 @@
       <c r="J40" s="46"/>
       <c r="K40" s="47"/>
       <c r="L40" s="63" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M40" s="63"/>
       <c r="N40" s="66"/>
       <c r="O40" s="67" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
@@ -2803,7 +2762,7 @@
     </row>
     <row r="42" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="29" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
@@ -2866,7 +2825,7 @@
     </row>
     <row r="44" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="32" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -2899,7 +2858,7 @@
     </row>
     <row r="45" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="32" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -2932,7 +2891,7 @@
     </row>
     <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="32" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -2965,7 +2924,7 @@
     </row>
     <row r="47" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="32" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -3033,7 +2992,7 @@
         <v>6.3.2.2.</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -3067,7 +3026,7 @@
     <row r="50" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="30"/>
       <c r="F50" s="32" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -3101,7 +3060,7 @@
     <row r="51" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="30"/>
       <c r="F51" s="32" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
@@ -3135,7 +3094,7 @@
     <row r="52" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="30"/>
       <c r="F52" s="32" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -3199,7 +3158,7 @@
     </row>
     <row r="54" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F54" s="32" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -3262,8 +3221,8 @@
       <c r="AH55" s="32"/>
     </row>
     <row r="56" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F56" s="96" t="s">
-        <v>128</v>
+      <c r="F56" s="74" t="s">
+        <v>119</v>
       </c>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -3294,7 +3253,7 @@
       <c r="AG56" s="32"/>
       <c r="AH56" s="32"/>
     </row>
-    <row r="57" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="59" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="49" t="str">
@@ -3302,357 +3261,703 @@
         <v>6.3.3.</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D60" s="49"/>
       <c r="E60" s="49" t="str">
         <f>D59&amp;"1."</f>
         <v>6.3.3.1.</v>
       </c>
       <c r="F60" s="48" t="str">
-        <f>E59&amp;"機能概要"</f>
-        <v>メールテンプレート機能概要</v>
-      </c>
-    </row>
-    <row r="61" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F61" s="48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F62" s="48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F63" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E65" s="49" t="str">
-        <f>D59&amp;"2."</f>
-        <v>6.3.3.2.</v>
-      </c>
-      <c r="F65" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F66" s="48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F67" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F68" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G68" s="48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="49" t="str">
-        <f>D59&amp;"3."</f>
-        <v>6.3.3.3.</v>
-      </c>
-      <c r="F70" s="48" t="str">
         <f>E59&amp;"手段"</f>
         <v>メールテンプレート手段</v>
       </c>
     </row>
-    <row r="71" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="49"/>
-      <c r="F71" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E72" s="49"/>
-    </row>
-    <row r="73" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="49"/>
-      <c r="F73" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="G73" s="48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E74" s="49"/>
-      <c r="F74" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="G74" s="48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E75" s="49"/>
-      <c r="F75" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="G75" s="48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E76" s="49"/>
-    </row>
-    <row r="77" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77" s="49"/>
-      <c r="F77" s="48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E78" s="49"/>
-      <c r="F78" s="48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="4:7" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D80" s="49" t="str">
+    <row r="61" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E61" s="49"/>
+      <c r="F61" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E62" s="49"/>
+    </row>
+    <row r="63" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E63" s="49"/>
+      <c r="F63" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="49"/>
+      <c r="F64" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="49"/>
+      <c r="F65" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E66" s="49"/>
+    </row>
+    <row r="67" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="49"/>
+      <c r="F67" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E68" s="49"/>
+      <c r="F68" s="48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="49" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.3.4.</v>
       </c>
-      <c r="E80" s="48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E81" s="24" t="str">
-        <f>D80&amp;"1."</f>
+      <c r="E70" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E71" s="24" t="str">
+        <f>D70&amp;"1."</f>
         <v>6.3.4.1.</v>
       </c>
-      <c r="F81" s="4" t="str">
-        <f>E80&amp;"手段"</f>
+      <c r="F71" s="4" t="str">
+        <f>E70&amp;"手段"</f>
         <v>メールフォーマット手段</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F82" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="16"/>
-      <c r="W82" s="16"/>
-      <c r="X82" s="16"/>
-      <c r="Y82" s="16"/>
-      <c r="Z82" s="16"/>
-      <c r="AA82" s="16"/>
-      <c r="AB82" s="16"/>
-      <c r="AC82" s="16"/>
-      <c r="AD82" s="16"/>
-      <c r="AE82" s="16"/>
-      <c r="AF82" s="16"/>
-      <c r="AG82" s="16"/>
-      <c r="AH82" s="17"/>
-    </row>
-    <row r="83" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F83" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="L83" s="68"/>
-      <c r="M83" s="68"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
-      <c r="P83" s="68"/>
-      <c r="Q83" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="R83" s="68"/>
-      <c r="S83" s="68"/>
-      <c r="T83" s="68"/>
-      <c r="U83" s="68"/>
-      <c r="V83" s="68"/>
-      <c r="W83" s="68"/>
-      <c r="X83" s="68"/>
-      <c r="Y83" s="68"/>
-      <c r="Z83" s="68"/>
-      <c r="AA83" s="68"/>
-      <c r="AB83" s="68"/>
-      <c r="AC83" s="68"/>
-      <c r="AD83" s="68"/>
-      <c r="AE83" s="68"/>
-      <c r="AF83" s="68"/>
-      <c r="AG83" s="68"/>
-      <c r="AH83" s="69"/>
-    </row>
-    <row r="84" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E85" s="24"/>
-    </row>
-    <row r="86" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="30" t="str">
+    <row r="72" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
+      <c r="AE72" s="16"/>
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="16"/>
+      <c r="AH72" s="17"/>
+    </row>
+    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="L73" s="68"/>
+      <c r="M73" s="68"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="68"/>
+      <c r="Q73" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="R73" s="68"/>
+      <c r="S73" s="68"/>
+      <c r="T73" s="68"/>
+      <c r="U73" s="68"/>
+      <c r="V73" s="68"/>
+      <c r="W73" s="68"/>
+      <c r="X73" s="68"/>
+      <c r="Y73" s="68"/>
+      <c r="Z73" s="68"/>
+      <c r="AA73" s="68"/>
+      <c r="AB73" s="68"/>
+      <c r="AC73" s="68"/>
+      <c r="AD73" s="68"/>
+      <c r="AE73" s="68"/>
+      <c r="AF73" s="68"/>
+      <c r="AG73" s="68"/>
+      <c r="AH73" s="69"/>
+    </row>
+    <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="24"/>
+    </row>
+    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="30" t="str">
         <f>$C$7&amp;"5."</f>
         <v>6.3.5.</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E76" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
+      <c r="AB76" s="28"/>
+      <c r="AC76" s="28"/>
+      <c r="AD76" s="28"/>
+      <c r="AE76" s="28"/>
+      <c r="AF76" s="28"/>
+      <c r="AG76" s="28"/>
+      <c r="AH76" s="28"/>
+      <c r="AI76" s="28"/>
+    </row>
+    <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30" t="str">
+        <f>D76&amp;"1."</f>
+        <v>6.3.5.1.</v>
+      </c>
+      <c r="F77" s="29" t="str">
+        <f>E76&amp;"機能概要"</f>
+        <v>エラー処理機能概要</v>
+      </c>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="28"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="28"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+      <c r="AA77" s="28"/>
+      <c r="AB77" s="28"/>
+      <c r="AC77" s="28"/>
+      <c r="AD77" s="28"/>
+      <c r="AE77" s="28"/>
+      <c r="AF77" s="28"/>
+      <c r="AG77" s="28"/>
+      <c r="AH77" s="28"/>
+      <c r="AI77" s="28"/>
+    </row>
+    <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="28"/>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="28"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="28"/>
+      <c r="W78" s="28"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="28"/>
+      <c r="Z78" s="28"/>
+      <c r="AA78" s="28"/>
+      <c r="AB78" s="28"/>
+      <c r="AC78" s="28"/>
+      <c r="AD78" s="28"/>
+      <c r="AE78" s="28"/>
+      <c r="AF78" s="28"/>
+      <c r="AG78" s="28"/>
+      <c r="AH78" s="28"/>
+      <c r="AI78" s="28"/>
+    </row>
+    <row r="79" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="28"/>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="28"/>
+      <c r="W79" s="28"/>
+      <c r="X79" s="28"/>
+      <c r="Y79" s="28"/>
+      <c r="Z79" s="28"/>
+      <c r="AA79" s="28"/>
+      <c r="AB79" s="28"/>
+      <c r="AC79" s="28"/>
+      <c r="AD79" s="28"/>
+      <c r="AE79" s="28"/>
+      <c r="AF79" s="28"/>
+      <c r="AG79" s="28"/>
+      <c r="AH79" s="28"/>
+      <c r="AI79" s="28"/>
+    </row>
+    <row r="80" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="30" t="str">
+        <f>D76&amp;"2."</f>
+        <v>6.3.5.2.</v>
+      </c>
+      <c r="F80" s="29" t="str">
+        <f>E76&amp;"方法"</f>
+        <v>エラー処理方法</v>
+      </c>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="28"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="28"/>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="28"/>
+      <c r="AC80" s="28"/>
+      <c r="AD80" s="28"/>
+      <c r="AE80" s="28"/>
+      <c r="AF80" s="28"/>
+      <c r="AG80" s="28"/>
+      <c r="AH80" s="28"/>
+      <c r="AI80" s="28"/>
+    </row>
+    <row r="81" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="28"/>
+      <c r="Q81" s="28"/>
+      <c r="R81" s="28"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="28"/>
+      <c r="W81" s="28"/>
+      <c r="X81" s="28"/>
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="28"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="28"/>
+      <c r="AC81" s="28"/>
+      <c r="AD81" s="28"/>
+      <c r="AE81" s="28"/>
+      <c r="AF81" s="28"/>
+      <c r="AG81" s="28"/>
+      <c r="AH81" s="28"/>
+      <c r="AI81" s="28"/>
+    </row>
+    <row r="82" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="28"/>
+      <c r="U82" s="28"/>
+      <c r="V82" s="28"/>
+      <c r="W82" s="28"/>
+      <c r="X82" s="28"/>
+      <c r="Y82" s="28"/>
+      <c r="Z82" s="28"/>
+      <c r="AA82" s="28"/>
+      <c r="AB82" s="28"/>
+      <c r="AC82" s="28"/>
+      <c r="AD82" s="28"/>
+      <c r="AE82" s="28"/>
+      <c r="AF82" s="28"/>
+      <c r="AG82" s="28"/>
+      <c r="AH82" s="28"/>
+      <c r="AI82" s="28"/>
+    </row>
+    <row r="83" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="43"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K83" s="41"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="41"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="41"/>
+      <c r="S83" s="41"/>
+      <c r="T83" s="41"/>
+      <c r="U83" s="41"/>
+      <c r="V83" s="42"/>
+      <c r="W83" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="X83" s="41"/>
+      <c r="Y83" s="41"/>
+      <c r="Z83" s="41"/>
+      <c r="AA83" s="41"/>
+      <c r="AB83" s="41"/>
+      <c r="AC83" s="41"/>
+      <c r="AD83" s="41"/>
+      <c r="AE83" s="41"/>
+      <c r="AF83" s="41"/>
+      <c r="AG83" s="41"/>
+      <c r="AH83" s="42"/>
+    </row>
+    <row r="84" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="37"/>
+      <c r="Z84" s="37"/>
+      <c r="AA84" s="37"/>
+      <c r="AB84" s="37"/>
+      <c r="AC84" s="37"/>
+      <c r="AD84" s="37"/>
+      <c r="AE84" s="37"/>
+      <c r="AF84" s="37"/>
+      <c r="AG84" s="37"/>
+      <c r="AH84" s="38"/>
+    </row>
+    <row r="85" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="28"/>
-      <c r="P86" s="28"/>
-      <c r="Q86" s="28"/>
-      <c r="R86" s="28"/>
-      <c r="S86" s="28"/>
-      <c r="T86" s="28"/>
-      <c r="U86" s="28"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="28"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="28"/>
-      <c r="Z86" s="28"/>
-      <c r="AA86" s="28"/>
-      <c r="AB86" s="28"/>
-      <c r="AC86" s="28"/>
-      <c r="AD86" s="28"/>
-      <c r="AE86" s="28"/>
-      <c r="AF86" s="28"/>
-      <c r="AG86" s="28"/>
-      <c r="AH86" s="28"/>
-      <c r="AI86" s="28"/>
-    </row>
-    <row r="87" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30" t="str">
-        <f>D86&amp;"1."</f>
-        <v>6.3.5.1.</v>
-      </c>
-      <c r="F87" s="29" t="str">
-        <f>E86&amp;"機能概要"</f>
-        <v>エラー処理機能概要</v>
-      </c>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="28"/>
-      <c r="P87" s="28"/>
-      <c r="Q87" s="28"/>
-      <c r="R87" s="28"/>
-      <c r="S87" s="28"/>
-      <c r="T87" s="28"/>
-      <c r="U87" s="28"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="28"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="28"/>
-      <c r="AA87" s="28"/>
-      <c r="AB87" s="28"/>
-      <c r="AC87" s="28"/>
-      <c r="AD87" s="28"/>
-      <c r="AE87" s="28"/>
-      <c r="AF87" s="28"/>
-      <c r="AG87" s="28"/>
-      <c r="AH87" s="28"/>
-      <c r="AI87" s="28"/>
-    </row>
-    <row r="88" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="37"/>
+      <c r="Z85" s="37"/>
+      <c r="AA85" s="37"/>
+      <c r="AB85" s="37"/>
+      <c r="AC85" s="37"/>
+      <c r="AD85" s="37"/>
+      <c r="AE85" s="37"/>
+      <c r="AF85" s="37"/>
+      <c r="AG85" s="37"/>
+      <c r="AH85" s="38"/>
+    </row>
+    <row r="86" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="32"/>
+      <c r="X86" s="32"/>
+      <c r="Y86" s="32"/>
+      <c r="Z86" s="32"/>
+      <c r="AA86" s="32"/>
+      <c r="AB86" s="32"/>
+      <c r="AC86" s="32"/>
+      <c r="AD86" s="32"/>
+      <c r="AE86" s="32"/>
+      <c r="AF86" s="32"/>
+      <c r="AG86" s="32"/>
+      <c r="AH86" s="33"/>
+    </row>
+    <row r="87" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="39"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
+      <c r="AB87" s="35"/>
+      <c r="AC87" s="35"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="35"/>
+      <c r="AF87" s="35"/>
+      <c r="AG87" s="35"/>
+      <c r="AH87" s="39"/>
+    </row>
+    <row r="88" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="28"/>
-      <c r="P88" s="28"/>
-      <c r="Q88" s="28"/>
-      <c r="R88" s="28"/>
-      <c r="S88" s="28"/>
-      <c r="T88" s="28"/>
-      <c r="U88" s="28"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="28"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="28"/>
-      <c r="AC88" s="28"/>
-      <c r="AD88" s="28"/>
-      <c r="AE88" s="28"/>
-      <c r="AF88" s="28"/>
-      <c r="AG88" s="28"/>
-      <c r="AH88" s="28"/>
-      <c r="AI88" s="28"/>
-    </row>
-    <row r="89" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="32"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="32"/>
+      <c r="W88" s="32"/>
+      <c r="X88" s="32"/>
+      <c r="Y88" s="32"/>
+      <c r="Z88" s="32"/>
+      <c r="AA88" s="32"/>
+      <c r="AB88" s="32"/>
+      <c r="AC88" s="32"/>
+      <c r="AD88" s="32"/>
+      <c r="AE88" s="32"/>
+      <c r="AF88" s="32"/>
+      <c r="AG88" s="32"/>
+      <c r="AH88" s="32"/>
+    </row>
+    <row r="89" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
+      <c r="F89" s="29" t="s">
+        <v>48</v>
+      </c>
       <c r="G89" s="28"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
@@ -3683,19 +3988,13 @@
       <c r="AH89" s="28"/>
       <c r="AI89" s="28"/>
     </row>
-    <row r="90" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
+    <row r="90" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="28"/>
-      <c r="E90" s="30" t="str">
-        <f>D86&amp;"2."</f>
-        <v>6.3.5.2.</v>
-      </c>
-      <c r="F90" s="29" t="str">
-        <f>E86&amp;"方法"</f>
-        <v>エラー処理方法</v>
-      </c>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
       <c r="G90" s="28"/>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
@@ -3727,1258 +4026,870 @@
       <c r="AI90" s="28"/>
     </row>
     <row r="91" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="28"/>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="28"/>
-      <c r="R91" s="28"/>
-      <c r="S91" s="28"/>
-      <c r="T91" s="28"/>
-      <c r="U91" s="28"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="28"/>
-      <c r="AA91" s="28"/>
-      <c r="AB91" s="28"/>
-      <c r="AC91" s="28"/>
-      <c r="AD91" s="28"/>
-      <c r="AE91" s="28"/>
-      <c r="AF91" s="28"/>
-      <c r="AG91" s="28"/>
-      <c r="AH91" s="28"/>
-      <c r="AI91" s="28"/>
+      <c r="F91" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91" s="41"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="41"/>
+      <c r="N91" s="41"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="41"/>
+      <c r="S91" s="41"/>
+      <c r="T91" s="41"/>
+      <c r="U91" s="41"/>
+      <c r="V91" s="42"/>
+      <c r="W91" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="X91" s="41"/>
+      <c r="Y91" s="41"/>
+      <c r="Z91" s="41"/>
+      <c r="AA91" s="41"/>
+      <c r="AB91" s="41"/>
+      <c r="AC91" s="41"/>
+      <c r="AD91" s="41"/>
+      <c r="AE91" s="41"/>
+      <c r="AF91" s="41"/>
+      <c r="AG91" s="41"/>
+      <c r="AH91" s="42"/>
     </row>
     <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="43"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="28"/>
-      <c r="O92" s="28"/>
-      <c r="P92" s="28"/>
-      <c r="Q92" s="28"/>
-      <c r="R92" s="28"/>
-      <c r="S92" s="28"/>
-      <c r="T92" s="28"/>
-      <c r="U92" s="28"/>
-      <c r="V92" s="28"/>
-      <c r="W92" s="28"/>
-      <c r="X92" s="28"/>
-      <c r="Y92" s="28"/>
-      <c r="Z92" s="28"/>
-      <c r="AA92" s="28"/>
-      <c r="AB92" s="28"/>
-      <c r="AC92" s="28"/>
-      <c r="AD92" s="28"/>
-      <c r="AE92" s="28"/>
-      <c r="AF92" s="28"/>
-      <c r="AG92" s="28"/>
-      <c r="AH92" s="28"/>
-      <c r="AI92" s="28"/>
+      <c r="F92" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="X92" s="37"/>
+      <c r="Y92" s="37"/>
+      <c r="Z92" s="37"/>
+      <c r="AA92" s="37"/>
+      <c r="AB92" s="37"/>
+      <c r="AC92" s="37"/>
+      <c r="AD92" s="37"/>
+      <c r="AE92" s="37"/>
+      <c r="AF92" s="37"/>
+      <c r="AG92" s="37"/>
+      <c r="AH92" s="38"/>
     </row>
     <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="43"/>
+      <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="43"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
-      <c r="F93" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="40" t="s">
+      <c r="F93" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="46"/>
+      <c r="O93" s="46"/>
+      <c r="P93" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q93" s="46"/>
+      <c r="R93" s="46"/>
+      <c r="S93" s="46"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="46"/>
+      <c r="V93" s="47"/>
+      <c r="W93" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="X93" s="46"/>
+      <c r="Y93" s="46"/>
+      <c r="Z93" s="46"/>
+      <c r="AA93" s="46"/>
+      <c r="AB93" s="46"/>
+      <c r="AC93" s="46"/>
+      <c r="AD93" s="46"/>
+      <c r="AE93" s="46"/>
+      <c r="AF93" s="46"/>
+      <c r="AG93" s="46"/>
+      <c r="AH93" s="47"/>
+    </row>
+    <row r="94" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="50"/>
+      <c r="P94" s="50"/>
+      <c r="Q94" s="50"/>
+      <c r="R94" s="50"/>
+      <c r="S94" s="50"/>
+      <c r="T94" s="50"/>
+      <c r="U94" s="50"/>
+      <c r="V94" s="50"/>
+      <c r="W94" s="50"/>
+      <c r="X94" s="50"/>
+      <c r="Y94" s="50"/>
+      <c r="Z94" s="50"/>
+      <c r="AA94" s="50"/>
+      <c r="AB94" s="50"/>
+      <c r="AC94" s="50"/>
+      <c r="AD94" s="50"/>
+      <c r="AE94" s="50"/>
+      <c r="AF94" s="50"/>
+      <c r="AG94" s="50"/>
+      <c r="AH94" s="50"/>
+    </row>
+    <row r="95" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="43"/>
+      <c r="U95" s="43"/>
+      <c r="V95" s="43"/>
+      <c r="W95" s="43"/>
+      <c r="X95" s="43"/>
+      <c r="Y95" s="43"/>
+      <c r="Z95" s="43"/>
+      <c r="AA95" s="43"/>
+      <c r="AB95" s="43"/>
+      <c r="AC95" s="43"/>
+      <c r="AD95" s="43"/>
+      <c r="AE95" s="43"/>
+      <c r="AF95" s="43"/>
+      <c r="AG95" s="43"/>
+      <c r="AH95" s="43"/>
+      <c r="AI95" s="43"/>
+    </row>
+    <row r="96" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
+      <c r="S96" s="43"/>
+      <c r="T96" s="43"/>
+      <c r="U96" s="43"/>
+      <c r="V96" s="43"/>
+      <c r="W96" s="43"/>
+      <c r="X96" s="43"/>
+      <c r="Y96" s="43"/>
+      <c r="Z96" s="43"/>
+      <c r="AA96" s="43"/>
+      <c r="AB96" s="43"/>
+      <c r="AC96" s="43"/>
+      <c r="AD96" s="43"/>
+      <c r="AE96" s="43"/>
+      <c r="AF96" s="43"/>
+      <c r="AG96" s="43"/>
+      <c r="AH96" s="43"/>
+      <c r="AI96" s="43"/>
+    </row>
+    <row r="97" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="K93" s="41"/>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="42"/>
-      <c r="P93" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="41"/>
-      <c r="S93" s="41"/>
-      <c r="T93" s="41"/>
-      <c r="U93" s="41"/>
-      <c r="V93" s="42"/>
-      <c r="W93" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="X93" s="41"/>
-      <c r="Y93" s="41"/>
-      <c r="Z93" s="41"/>
-      <c r="AA93" s="41"/>
-      <c r="AB93" s="41"/>
-      <c r="AC93" s="41"/>
-      <c r="AD93" s="41"/>
-      <c r="AE93" s="41"/>
-      <c r="AF93" s="41"/>
-      <c r="AG93" s="41"/>
-      <c r="AH93" s="42"/>
-    </row>
-    <row r="94" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="K94" s="37"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="37"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="37"/>
-      <c r="T94" s="37"/>
-      <c r="U94" s="37"/>
-      <c r="V94" s="38"/>
-      <c r="W94" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="X94" s="37"/>
-      <c r="Y94" s="37"/>
-      <c r="Z94" s="37"/>
-      <c r="AA94" s="37"/>
-      <c r="AB94" s="37"/>
-      <c r="AC94" s="37"/>
-      <c r="AD94" s="37"/>
-      <c r="AE94" s="37"/>
-      <c r="AF94" s="37"/>
-      <c r="AG94" s="37"/>
-      <c r="AH94" s="38"/>
-    </row>
-    <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="36" t="s">
+      <c r="Q97" s="41"/>
+      <c r="R97" s="41"/>
+      <c r="S97" s="41"/>
+      <c r="T97" s="41"/>
+      <c r="U97" s="41"/>
+      <c r="V97" s="42"/>
+      <c r="W97" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q95" s="37"/>
-      <c r="R95" s="37"/>
-      <c r="S95" s="37"/>
-      <c r="T95" s="37"/>
-      <c r="U95" s="37"/>
-      <c r="V95" s="38"/>
-      <c r="W95" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="X95" s="37"/>
-      <c r="Y95" s="37"/>
-      <c r="Z95" s="37"/>
-      <c r="AA95" s="37"/>
-      <c r="AB95" s="37"/>
-      <c r="AC95" s="37"/>
-      <c r="AD95" s="37"/>
-      <c r="AE95" s="37"/>
-      <c r="AF95" s="37"/>
-      <c r="AG95" s="37"/>
-      <c r="AH95" s="38"/>
-    </row>
-    <row r="96" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="35"/>
-      <c r="O96" s="35"/>
-      <c r="P96" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35"/>
-      <c r="S96" s="35"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="35"/>
-      <c r="V96" s="39"/>
-      <c r="W96" s="32"/>
-      <c r="X96" s="32"/>
-      <c r="Y96" s="32"/>
-      <c r="Z96" s="32"/>
-      <c r="AA96" s="32"/>
-      <c r="AB96" s="32"/>
-      <c r="AC96" s="32"/>
-      <c r="AD96" s="32"/>
-      <c r="AE96" s="32"/>
-      <c r="AF96" s="32"/>
-      <c r="AG96" s="32"/>
-      <c r="AH96" s="33"/>
-    </row>
-    <row r="97" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="35"/>
-      <c r="V97" s="39"/>
-      <c r="W97" s="35"/>
-      <c r="X97" s="35"/>
-      <c r="Y97" s="35"/>
-      <c r="Z97" s="35"/>
-      <c r="AA97" s="35"/>
-      <c r="AB97" s="35"/>
-      <c r="AC97" s="35"/>
-      <c r="AD97" s="35"/>
-      <c r="AE97" s="35"/>
-      <c r="AF97" s="35"/>
-      <c r="AG97" s="35"/>
-      <c r="AH97" s="39"/>
-    </row>
-    <row r="98" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
+      <c r="X97" s="41"/>
+      <c r="Y97" s="41"/>
+      <c r="Z97" s="41"/>
+      <c r="AA97" s="41"/>
+      <c r="AB97" s="41"/>
+      <c r="AC97" s="41"/>
+      <c r="AD97" s="41"/>
+      <c r="AE97" s="41"/>
+      <c r="AF97" s="41"/>
+      <c r="AG97" s="41"/>
+      <c r="AH97" s="42"/>
+    </row>
+    <row r="98" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="43"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="32"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="32"/>
-      <c r="P98" s="32"/>
-      <c r="Q98" s="32"/>
-      <c r="R98" s="32"/>
-      <c r="S98" s="32"/>
-      <c r="T98" s="32"/>
-      <c r="U98" s="32"/>
-      <c r="V98" s="32"/>
-      <c r="W98" s="32"/>
-      <c r="X98" s="32"/>
-      <c r="Y98" s="32"/>
-      <c r="Z98" s="32"/>
-      <c r="AA98" s="32"/>
-      <c r="AB98" s="32"/>
-      <c r="AC98" s="32"/>
-      <c r="AD98" s="32"/>
-      <c r="AE98" s="32"/>
-      <c r="AF98" s="32"/>
-      <c r="AG98" s="32"/>
-      <c r="AH98" s="32"/>
-    </row>
-    <row r="99" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="29" t="s">
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="K98" s="52"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="52"/>
+      <c r="N98" s="52"/>
+      <c r="O98" s="52"/>
+      <c r="P98" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q98" s="52"/>
+      <c r="R98" s="52"/>
+      <c r="S98" s="52"/>
+      <c r="T98" s="52"/>
+      <c r="U98" s="52"/>
+      <c r="V98" s="53"/>
+      <c r="W98" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="X98" s="52"/>
+      <c r="Y98" s="52"/>
+      <c r="Z98" s="52"/>
+      <c r="AA98" s="52"/>
+      <c r="AB98" s="52"/>
+      <c r="AC98" s="52"/>
+      <c r="AD98" s="52"/>
+      <c r="AE98" s="52"/>
+      <c r="AF98" s="52"/>
+      <c r="AG98" s="52"/>
+      <c r="AH98" s="53"/>
+    </row>
+    <row r="99" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="50"/>
+      <c r="M99" s="50"/>
+      <c r="N99" s="50"/>
+      <c r="O99" s="50"/>
+      <c r="P99" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q99" s="50"/>
+      <c r="R99" s="50"/>
+      <c r="S99" s="50"/>
+      <c r="T99" s="50"/>
+      <c r="U99" s="50"/>
+      <c r="V99" s="55"/>
+      <c r="W99" s="50"/>
+      <c r="X99" s="50"/>
+      <c r="Y99" s="50"/>
+      <c r="Z99" s="50"/>
+      <c r="AA99" s="50"/>
+      <c r="AB99" s="50"/>
+      <c r="AC99" s="50"/>
+      <c r="AD99" s="50"/>
+      <c r="AE99" s="50"/>
+      <c r="AF99" s="50"/>
+      <c r="AG99" s="50"/>
+      <c r="AH99" s="55"/>
+    </row>
+    <row r="100" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="K100" s="52"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="52"/>
+      <c r="N100" s="52"/>
+      <c r="O100" s="52"/>
+      <c r="P100" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28"/>
-      <c r="N99" s="28"/>
-      <c r="O99" s="28"/>
-      <c r="P99" s="28"/>
-      <c r="Q99" s="28"/>
-      <c r="R99" s="28"/>
-      <c r="S99" s="28"/>
-      <c r="T99" s="28"/>
-      <c r="U99" s="28"/>
-      <c r="V99" s="28"/>
-      <c r="W99" s="28"/>
-      <c r="X99" s="28"/>
-      <c r="Y99" s="28"/>
-      <c r="Z99" s="28"/>
-      <c r="AA99" s="28"/>
-      <c r="AB99" s="28"/>
-      <c r="AC99" s="28"/>
-      <c r="AD99" s="28"/>
-      <c r="AE99" s="28"/>
-      <c r="AF99" s="28"/>
-      <c r="AG99" s="28"/>
-      <c r="AH99" s="28"/>
-      <c r="AI99" s="28"/>
-    </row>
-    <row r="100" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="28"/>
-      <c r="M100" s="28"/>
-      <c r="N100" s="28"/>
-      <c r="O100" s="28"/>
-      <c r="P100" s="28"/>
-      <c r="Q100" s="28"/>
-      <c r="R100" s="28"/>
-      <c r="S100" s="28"/>
-      <c r="T100" s="28"/>
-      <c r="U100" s="28"/>
-      <c r="V100" s="28"/>
-      <c r="W100" s="28"/>
-      <c r="X100" s="28"/>
-      <c r="Y100" s="28"/>
-      <c r="Z100" s="28"/>
-      <c r="AA100" s="28"/>
-      <c r="AB100" s="28"/>
-      <c r="AC100" s="28"/>
-      <c r="AD100" s="28"/>
-      <c r="AE100" s="28"/>
-      <c r="AF100" s="28"/>
-      <c r="AG100" s="28"/>
-      <c r="AH100" s="28"/>
-      <c r="AI100" s="28"/>
-    </row>
-    <row r="101" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="43"/>
-      <c r="B101" s="27"/>
+      <c r="Q100" s="52"/>
+      <c r="R100" s="52"/>
+      <c r="S100" s="52"/>
+      <c r="T100" s="52"/>
+      <c r="U100" s="52"/>
+      <c r="V100" s="53"/>
+      <c r="W100" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="X100" s="52"/>
+      <c r="Y100" s="52"/>
+      <c r="Z100" s="52"/>
+      <c r="AA100" s="52"/>
+      <c r="AB100" s="52"/>
+      <c r="AC100" s="52"/>
+      <c r="AD100" s="52"/>
+      <c r="AE100" s="52"/>
+      <c r="AF100" s="52"/>
+      <c r="AG100" s="52"/>
+      <c r="AH100" s="53"/>
+    </row>
+    <row r="101" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="43"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
-      <c r="O101" s="42"/>
-      <c r="P101" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q101" s="41"/>
-      <c r="R101" s="41"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="41"/>
-      <c r="U101" s="41"/>
-      <c r="V101" s="42"/>
-      <c r="W101" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="X101" s="41"/>
-      <c r="Y101" s="41"/>
-      <c r="Z101" s="41"/>
-      <c r="AA101" s="41"/>
-      <c r="AB101" s="41"/>
-      <c r="AC101" s="41"/>
-      <c r="AD101" s="41"/>
-      <c r="AE101" s="41"/>
-      <c r="AF101" s="41"/>
-      <c r="AG101" s="41"/>
-      <c r="AH101" s="42"/>
-    </row>
-    <row r="102" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K101" s="52"/>
+      <c r="L101" s="52"/>
+      <c r="M101" s="52"/>
+      <c r="N101" s="52"/>
+      <c r="O101" s="52"/>
+      <c r="P101" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q101" s="52"/>
+      <c r="R101" s="52"/>
+      <c r="S101" s="52"/>
+      <c r="T101" s="52"/>
+      <c r="U101" s="52"/>
+      <c r="V101" s="53"/>
+      <c r="W101" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="X101" s="52"/>
+      <c r="Y101" s="52"/>
+      <c r="Z101" s="52"/>
+      <c r="AA101" s="52"/>
+      <c r="AB101" s="52"/>
+      <c r="AC101" s="52"/>
+      <c r="AD101" s="52"/>
+      <c r="AE101" s="52"/>
+      <c r="AF101" s="52"/>
+      <c r="AG101" s="52"/>
+      <c r="AH101" s="53"/>
+    </row>
+    <row r="102" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="43"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="K102" s="37"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="37"/>
-      <c r="O102" s="37"/>
-      <c r="P102" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q102" s="37"/>
-      <c r="R102" s="37"/>
-      <c r="S102" s="37"/>
-      <c r="T102" s="37"/>
-      <c r="U102" s="37"/>
-      <c r="V102" s="38"/>
-      <c r="W102" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="X102" s="37"/>
-      <c r="Y102" s="37"/>
-      <c r="Z102" s="37"/>
-      <c r="AA102" s="37"/>
-      <c r="AB102" s="37"/>
-      <c r="AC102" s="37"/>
-      <c r="AD102" s="37"/>
-      <c r="AE102" s="37"/>
-      <c r="AF102" s="37"/>
-      <c r="AG102" s="37"/>
-      <c r="AH102" s="38"/>
-    </row>
-    <row r="103" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="57"/>
+      <c r="J102" s="56"/>
+      <c r="K102" s="57"/>
+      <c r="L102" s="57"/>
+      <c r="M102" s="57"/>
+      <c r="N102" s="57"/>
+      <c r="O102" s="57"/>
+      <c r="P102" s="56"/>
+      <c r="Q102" s="57"/>
+      <c r="R102" s="57"/>
+      <c r="S102" s="57"/>
+      <c r="T102" s="57"/>
+      <c r="U102" s="57"/>
+      <c r="V102" s="58"/>
+      <c r="W102" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="X102" s="57"/>
+      <c r="Y102" s="57"/>
+      <c r="Z102" s="57"/>
+      <c r="AA102" s="57"/>
+      <c r="AB102" s="57"/>
+      <c r="AC102" s="57"/>
+      <c r="AD102" s="57"/>
+      <c r="AE102" s="57"/>
+      <c r="AF102" s="57"/>
+      <c r="AG102" s="57"/>
+      <c r="AH102" s="58"/>
+    </row>
+    <row r="103" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="27"/>
       <c r="B103" s="27"/>
       <c r="C103" s="43"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="K103" s="46"/>
-      <c r="L103" s="46"/>
-      <c r="M103" s="46"/>
-      <c r="N103" s="46"/>
-      <c r="O103" s="46"/>
-      <c r="P103" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q103" s="46"/>
-      <c r="R103" s="46"/>
-      <c r="S103" s="46"/>
-      <c r="T103" s="46"/>
-      <c r="U103" s="46"/>
-      <c r="V103" s="47"/>
-      <c r="W103" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="X103" s="46"/>
-      <c r="Y103" s="46"/>
-      <c r="Z103" s="46"/>
-      <c r="AA103" s="46"/>
-      <c r="AB103" s="46"/>
-      <c r="AC103" s="46"/>
-      <c r="AD103" s="46"/>
-      <c r="AE103" s="46"/>
-      <c r="AF103" s="46"/>
-      <c r="AG103" s="46"/>
-      <c r="AH103" s="47"/>
-    </row>
-    <row r="104" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="32"/>
+      <c r="R103" s="32"/>
+      <c r="S103" s="32"/>
+      <c r="T103" s="32"/>
+      <c r="U103" s="32"/>
+      <c r="V103" s="32"/>
+      <c r="W103" s="32"/>
+      <c r="X103" s="32"/>
+      <c r="Y103" s="32"/>
+      <c r="Z103" s="32"/>
+      <c r="AA103" s="32"/>
+      <c r="AB103" s="32"/>
+      <c r="AC103" s="32"/>
+      <c r="AD103" s="32"/>
+      <c r="AE103" s="32"/>
+      <c r="AF103" s="32"/>
+      <c r="AG103" s="32"/>
+      <c r="AH103" s="32"/>
+    </row>
+    <row r="104" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
       <c r="C104" s="43"/>
       <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="50"/>
+      <c r="E104" s="59" t="str">
+        <f>D76&amp;"3."</f>
+        <v>6.3.5.3.</v>
+      </c>
+      <c r="F104" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="G104" s="50"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="50"/>
-      <c r="J104" s="50"/>
-      <c r="K104" s="50"/>
-      <c r="L104" s="50"/>
-      <c r="M104" s="50"/>
-      <c r="N104" s="50"/>
-      <c r="O104" s="50"/>
-      <c r="P104" s="50"/>
-      <c r="Q104" s="50"/>
-      <c r="R104" s="50"/>
-      <c r="S104" s="50"/>
-      <c r="T104" s="50"/>
-      <c r="U104" s="50"/>
-      <c r="V104" s="50"/>
-      <c r="W104" s="50"/>
-      <c r="X104" s="50"/>
-      <c r="Y104" s="50"/>
-      <c r="Z104" s="50"/>
-      <c r="AA104" s="50"/>
-      <c r="AB104" s="50"/>
-      <c r="AC104" s="50"/>
-      <c r="AD104" s="50"/>
-      <c r="AE104" s="50"/>
-      <c r="AF104" s="50"/>
-      <c r="AG104" s="50"/>
-      <c r="AH104" s="50"/>
-    </row>
-    <row r="105" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="43"/>
-      <c r="B105" s="43"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="32"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="32"/>
+      <c r="S104" s="32"/>
+      <c r="T104" s="32"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="32"/>
+      <c r="W104" s="32"/>
+      <c r="X104" s="32"/>
+      <c r="Y104" s="32"/>
+      <c r="Z104" s="32"/>
+      <c r="AA104" s="32"/>
+      <c r="AB104" s="32"/>
+      <c r="AC104" s="32"/>
+      <c r="AD104" s="32"/>
+      <c r="AE104" s="32"/>
+      <c r="AF104" s="32"/>
+      <c r="AG104" s="32"/>
+      <c r="AH104" s="32"/>
+    </row>
+    <row r="105" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="43"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
-      <c r="F105" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="43"/>
-      <c r="M105" s="43"/>
-      <c r="N105" s="43"/>
-      <c r="O105" s="43"/>
-      <c r="P105" s="43"/>
-      <c r="Q105" s="43"/>
-      <c r="R105" s="43"/>
-      <c r="S105" s="43"/>
-      <c r="T105" s="43"/>
-      <c r="U105" s="43"/>
-      <c r="V105" s="43"/>
-      <c r="W105" s="43"/>
-      <c r="X105" s="43"/>
-      <c r="Y105" s="43"/>
-      <c r="Z105" s="43"/>
-      <c r="AA105" s="43"/>
-      <c r="AB105" s="43"/>
-      <c r="AC105" s="43"/>
-      <c r="AD105" s="43"/>
-      <c r="AE105" s="43"/>
-      <c r="AF105" s="43"/>
-      <c r="AG105" s="43"/>
-      <c r="AH105" s="43"/>
-      <c r="AI105" s="43"/>
-    </row>
-    <row r="106" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="43"/>
-      <c r="B106" s="43"/>
+      <c r="F105" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G105" s="50"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="32"/>
+      <c r="P105" s="32"/>
+      <c r="Q105" s="32"/>
+      <c r="R105" s="32"/>
+      <c r="S105" s="32"/>
+      <c r="T105" s="32"/>
+      <c r="U105" s="32"/>
+      <c r="V105" s="32"/>
+      <c r="W105" s="32"/>
+      <c r="X105" s="32"/>
+      <c r="Y105" s="32"/>
+      <c r="Z105" s="32"/>
+      <c r="AA105" s="32"/>
+      <c r="AB105" s="32"/>
+      <c r="AC105" s="32"/>
+      <c r="AD105" s="32"/>
+      <c r="AE105" s="32"/>
+      <c r="AF105" s="32"/>
+      <c r="AG105" s="32"/>
+      <c r="AH105" s="32"/>
+    </row>
+    <row r="106" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="43"/>
-      <c r="M106" s="43"/>
-      <c r="N106" s="43"/>
-      <c r="O106" s="43"/>
-      <c r="P106" s="43"/>
-      <c r="Q106" s="43"/>
-      <c r="R106" s="43"/>
-      <c r="S106" s="43"/>
-      <c r="T106" s="43"/>
-      <c r="U106" s="43"/>
-      <c r="V106" s="43"/>
-      <c r="W106" s="43"/>
-      <c r="X106" s="43"/>
-      <c r="Y106" s="43"/>
-      <c r="Z106" s="43"/>
-      <c r="AA106" s="43"/>
-      <c r="AB106" s="43"/>
-      <c r="AC106" s="43"/>
-      <c r="AD106" s="43"/>
-      <c r="AE106" s="43"/>
-      <c r="AF106" s="43"/>
-      <c r="AG106" s="43"/>
-      <c r="AH106" s="43"/>
-      <c r="AI106" s="43"/>
-    </row>
-    <row r="107" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="42"/>
-      <c r="P107" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="41"/>
-      <c r="S107" s="41"/>
-      <c r="T107" s="41"/>
-      <c r="U107" s="41"/>
-      <c r="V107" s="42"/>
-      <c r="W107" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="X107" s="41"/>
-      <c r="Y107" s="41"/>
-      <c r="Z107" s="41"/>
-      <c r="AA107" s="41"/>
-      <c r="AB107" s="41"/>
-      <c r="AC107" s="41"/>
-      <c r="AD107" s="41"/>
-      <c r="AE107" s="41"/>
-      <c r="AF107" s="41"/>
-      <c r="AG107" s="41"/>
-      <c r="AH107" s="42"/>
-    </row>
-    <row r="108" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="52"/>
-      <c r="J108" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="K108" s="52"/>
-      <c r="L108" s="52"/>
-      <c r="M108" s="52"/>
-      <c r="N108" s="52"/>
-      <c r="O108" s="52"/>
-      <c r="P108" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q108" s="52"/>
-      <c r="R108" s="52"/>
-      <c r="S108" s="52"/>
-      <c r="T108" s="52"/>
-      <c r="U108" s="52"/>
-      <c r="V108" s="53"/>
-      <c r="W108" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="X108" s="52"/>
-      <c r="Y108" s="52"/>
-      <c r="Z108" s="52"/>
-      <c r="AA108" s="52"/>
-      <c r="AB108" s="52"/>
-      <c r="AC108" s="52"/>
-      <c r="AD108" s="52"/>
-      <c r="AE108" s="52"/>
-      <c r="AF108" s="52"/>
-      <c r="AG108" s="52"/>
-      <c r="AH108" s="53"/>
-    </row>
-    <row r="109" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="50"/>
-      <c r="L109" s="50"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="50"/>
-      <c r="O109" s="50"/>
-      <c r="P109" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q109" s="50"/>
-      <c r="R109" s="50"/>
-      <c r="S109" s="50"/>
-      <c r="T109" s="50"/>
-      <c r="U109" s="50"/>
-      <c r="V109" s="55"/>
-      <c r="W109" s="50"/>
-      <c r="X109" s="50"/>
-      <c r="Y109" s="50"/>
-      <c r="Z109" s="50"/>
-      <c r="AA109" s="50"/>
-      <c r="AB109" s="50"/>
-      <c r="AC109" s="50"/>
-      <c r="AD109" s="50"/>
-      <c r="AE109" s="50"/>
-      <c r="AF109" s="50"/>
-      <c r="AG109" s="50"/>
-      <c r="AH109" s="55"/>
-    </row>
-    <row r="110" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="K110" s="52"/>
-      <c r="L110" s="52"/>
-      <c r="M110" s="52"/>
-      <c r="N110" s="52"/>
-      <c r="O110" s="52"/>
-      <c r="P110" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q110" s="52"/>
-      <c r="R110" s="52"/>
-      <c r="S110" s="52"/>
-      <c r="T110" s="52"/>
-      <c r="U110" s="52"/>
-      <c r="V110" s="53"/>
-      <c r="W110" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="X110" s="52"/>
-      <c r="Y110" s="52"/>
-      <c r="Z110" s="52"/>
-      <c r="AA110" s="52"/>
-      <c r="AB110" s="52"/>
-      <c r="AC110" s="52"/>
-      <c r="AD110" s="52"/>
-      <c r="AE110" s="52"/>
-      <c r="AF110" s="52"/>
-      <c r="AG110" s="52"/>
-      <c r="AH110" s="53"/>
-    </row>
-    <row r="111" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="43"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="G111" s="52"/>
-      <c r="H111" s="52"/>
-      <c r="I111" s="52"/>
-      <c r="J111" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="K111" s="52"/>
-      <c r="L111" s="52"/>
-      <c r="M111" s="52"/>
-      <c r="N111" s="52"/>
-      <c r="O111" s="52"/>
-      <c r="P111" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q111" s="52"/>
-      <c r="R111" s="52"/>
-      <c r="S111" s="52"/>
-      <c r="T111" s="52"/>
-      <c r="U111" s="52"/>
-      <c r="V111" s="53"/>
-      <c r="W111" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="X111" s="52"/>
-      <c r="Y111" s="52"/>
-      <c r="Z111" s="52"/>
-      <c r="AA111" s="52"/>
-      <c r="AB111" s="52"/>
-      <c r="AC111" s="52"/>
-      <c r="AD111" s="52"/>
-      <c r="AE111" s="52"/>
-      <c r="AF111" s="52"/>
-      <c r="AG111" s="52"/>
-      <c r="AH111" s="53"/>
-    </row>
-    <row r="112" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="57"/>
-      <c r="I112" s="57"/>
-      <c r="J112" s="56"/>
-      <c r="K112" s="57"/>
-      <c r="L112" s="57"/>
-      <c r="M112" s="57"/>
-      <c r="N112" s="57"/>
-      <c r="O112" s="57"/>
-      <c r="P112" s="56"/>
-      <c r="Q112" s="57"/>
-      <c r="R112" s="57"/>
-      <c r="S112" s="57"/>
-      <c r="T112" s="57"/>
-      <c r="U112" s="57"/>
-      <c r="V112" s="58"/>
-      <c r="W112" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="X112" s="57"/>
-      <c r="Y112" s="57"/>
-      <c r="Z112" s="57"/>
-      <c r="AA112" s="57"/>
-      <c r="AB112" s="57"/>
-      <c r="AC112" s="57"/>
-      <c r="AD112" s="57"/>
-      <c r="AE112" s="57"/>
-      <c r="AF112" s="57"/>
-      <c r="AG112" s="57"/>
-      <c r="AH112" s="58"/>
-    </row>
-    <row r="113" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="50"/>
-      <c r="G113" s="50"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="32"/>
-      <c r="L113" s="32"/>
-      <c r="M113" s="32"/>
-      <c r="N113" s="32"/>
-      <c r="O113" s="32"/>
-      <c r="P113" s="32"/>
-      <c r="Q113" s="32"/>
-      <c r="R113" s="32"/>
-      <c r="S113" s="32"/>
-      <c r="T113" s="32"/>
-      <c r="U113" s="32"/>
-      <c r="V113" s="32"/>
-      <c r="W113" s="32"/>
-      <c r="X113" s="32"/>
-      <c r="Y113" s="32"/>
-      <c r="Z113" s="32"/>
-      <c r="AA113" s="32"/>
-      <c r="AB113" s="32"/>
-      <c r="AC113" s="32"/>
-      <c r="AD113" s="32"/>
-      <c r="AE113" s="32"/>
-      <c r="AF113" s="32"/>
-      <c r="AG113" s="32"/>
-      <c r="AH113" s="32"/>
-    </row>
-    <row r="114" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="27"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="59" t="str">
-        <f>D86&amp;"3."</f>
-        <v>6.3.5.3.</v>
-      </c>
-      <c r="F114" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G114" s="50"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="32"/>
-      <c r="J114" s="32"/>
-      <c r="K114" s="32"/>
-      <c r="L114" s="32"/>
-      <c r="M114" s="32"/>
-      <c r="N114" s="32"/>
-      <c r="O114" s="32"/>
-      <c r="P114" s="32"/>
-      <c r="Q114" s="32"/>
-      <c r="R114" s="32"/>
-      <c r="S114" s="32"/>
-      <c r="T114" s="32"/>
-      <c r="U114" s="32"/>
-      <c r="V114" s="32"/>
-      <c r="W114" s="32"/>
-      <c r="X114" s="32"/>
-      <c r="Y114" s="32"/>
-      <c r="Z114" s="32"/>
-      <c r="AA114" s="32"/>
-      <c r="AB114" s="32"/>
-      <c r="AC114" s="32"/>
-      <c r="AD114" s="32"/>
-      <c r="AE114" s="32"/>
-      <c r="AF114" s="32"/>
-      <c r="AG114" s="32"/>
-      <c r="AH114" s="32"/>
-    </row>
-    <row r="115" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G115" s="50"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="32"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="32"/>
-      <c r="L115" s="32"/>
-      <c r="M115" s="32"/>
-      <c r="N115" s="32"/>
-      <c r="O115" s="32"/>
-      <c r="P115" s="32"/>
-      <c r="Q115" s="32"/>
-      <c r="R115" s="32"/>
-      <c r="S115" s="32"/>
-      <c r="T115" s="32"/>
-      <c r="U115" s="32"/>
-      <c r="V115" s="32"/>
-      <c r="W115" s="32"/>
-      <c r="X115" s="32"/>
-      <c r="Y115" s="32"/>
-      <c r="Z115" s="32"/>
-      <c r="AA115" s="32"/>
-      <c r="AB115" s="32"/>
-      <c r="AC115" s="32"/>
-      <c r="AD115" s="32"/>
-      <c r="AE115" s="32"/>
-      <c r="AF115" s="32"/>
-      <c r="AG115" s="32"/>
-      <c r="AH115" s="32"/>
-    </row>
-    <row r="116" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="32"/>
-      <c r="L116" s="32"/>
-      <c r="M116" s="32"/>
-      <c r="N116" s="32"/>
-      <c r="O116" s="32"/>
-      <c r="P116" s="32"/>
-      <c r="Q116" s="32"/>
-      <c r="R116" s="32"/>
-      <c r="S116" s="32"/>
-      <c r="T116" s="32"/>
-      <c r="U116" s="32"/>
-      <c r="V116" s="32"/>
-      <c r="W116" s="32"/>
-      <c r="X116" s="32"/>
-      <c r="Y116" s="32"/>
-      <c r="Z116" s="32"/>
-      <c r="AA116" s="32"/>
-      <c r="AB116" s="32"/>
-      <c r="AC116" s="32"/>
-      <c r="AD116" s="32"/>
-      <c r="AE116" s="32"/>
-      <c r="AF116" s="32"/>
-      <c r="AG116" s="32"/>
-      <c r="AH116" s="32"/>
-    </row>
-    <row r="117" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="27"/>
-    </row>
-    <row r="118" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="27"/>
-      <c r="D118" s="25" t="str">
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="32"/>
+      <c r="Q106" s="32"/>
+      <c r="R106" s="32"/>
+      <c r="S106" s="32"/>
+      <c r="T106" s="32"/>
+      <c r="U106" s="32"/>
+      <c r="V106" s="32"/>
+      <c r="W106" s="32"/>
+      <c r="X106" s="32"/>
+      <c r="Y106" s="32"/>
+      <c r="Z106" s="32"/>
+      <c r="AA106" s="32"/>
+      <c r="AB106" s="32"/>
+      <c r="AC106" s="32"/>
+      <c r="AD106" s="32"/>
+      <c r="AE106" s="32"/>
+      <c r="AF106" s="32"/>
+      <c r="AG106" s="32"/>
+      <c r="AH106" s="32"/>
+    </row>
+    <row r="107" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="27"/>
+    </row>
+    <row r="108" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="27"/>
+      <c r="D108" s="25" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.3.6.</v>
       </c>
+      <c r="E108" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="27"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25" t="str">
+        <f>D108&amp;"1."</f>
+        <v>6.3.6.1.</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="27"/>
+      <c r="D110" s="25"/>
+      <c r="F110" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+    </row>
+    <row r="112" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+    </row>
+    <row r="113" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="61" t="str">
+        <f>$C$7&amp;"7."</f>
+        <v>6.3.7.</v>
+      </c>
+      <c r="E113" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F113" s="27"/>
+    </row>
+    <row r="114" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F114" s="27"/>
+    </row>
+    <row r="115" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+    </row>
+    <row r="116" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="27"/>
+    </row>
+    <row r="117" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="25" t="str">
+        <f>$C$7&amp;"8."</f>
+        <v>6.3.8.</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="119" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
       <c r="C119" s="27"/>
       <c r="D119" s="25"/>
-      <c r="E119" s="25" t="str">
-        <f>D118&amp;"1."</f>
-        <v>6.3.6.1.</v>
-      </c>
-      <c r="F119" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E119" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
       <c r="C120" s="27"/>
       <c r="D120" s="25"/>
-      <c r="F120" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="121" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E120" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="27"/>
       <c r="B121" s="27"/>
       <c r="C121" s="27"/>
-      <c r="D121" s="61"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-    </row>
-    <row r="122" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="25"/>
+    </row>
+    <row r="122" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="27"/>
       <c r="B122" s="27"/>
       <c r="C122" s="27"/>
-      <c r="D122" s="61"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-    </row>
-    <row r="123" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="27"/>
+      <c r="E122" s="25" t="str">
+        <f>D117&amp;"1."</f>
+        <v>6.3.8.1.</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="27"/>
-      <c r="D123" s="61" t="str">
-        <f>$C$7&amp;"7."</f>
-        <v>6.3.7.</v>
-      </c>
-      <c r="E123" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F123" s="27"/>
-    </row>
-    <row r="124" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="27"/>
+      <c r="F123" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F124" s="27"/>
-    </row>
-    <row r="125" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="27"/>
+    </row>
+    <row r="125" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-    </row>
-    <row r="126" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F125" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L125" s="26"/>
+      <c r="M125" s="26"/>
+      <c r="N125" s="26"/>
+      <c r="O125" s="26"/>
+      <c r="P125" s="62"/>
+      <c r="Q125" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="R125" s="72"/>
+      <c r="S125" s="72"/>
+      <c r="T125" s="73"/>
+    </row>
+    <row r="126" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="27"/>
-    </row>
-    <row r="127" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
+      <c r="F126" s="45">
+        <v>1</v>
+      </c>
+      <c r="G126" s="46"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="46"/>
+      <c r="J126" s="46"/>
+      <c r="K126" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="L126" s="46"/>
+      <c r="M126" s="46"/>
+      <c r="N126" s="46"/>
+      <c r="O126" s="46"/>
+      <c r="P126" s="47"/>
+      <c r="Q126" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="R126" s="46"/>
+      <c r="S126" s="46"/>
+      <c r="T126" s="47"/>
+    </row>
+    <row r="127" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C127" s="27"/>
-      <c r="D127" s="25" t="str">
-        <f>$C$7&amp;"8."</f>
-        <v>6.3.8.</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="128" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="27"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="29" t="s">
+      <c r="F127" s="34">
+        <v>2</v>
+      </c>
+      <c r="G127" s="35"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="34" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="27"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="25"/>
-    </row>
-    <row r="132" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="E132" s="25" t="str">
-        <f>D127&amp;"1."</f>
-        <v>6.3.8.1.</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="27"/>
-      <c r="F133" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="27"/>
-    </row>
-    <row r="135" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="27"/>
-      <c r="F135" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
-      <c r="K135" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="L135" s="26"/>
-      <c r="M135" s="26"/>
-      <c r="N135" s="26"/>
-      <c r="O135" s="26"/>
-      <c r="P135" s="62"/>
-      <c r="Q135" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="R135" s="72"/>
-      <c r="S135" s="72"/>
-      <c r="T135" s="73"/>
-    </row>
-    <row r="136" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="27"/>
-      <c r="F136" s="45">
-        <v>1</v>
-      </c>
-      <c r="G136" s="46"/>
-      <c r="H136" s="46"/>
-      <c r="I136" s="46"/>
-      <c r="J136" s="46"/>
-      <c r="K136" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="L136" s="46"/>
-      <c r="M136" s="46"/>
-      <c r="N136" s="46"/>
-      <c r="O136" s="46"/>
-      <c r="P136" s="47"/>
-      <c r="Q136" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="R136" s="46"/>
-      <c r="S136" s="46"/>
-      <c r="T136" s="47"/>
-    </row>
-    <row r="137" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="27"/>
-      <c r="F137" s="34">
-        <v>2</v>
-      </c>
-      <c r="G137" s="35"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="35"/>
-      <c r="J137" s="35"/>
-      <c r="K137" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="L137" s="35"/>
-      <c r="M137" s="35"/>
-      <c r="N137" s="35"/>
-      <c r="O137" s="35"/>
-      <c r="P137" s="39"/>
-      <c r="Q137" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="R137" s="46"/>
-      <c r="S137" s="46"/>
-      <c r="T137" s="47"/>
-    </row>
-    <row r="138" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F138" s="29"/>
-    </row>
-    <row r="139" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="L127" s="35"/>
+      <c r="M127" s="35"/>
+      <c r="N127" s="35"/>
+      <c r="O127" s="35"/>
+      <c r="P127" s="39"/>
+      <c r="Q127" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="R127" s="46"/>
+      <c r="S127" s="46"/>
+      <c r="T127" s="47"/>
+    </row>
+    <row r="128" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="29"/>
+    </row>
+    <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5352,16 +5263,6 @@
     <row r="515" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5385,8 +5286,8 @@
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="23" max="34" man="1"/>
     <brk id="57" max="34" man="1"/>
-    <brk id="84" max="34" man="1"/>
-    <brk id="125" max="34" man="1"/>
+    <brk id="74" max="34" man="1"/>
+    <brk id="115" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA92179B-93A4-4D6F-A8FA-B9EAB23846BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B2C52-0E47-4802-8EB2-2224B642B223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6.3.メール送信'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$128</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$107</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$107</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$115</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$94</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -131,15 +131,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>また、不達メールを特定する処理では、送信したメールが送信先に届かなかった場合にエラーとして返却されるメールを受信し、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本出力処理方式によるメール送信の用途は、システムのエンドユーザに対する通知メールを想定している。</t>
-  </si>
-  <si>
-    <t>本処理方式では、本システムから出力するメール送信処理および、送信時に不達となったメール(以下、不達メール)を特定する処理を対象とする。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>定型メール送信</t>
@@ -341,10 +333,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>不達メール受信時のエラー、リトライ方針は、以下の通りである。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メール送信エラー</t>
     <rPh sb="3" eb="5">
       <t>ソウシン</t>
@@ -401,81 +389,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>不達メール精査エラー</t>
-    <rPh sb="0" eb="2">
-      <t>フタツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メール受信エラー</t>
-    <rPh sb="3" eb="5">
-      <t>ジュシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>不達メール履歴更新エラー</t>
-    <rPh sb="0" eb="2">
-      <t>フタツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>存在しない</t>
-  </si>
-  <si>
-    <t>該当メールを削除し、次のメールを処理する。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理正常完了として、常駐バッチの定期周期後再実行。</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>テイキ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュウキ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>サイジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PJ固有の要件</t>
@@ -505,10 +419,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>レコードが存在しない</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>指定されたテンプレートが</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
@@ -578,47 +488,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PJ固有の要件</t>
-    <rPh sb="2" eb="4">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>不達メール特定機能を使用しないため、不達メール受信時のエラー処理は行わない。</t>
-    <rPh sb="0" eb="2">
-      <t>フタツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>フタツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>送信履歴</t>
     <rPh sb="0" eb="2">
       <t>ソウシン</t>
@@ -642,9 +511,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>送信履歴TBLのメール配信結果ステータスを送信済(不達メールエラー)へ更新する。</t>
-  </si>
-  <si>
     <t>送信履歴テーブルへの登録失敗</t>
     <rPh sb="10" eb="12">
       <t>トウロク</t>
@@ -665,13 +531,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>送信履歴テーブルに該当する</t>
-    <rPh sb="9" eb="11">
-      <t>ガイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>使用しない</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
@@ -826,32 +685,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>障害復旧後に常駐バッチとして次回実行の</t>
-    <rPh sb="0" eb="2">
-      <t>ショウガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フッキュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジカイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイミングで再実行する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Nablarchでは、メールテンプレート用のアダプタとして以下を提供している。</t>
     <rPh sb="20" eb="21">
       <t>ヨウ</t>
@@ -1081,6 +914,17 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本処理方式では、本システムから出力するメール送信処理を対象とする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送信時に不達となったメールを特定する処理は対象外とする。</t>
+    <rPh sb="21" eb="24">
+      <t>タイショウガイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1322,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1476,28 +1320,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1951,7 +1774,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI517"/>
+  <dimension ref="A1:AI504"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1964,48 +1787,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="73"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="R1" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="76"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="70"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2014,43 +1837,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="90" t="s">
+      <c r="R2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="92"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="85"/>
       <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="70"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2059,39 +1882,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="95"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="88"/>
       <c r="Y3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="70"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2119,54 +1942,42 @@
         <v>6.3.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="24"/>
       <c r="E10" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="24"/>
-      <c r="E11" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="30"/>
+      <c r="E11" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="30"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="24"/>
+      <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="24"/>
-      <c r="E12" s="4" t="s">
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="24"/>
+      <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="59"/>
-      <c r="E13" s="27" t="s">
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="52"/>
+      <c r="E15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="59"/>
-      <c r="E14" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="59"/>
-      <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -2175,9 +1986,9 @@
       <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="59"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -2186,11 +1997,9 @@
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="59"/>
-      <c r="E17" s="27" t="s">
-        <v>78</v>
-      </c>
+    <row r="17" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="52"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -2199,9 +2008,15 @@
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="59"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="52" t="str">
+        <f>$D$9&amp;"1."</f>
+        <v>6.3.1.1.</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -2211,12 +2026,9 @@
     <row r="19" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="59" t="str">
-        <f>$D$9&amp;"1."</f>
-        <v>6.3.1.1.</v>
-      </c>
+      <c r="E19" s="27"/>
       <c r="F19" s="27" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -2229,7 +2041,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -2242,7 +2054,7 @@
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -2254,9 +2066,7 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="27" t="s">
-        <v>73</v>
-      </c>
+      <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -2264,7 +2074,6 @@
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -2274,9 +2083,15 @@
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+    <row r="24" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="52" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>6.3.2.</v>
+      </c>
+      <c r="E24" s="27" t="str">
+        <f>D7&amp;"方式"</f>
+        <v>メール送信方式</v>
+      </c>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
@@ -2284,16 +2099,16 @@
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
     </row>
-    <row r="25" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="59" t="str">
-        <f>$C$7&amp;"2."</f>
-        <v>6.3.2.</v>
-      </c>
-      <c r="E25" s="27" t="str">
-        <f>D7&amp;"方式"</f>
-        <v>メール送信方式</v>
-      </c>
-      <c r="F25" s="27"/>
+    <row r="25" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="52"/>
+      <c r="E25" s="52" t="str">
+        <f>D24&amp;"1."</f>
+        <v>6.3.2.1.</v>
+      </c>
+      <c r="F25" s="27" t="str">
+        <f>E24&amp;"概要"</f>
+        <v>メール送信方式概要</v>
+      </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -2301,14 +2116,10 @@
       <c r="K25" s="27"/>
     </row>
     <row r="26" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="59"/>
-      <c r="E26" s="59" t="str">
-        <f>D25&amp;"1."</f>
-        <v>6.3.2.1.</v>
-      </c>
-      <c r="F26" s="27" t="str">
-        <f>E25&amp;"概要"</f>
-        <v>メール送信方式概要</v>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -2317,91 +2128,113 @@
       <c r="K26" s="27"/>
     </row>
     <row r="27" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="30"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="29"/>
+      <c r="F28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="17"/>
     </row>
     <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="29"/>
-      <c r="F29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="17"/>
+      <c r="F29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="20"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="29"/>
-      <c r="F30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="23"/>
     </row>
     <row r="31" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="29"/>
@@ -2412,7 +2245,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="21" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -2445,9 +2278,7 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
-      <c r="L32" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="L32" s="21"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -2473,264 +2304,265 @@
     </row>
     <row r="33" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="29"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="23"/>
+      <c r="F33" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="38"/>
     </row>
     <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="29"/>
-      <c r="F34" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="38"/>
-    </row>
-    <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="29"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="39"/>
-    </row>
-    <row r="36" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="39"/>
+    </row>
+    <row r="35" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+    </row>
+    <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="F36" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="F37" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F37" s="15" t="str">
+        <f>F28</f>
+        <v>方法</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="16"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="17"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="F38" s="15" t="str">
+      <c r="F38" s="21" t="str">
         <f>F29</f>
-        <v>方法</v>
-      </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M38" s="16"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="17"/>
+        <v>定型メール送信</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="57"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+      <c r="AH38" s="51"/>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="F39" s="21" t="str">
-        <f>F30</f>
-        <v>定型メール送信</v>
-      </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="M39" s="64"/>
-      <c r="N39" s="65"/>
+      <c r="F39" s="45" t="str">
+        <f>F33</f>
+        <v>非定型メール送信</v>
+      </c>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" s="56"/>
+      <c r="N39" s="59"/>
       <c r="O39" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
-      <c r="AH39" s="55"/>
-    </row>
-    <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="F40" s="45" t="str">
-        <f>F34</f>
-        <v>非定型メール送信</v>
-      </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="M40" s="63"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="68"/>
-      <c r="AB40" s="68"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="68"/>
-      <c r="AE40" s="68"/>
-      <c r="AF40" s="68"/>
-      <c r="AG40" s="68"/>
-      <c r="AH40" s="69"/>
+        <v>70</v>
+      </c>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="61"/>
+      <c r="V39" s="61"/>
+      <c r="W39" s="61"/>
+      <c r="X39" s="61"/>
+      <c r="Y39" s="61"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="61"/>
+      <c r="AE39" s="61"/>
+      <c r="AF39" s="61"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="62"/>
+    </row>
+    <row r="40" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
     </row>
     <row r="41" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="32"/>
+      <c r="F41" s="29" t="s">
+        <v>97</v>
+      </c>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -2761,9 +2593,6 @@
       <c r="AH41" s="32"/>
     </row>
     <row r="42" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F42" s="29" t="s">
-        <v>112</v>
-      </c>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
@@ -2794,6 +2623,9 @@
       <c r="AH42" s="32"/>
     </row>
     <row r="43" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="32" t="s">
+        <v>98</v>
+      </c>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
@@ -2825,7 +2657,7 @@
     </row>
     <row r="44" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="32" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -2858,7 +2690,7 @@
     </row>
     <row r="45" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="32" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -2891,7 +2723,7 @@
     </row>
     <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="32" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -2922,10 +2754,8 @@
       <c r="AG46" s="32"/>
       <c r="AH46" s="32"/>
     </row>
-    <row r="47" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F47" s="32" t="s">
-        <v>116</v>
-      </c>
+    <row r="47" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
@@ -2934,7 +2764,7 @@
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
+      <c r="O47" s="50"/>
       <c r="P47" s="32"/>
       <c r="Q47" s="32"/>
       <c r="R47" s="32"/>
@@ -2955,8 +2785,14 @@
       <c r="AG47" s="32"/>
       <c r="AH47" s="32"/>
     </row>
-    <row r="48" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="32"/>
+    <row r="48" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="30" t="str">
+        <f>D24&amp;"2."</f>
+        <v>6.3.2.2.</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -2965,7 +2801,7 @@
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
       <c r="N48" s="32"/>
-      <c r="O48" s="50"/>
+      <c r="O48" s="32"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
@@ -2987,12 +2823,9 @@
       <c r="AH48" s="32"/>
     </row>
     <row r="49" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="30" t="str">
-        <f>D25&amp;"2."</f>
-        <v>6.3.2.2.</v>
-      </c>
+      <c r="E49" s="30"/>
       <c r="F49" s="32" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -3026,7 +2859,7 @@
     <row r="50" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="30"/>
       <c r="F50" s="32" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -3060,7 +2893,7 @@
     <row r="51" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="30"/>
       <c r="F51" s="32" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
@@ -3092,10 +2925,7 @@
       <c r="AH51" s="32"/>
     </row>
     <row r="52" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="30"/>
-      <c r="F52" s="32" t="s">
-        <v>120</v>
-      </c>
+      <c r="F52" s="44"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
@@ -3126,7 +2956,9 @@
       <c r="AH52" s="32"/>
     </row>
     <row r="53" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F53" s="44"/>
+      <c r="F53" s="32" t="s">
+        <v>107</v>
+      </c>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
@@ -3157,9 +2989,7 @@
       <c r="AH53" s="32"/>
     </row>
     <row r="54" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F54" s="32" t="s">
-        <v>122</v>
-      </c>
+      <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
@@ -3190,7 +3020,9 @@
       <c r="AH54" s="32"/>
     </row>
     <row r="55" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="32"/>
+      <c r="F55" s="67" t="s">
+        <v>104</v>
+      </c>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
@@ -3220,221 +3052,231 @@
       <c r="AG55" s="32"/>
       <c r="AH55" s="32"/>
     </row>
-    <row r="56" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F56" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="32"/>
-      <c r="AA56" s="32"/>
-      <c r="AB56" s="32"/>
-      <c r="AC56" s="32"/>
-      <c r="AD56" s="32"/>
-      <c r="AE56" s="32"/>
-      <c r="AF56" s="32"/>
-      <c r="AG56" s="32"/>
-      <c r="AH56" s="32"/>
-    </row>
+    <row r="56" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="49" t="str">
+    <row r="58" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D58" s="49" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.3.3.</v>
       </c>
-      <c r="E59" s="48" t="s">
-        <v>27</v>
+      <c r="E58" s="48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E59" s="49" t="str">
+        <f>D58&amp;"1."</f>
+        <v>6.3.3.1.</v>
+      </c>
+      <c r="F59" s="48" t="str">
+        <f>E58&amp;"手段"</f>
+        <v>メールテンプレート手段</v>
       </c>
     </row>
     <row r="60" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="49" t="str">
-        <f>D59&amp;"1."</f>
-        <v>6.3.3.1.</v>
-      </c>
-      <c r="F60" s="48" t="str">
-        <f>E59&amp;"手段"</f>
-        <v>メールテンプレート手段</v>
+      <c r="E60" s="49"/>
+      <c r="F60" s="48" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="49"/>
-      <c r="F61" s="48" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="62" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="49"/>
+      <c r="F62" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="48" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="63" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="49"/>
       <c r="F63" s="48" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="49"/>
       <c r="F64" s="48" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G64" s="48" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="49"/>
-      <c r="F65" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="G65" s="48" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="66" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="49"/>
+      <c r="F66" s="48" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="67" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="49"/>
       <c r="F67" s="48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E68" s="49"/>
-      <c r="F68" s="48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D70" s="49" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="49" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.3.4.</v>
       </c>
-      <c r="E70" s="48" t="s">
-        <v>28</v>
+      <c r="E69" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="24" t="str">
+        <f>D69&amp;"1."</f>
+        <v>6.3.4.1.</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <f>E69&amp;"手段"</f>
+        <v>メールフォーマット手段</v>
       </c>
     </row>
     <row r="71" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="24" t="str">
-        <f>D70&amp;"1."</f>
-        <v>6.3.4.1.</v>
-      </c>
-      <c r="F71" s="4" t="str">
-        <f>E70&amp;"手段"</f>
-        <v>メールフォーマット手段</v>
-      </c>
+      <c r="F71" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16"/>
+      <c r="AH71" s="17"/>
     </row>
     <row r="72" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F72" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="16"/>
-      <c r="AE72" s="16"/>
-      <c r="AF72" s="16"/>
-      <c r="AG72" s="16"/>
-      <c r="AH72" s="17"/>
-    </row>
-    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F73" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="L73" s="68"/>
-      <c r="M73" s="68"/>
-      <c r="N73" s="68"/>
-      <c r="O73" s="68"/>
-      <c r="P73" s="68"/>
-      <c r="Q73" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="R73" s="68"/>
-      <c r="S73" s="68"/>
-      <c r="T73" s="68"/>
-      <c r="U73" s="68"/>
-      <c r="V73" s="68"/>
-      <c r="W73" s="68"/>
-      <c r="X73" s="68"/>
-      <c r="Y73" s="68"/>
-      <c r="Z73" s="68"/>
-      <c r="AA73" s="68"/>
-      <c r="AB73" s="68"/>
-      <c r="AC73" s="68"/>
-      <c r="AD73" s="68"/>
-      <c r="AE73" s="68"/>
-      <c r="AF73" s="68"/>
-      <c r="AG73" s="68"/>
-      <c r="AH73" s="69"/>
-    </row>
-    <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F72" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="61"/>
+      <c r="X72" s="61"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="61"/>
+      <c r="AC72" s="61"/>
+      <c r="AD72" s="61"/>
+      <c r="AE72" s="61"/>
+      <c r="AF72" s="61"/>
+      <c r="AG72" s="61"/>
+      <c r="AH72" s="62"/>
+    </row>
+    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E74" s="24"/>
+    </row>
     <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E75" s="24"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="30" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>6.3.5.</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="28"/>
+      <c r="AD75" s="28"/>
+      <c r="AE75" s="28"/>
+      <c r="AF75" s="28"/>
+      <c r="AG75" s="28"/>
+      <c r="AH75" s="28"/>
+      <c r="AI75" s="28"/>
     </row>
     <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
-      <c r="D76" s="30" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>6.3.5.</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F76" s="28"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30" t="str">
+        <f>D75&amp;"1."</f>
+        <v>6.3.5.1.</v>
+      </c>
+      <c r="F76" s="29" t="str">
+        <f>E75&amp;"機能概要"</f>
+        <v>エラー処理機能概要</v>
+      </c>
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
@@ -3469,14 +3311,10 @@
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30" t="str">
-        <f>D76&amp;"1."</f>
-        <v>6.3.5.1.</v>
-      </c>
-      <c r="F77" s="29" t="str">
-        <f>E76&amp;"機能概要"</f>
-        <v>エラー処理機能概要</v>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
@@ -3514,9 +3352,7 @@
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="F78" s="28"/>
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
@@ -3552,8 +3388,14 @@
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
+      <c r="E79" s="30" t="str">
+        <f>D75&amp;"2."</f>
+        <v>6.3.5.2.</v>
+      </c>
+      <c r="F79" s="29" t="str">
+        <f>E75&amp;"方法"</f>
+        <v>エラー処理方法</v>
+      </c>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
@@ -3584,18 +3426,14 @@
       <c r="AH79" s="28"/>
       <c r="AI79" s="28"/>
     </row>
-    <row r="80" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
-      <c r="E80" s="30" t="str">
-        <f>D76&amp;"2."</f>
-        <v>6.3.5.2.</v>
-      </c>
-      <c r="F80" s="29" t="str">
-        <f>E76&amp;"方法"</f>
-        <v>エラー処理方法</v>
+      <c r="E80" s="28"/>
+      <c r="F80" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
@@ -3628,14 +3466,12 @@
       <c r="AI80" s="28"/>
     </row>
     <row r="81" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="29" t="s">
-        <v>47</v>
-      </c>
+      <c r="F81" s="28"/>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
@@ -3668,84 +3504,91 @@
     </row>
     <row r="82" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="43"/>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
-      <c r="T82" s="28"/>
-      <c r="U82" s="28"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="28"/>
-      <c r="AA82" s="28"/>
-      <c r="AB82" s="28"/>
-      <c r="AC82" s="28"/>
-      <c r="AD82" s="28"/>
-      <c r="AE82" s="28"/>
-      <c r="AF82" s="28"/>
-      <c r="AG82" s="28"/>
-      <c r="AH82" s="28"/>
-      <c r="AI82" s="28"/>
+      <c r="F82" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="42"/>
+      <c r="W82" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="41"/>
+      <c r="AA82" s="41"/>
+      <c r="AB82" s="41"/>
+      <c r="AC82" s="41"/>
+      <c r="AD82" s="41"/>
+      <c r="AE82" s="41"/>
+      <c r="AF82" s="41"/>
+      <c r="AG82" s="41"/>
+      <c r="AH82" s="42"/>
     </row>
     <row r="83" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="43"/>
+      <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="43"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K83" s="41"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="41"/>
-      <c r="O83" s="42"/>
-      <c r="P83" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q83" s="41"/>
-      <c r="R83" s="41"/>
-      <c r="S83" s="41"/>
-      <c r="T83" s="41"/>
-      <c r="U83" s="41"/>
-      <c r="V83" s="42"/>
-      <c r="W83" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="X83" s="41"/>
-      <c r="Y83" s="41"/>
-      <c r="Z83" s="41"/>
-      <c r="AA83" s="41"/>
-      <c r="AB83" s="41"/>
-      <c r="AC83" s="41"/>
-      <c r="AD83" s="41"/>
-      <c r="AE83" s="41"/>
-      <c r="AF83" s="41"/>
-      <c r="AG83" s="41"/>
-      <c r="AH83" s="42"/>
+      <c r="F83" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="37"/>
+      <c r="Z83" s="37"/>
+      <c r="AA83" s="37"/>
+      <c r="AB83" s="37"/>
+      <c r="AC83" s="37"/>
+      <c r="AD83" s="37"/>
+      <c r="AE83" s="37"/>
+      <c r="AF83" s="37"/>
+      <c r="AG83" s="37"/>
+      <c r="AH83" s="38"/>
     </row>
     <row r="84" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
@@ -3754,13 +3597,13 @@
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
       <c r="F84" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G84" s="37"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
       <c r="J84" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K84" s="37"/>
       <c r="L84" s="37"/>
@@ -3768,7 +3611,7 @@
       <c r="N84" s="37"/>
       <c r="O84" s="37"/>
       <c r="P84" s="36" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="Q84" s="37"/>
       <c r="R84" s="37"/>
@@ -3777,7 +3620,7 @@
       <c r="U84" s="37"/>
       <c r="V84" s="38"/>
       <c r="W84" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X84" s="37"/>
       <c r="Y84" s="37"/>
@@ -3797,43 +3640,37 @@
       <c r="C85" s="43"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
-      <c r="F85" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="37"/>
-      <c r="Z85" s="37"/>
-      <c r="AA85" s="37"/>
-      <c r="AB85" s="37"/>
-      <c r="AC85" s="37"/>
-      <c r="AD85" s="37"/>
-      <c r="AE85" s="37"/>
-      <c r="AF85" s="37"/>
-      <c r="AG85" s="37"/>
-      <c r="AH85" s="38"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="32"/>
+      <c r="X85" s="32"/>
+      <c r="Y85" s="32"/>
+      <c r="Z85" s="32"/>
+      <c r="AA85" s="32"/>
+      <c r="AB85" s="32"/>
+      <c r="AC85" s="32"/>
+      <c r="AD85" s="32"/>
+      <c r="AE85" s="32"/>
+      <c r="AF85" s="32"/>
+      <c r="AG85" s="32"/>
+      <c r="AH85" s="33"/>
     </row>
     <row r="86" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
@@ -3841,18 +3678,20 @@
       <c r="C86" s="43"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="K86" s="35"/>
       <c r="L86" s="35"/>
       <c r="M86" s="35"/>
       <c r="N86" s="35"/>
       <c r="O86" s="35"/>
       <c r="P86" s="34" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Q86" s="35"/>
       <c r="R86" s="35"/>
@@ -3860,18 +3699,18 @@
       <c r="T86" s="35"/>
       <c r="U86" s="35"/>
       <c r="V86" s="39"/>
-      <c r="W86" s="32"/>
-      <c r="X86" s="32"/>
-      <c r="Y86" s="32"/>
-      <c r="Z86" s="32"/>
-      <c r="AA86" s="32"/>
-      <c r="AB86" s="32"/>
-      <c r="AC86" s="32"/>
-      <c r="AD86" s="32"/>
-      <c r="AE86" s="32"/>
-      <c r="AF86" s="32"/>
-      <c r="AG86" s="32"/>
-      <c r="AH86" s="33"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+      <c r="AH86" s="39"/>
     </row>
     <row r="87" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="27"/>
@@ -3879,85 +3718,82 @@
       <c r="C87" s="43"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="35"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="35"/>
-      <c r="X87" s="35"/>
-      <c r="Y87" s="35"/>
-      <c r="Z87" s="35"/>
-      <c r="AA87" s="35"/>
-      <c r="AB87" s="35"/>
-      <c r="AC87" s="35"/>
-      <c r="AD87" s="35"/>
-      <c r="AE87" s="35"/>
-      <c r="AF87" s="35"/>
-      <c r="AG87" s="35"/>
-      <c r="AH87" s="39"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
+      <c r="V87" s="32"/>
+      <c r="W87" s="32"/>
+      <c r="X87" s="32"/>
+      <c r="Y87" s="32"/>
+      <c r="Z87" s="32"/>
+      <c r="AA87" s="32"/>
+      <c r="AB87" s="32"/>
+      <c r="AC87" s="32"/>
+      <c r="AD87" s="32"/>
+      <c r="AE87" s="32"/>
+      <c r="AF87" s="32"/>
+      <c r="AG87" s="32"/>
+      <c r="AH87" s="32"/>
     </row>
     <row r="88" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="43"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="32"/>
-      <c r="S88" s="32"/>
-      <c r="T88" s="32"/>
-      <c r="U88" s="32"/>
-      <c r="V88" s="32"/>
-      <c r="W88" s="32"/>
-      <c r="X88" s="32"/>
-      <c r="Y88" s="32"/>
-      <c r="Z88" s="32"/>
-      <c r="AA88" s="32"/>
-      <c r="AB88" s="32"/>
-      <c r="AC88" s="32"/>
-      <c r="AD88" s="32"/>
-      <c r="AE88" s="32"/>
-      <c r="AF88" s="32"/>
-      <c r="AG88" s="32"/>
-      <c r="AH88" s="32"/>
+      <c r="F88" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="28"/>
+      <c r="U88" s="28"/>
+      <c r="V88" s="28"/>
+      <c r="W88" s="28"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="28"/>
+      <c r="AA88" s="28"/>
+      <c r="AB88" s="28"/>
+      <c r="AC88" s="28"/>
+      <c r="AD88" s="28"/>
+      <c r="AE88" s="28"/>
+      <c r="AF88" s="28"/>
+      <c r="AG88" s="28"/>
+      <c r="AH88" s="28"/>
+      <c r="AI88" s="28"/>
     </row>
     <row r="89" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="29" t="s">
-        <v>48</v>
-      </c>
+      <c r="F89" s="28"/>
       <c r="G89" s="28"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
@@ -3990,84 +3826,91 @@
     </row>
     <row r="90" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="43"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="28"/>
-      <c r="P90" s="28"/>
-      <c r="Q90" s="28"/>
-      <c r="R90" s="28"/>
-      <c r="S90" s="28"/>
-      <c r="T90" s="28"/>
-      <c r="U90" s="28"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="28"/>
-      <c r="AA90" s="28"/>
-      <c r="AB90" s="28"/>
-      <c r="AC90" s="28"/>
-      <c r="AD90" s="28"/>
-      <c r="AE90" s="28"/>
-      <c r="AF90" s="28"/>
-      <c r="AG90" s="28"/>
-      <c r="AH90" s="28"/>
-      <c r="AI90" s="28"/>
+      <c r="F90" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="41"/>
+      <c r="N90" s="41"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="41"/>
+      <c r="S90" s="41"/>
+      <c r="T90" s="41"/>
+      <c r="U90" s="41"/>
+      <c r="V90" s="42"/>
+      <c r="W90" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="X90" s="41"/>
+      <c r="Y90" s="41"/>
+      <c r="Z90" s="41"/>
+      <c r="AA90" s="41"/>
+      <c r="AB90" s="41"/>
+      <c r="AC90" s="41"/>
+      <c r="AD90" s="41"/>
+      <c r="AE90" s="41"/>
+      <c r="AF90" s="41"/>
+      <c r="AG90" s="41"/>
+      <c r="AH90" s="42"/>
     </row>
     <row r="91" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="43"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="43"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="41"/>
-      <c r="N91" s="41"/>
-      <c r="O91" s="42"/>
-      <c r="P91" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q91" s="41"/>
-      <c r="R91" s="41"/>
-      <c r="S91" s="41"/>
-      <c r="T91" s="41"/>
-      <c r="U91" s="41"/>
-      <c r="V91" s="42"/>
-      <c r="W91" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="X91" s="41"/>
-      <c r="Y91" s="41"/>
-      <c r="Z91" s="41"/>
-      <c r="AA91" s="41"/>
-      <c r="AB91" s="41"/>
-      <c r="AC91" s="41"/>
-      <c r="AD91" s="41"/>
-      <c r="AE91" s="41"/>
-      <c r="AF91" s="41"/>
-      <c r="AG91" s="41"/>
-      <c r="AH91" s="42"/>
+      <c r="F91" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="37"/>
+      <c r="Z91" s="37"/>
+      <c r="AA91" s="37"/>
+      <c r="AB91" s="37"/>
+      <c r="AC91" s="37"/>
+      <c r="AD91" s="37"/>
+      <c r="AE91" s="37"/>
+      <c r="AF91" s="37"/>
+      <c r="AG91" s="37"/>
+      <c r="AH91" s="38"/>
     </row>
     <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
@@ -4075,805 +3918,308 @@
       <c r="C92" s="43"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="K92" s="37"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="37"/>
-      <c r="O92" s="37"/>
-      <c r="P92" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="37"/>
-      <c r="S92" s="37"/>
-      <c r="T92" s="37"/>
-      <c r="U92" s="37"/>
-      <c r="V92" s="38"/>
-      <c r="W92" s="37" t="s">
+      <c r="F92" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q92" s="46"/>
+      <c r="R92" s="46"/>
+      <c r="S92" s="46"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="46"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="X92" s="46"/>
+      <c r="Y92" s="46"/>
+      <c r="Z92" s="46"/>
+      <c r="AA92" s="46"/>
+      <c r="AB92" s="46"/>
+      <c r="AC92" s="46"/>
+      <c r="AD92" s="46"/>
+      <c r="AE92" s="46"/>
+      <c r="AF92" s="46"/>
+      <c r="AG92" s="46"/>
+      <c r="AH92" s="47"/>
+    </row>
+    <row r="93" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="50"/>
+      <c r="P93" s="50"/>
+      <c r="Q93" s="50"/>
+      <c r="R93" s="50"/>
+      <c r="S93" s="50"/>
+      <c r="T93" s="50"/>
+      <c r="U93" s="50"/>
+      <c r="V93" s="50"/>
+      <c r="W93" s="50"/>
+      <c r="X93" s="50"/>
+      <c r="Y93" s="50"/>
+      <c r="Z93" s="50"/>
+      <c r="AA93" s="50"/>
+      <c r="AB93" s="50"/>
+      <c r="AC93" s="50"/>
+      <c r="AD93" s="50"/>
+      <c r="AE93" s="50"/>
+      <c r="AF93" s="50"/>
+      <c r="AG93" s="50"/>
+      <c r="AH93" s="50"/>
+    </row>
+    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="27"/>
+    </row>
+    <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="27"/>
+      <c r="D95" s="25" t="str">
+        <f>$C$7&amp;"6."</f>
+        <v>6.3.6.</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="27"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25" t="str">
+        <f>D95&amp;"1."</f>
+        <v>6.3.6.1.</v>
+      </c>
+      <c r="F96" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="X92" s="37"/>
-      <c r="Y92" s="37"/>
-      <c r="Z92" s="37"/>
-      <c r="AA92" s="37"/>
-      <c r="AB92" s="37"/>
-      <c r="AC92" s="37"/>
-      <c r="AD92" s="37"/>
-      <c r="AE92" s="37"/>
-      <c r="AF92" s="37"/>
-      <c r="AG92" s="37"/>
-      <c r="AH92" s="38"/>
-    </row>
-    <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="K93" s="46"/>
-      <c r="L93" s="46"/>
-      <c r="M93" s="46"/>
-      <c r="N93" s="46"/>
-      <c r="O93" s="46"/>
-      <c r="P93" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q93" s="46"/>
-      <c r="R93" s="46"/>
-      <c r="S93" s="46"/>
-      <c r="T93" s="46"/>
-      <c r="U93" s="46"/>
-      <c r="V93" s="47"/>
-      <c r="W93" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="X93" s="46"/>
-      <c r="Y93" s="46"/>
-      <c r="Z93" s="46"/>
-      <c r="AA93" s="46"/>
-      <c r="AB93" s="46"/>
-      <c r="AC93" s="46"/>
-      <c r="AD93" s="46"/>
-      <c r="AE93" s="46"/>
-      <c r="AF93" s="46"/>
-      <c r="AG93" s="46"/>
-      <c r="AH93" s="47"/>
-    </row>
-    <row r="94" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="50"/>
-      <c r="O94" s="50"/>
-      <c r="P94" s="50"/>
-      <c r="Q94" s="50"/>
-      <c r="R94" s="50"/>
-      <c r="S94" s="50"/>
-      <c r="T94" s="50"/>
-      <c r="U94" s="50"/>
-      <c r="V94" s="50"/>
-      <c r="W94" s="50"/>
-      <c r="X94" s="50"/>
-      <c r="Y94" s="50"/>
-      <c r="Z94" s="50"/>
-      <c r="AA94" s="50"/>
-      <c r="AB94" s="50"/>
-      <c r="AC94" s="50"/>
-      <c r="AD94" s="50"/>
-      <c r="AE94" s="50"/>
-      <c r="AF94" s="50"/>
-      <c r="AG94" s="50"/>
-      <c r="AH94" s="50"/>
-    </row>
-    <row r="95" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="43"/>
-      <c r="M95" s="43"/>
-      <c r="N95" s="43"/>
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
-      <c r="Q95" s="43"/>
-      <c r="R95" s="43"/>
-      <c r="S95" s="43"/>
-      <c r="T95" s="43"/>
-      <c r="U95" s="43"/>
-      <c r="V95" s="43"/>
-      <c r="W95" s="43"/>
-      <c r="X95" s="43"/>
-      <c r="Y95" s="43"/>
-      <c r="Z95" s="43"/>
-      <c r="AA95" s="43"/>
-      <c r="AB95" s="43"/>
-      <c r="AC95" s="43"/>
-      <c r="AD95" s="43"/>
-      <c r="AE95" s="43"/>
-      <c r="AF95" s="43"/>
-      <c r="AG95" s="43"/>
-      <c r="AH95" s="43"/>
-      <c r="AI95" s="43"/>
-    </row>
-    <row r="96" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43"/>
-      <c r="S96" s="43"/>
-      <c r="T96" s="43"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43"/>
-      <c r="W96" s="43"/>
-      <c r="X96" s="43"/>
-      <c r="Y96" s="43"/>
-      <c r="Z96" s="43"/>
-      <c r="AA96" s="43"/>
-      <c r="AB96" s="43"/>
-      <c r="AC96" s="43"/>
-      <c r="AD96" s="43"/>
-      <c r="AE96" s="43"/>
-      <c r="AF96" s="43"/>
-      <c r="AG96" s="43"/>
-      <c r="AH96" s="43"/>
-      <c r="AI96" s="43"/>
-    </row>
-    <row r="97" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
-      <c r="O97" s="42"/>
-      <c r="P97" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q97" s="41"/>
-      <c r="R97" s="41"/>
-      <c r="S97" s="41"/>
-      <c r="T97" s="41"/>
-      <c r="U97" s="41"/>
-      <c r="V97" s="42"/>
-      <c r="W97" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="X97" s="41"/>
-      <c r="Y97" s="41"/>
-      <c r="Z97" s="41"/>
-      <c r="AA97" s="41"/>
-      <c r="AB97" s="41"/>
-      <c r="AC97" s="41"/>
-      <c r="AD97" s="41"/>
-      <c r="AE97" s="41"/>
-      <c r="AF97" s="41"/>
-      <c r="AG97" s="41"/>
-      <c r="AH97" s="42"/>
-    </row>
-    <row r="98" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="K98" s="52"/>
-      <c r="L98" s="52"/>
-      <c r="M98" s="52"/>
-      <c r="N98" s="52"/>
-      <c r="O98" s="52"/>
-      <c r="P98" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q98" s="52"/>
-      <c r="R98" s="52"/>
-      <c r="S98" s="52"/>
-      <c r="T98" s="52"/>
-      <c r="U98" s="52"/>
-      <c r="V98" s="53"/>
-      <c r="W98" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="X98" s="52"/>
-      <c r="Y98" s="52"/>
-      <c r="Z98" s="52"/>
-      <c r="AA98" s="52"/>
-      <c r="AB98" s="52"/>
-      <c r="AC98" s="52"/>
-      <c r="AD98" s="52"/>
-      <c r="AE98" s="52"/>
-      <c r="AF98" s="52"/>
-      <c r="AG98" s="52"/>
-      <c r="AH98" s="53"/>
-    </row>
-    <row r="99" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="50"/>
-      <c r="L99" s="50"/>
-      <c r="M99" s="50"/>
-      <c r="N99" s="50"/>
-      <c r="O99" s="50"/>
-      <c r="P99" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q99" s="50"/>
-      <c r="R99" s="50"/>
-      <c r="S99" s="50"/>
-      <c r="T99" s="50"/>
-      <c r="U99" s="50"/>
-      <c r="V99" s="55"/>
-      <c r="W99" s="50"/>
-      <c r="X99" s="50"/>
-      <c r="Y99" s="50"/>
-      <c r="Z99" s="50"/>
-      <c r="AA99" s="50"/>
-      <c r="AB99" s="50"/>
-      <c r="AC99" s="50"/>
-      <c r="AD99" s="50"/>
-      <c r="AE99" s="50"/>
-      <c r="AF99" s="50"/>
-      <c r="AG99" s="50"/>
-      <c r="AH99" s="55"/>
-    </row>
-    <row r="100" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="50"/>
-      <c r="J100" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="K100" s="52"/>
-      <c r="L100" s="52"/>
-      <c r="M100" s="52"/>
-      <c r="N100" s="52"/>
-      <c r="O100" s="52"/>
-      <c r="P100" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q100" s="52"/>
-      <c r="R100" s="52"/>
-      <c r="S100" s="52"/>
-      <c r="T100" s="52"/>
-      <c r="U100" s="52"/>
-      <c r="V100" s="53"/>
-      <c r="W100" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="X100" s="52"/>
-      <c r="Y100" s="52"/>
-      <c r="Z100" s="52"/>
-      <c r="AA100" s="52"/>
-      <c r="AB100" s="52"/>
-      <c r="AC100" s="52"/>
-      <c r="AD100" s="52"/>
-      <c r="AE100" s="52"/>
-      <c r="AF100" s="52"/>
-      <c r="AG100" s="52"/>
-      <c r="AH100" s="53"/>
-    </row>
-    <row r="101" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="52"/>
-      <c r="J101" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="K101" s="52"/>
-      <c r="L101" s="52"/>
-      <c r="M101" s="52"/>
-      <c r="N101" s="52"/>
-      <c r="O101" s="52"/>
-      <c r="P101" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q101" s="52"/>
-      <c r="R101" s="52"/>
-      <c r="S101" s="52"/>
-      <c r="T101" s="52"/>
-      <c r="U101" s="52"/>
-      <c r="V101" s="53"/>
-      <c r="W101" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="X101" s="52"/>
-      <c r="Y101" s="52"/>
-      <c r="Z101" s="52"/>
-      <c r="AA101" s="52"/>
-      <c r="AB101" s="52"/>
-      <c r="AC101" s="52"/>
-      <c r="AD101" s="52"/>
-      <c r="AE101" s="52"/>
-      <c r="AF101" s="52"/>
-      <c r="AG101" s="52"/>
-      <c r="AH101" s="53"/>
-    </row>
-    <row r="102" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57"/>
-      <c r="J102" s="56"/>
-      <c r="K102" s="57"/>
-      <c r="L102" s="57"/>
-      <c r="M102" s="57"/>
-      <c r="N102" s="57"/>
-      <c r="O102" s="57"/>
-      <c r="P102" s="56"/>
-      <c r="Q102" s="57"/>
-      <c r="R102" s="57"/>
-      <c r="S102" s="57"/>
-      <c r="T102" s="57"/>
-      <c r="U102" s="57"/>
-      <c r="V102" s="58"/>
-      <c r="W102" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="X102" s="57"/>
-      <c r="Y102" s="57"/>
-      <c r="Z102" s="57"/>
-      <c r="AA102" s="57"/>
-      <c r="AB102" s="57"/>
-      <c r="AC102" s="57"/>
-      <c r="AD102" s="57"/>
-      <c r="AE102" s="57"/>
-      <c r="AF102" s="57"/>
-      <c r="AG102" s="57"/>
-      <c r="AH102" s="58"/>
-    </row>
-    <row r="103" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="32"/>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="32"/>
-      <c r="R103" s="32"/>
-      <c r="S103" s="32"/>
-      <c r="T103" s="32"/>
-      <c r="U103" s="32"/>
-      <c r="V103" s="32"/>
-      <c r="W103" s="32"/>
-      <c r="X103" s="32"/>
-      <c r="Y103" s="32"/>
-      <c r="Z103" s="32"/>
-      <c r="AA103" s="32"/>
-      <c r="AB103" s="32"/>
-      <c r="AC103" s="32"/>
-      <c r="AD103" s="32"/>
-      <c r="AE103" s="32"/>
-      <c r="AF103" s="32"/>
-      <c r="AG103" s="32"/>
-      <c r="AH103" s="32"/>
-    </row>
-    <row r="104" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="27"/>
+      <c r="D97" s="25"/>
+      <c r="F97" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+    </row>
+    <row r="99" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+    </row>
+    <row r="100" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="54" t="str">
+        <f>$C$7&amp;"7."</f>
+        <v>6.3.7.</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" s="27"/>
+    </row>
+    <row r="101" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="27"/>
+    </row>
+    <row r="102" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+    </row>
+    <row r="103" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="27"/>
+    </row>
+    <row r="104" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="59" t="str">
-        <f>D76&amp;"3."</f>
-        <v>6.3.5.3.</v>
-      </c>
-      <c r="F104" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="G104" s="50"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="32"/>
-      <c r="S104" s="32"/>
-      <c r="T104" s="32"/>
-      <c r="U104" s="32"/>
-      <c r="V104" s="32"/>
-      <c r="W104" s="32"/>
-      <c r="X104" s="32"/>
-      <c r="Y104" s="32"/>
-      <c r="Z104" s="32"/>
-      <c r="AA104" s="32"/>
-      <c r="AB104" s="32"/>
-      <c r="AC104" s="32"/>
-      <c r="AD104" s="32"/>
-      <c r="AE104" s="32"/>
-      <c r="AF104" s="32"/>
-      <c r="AG104" s="32"/>
-      <c r="AH104" s="32"/>
-    </row>
-    <row r="105" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="27"/>
+      <c r="D104" s="25" t="str">
+        <f>$C$7&amp;"8."</f>
+        <v>6.3.8.</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
       <c r="B105" s="27"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G105" s="50"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="32"/>
-      <c r="L105" s="32"/>
-      <c r="M105" s="32"/>
-      <c r="N105" s="32"/>
-      <c r="O105" s="32"/>
-      <c r="P105" s="32"/>
-      <c r="Q105" s="32"/>
-      <c r="R105" s="32"/>
-      <c r="S105" s="32"/>
-      <c r="T105" s="32"/>
-      <c r="U105" s="32"/>
-      <c r="V105" s="32"/>
-      <c r="W105" s="32"/>
-      <c r="X105" s="32"/>
-      <c r="Y105" s="32"/>
-      <c r="Z105" s="32"/>
-      <c r="AA105" s="32"/>
-      <c r="AB105" s="32"/>
-      <c r="AC105" s="32"/>
-      <c r="AD105" s="32"/>
-      <c r="AE105" s="32"/>
-      <c r="AF105" s="32"/>
-      <c r="AG105" s="32"/>
-      <c r="AH105" s="32"/>
-    </row>
-    <row r="106" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="27"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="32"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="32"/>
-      <c r="R106" s="32"/>
-      <c r="S106" s="32"/>
-      <c r="T106" s="32"/>
-      <c r="U106" s="32"/>
-      <c r="V106" s="32"/>
-      <c r="W106" s="32"/>
-      <c r="X106" s="32"/>
-      <c r="Y106" s="32"/>
-      <c r="Z106" s="32"/>
-      <c r="AA106" s="32"/>
-      <c r="AB106" s="32"/>
-      <c r="AC106" s="32"/>
-      <c r="AD106" s="32"/>
-      <c r="AE106" s="32"/>
-      <c r="AF106" s="32"/>
-      <c r="AG106" s="32"/>
-      <c r="AH106" s="32"/>
-    </row>
-    <row r="107" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="27"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="27"/>
-    </row>
-    <row r="108" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D107" s="25"/>
+      <c r="E107" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
       <c r="C108" s="27"/>
-      <c r="D108" s="25" t="str">
-        <f>$C$7&amp;"6."</f>
-        <v>6.3.6.</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="25"/>
+    </row>
+    <row r="109" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
       <c r="C109" s="27"/>
-      <c r="D109" s="25"/>
       <c r="E109" s="25" t="str">
-        <f>D108&amp;"1."</f>
-        <v>6.3.6.1.</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <f>D104&amp;"1."</f>
+        <v>6.3.8.1.</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="27"/>
-      <c r="D110" s="25"/>
       <c r="F110" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="27"/>
+    </row>
+    <row r="112" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="27"/>
+      <c r="F112" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="40" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="111" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="61"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-    </row>
-    <row r="112" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-    </row>
-    <row r="113" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="27"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="26"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="26"/>
+      <c r="P112" s="55"/>
+      <c r="Q112" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="R112" s="65"/>
+      <c r="S112" s="65"/>
+      <c r="T112" s="66"/>
+    </row>
+    <row r="113" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="27"/>
-      <c r="D113" s="61" t="str">
-        <f>$C$7&amp;"7."</f>
-        <v>6.3.7.</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F113" s="27"/>
-    </row>
-    <row r="114" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="27"/>
+      <c r="F113" s="45">
+        <v>1</v>
+      </c>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="L113" s="46"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="46"/>
+      <c r="P113" s="47"/>
+      <c r="Q113" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="R113" s="46"/>
+      <c r="S113" s="46"/>
+      <c r="T113" s="47"/>
+    </row>
+    <row r="114" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F114" s="27"/>
-    </row>
-    <row r="115" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-    </row>
-    <row r="116" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="27"/>
-    </row>
-    <row r="117" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="25" t="str">
-        <f>$C$7&amp;"8."</f>
-        <v>6.3.8.</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="27"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="25"/>
-    </row>
-    <row r="122" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="27"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="E122" s="25" t="str">
-        <f>D117&amp;"1."</f>
-        <v>6.3.8.1.</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="27"/>
-      <c r="F123" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="27"/>
-    </row>
-    <row r="125" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="27"/>
-      <c r="F125" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="L125" s="26"/>
-      <c r="M125" s="26"/>
-      <c r="N125" s="26"/>
-      <c r="O125" s="26"/>
-      <c r="P125" s="62"/>
-      <c r="Q125" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="R125" s="72"/>
-      <c r="S125" s="72"/>
-      <c r="T125" s="73"/>
-    </row>
-    <row r="126" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="27"/>
-      <c r="F126" s="45">
-        <v>1</v>
-      </c>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="46"/>
-      <c r="K126" s="45" t="s">
+      <c r="F114" s="34">
+        <v>2</v>
+      </c>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="35"/>
+      <c r="K114" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="L114" s="35"/>
+      <c r="M114" s="35"/>
+      <c r="N114" s="35"/>
+      <c r="O114" s="35"/>
+      <c r="P114" s="39"/>
+      <c r="Q114" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="L126" s="46"/>
-      <c r="M126" s="46"/>
-      <c r="N126" s="46"/>
-      <c r="O126" s="46"/>
-      <c r="P126" s="47"/>
-      <c r="Q126" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="R126" s="46"/>
-      <c r="S126" s="46"/>
-      <c r="T126" s="47"/>
-    </row>
-    <row r="127" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="27"/>
-      <c r="F127" s="34">
-        <v>2</v>
-      </c>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="L127" s="35"/>
-      <c r="M127" s="35"/>
-      <c r="N127" s="35"/>
-      <c r="O127" s="35"/>
-      <c r="P127" s="39"/>
-      <c r="Q127" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="R127" s="46"/>
-      <c r="S127" s="46"/>
-      <c r="T127" s="47"/>
-    </row>
-    <row r="128" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F128" s="29"/>
-    </row>
+      <c r="R114" s="46"/>
+      <c r="S114" s="46"/>
+      <c r="T114" s="47"/>
+    </row>
+    <row r="115" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F115" s="29"/>
+    </row>
+    <row r="116" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5250,19 +4596,6 @@
     <row r="502" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="503" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5279,15 +4612,15 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="F56" r:id="rId1" location="mail-request" xr:uid="{7F374098-5A98-4E90-82A7-CEA6FCC88E5A}"/>
+    <hyperlink ref="F55" r:id="rId1" location="mail-request" xr:uid="{7F374098-5A98-4E90-82A7-CEA6FCC88E5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="23" max="34" man="1"/>
-    <brk id="57" max="34" man="1"/>
-    <brk id="74" max="34" man="1"/>
-    <brk id="115" max="34" man="1"/>
+    <brk id="22" max="34" man="1"/>
+    <brk id="56" max="34" man="1"/>
+    <brk id="73" max="34" man="1"/>
+    <brk id="102" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B2C52-0E47-4802-8EB2-2224B642B223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C002D85-FB49-4960-B4F7-D91CCBFE43F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6.3.メール送信'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$115</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$94</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$112</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$91</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -847,74 +847,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>実際のメール送信は、常駐バッチによって行う。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/libraries/mail.html#mail-request</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>常駐バッチが検知して、メールの送信を行う）。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務アプリケーションからは、Nablarchが提供するAPIを使用してメール送信の処理要求を登録するように実装する（登録されたメール送信要求を</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchが提供するAPIについては、下記解説書を参照。</t>
-    <rPh sb="9" eb="11">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>カイセツショ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サンショウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -925,6 +858,50 @@
     <t>送信時に不達となったメールを特定する処理は対象外とする。</t>
     <rPh sb="21" eb="24">
       <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチによって処理されるメール送信要求の登録は、Nablarchが提供する公開APIを用いて行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ソウシンヨウキュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>公開APIについては、下記解説書を参照。</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1166,7 +1143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,9 +1274,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1774,7 +1748,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI504"/>
+  <dimension ref="A1:AI501"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1792,43 +1766,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="73"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="72"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="74" t="s">
+      <c r="R1" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="76"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="75"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="70"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="69"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1837,43 +1811,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="81"/>
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="83" t="s">
+      <c r="R2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="85"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="84"/>
       <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="70"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="69"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1882,39 +1856,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="88"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="87"/>
       <c r="Y3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="70"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="69"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1948,13 +1922,13 @@
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="24"/>
       <c r="E10" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="30"/>
       <c r="E11" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1974,7 +1948,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="52"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="27" t="s">
         <v>17</v>
       </c>
@@ -1986,7 +1960,7 @@
       <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="52"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="27" t="s">
         <v>18</v>
       </c>
@@ -1998,7 +1972,7 @@
       <c r="K16" s="27"/>
     </row>
     <row r="17" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="52"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -2010,7 +1984,7 @@
     <row r="18" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="52" t="str">
+      <c r="E18" s="51" t="str">
         <f>$D$9&amp;"1."</f>
         <v>6.3.1.1.</v>
       </c>
@@ -2084,7 +2058,7 @@
       <c r="K23" s="27"/>
     </row>
     <row r="24" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="52" t="str">
+      <c r="D24" s="51" t="str">
         <f>$C$7&amp;"2."</f>
         <v>6.3.2.</v>
       </c>
@@ -2100,8 +2074,8 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="52"/>
-      <c r="E25" s="52" t="str">
+      <c r="D25" s="51"/>
+      <c r="E25" s="51" t="str">
         <f>D24&amp;"1."</f>
         <v>6.3.2.1.</v>
       </c>
@@ -2460,73 +2434,73 @@
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="57" t="s">
+      <c r="L38" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M38" s="57"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="53" t="s">
+      <c r="M38" s="56"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
-      <c r="AH38" s="51"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="49"/>
+      <c r="AE38" s="49"/>
+      <c r="AF38" s="49"/>
+      <c r="AG38" s="49"/>
+      <c r="AH38" s="50"/>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="29"/>
       <c r="D39" s="29"/>
-      <c r="F39" s="45" t="str">
+      <c r="F39" s="44" t="str">
         <f>F33</f>
         <v>非定型メール送信</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="56" t="s">
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="M39" s="56"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="60" t="s">
+      <c r="M39" s="55"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="61"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="61"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="61"/>
-      <c r="Y39" s="61"/>
-      <c r="Z39" s="61"/>
-      <c r="AA39" s="61"/>
-      <c r="AB39" s="61"/>
-      <c r="AC39" s="61"/>
-      <c r="AD39" s="61"/>
-      <c r="AE39" s="61"/>
-      <c r="AF39" s="61"/>
-      <c r="AG39" s="61"/>
-      <c r="AH39" s="62"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="60"/>
+      <c r="AG39" s="60"/>
+      <c r="AH39" s="61"/>
     </row>
     <row r="40" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="32"/>
@@ -2764,7 +2738,7 @@
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="50"/>
+      <c r="O47" s="49"/>
       <c r="P47" s="32"/>
       <c r="Q47" s="32"/>
       <c r="R47" s="32"/>
@@ -2825,7 +2799,7 @@
     <row r="49" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="30"/>
       <c r="F49" s="32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -2857,9 +2831,8 @@
       <c r="AH49" s="32"/>
     </row>
     <row r="50" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="30"/>
       <c r="F50" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -2891,10 +2864,7 @@
       <c r="AH50" s="32"/>
     </row>
     <row r="51" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="30"/>
-      <c r="F51" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
@@ -2925,7 +2895,9 @@
       <c r="AH51" s="32"/>
     </row>
     <row r="52" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="44"/>
+      <c r="F52" s="66" t="s">
+        <v>103</v>
+      </c>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
@@ -2955,284 +2927,306 @@
       <c r="AG52" s="32"/>
       <c r="AH52" s="32"/>
     </row>
-    <row r="53" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F53" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="32"/>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="32"/>
-      <c r="AC53" s="32"/>
-      <c r="AD53" s="32"/>
-      <c r="AE53" s="32"/>
-      <c r="AF53" s="32"/>
-      <c r="AG53" s="32"/>
-      <c r="AH53" s="32"/>
-    </row>
-    <row r="54" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
-      <c r="W54" s="32"/>
-      <c r="X54" s="32"/>
-      <c r="Y54" s="32"/>
-      <c r="Z54" s="32"/>
-      <c r="AA54" s="32"/>
-      <c r="AB54" s="32"/>
-      <c r="AC54" s="32"/>
-      <c r="AD54" s="32"/>
-      <c r="AE54" s="32"/>
-      <c r="AF54" s="32"/>
-      <c r="AG54" s="32"/>
-      <c r="AH54" s="32"/>
-    </row>
-    <row r="55" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="32"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="32"/>
-      <c r="Z55" s="32"/>
-      <c r="AA55" s="32"/>
-      <c r="AB55" s="32"/>
-      <c r="AC55" s="32"/>
-      <c r="AD55" s="32"/>
-      <c r="AE55" s="32"/>
-      <c r="AF55" s="32"/>
-      <c r="AG55" s="32"/>
-      <c r="AH55" s="32"/>
-    </row>
-    <row r="56" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D58" s="49" t="str">
+    <row r="53" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D55" s="48" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.3.3.</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E55" s="47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="49" t="str">
-        <f>D58&amp;"1."</f>
+    <row r="56" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E56" s="48" t="str">
+        <f>D55&amp;"1."</f>
         <v>6.3.3.1.</v>
       </c>
-      <c r="F59" s="48" t="str">
-        <f>E58&amp;"手段"</f>
+      <c r="F56" s="47" t="str">
+        <f>E55&amp;"手段"</f>
         <v>メールテンプレート手段</v>
       </c>
     </row>
-    <row r="60" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="49"/>
-      <c r="F60" s="48" t="s">
+    <row r="57" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E57" s="48"/>
+      <c r="F57" s="47" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="49"/>
-    </row>
-    <row r="62" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="49"/>
-      <c r="F62" s="48" t="s">
+    <row r="58" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E58" s="48"/>
+    </row>
+    <row r="59" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E59" s="48"/>
+      <c r="F59" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="48" t="s">
+      <c r="G59" s="47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E63" s="49"/>
-      <c r="F63" s="48" t="s">
+    <row r="60" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E60" s="48"/>
+      <c r="F60" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G63" s="48" t="s">
+      <c r="G60" s="47" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="4:34" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E64" s="49"/>
-      <c r="F64" s="48" t="s">
+    <row r="61" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E61" s="48"/>
+      <c r="F61" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="G64" s="48" t="s">
+      <c r="G61" s="47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E65" s="49"/>
-    </row>
-    <row r="66" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E66" s="49"/>
-      <c r="F66" s="48" t="s">
+    <row r="62" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E62" s="48"/>
+    </row>
+    <row r="63" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E63" s="48"/>
+      <c r="F63" s="47" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E67" s="49"/>
-      <c r="F67" s="48" t="s">
+    <row r="64" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="48"/>
+      <c r="F64" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D69" s="49" t="str">
+    <row r="65" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="48" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.3.4.</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E66" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="24" t="str">
-        <f>D69&amp;"1."</f>
+    <row r="67" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="24" t="str">
+        <f>D66&amp;"1."</f>
         <v>6.3.4.1.</v>
       </c>
-      <c r="F70" s="4" t="str">
-        <f>E69&amp;"手段"</f>
+      <c r="F67" s="4" t="str">
+        <f>E66&amp;"手段"</f>
         <v>メールフォーマット手段</v>
       </c>
     </row>
+    <row r="68" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="16"/>
+      <c r="AD68" s="16"/>
+      <c r="AE68" s="16"/>
+      <c r="AF68" s="16"/>
+      <c r="AG68" s="16"/>
+      <c r="AH68" s="17"/>
+    </row>
+    <row r="69" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="R69" s="60"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="60"/>
+      <c r="U69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="60"/>
+      <c r="Z69" s="60"/>
+      <c r="AA69" s="60"/>
+      <c r="AB69" s="60"/>
+      <c r="AC69" s="60"/>
+      <c r="AD69" s="60"/>
+      <c r="AE69" s="60"/>
+      <c r="AF69" s="60"/>
+      <c r="AG69" s="60"/>
+      <c r="AH69" s="61"/>
+    </row>
+    <row r="70" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="71" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F71" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="16"/>
-      <c r="AE71" s="16"/>
-      <c r="AF71" s="16"/>
-      <c r="AG71" s="16"/>
-      <c r="AH71" s="17"/>
+      <c r="E71" s="24"/>
     </row>
     <row r="72" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F72" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="61"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="R72" s="61"/>
-      <c r="S72" s="61"/>
-      <c r="T72" s="61"/>
-      <c r="U72" s="61"/>
-      <c r="V72" s="61"/>
-      <c r="W72" s="61"/>
-      <c r="X72" s="61"/>
-      <c r="Y72" s="61"/>
-      <c r="Z72" s="61"/>
-      <c r="AA72" s="61"/>
-      <c r="AB72" s="61"/>
-      <c r="AC72" s="61"/>
-      <c r="AD72" s="61"/>
-      <c r="AE72" s="61"/>
-      <c r="AF72" s="61"/>
-      <c r="AG72" s="61"/>
-      <c r="AH72" s="62"/>
-    </row>
-    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="30" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>6.3.5.</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="28"/>
+      <c r="AA72" s="28"/>
+      <c r="AB72" s="28"/>
+      <c r="AC72" s="28"/>
+      <c r="AD72" s="28"/>
+      <c r="AE72" s="28"/>
+      <c r="AF72" s="28"/>
+      <c r="AG72" s="28"/>
+      <c r="AH72" s="28"/>
+      <c r="AI72" s="28"/>
+    </row>
+    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30" t="str">
+        <f>D72&amp;"1."</f>
+        <v>6.3.5.1.</v>
+      </c>
+      <c r="F73" s="29" t="str">
+        <f>E72&amp;"機能概要"</f>
+        <v>エラー処理機能概要</v>
+      </c>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="28"/>
+      <c r="AC73" s="28"/>
+      <c r="AD73" s="28"/>
+      <c r="AE73" s="28"/>
+      <c r="AF73" s="28"/>
+      <c r="AG73" s="28"/>
+      <c r="AH73" s="28"/>
+      <c r="AI73" s="28"/>
+    </row>
     <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E74" s="24"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="28"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
+      <c r="AA74" s="28"/>
+      <c r="AB74" s="28"/>
+      <c r="AC74" s="28"/>
+      <c r="AD74" s="28"/>
+      <c r="AE74" s="28"/>
+      <c r="AF74" s="28"/>
+      <c r="AG74" s="28"/>
+      <c r="AH74" s="28"/>
+      <c r="AI74" s="28"/>
     </row>
     <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
-      <c r="D75" s="30" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>6.3.5.</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
@@ -3268,14 +3262,14 @@
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
-      <c r="D76" s="30"/>
+      <c r="D76" s="28"/>
       <c r="E76" s="30" t="str">
-        <f>D75&amp;"1."</f>
-        <v>6.3.5.1.</v>
+        <f>D72&amp;"2."</f>
+        <v>6.3.5.2.</v>
       </c>
       <c r="F76" s="29" t="str">
-        <f>E75&amp;"機能概要"</f>
-        <v>エラー処理機能概要</v>
+        <f>E72&amp;"方法"</f>
+        <v>エラー処理方法</v>
       </c>
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
@@ -3307,14 +3301,14 @@
       <c r="AH76" s="28"/>
       <c r="AI76" s="28"/>
     </row>
-    <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
       <c r="F77" s="29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
@@ -3346,10 +3340,10 @@
       <c r="AH77" s="28"/>
       <c r="AI77" s="28"/>
     </row>
-    <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
+    <row r="78" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
@@ -3383,168 +3377,175 @@
       <c r="AH78" s="28"/>
       <c r="AI78" s="28"/>
     </row>
-    <row r="79" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
+    <row r="79" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="43"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="43"/>
       <c r="D79" s="28"/>
-      <c r="E79" s="30" t="str">
-        <f>D75&amp;"2."</f>
-        <v>6.3.5.2.</v>
-      </c>
-      <c r="F79" s="29" t="str">
-        <f>E75&amp;"方法"</f>
-        <v>エラー処理方法</v>
-      </c>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="28"/>
-      <c r="T79" s="28"/>
-      <c r="U79" s="28"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="28"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="28"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="28"/>
-      <c r="AC79" s="28"/>
-      <c r="AD79" s="28"/>
-      <c r="AE79" s="28"/>
-      <c r="AF79" s="28"/>
-      <c r="AG79" s="28"/>
-      <c r="AH79" s="28"/>
-      <c r="AI79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="41"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="41"/>
+      <c r="S79" s="41"/>
+      <c r="T79" s="41"/>
+      <c r="U79" s="41"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="X79" s="41"/>
+      <c r="Y79" s="41"/>
+      <c r="Z79" s="41"/>
+      <c r="AA79" s="41"/>
+      <c r="AB79" s="41"/>
+      <c r="AC79" s="41"/>
+      <c r="AD79" s="41"/>
+      <c r="AE79" s="41"/>
+      <c r="AF79" s="41"/>
+      <c r="AG79" s="41"/>
+      <c r="AH79" s="42"/>
     </row>
     <row r="80" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="28"/>
-      <c r="AC80" s="28"/>
-      <c r="AD80" s="28"/>
-      <c r="AE80" s="28"/>
-      <c r="AF80" s="28"/>
-      <c r="AG80" s="28"/>
-      <c r="AH80" s="28"/>
-      <c r="AI80" s="28"/>
+      <c r="F80" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="37"/>
+      <c r="Z80" s="37"/>
+      <c r="AA80" s="37"/>
+      <c r="AB80" s="37"/>
+      <c r="AC80" s="37"/>
+      <c r="AD80" s="37"/>
+      <c r="AE80" s="37"/>
+      <c r="AF80" s="37"/>
+      <c r="AG80" s="37"/>
+      <c r="AH80" s="38"/>
     </row>
     <row r="81" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="43"/>
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="28"/>
-      <c r="S81" s="28"/>
-      <c r="T81" s="28"/>
-      <c r="U81" s="28"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="28"/>
-      <c r="AA81" s="28"/>
-      <c r="AB81" s="28"/>
-      <c r="AC81" s="28"/>
-      <c r="AD81" s="28"/>
-      <c r="AE81" s="28"/>
-      <c r="AF81" s="28"/>
-      <c r="AG81" s="28"/>
-      <c r="AH81" s="28"/>
-      <c r="AI81" s="28"/>
+      <c r="F81" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="37"/>
+      <c r="Z81" s="37"/>
+      <c r="AA81" s="37"/>
+      <c r="AB81" s="37"/>
+      <c r="AC81" s="37"/>
+      <c r="AD81" s="37"/>
+      <c r="AE81" s="37"/>
+      <c r="AF81" s="37"/>
+      <c r="AG81" s="37"/>
+      <c r="AH81" s="38"/>
     </row>
     <row r="82" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="43"/>
+      <c r="A82" s="27"/>
       <c r="B82" s="27"/>
       <c r="C82" s="43"/>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
-      <c r="F82" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41"/>
-      <c r="O82" s="42"/>
-      <c r="P82" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="41"/>
-      <c r="U82" s="41"/>
-      <c r="V82" s="42"/>
-      <c r="W82" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="X82" s="41"/>
-      <c r="Y82" s="41"/>
-      <c r="Z82" s="41"/>
-      <c r="AA82" s="41"/>
-      <c r="AB82" s="41"/>
-      <c r="AC82" s="41"/>
-      <c r="AD82" s="41"/>
-      <c r="AE82" s="41"/>
-      <c r="AF82" s="41"/>
-      <c r="AG82" s="41"/>
-      <c r="AH82" s="42"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="32"/>
+      <c r="Y82" s="32"/>
+      <c r="Z82" s="32"/>
+      <c r="AA82" s="32"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="32"/>
+      <c r="AD82" s="32"/>
+      <c r="AE82" s="32"/>
+      <c r="AF82" s="32"/>
+      <c r="AG82" s="32"/>
+      <c r="AH82" s="33"/>
     </row>
     <row r="83" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="27"/>
@@ -3552,43 +3553,39 @@
       <c r="C83" s="43"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="37"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="X83" s="37"/>
-      <c r="Y83" s="37"/>
-      <c r="Z83" s="37"/>
-      <c r="AA83" s="37"/>
-      <c r="AB83" s="37"/>
-      <c r="AC83" s="37"/>
-      <c r="AD83" s="37"/>
-      <c r="AE83" s="37"/>
-      <c r="AF83" s="37"/>
-      <c r="AG83" s="37"/>
-      <c r="AH83" s="38"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="35"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+      <c r="AG83" s="35"/>
+      <c r="AH83" s="39"/>
     </row>
     <row r="84" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
@@ -3596,486 +3593,391 @@
       <c r="C84" s="43"/>
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="37"/>
-      <c r="Z84" s="37"/>
-      <c r="AA84" s="37"/>
-      <c r="AB84" s="37"/>
-      <c r="AC84" s="37"/>
-      <c r="AD84" s="37"/>
-      <c r="AE84" s="37"/>
-      <c r="AF84" s="37"/>
-      <c r="AG84" s="37"/>
-      <c r="AH84" s="38"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="32"/>
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="32"/>
+      <c r="Z84" s="32"/>
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+      <c r="AC84" s="32"/>
+      <c r="AD84" s="32"/>
+      <c r="AE84" s="32"/>
+      <c r="AF84" s="32"/>
+      <c r="AG84" s="32"/>
+      <c r="AH84" s="32"/>
     </row>
     <row r="85" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="43"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="35"/>
-      <c r="V85" s="39"/>
-      <c r="W85" s="32"/>
-      <c r="X85" s="32"/>
-      <c r="Y85" s="32"/>
-      <c r="Z85" s="32"/>
-      <c r="AA85" s="32"/>
-      <c r="AB85" s="32"/>
-      <c r="AC85" s="32"/>
-      <c r="AD85" s="32"/>
-      <c r="AE85" s="32"/>
-      <c r="AF85" s="32"/>
-      <c r="AG85" s="32"/>
-      <c r="AH85" s="33"/>
+      <c r="F85" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="28"/>
+      <c r="Q85" s="28"/>
+      <c r="R85" s="28"/>
+      <c r="S85" s="28"/>
+      <c r="T85" s="28"/>
+      <c r="U85" s="28"/>
+      <c r="V85" s="28"/>
+      <c r="W85" s="28"/>
+      <c r="X85" s="28"/>
+      <c r="Y85" s="28"/>
+      <c r="Z85" s="28"/>
+      <c r="AA85" s="28"/>
+      <c r="AB85" s="28"/>
+      <c r="AC85" s="28"/>
+      <c r="AD85" s="28"/>
+      <c r="AE85" s="28"/>
+      <c r="AF85" s="28"/>
+      <c r="AG85" s="28"/>
+      <c r="AH85" s="28"/>
+      <c r="AI85" s="28"/>
     </row>
     <row r="86" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="43"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="35"/>
-      <c r="AB86" s="35"/>
-      <c r="AC86" s="35"/>
-      <c r="AD86" s="35"/>
-      <c r="AE86" s="35"/>
-      <c r="AF86" s="35"/>
-      <c r="AG86" s="35"/>
-      <c r="AH86" s="39"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="28"/>
+      <c r="W86" s="28"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="28"/>
+      <c r="AA86" s="28"/>
+      <c r="AB86" s="28"/>
+      <c r="AC86" s="28"/>
+      <c r="AD86" s="28"/>
+      <c r="AE86" s="28"/>
+      <c r="AF86" s="28"/>
+      <c r="AG86" s="28"/>
+      <c r="AH86" s="28"/>
+      <c r="AI86" s="28"/>
     </row>
     <row r="87" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="27"/>
+      <c r="A87" s="43"/>
       <c r="B87" s="27"/>
       <c r="C87" s="43"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
-      <c r="V87" s="32"/>
-      <c r="W87" s="32"/>
-      <c r="X87" s="32"/>
-      <c r="Y87" s="32"/>
-      <c r="Z87" s="32"/>
-      <c r="AA87" s="32"/>
-      <c r="AB87" s="32"/>
-      <c r="AC87" s="32"/>
-      <c r="AD87" s="32"/>
-      <c r="AE87" s="32"/>
-      <c r="AF87" s="32"/>
-      <c r="AG87" s="32"/>
-      <c r="AH87" s="32"/>
+      <c r="F87" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="42"/>
+      <c r="W87" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="41"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="41"/>
+      <c r="AE87" s="41"/>
+      <c r="AF87" s="41"/>
+      <c r="AG87" s="41"/>
+      <c r="AH87" s="42"/>
     </row>
     <row r="88" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="28"/>
-      <c r="P88" s="28"/>
-      <c r="Q88" s="28"/>
-      <c r="R88" s="28"/>
-      <c r="S88" s="28"/>
-      <c r="T88" s="28"/>
-      <c r="U88" s="28"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="28"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="28"/>
-      <c r="AC88" s="28"/>
-      <c r="AD88" s="28"/>
-      <c r="AE88" s="28"/>
-      <c r="AF88" s="28"/>
-      <c r="AG88" s="28"/>
-      <c r="AH88" s="28"/>
-      <c r="AI88" s="28"/>
+      <c r="F88" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="37"/>
+      <c r="AA88" s="37"/>
+      <c r="AB88" s="37"/>
+      <c r="AC88" s="37"/>
+      <c r="AD88" s="37"/>
+      <c r="AE88" s="37"/>
+      <c r="AF88" s="37"/>
+      <c r="AG88" s="37"/>
+      <c r="AH88" s="38"/>
     </row>
     <row r="89" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="43"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="28"/>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="28"/>
-      <c r="R89" s="28"/>
-      <c r="S89" s="28"/>
-      <c r="T89" s="28"/>
-      <c r="U89" s="28"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="28"/>
-      <c r="AA89" s="28"/>
-      <c r="AB89" s="28"/>
-      <c r="AC89" s="28"/>
-      <c r="AD89" s="28"/>
-      <c r="AE89" s="28"/>
-      <c r="AF89" s="28"/>
-      <c r="AG89" s="28"/>
-      <c r="AH89" s="28"/>
-      <c r="AI89" s="28"/>
-    </row>
-    <row r="90" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="43"/>
-      <c r="B90" s="27"/>
+      <c r="F89" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K89" s="45"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="45"/>
+      <c r="P89" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="45"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="X89" s="45"/>
+      <c r="Y89" s="45"/>
+      <c r="Z89" s="45"/>
+      <c r="AA89" s="45"/>
+      <c r="AB89" s="45"/>
+      <c r="AC89" s="45"/>
+      <c r="AD89" s="45"/>
+      <c r="AE89" s="45"/>
+      <c r="AF89" s="45"/>
+      <c r="AG89" s="45"/>
+      <c r="AH89" s="46"/>
+    </row>
+    <row r="90" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="43"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K90" s="41"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="41"/>
-      <c r="N90" s="41"/>
-      <c r="O90" s="42"/>
-      <c r="P90" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q90" s="41"/>
-      <c r="R90" s="41"/>
-      <c r="S90" s="41"/>
-      <c r="T90" s="41"/>
-      <c r="U90" s="41"/>
-      <c r="V90" s="42"/>
-      <c r="W90" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="X90" s="41"/>
-      <c r="Y90" s="41"/>
-      <c r="Z90" s="41"/>
-      <c r="AA90" s="41"/>
-      <c r="AB90" s="41"/>
-      <c r="AC90" s="41"/>
-      <c r="AD90" s="41"/>
-      <c r="AE90" s="41"/>
-      <c r="AF90" s="41"/>
-      <c r="AG90" s="41"/>
-      <c r="AH90" s="42"/>
-    </row>
-    <row r="91" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="X91" s="37"/>
-      <c r="Y91" s="37"/>
-      <c r="Z91" s="37"/>
-      <c r="AA91" s="37"/>
-      <c r="AB91" s="37"/>
-      <c r="AC91" s="37"/>
-      <c r="AD91" s="37"/>
-      <c r="AE91" s="37"/>
-      <c r="AF91" s="37"/>
-      <c r="AG91" s="37"/>
-      <c r="AH91" s="38"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="49"/>
+      <c r="R90" s="49"/>
+      <c r="S90" s="49"/>
+      <c r="T90" s="49"/>
+      <c r="U90" s="49"/>
+      <c r="V90" s="49"/>
+      <c r="W90" s="49"/>
+      <c r="X90" s="49"/>
+      <c r="Y90" s="49"/>
+      <c r="Z90" s="49"/>
+      <c r="AA90" s="49"/>
+      <c r="AB90" s="49"/>
+      <c r="AC90" s="49"/>
+      <c r="AD90" s="49"/>
+      <c r="AE90" s="49"/>
+      <c r="AF90" s="49"/>
+      <c r="AG90" s="49"/>
+      <c r="AH90" s="49"/>
+    </row>
+    <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="27"/>
     </row>
     <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q92" s="46"/>
-      <c r="R92" s="46"/>
-      <c r="S92" s="46"/>
-      <c r="T92" s="46"/>
-      <c r="U92" s="46"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="X92" s="46"/>
-      <c r="Y92" s="46"/>
-      <c r="Z92" s="46"/>
-      <c r="AA92" s="46"/>
-      <c r="AB92" s="46"/>
-      <c r="AC92" s="46"/>
-      <c r="AD92" s="46"/>
-      <c r="AE92" s="46"/>
-      <c r="AF92" s="46"/>
-      <c r="AG92" s="46"/>
-      <c r="AH92" s="47"/>
-    </row>
-    <row r="93" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50"/>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50"/>
-      <c r="L93" s="50"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="50"/>
-      <c r="O93" s="50"/>
-      <c r="P93" s="50"/>
-      <c r="Q93" s="50"/>
-      <c r="R93" s="50"/>
-      <c r="S93" s="50"/>
-      <c r="T93" s="50"/>
-      <c r="U93" s="50"/>
-      <c r="V93" s="50"/>
-      <c r="W93" s="50"/>
-      <c r="X93" s="50"/>
-      <c r="Y93" s="50"/>
-      <c r="Z93" s="50"/>
-      <c r="AA93" s="50"/>
-      <c r="AB93" s="50"/>
-      <c r="AC93" s="50"/>
-      <c r="AD93" s="50"/>
-      <c r="AE93" s="50"/>
-      <c r="AF93" s="50"/>
-      <c r="AG93" s="50"/>
-      <c r="AH93" s="50"/>
-    </row>
-    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="27"/>
-    </row>
-    <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="27"/>
-      <c r="D95" s="25" t="str">
+      <c r="C92" s="27"/>
+      <c r="D92" s="25" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.3.6.</v>
       </c>
-      <c r="E95" s="29" t="s">
+      <c r="E92" s="29" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="27"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25" t="str">
+        <f>D92&amp;"1."</f>
+        <v>6.3.6.1.</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="27"/>
+      <c r="D94" s="25"/>
+      <c r="F94" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+    </row>
     <row r="96" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="27"/>
       <c r="C96" s="27"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25" t="str">
-        <f>D95&amp;"1."</f>
-        <v>6.3.6.1.</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="53"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+    </row>
+    <row r="97" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="27"/>
       <c r="C97" s="27"/>
-      <c r="D97" s="25"/>
-      <c r="F97" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="53" t="str">
+        <f>$C$7&amp;"7."</f>
+        <v>6.3.7.</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97" s="27"/>
+    </row>
+    <row r="98" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
-      <c r="D99" s="54"/>
+      <c r="D99" s="27"/>
       <c r="E99" s="27"/>
       <c r="F99" s="27"/>
     </row>
     <row r="100" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="27"/>
       <c r="C100" s="27"/>
-      <c r="D100" s="54" t="str">
-        <f>$C$7&amp;"7."</f>
-        <v>6.3.7.</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F100" s="27"/>
     </row>
     <row r="101" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="27"/>
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F101" s="27"/>
+      <c r="D101" s="25" t="str">
+        <f>$C$7&amp;"8."</f>
+        <v>6.3.8.</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="102" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="27"/>
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-    </row>
-    <row r="103" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="25"/>
+      <c r="E102" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
       <c r="C103" s="27"/>
-    </row>
-    <row r="104" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="25"/>
+      <c r="E103" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
-      <c r="D104" s="25" t="str">
-        <f>$C$7&amp;"8."</f>
-        <v>6.3.8.</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>71</v>
+      <c r="D104" s="25"/>
+      <c r="E104" s="29" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4083,143 +3985,119 @@
       <c r="B105" s="27"/>
       <c r="C105" s="27"/>
       <c r="D105" s="25"/>
-      <c r="E105" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="29" t="s">
-        <v>74</v>
+      <c r="E106" s="25" t="str">
+        <f>D101&amp;"1."</f>
+        <v>6.3.8.1.</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
       <c r="C107" s="27"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="29" t="s">
-        <v>75</v>
+      <c r="F107" s="29" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
       <c r="C108" s="27"/>
-      <c r="D108" s="25"/>
     </row>
     <row r="109" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
       <c r="C109" s="27"/>
-      <c r="E109" s="25" t="str">
-        <f>D104&amp;"1."</f>
-        <v>6.3.8.1.</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F109" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="L109" s="26"/>
+      <c r="M109" s="26"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="26"/>
+      <c r="P109" s="54"/>
+      <c r="Q109" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="R109" s="64"/>
+      <c r="S109" s="64"/>
+      <c r="T109" s="65"/>
+    </row>
+    <row r="110" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="27"/>
-      <c r="F110" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F110" s="44">
+        <v>1</v>
+      </c>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45"/>
+      <c r="K110" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="L110" s="45"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="R110" s="45"/>
+      <c r="S110" s="45"/>
+      <c r="T110" s="46"/>
+    </row>
+    <row r="111" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="27"/>
+      <c r="F111" s="34">
+        <v>2</v>
+      </c>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="L111" s="35"/>
+      <c r="M111" s="35"/>
+      <c r="N111" s="35"/>
+      <c r="O111" s="35"/>
+      <c r="P111" s="39"/>
+      <c r="Q111" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="R111" s="45"/>
+      <c r="S111" s="45"/>
+      <c r="T111" s="46"/>
     </row>
     <row r="112" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="27"/>
-      <c r="F112" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L112" s="26"/>
-      <c r="M112" s="26"/>
-      <c r="N112" s="26"/>
-      <c r="O112" s="26"/>
-      <c r="P112" s="55"/>
-      <c r="Q112" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="R112" s="65"/>
-      <c r="S112" s="65"/>
-      <c r="T112" s="66"/>
-    </row>
-    <row r="113" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="27"/>
-      <c r="F113" s="45">
-        <v>1</v>
-      </c>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="L113" s="46"/>
-      <c r="M113" s="46"/>
-      <c r="N113" s="46"/>
-      <c r="O113" s="46"/>
-      <c r="P113" s="47"/>
-      <c r="Q113" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="R113" s="46"/>
-      <c r="S113" s="46"/>
-      <c r="T113" s="47"/>
-    </row>
-    <row r="114" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="27"/>
-      <c r="F114" s="34">
-        <v>2</v>
-      </c>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
-      <c r="K114" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L114" s="35"/>
-      <c r="M114" s="35"/>
-      <c r="N114" s="35"/>
-      <c r="O114" s="35"/>
-      <c r="P114" s="39"/>
-      <c r="Q114" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="R114" s="46"/>
-      <c r="S114" s="46"/>
-      <c r="T114" s="47"/>
-    </row>
-    <row r="115" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F115" s="29"/>
-    </row>
-    <row r="116" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="3:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F112" s="29"/>
+    </row>
+    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4593,9 +4471,6 @@
     <row r="499" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="500" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -4612,15 +4487,15 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="F55" r:id="rId1" location="mail-request" xr:uid="{7F374098-5A98-4E90-82A7-CEA6FCC88E5A}"/>
+    <hyperlink ref="F52" r:id="rId1" location="mail-request" xr:uid="{7F374098-5A98-4E90-82A7-CEA6FCC88E5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="22" max="34" man="1"/>
-    <brk id="56" max="34" man="1"/>
-    <brk id="73" max="34" man="1"/>
-    <brk id="102" max="34" man="1"/>
+    <brk id="53" max="34" man="1"/>
+    <brk id="70" max="34" man="1"/>
+    <brk id="99" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C002D85-FB49-4960-B4F7-D91CCBFE43F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0327440A-2B43-4957-8F7D-6A68B9E4A799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6.3.メール送信'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$112</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$91</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$121</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$100</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -685,19 +685,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchでは、メールテンプレート用のアダプタとして以下を提供している。</t>
-    <rPh sb="20" eb="21">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>①</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -902,6 +889,124 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Nablarchが提供する簡易なテンプレート機能</t>
+    <rPh sb="10" eb="12">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・サードパーティのテンプレートエンジンの機能を利用できるようにするアダプタ</t>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchには、テンプレートを用いてメールの文面を作成する定型メールの機能が用意されている。</t>
+    <rPh sb="18" eb="19">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブンメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テイケイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchが提供する簡易なテンプレート機能では、条件分岐や繰り返しの制御構文がサポートされておらず本システムの要件に合わないため、</t>
+    <rPh sb="9" eb="11">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ジョウケンブンキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>セイギョコウブン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アダプタを使用する方針とする。</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、Nablarchではメールテンプレート用のアダプタとして以下を提供している。</t>
+    <rPh sb="22" eb="23">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そして、テンプレートの処理には大きく以下の2つが用意されている。</t>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨウイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1748,7 +1853,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI501"/>
+  <dimension ref="A1:AI510"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1922,13 +2027,13 @@
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="24"/>
       <c r="E10" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="30"/>
       <c r="E11" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2151,7 +2256,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
@@ -2185,7 +2290,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2287,7 +2392,7 @@
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
       <c r="L33" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
@@ -2440,7 +2545,7 @@
       <c r="M38" s="56"/>
       <c r="N38" s="57"/>
       <c r="O38" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P38" s="49"/>
       <c r="Q38" s="49"/>
@@ -2535,7 +2640,7 @@
     </row>
     <row r="41" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F41" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
@@ -2598,7 +2703,7 @@
     </row>
     <row r="43" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -2631,7 +2736,7 @@
     </row>
     <row r="44" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -2664,7 +2769,7 @@
     </row>
     <row r="45" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -2697,7 +2802,7 @@
     </row>
     <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -2799,7 +2904,7 @@
     <row r="49" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="30"/>
       <c r="F49" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -2832,7 +2937,7 @@
     </row>
     <row r="50" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -2896,7 +3001,7 @@
     </row>
     <row r="52" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F52" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -2951,37 +3056,28 @@
     <row r="57" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="48"/>
       <c r="F57" s="47" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="48"/>
+      <c r="F58" s="47" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="59" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="48"/>
-      <c r="F59" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="G59" s="47" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="60" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="48"/>
       <c r="F60" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="G60" s="47" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="48"/>
       <c r="F61" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" s="47" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2990,647 +3086,340 @@
     <row r="63" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="48"/>
       <c r="F63" s="47" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="48"/>
       <c r="F64" s="47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D66" s="48" t="str">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="48"/>
+    </row>
+    <row r="66" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E66" s="48"/>
+      <c r="F66" s="47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="48"/>
+    </row>
+    <row r="68" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E68" s="48"/>
+      <c r="F68" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68" s="47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E69" s="48"/>
+      <c r="F69" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="48"/>
+      <c r="F70" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E71" s="48"/>
+    </row>
+    <row r="72" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E72" s="48"/>
+      <c r="F72" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E73" s="48"/>
+      <c r="F73" s="47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D75" s="48" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.3.4.</v>
       </c>
-      <c r="E66" s="47" t="s">
+      <c r="E75" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E67" s="24" t="str">
-        <f>D66&amp;"1."</f>
+    <row r="76" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="24" t="str">
+        <f>D75&amp;"1."</f>
         <v>6.3.4.1.</v>
       </c>
-      <c r="F67" s="4" t="str">
-        <f>E66&amp;"手段"</f>
+      <c r="F76" s="4" t="str">
+        <f>E75&amp;"手段"</f>
         <v>メールフォーマット手段</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F68" s="15" t="s">
+    <row r="77" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="16" t="s">
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="16" t="s">
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="16"/>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="16"/>
-      <c r="AD68" s="16"/>
-      <c r="AE68" s="16"/>
-      <c r="AF68" s="16"/>
-      <c r="AG68" s="16"/>
-      <c r="AH68" s="17"/>
-    </row>
-    <row r="69" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F69" s="44" t="s">
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="16"/>
+      <c r="AC77" s="16"/>
+      <c r="AD77" s="16"/>
+      <c r="AE77" s="16"/>
+      <c r="AF77" s="16"/>
+      <c r="AG77" s="16"/>
+      <c r="AH77" s="17"/>
+    </row>
+    <row r="78" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="62" t="s">
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="L69" s="60"/>
-      <c r="M69" s="60"/>
-      <c r="N69" s="60"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="62" t="s">
+      <c r="L78" s="60"/>
+      <c r="M78" s="60"/>
+      <c r="N78" s="60"/>
+      <c r="O78" s="60"/>
+      <c r="P78" s="60"/>
+      <c r="Q78" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="R69" s="60"/>
-      <c r="S69" s="60"/>
-      <c r="T69" s="60"/>
-      <c r="U69" s="60"/>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="60"/>
-      <c r="Z69" s="60"/>
-      <c r="AA69" s="60"/>
-      <c r="AB69" s="60"/>
-      <c r="AC69" s="60"/>
-      <c r="AD69" s="60"/>
-      <c r="AE69" s="60"/>
-      <c r="AF69" s="60"/>
-      <c r="AG69" s="60"/>
-      <c r="AH69" s="61"/>
-    </row>
-    <row r="70" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="24"/>
-    </row>
-    <row r="72" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="30" t="str">
+      <c r="R78" s="60"/>
+      <c r="S78" s="60"/>
+      <c r="T78" s="60"/>
+      <c r="U78" s="60"/>
+      <c r="V78" s="60"/>
+      <c r="W78" s="60"/>
+      <c r="X78" s="60"/>
+      <c r="Y78" s="60"/>
+      <c r="Z78" s="60"/>
+      <c r="AA78" s="60"/>
+      <c r="AB78" s="60"/>
+      <c r="AC78" s="60"/>
+      <c r="AD78" s="60"/>
+      <c r="AE78" s="60"/>
+      <c r="AF78" s="60"/>
+      <c r="AG78" s="60"/>
+      <c r="AH78" s="61"/>
+    </row>
+    <row r="79" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="30" t="str">
         <f>$C$7&amp;"5."</f>
         <v>6.3.5.</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E81" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="28"/>
-      <c r="AE72" s="28"/>
-      <c r="AF72" s="28"/>
-      <c r="AG72" s="28"/>
-      <c r="AH72" s="28"/>
-      <c r="AI72" s="28"/>
-    </row>
-    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30" t="str">
-        <f>D72&amp;"1."</f>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="28"/>
+      <c r="Q81" s="28"/>
+      <c r="R81" s="28"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="28"/>
+      <c r="W81" s="28"/>
+      <c r="X81" s="28"/>
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="28"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="28"/>
+      <c r="AC81" s="28"/>
+      <c r="AD81" s="28"/>
+      <c r="AE81" s="28"/>
+      <c r="AF81" s="28"/>
+      <c r="AG81" s="28"/>
+      <c r="AH81" s="28"/>
+      <c r="AI81" s="28"/>
+    </row>
+    <row r="82" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30" t="str">
+        <f>D81&amp;"1."</f>
         <v>6.3.5.1.</v>
       </c>
-      <c r="F73" s="29" t="str">
-        <f>E72&amp;"機能概要"</f>
+      <c r="F82" s="29" t="str">
+        <f>E81&amp;"機能概要"</f>
         <v>エラー処理機能概要</v>
       </c>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="28"/>
-      <c r="AE73" s="28"/>
-      <c r="AF73" s="28"/>
-      <c r="AG73" s="28"/>
-      <c r="AH73" s="28"/>
-      <c r="AI73" s="28"/>
-    </row>
-    <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="28"/>
-      <c r="T74" s="28"/>
-      <c r="U74" s="28"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="28"/>
-      <c r="AE74" s="28"/>
-      <c r="AF74" s="28"/>
-      <c r="AG74" s="28"/>
-      <c r="AH74" s="28"/>
-      <c r="AI74" s="28"/>
-    </row>
-    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="28"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
-      <c r="AB75" s="28"/>
-      <c r="AC75" s="28"/>
-      <c r="AD75" s="28"/>
-      <c r="AE75" s="28"/>
-      <c r="AF75" s="28"/>
-      <c r="AG75" s="28"/>
-      <c r="AH75" s="28"/>
-      <c r="AI75" s="28"/>
-    </row>
-    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="30" t="str">
-        <f>D72&amp;"2."</f>
-        <v>6.3.5.2.</v>
-      </c>
-      <c r="F76" s="29" t="str">
-        <f>E72&amp;"方法"</f>
-        <v>エラー処理方法</v>
-      </c>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="28"/>
-      <c r="U76" s="28"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="28"/>
-      <c r="AC76" s="28"/>
-      <c r="AD76" s="28"/>
-      <c r="AE76" s="28"/>
-      <c r="AF76" s="28"/>
-      <c r="AG76" s="28"/>
-      <c r="AH76" s="28"/>
-      <c r="AI76" s="28"/>
-    </row>
-    <row r="77" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-      <c r="S77" s="28"/>
-      <c r="T77" s="28"/>
-      <c r="U77" s="28"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-      <c r="AC77" s="28"/>
-      <c r="AD77" s="28"/>
-      <c r="AE77" s="28"/>
-      <c r="AF77" s="28"/>
-      <c r="AG77" s="28"/>
-      <c r="AH77" s="28"/>
-      <c r="AI77" s="28"/>
-    </row>
-    <row r="78" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="28"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="28"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="28"/>
-      <c r="AE78" s="28"/>
-      <c r="AF78" s="28"/>
-      <c r="AG78" s="28"/>
-      <c r="AH78" s="28"/>
-      <c r="AI78" s="28"/>
-    </row>
-    <row r="79" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="43"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K79" s="41"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="41"/>
-      <c r="O79" s="42"/>
-      <c r="P79" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q79" s="41"/>
-      <c r="R79" s="41"/>
-      <c r="S79" s="41"/>
-      <c r="T79" s="41"/>
-      <c r="U79" s="41"/>
-      <c r="V79" s="42"/>
-      <c r="W79" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="X79" s="41"/>
-      <c r="Y79" s="41"/>
-      <c r="Z79" s="41"/>
-      <c r="AA79" s="41"/>
-      <c r="AB79" s="41"/>
-      <c r="AC79" s="41"/>
-      <c r="AD79" s="41"/>
-      <c r="AE79" s="41"/>
-      <c r="AF79" s="41"/>
-      <c r="AG79" s="41"/>
-      <c r="AH79" s="42"/>
-    </row>
-    <row r="80" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="38"/>
-      <c r="W80" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="X80" s="37"/>
-      <c r="Y80" s="37"/>
-      <c r="Z80" s="37"/>
-      <c r="AA80" s="37"/>
-      <c r="AB80" s="37"/>
-      <c r="AC80" s="37"/>
-      <c r="AD80" s="37"/>
-      <c r="AE80" s="37"/>
-      <c r="AF80" s="37"/>
-      <c r="AG80" s="37"/>
-      <c r="AH80" s="38"/>
-    </row>
-    <row r="81" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="38"/>
-      <c r="W81" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="37"/>
-      <c r="Z81" s="37"/>
-      <c r="AA81" s="37"/>
-      <c r="AB81" s="37"/>
-      <c r="AC81" s="37"/>
-      <c r="AD81" s="37"/>
-      <c r="AE81" s="37"/>
-      <c r="AF81" s="37"/>
-      <c r="AG81" s="37"/>
-      <c r="AH81" s="38"/>
-    </row>
-    <row r="82" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="32"/>
-      <c r="X82" s="32"/>
-      <c r="Y82" s="32"/>
-      <c r="Z82" s="32"/>
-      <c r="AA82" s="32"/>
-      <c r="AB82" s="32"/>
-      <c r="AC82" s="32"/>
-      <c r="AD82" s="32"/>
-      <c r="AE82" s="32"/>
-      <c r="AF82" s="32"/>
-      <c r="AG82" s="32"/>
-      <c r="AH82" s="33"/>
-    </row>
-    <row r="83" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="43"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="28"/>
+      <c r="U82" s="28"/>
+      <c r="V82" s="28"/>
+      <c r="W82" s="28"/>
+      <c r="X82" s="28"/>
+      <c r="Y82" s="28"/>
+      <c r="Z82" s="28"/>
+      <c r="AA82" s="28"/>
+      <c r="AB82" s="28"/>
+      <c r="AC82" s="28"/>
+      <c r="AD82" s="28"/>
+      <c r="AE82" s="28"/>
+      <c r="AF82" s="28"/>
+      <c r="AG82" s="28"/>
+      <c r="AH82" s="28"/>
+      <c r="AI82" s="28"/>
+    </row>
+    <row r="83" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="35"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="35"/>
-      <c r="X83" s="35"/>
-      <c r="Y83" s="35"/>
-      <c r="Z83" s="35"/>
-      <c r="AA83" s="35"/>
-      <c r="AB83" s="35"/>
-      <c r="AC83" s="35"/>
-      <c r="AD83" s="35"/>
-      <c r="AE83" s="35"/>
-      <c r="AF83" s="35"/>
-      <c r="AG83" s="35"/>
-      <c r="AH83" s="39"/>
-    </row>
-    <row r="84" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="43"/>
+      <c r="F83" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="28"/>
+      <c r="R83" s="28"/>
+      <c r="S83" s="28"/>
+      <c r="T83" s="28"/>
+      <c r="U83" s="28"/>
+      <c r="V83" s="28"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="28"/>
+      <c r="Y83" s="28"/>
+      <c r="Z83" s="28"/>
+      <c r="AA83" s="28"/>
+      <c r="AB83" s="28"/>
+      <c r="AC83" s="28"/>
+      <c r="AD83" s="28"/>
+      <c r="AE83" s="28"/>
+      <c r="AF83" s="28"/>
+      <c r="AG83" s="28"/>
+      <c r="AH83" s="28"/>
+      <c r="AI83" s="28"/>
+    </row>
+    <row r="84" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32"/>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="32"/>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
-      <c r="AD84" s="32"/>
-      <c r="AE84" s="32"/>
-      <c r="AF84" s="32"/>
-      <c r="AG84" s="32"/>
-      <c r="AH84" s="32"/>
-    </row>
-    <row r="85" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="28"/>
+      <c r="S84" s="28"/>
+      <c r="T84" s="28"/>
+      <c r="U84" s="28"/>
+      <c r="V84" s="28"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="28"/>
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
+      <c r="AD84" s="28"/>
+      <c r="AE84" s="28"/>
+      <c r="AF84" s="28"/>
+      <c r="AG84" s="28"/>
+      <c r="AH84" s="28"/>
+      <c r="AI84" s="28"/>
+    </row>
+    <row r="85" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="29" t="s">
-        <v>46</v>
+      <c r="E85" s="30" t="str">
+        <f>D81&amp;"2."</f>
+        <v>6.3.5.2.</v>
+      </c>
+      <c r="F85" s="29" t="str">
+        <f>E81&amp;"方法"</f>
+        <v>エラー処理方法</v>
       </c>
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
@@ -3663,12 +3452,14 @@
       <c r="AI85" s="28"/>
     </row>
     <row r="86" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
+      <c r="F86" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
@@ -3701,91 +3492,84 @@
     </row>
     <row r="87" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="43"/>
-      <c r="B87" s="27"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="43"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
-      <c r="F87" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="42"/>
-      <c r="P87" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
-      <c r="V87" s="42"/>
-      <c r="W87" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="X87" s="41"/>
-      <c r="Y87" s="41"/>
-      <c r="Z87" s="41"/>
-      <c r="AA87" s="41"/>
-      <c r="AB87" s="41"/>
-      <c r="AC87" s="41"/>
-      <c r="AD87" s="41"/>
-      <c r="AE87" s="41"/>
-      <c r="AF87" s="41"/>
-      <c r="AG87" s="41"/>
-      <c r="AH87" s="42"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+      <c r="R87" s="28"/>
+      <c r="S87" s="28"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="28"/>
+      <c r="V87" s="28"/>
+      <c r="W87" s="28"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="28"/>
+      <c r="AA87" s="28"/>
+      <c r="AB87" s="28"/>
+      <c r="AC87" s="28"/>
+      <c r="AD87" s="28"/>
+      <c r="AE87" s="28"/>
+      <c r="AF87" s="28"/>
+      <c r="AG87" s="28"/>
+      <c r="AH87" s="28"/>
+      <c r="AI87" s="28"/>
     </row>
     <row r="88" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="27"/>
+      <c r="A88" s="43"/>
       <c r="B88" s="27"/>
       <c r="C88" s="43"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="37"/>
-      <c r="AA88" s="37"/>
-      <c r="AB88" s="37"/>
-      <c r="AC88" s="37"/>
-      <c r="AD88" s="37"/>
-      <c r="AE88" s="37"/>
-      <c r="AF88" s="37"/>
-      <c r="AG88" s="37"/>
-      <c r="AH88" s="38"/>
+      <c r="F88" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K88" s="41"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="41"/>
+      <c r="S88" s="41"/>
+      <c r="T88" s="41"/>
+      <c r="U88" s="41"/>
+      <c r="V88" s="42"/>
+      <c r="W88" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="X88" s="41"/>
+      <c r="Y88" s="41"/>
+      <c r="Z88" s="41"/>
+      <c r="AA88" s="41"/>
+      <c r="AB88" s="41"/>
+      <c r="AC88" s="41"/>
+      <c r="AD88" s="41"/>
+      <c r="AE88" s="41"/>
+      <c r="AF88" s="41"/>
+      <c r="AG88" s="41"/>
+      <c r="AH88" s="42"/>
     </row>
     <row r="89" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="27"/>
@@ -3793,311 +3577,668 @@
       <c r="C89" s="43"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="44" t="s">
+      <c r="F89" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="37"/>
+      <c r="Z89" s="37"/>
+      <c r="AA89" s="37"/>
+      <c r="AB89" s="37"/>
+      <c r="AC89" s="37"/>
+      <c r="AD89" s="37"/>
+      <c r="AE89" s="37"/>
+      <c r="AF89" s="37"/>
+      <c r="AG89" s="37"/>
+      <c r="AH89" s="38"/>
+    </row>
+    <row r="90" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="44" t="s">
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="37"/>
+      <c r="Z90" s="37"/>
+      <c r="AA90" s="37"/>
+      <c r="AB90" s="37"/>
+      <c r="AC90" s="37"/>
+      <c r="AD90" s="37"/>
+      <c r="AE90" s="37"/>
+      <c r="AF90" s="37"/>
+      <c r="AG90" s="37"/>
+      <c r="AH90" s="38"/>
+    </row>
+    <row r="91" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="32"/>
+      <c r="X91" s="32"/>
+      <c r="Y91" s="32"/>
+      <c r="Z91" s="32"/>
+      <c r="AA91" s="32"/>
+      <c r="AB91" s="32"/>
+      <c r="AC91" s="32"/>
+      <c r="AD91" s="32"/>
+      <c r="AE91" s="32"/>
+      <c r="AF91" s="32"/>
+      <c r="AG91" s="32"/>
+      <c r="AH91" s="33"/>
+    </row>
+    <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="39"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35"/>
+      <c r="AA92" s="35"/>
+      <c r="AB92" s="35"/>
+      <c r="AC92" s="35"/>
+      <c r="AD92" s="35"/>
+      <c r="AE92" s="35"/>
+      <c r="AF92" s="35"/>
+      <c r="AG92" s="35"/>
+      <c r="AH92" s="39"/>
+    </row>
+    <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="32"/>
+      <c r="P93" s="32"/>
+      <c r="Q93" s="32"/>
+      <c r="R93" s="32"/>
+      <c r="S93" s="32"/>
+      <c r="T93" s="32"/>
+      <c r="U93" s="32"/>
+      <c r="V93" s="32"/>
+      <c r="W93" s="32"/>
+      <c r="X93" s="32"/>
+      <c r="Y93" s="32"/>
+      <c r="Z93" s="32"/>
+      <c r="AA93" s="32"/>
+      <c r="AB93" s="32"/>
+      <c r="AC93" s="32"/>
+      <c r="AD93" s="32"/>
+      <c r="AE93" s="32"/>
+      <c r="AF93" s="32"/>
+      <c r="AG93" s="32"/>
+      <c r="AH93" s="32"/>
+    </row>
+    <row r="94" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="28"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="28"/>
+      <c r="R94" s="28"/>
+      <c r="S94" s="28"/>
+      <c r="T94" s="28"/>
+      <c r="U94" s="28"/>
+      <c r="V94" s="28"/>
+      <c r="W94" s="28"/>
+      <c r="X94" s="28"/>
+      <c r="Y94" s="28"/>
+      <c r="Z94" s="28"/>
+      <c r="AA94" s="28"/>
+      <c r="AB94" s="28"/>
+      <c r="AC94" s="28"/>
+      <c r="AD94" s="28"/>
+      <c r="AE94" s="28"/>
+      <c r="AF94" s="28"/>
+      <c r="AG94" s="28"/>
+      <c r="AH94" s="28"/>
+      <c r="AI94" s="28"/>
+    </row>
+    <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="28"/>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="28"/>
+      <c r="R95" s="28"/>
+      <c r="S95" s="28"/>
+      <c r="T95" s="28"/>
+      <c r="U95" s="28"/>
+      <c r="V95" s="28"/>
+      <c r="W95" s="28"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="28"/>
+      <c r="Z95" s="28"/>
+      <c r="AA95" s="28"/>
+      <c r="AB95" s="28"/>
+      <c r="AC95" s="28"/>
+      <c r="AD95" s="28"/>
+      <c r="AE95" s="28"/>
+      <c r="AF95" s="28"/>
+      <c r="AG95" s="28"/>
+      <c r="AH95" s="28"/>
+      <c r="AI95" s="28"/>
+    </row>
+    <row r="96" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="43"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q96" s="41"/>
+      <c r="R96" s="41"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="42"/>
+      <c r="W96" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="X96" s="41"/>
+      <c r="Y96" s="41"/>
+      <c r="Z96" s="41"/>
+      <c r="AA96" s="41"/>
+      <c r="AB96" s="41"/>
+      <c r="AC96" s="41"/>
+      <c r="AD96" s="41"/>
+      <c r="AE96" s="41"/>
+      <c r="AF96" s="41"/>
+      <c r="AG96" s="41"/>
+      <c r="AH96" s="42"/>
+    </row>
+    <row r="97" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
+      <c r="T97" s="37"/>
+      <c r="U97" s="37"/>
+      <c r="V97" s="38"/>
+      <c r="W97" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="X97" s="37"/>
+      <c r="Y97" s="37"/>
+      <c r="Z97" s="37"/>
+      <c r="AA97" s="37"/>
+      <c r="AB97" s="37"/>
+      <c r="AC97" s="37"/>
+      <c r="AD97" s="37"/>
+      <c r="AE97" s="37"/>
+      <c r="AF97" s="37"/>
+      <c r="AG97" s="37"/>
+      <c r="AH97" s="38"/>
+    </row>
+    <row r="98" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="K89" s="45"/>
-      <c r="L89" s="45"/>
-      <c r="M89" s="45"/>
-      <c r="N89" s="45"/>
-      <c r="O89" s="45"/>
-      <c r="P89" s="44" t="s">
+      <c r="K98" s="45"/>
+      <c r="L98" s="45"/>
+      <c r="M98" s="45"/>
+      <c r="N98" s="45"/>
+      <c r="O98" s="45"/>
+      <c r="P98" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="Q89" s="45"/>
-      <c r="R89" s="45"/>
-      <c r="S89" s="45"/>
-      <c r="T89" s="45"/>
-      <c r="U89" s="45"/>
-      <c r="V89" s="46"/>
-      <c r="W89" s="45" t="s">
+      <c r="Q98" s="45"/>
+      <c r="R98" s="45"/>
+      <c r="S98" s="45"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="45"/>
+      <c r="V98" s="46"/>
+      <c r="W98" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="X89" s="45"/>
-      <c r="Y89" s="45"/>
-      <c r="Z89" s="45"/>
-      <c r="AA89" s="45"/>
-      <c r="AB89" s="45"/>
-      <c r="AC89" s="45"/>
-      <c r="AD89" s="45"/>
-      <c r="AE89" s="45"/>
-      <c r="AF89" s="45"/>
-      <c r="AG89" s="45"/>
-      <c r="AH89" s="46"/>
-    </row>
-    <row r="90" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="49"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="49"/>
-      <c r="N90" s="49"/>
-      <c r="O90" s="49"/>
-      <c r="P90" s="49"/>
-      <c r="Q90" s="49"/>
-      <c r="R90" s="49"/>
-      <c r="S90" s="49"/>
-      <c r="T90" s="49"/>
-      <c r="U90" s="49"/>
-      <c r="V90" s="49"/>
-      <c r="W90" s="49"/>
-      <c r="X90" s="49"/>
-      <c r="Y90" s="49"/>
-      <c r="Z90" s="49"/>
-      <c r="AA90" s="49"/>
-      <c r="AB90" s="49"/>
-      <c r="AC90" s="49"/>
-      <c r="AD90" s="49"/>
-      <c r="AE90" s="49"/>
-      <c r="AF90" s="49"/>
-      <c r="AG90" s="49"/>
-      <c r="AH90" s="49"/>
-    </row>
-    <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="27"/>
-    </row>
-    <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="27"/>
-      <c r="D92" s="25" t="str">
+      <c r="X98" s="45"/>
+      <c r="Y98" s="45"/>
+      <c r="Z98" s="45"/>
+      <c r="AA98" s="45"/>
+      <c r="AB98" s="45"/>
+      <c r="AC98" s="45"/>
+      <c r="AD98" s="45"/>
+      <c r="AE98" s="45"/>
+      <c r="AF98" s="45"/>
+      <c r="AG98" s="45"/>
+      <c r="AH98" s="46"/>
+    </row>
+    <row r="99" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="49"/>
+      <c r="R99" s="49"/>
+      <c r="S99" s="49"/>
+      <c r="T99" s="49"/>
+      <c r="U99" s="49"/>
+      <c r="V99" s="49"/>
+      <c r="W99" s="49"/>
+      <c r="X99" s="49"/>
+      <c r="Y99" s="49"/>
+      <c r="Z99" s="49"/>
+      <c r="AA99" s="49"/>
+      <c r="AB99" s="49"/>
+      <c r="AC99" s="49"/>
+      <c r="AD99" s="49"/>
+      <c r="AE99" s="49"/>
+      <c r="AF99" s="49"/>
+      <c r="AG99" s="49"/>
+      <c r="AH99" s="49"/>
+    </row>
+    <row r="100" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="27"/>
+    </row>
+    <row r="101" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="27"/>
+      <c r="D101" s="25" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.3.6.</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="E101" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="27"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25" t="str">
-        <f>D92&amp;"1."</f>
+    <row r="102" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="27"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25" t="str">
+        <f>D101&amp;"1."</f>
         <v>6.3.6.1.</v>
       </c>
-      <c r="F93" s="29" t="s">
+      <c r="F102" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="27"/>
-      <c r="D94" s="25"/>
-      <c r="F94" s="29" t="s">
+    <row r="103" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="27"/>
+      <c r="D103" s="25"/>
+      <c r="F103" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-    </row>
-    <row r="96" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-    </row>
-    <row r="97" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="53" t="str">
+    <row r="104" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+    </row>
+    <row r="105" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+    </row>
+    <row r="106" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="53" t="str">
         <f>$C$7&amp;"7."</f>
         <v>6.3.7.</v>
       </c>
-      <c r="E97" s="27" t="s">
+      <c r="E106" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F97" s="27"/>
-    </row>
-    <row r="98" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27" t="s">
+      <c r="F106" s="27"/>
+    </row>
+    <row r="107" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F98" s="27"/>
-    </row>
-    <row r="99" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-    </row>
-    <row r="100" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="27"/>
-    </row>
-    <row r="101" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="25" t="str">
+      <c r="F107" s="27"/>
+    </row>
+    <row r="108" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+    </row>
+    <row r="109" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="27"/>
+    </row>
+    <row r="110" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="25" t="str">
         <f>$C$7&amp;"8."</f>
         <v>6.3.8.</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="29" t="s">
+    <row r="111" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="29" t="s">
+    <row r="112" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="29" t="s">
+    <row r="113" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="25"/>
-    </row>
-    <row r="106" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="E106" s="25" t="str">
-        <f>D101&amp;"1."</f>
+    <row r="114" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="25"/>
+    </row>
+    <row r="115" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="E115" s="25" t="str">
+        <f>D110&amp;"1."</f>
         <v>6.3.8.1.</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F115" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="27"/>
-      <c r="F107" s="29" t="s">
+    <row r="116" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="27"/>
+      <c r="F116" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="27"/>
-    </row>
-    <row r="109" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="27"/>
-      <c r="F109" s="40" t="s">
+    <row r="117" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="27"/>
+    </row>
+    <row r="118" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="27"/>
+      <c r="F118" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="40" t="s">
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="54"/>
-      <c r="Q109" s="63" t="s">
+      <c r="L118" s="26"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="26"/>
+      <c r="P118" s="54"/>
+      <c r="Q118" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="R118" s="64"/>
+      <c r="S118" s="64"/>
+      <c r="T118" s="65"/>
+    </row>
+    <row r="119" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="27"/>
+      <c r="F119" s="44">
+        <v>1</v>
+      </c>
+      <c r="G119" s="45"/>
+      <c r="H119" s="45"/>
+      <c r="I119" s="45"/>
+      <c r="J119" s="45"/>
+      <c r="K119" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="L119" s="45"/>
+      <c r="M119" s="45"/>
+      <c r="N119" s="45"/>
+      <c r="O119" s="45"/>
+      <c r="P119" s="46"/>
+      <c r="Q119" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="R109" s="64"/>
-      <c r="S109" s="64"/>
-      <c r="T109" s="65"/>
-    </row>
-    <row r="110" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="27"/>
-      <c r="F110" s="44">
-        <v>1</v>
-      </c>
-      <c r="G110" s="45"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
-      <c r="K110" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="L110" s="45"/>
-      <c r="M110" s="45"/>
-      <c r="N110" s="45"/>
-      <c r="O110" s="45"/>
-      <c r="P110" s="46"/>
-      <c r="Q110" s="44" t="s">
+      <c r="R119" s="45"/>
+      <c r="S119" s="45"/>
+      <c r="T119" s="46"/>
+    </row>
+    <row r="120" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="27"/>
+      <c r="F120" s="34">
+        <v>2</v>
+      </c>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="35"/>
+      <c r="J120" s="35"/>
+      <c r="K120" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="L120" s="35"/>
+      <c r="M120" s="35"/>
+      <c r="N120" s="35"/>
+      <c r="O120" s="35"/>
+      <c r="P120" s="39"/>
+      <c r="Q120" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="R110" s="45"/>
-      <c r="S110" s="45"/>
-      <c r="T110" s="46"/>
-    </row>
-    <row r="111" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="27"/>
-      <c r="F111" s="34">
-        <v>2</v>
-      </c>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L111" s="35"/>
-      <c r="M111" s="35"/>
-      <c r="N111" s="35"/>
-      <c r="O111" s="35"/>
-      <c r="P111" s="39"/>
-      <c r="Q111" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="R111" s="45"/>
-      <c r="S111" s="45"/>
-      <c r="T111" s="46"/>
-    </row>
-    <row r="112" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F112" s="29"/>
-    </row>
-    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="R120" s="45"/>
+      <c r="S120" s="45"/>
+      <c r="T120" s="46"/>
+    </row>
+    <row r="121" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="29"/>
+    </row>
+    <row r="122" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4471,6 +4612,15 @@
     <row r="499" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="500" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -4494,8 +4644,8 @@
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="22" max="34" man="1"/>
     <brk id="53" max="34" man="1"/>
-    <brk id="70" max="34" man="1"/>
-    <brk id="99" max="34" man="1"/>
+    <brk id="79" max="34" man="1"/>
+    <brk id="108" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0327440A-2B43-4957-8F7D-6A68B9E4A799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF41399-A5E0-48FD-BC34-DA2F02CD7B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6.3.メール送信'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$121</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$100</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$100</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$119</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$99</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -392,29 +392,9 @@
     <t>存在しない</t>
   </si>
   <si>
-    <t>PJ固有の要件</t>
-    <rPh sb="2" eb="4">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>対象</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PJ固有の要件</t>
-    <rPh sb="2" eb="4">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1853,7 +1833,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI510"/>
+  <dimension ref="A1:AI508"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1866,7 +1846,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1887,7 +1867,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S1" s="74"/>
       <c r="T1" s="74"/>
@@ -2021,19 +2001,19 @@
         <v>6.3.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="24"/>
       <c r="E10" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="30"/>
       <c r="E11" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2089,12 +2069,8 @@
     <row r="18" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="51" t="str">
-        <f>$D$9&amp;"1."</f>
-        <v>6.3.1.1.</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>53</v>
+      <c r="E18" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -2105,9 +2081,8 @@
     <row r="19" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
-        <v>22</v>
+      <c r="E19" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -2118,9 +2093,8 @@
     <row r="20" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27" t="s">
-        <v>19</v>
+      <c r="E20" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -2132,9 +2106,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="27" t="s">
-        <v>64</v>
-      </c>
+      <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -2142,7 +2114,6 @@
       <c r="K21" s="27"/>
     </row>
     <row r="22" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -2152,9 +2123,15 @@
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+    <row r="23" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="51" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>6.3.2.</v>
+      </c>
+      <c r="E23" s="27" t="str">
+        <f>D7&amp;"方式"</f>
+        <v>メール送信方式</v>
+      </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -2162,16 +2139,16 @@
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="51" t="str">
-        <f>$C$7&amp;"2."</f>
-        <v>6.3.2.</v>
-      </c>
-      <c r="E24" s="27" t="str">
-        <f>D7&amp;"方式"</f>
-        <v>メール送信方式</v>
-      </c>
-      <c r="F24" s="27"/>
+    <row r="24" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51" t="str">
+        <f>D23&amp;"1."</f>
+        <v>6.3.2.1.</v>
+      </c>
+      <c r="F24" s="27" t="str">
+        <f>E23&amp;"概要"</f>
+        <v>メール送信方式概要</v>
+      </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -2179,14 +2156,10 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="51"/>
-      <c r="E25" s="51" t="str">
-        <f>D24&amp;"1."</f>
-        <v>6.3.2.1.</v>
-      </c>
-      <c r="F25" s="27" t="str">
-        <f>E24&amp;"概要"</f>
-        <v>メール送信方式概要</v>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -2195,91 +2168,113 @@
       <c r="K25" s="27"/>
     </row>
     <row r="26" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="30"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="29"/>
+      <c r="F27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="17"/>
     </row>
     <row r="28" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="29"/>
-      <c r="F28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="17"/>
+      <c r="F28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="20"/>
     </row>
     <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="29"/>
-      <c r="F29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="23"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="29"/>
@@ -2290,7 +2285,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="21" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2323,9 +2318,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="L31" s="21"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
@@ -2351,264 +2344,265 @@
     </row>
     <row r="32" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="29"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="23"/>
+      <c r="F32" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="38"/>
     </row>
     <row r="33" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="29"/>
-      <c r="F33" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="38"/>
-    </row>
-    <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="29"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="39"/>
-    </row>
-    <row r="35" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="39"/>
+    </row>
+    <row r="34" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+    </row>
+    <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="F35" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="F36" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F36" s="15" t="str">
+        <f>F27</f>
+        <v>方法</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="16"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="17"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="F37" s="15" t="str">
+      <c r="F37" s="21" t="str">
         <f>F28</f>
-        <v>方法</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="17"/>
+        <v>定型メール送信</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="56"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="50"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="F38" s="21" t="str">
-        <f>F29</f>
-        <v>定型メール送信</v>
-      </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="M38" s="56"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="49"/>
-      <c r="Z38" s="49"/>
-      <c r="AA38" s="49"/>
-      <c r="AB38" s="49"/>
-      <c r="AC38" s="49"/>
-      <c r="AD38" s="49"/>
-      <c r="AE38" s="49"/>
-      <c r="AF38" s="49"/>
-      <c r="AG38" s="49"/>
-      <c r="AH38" s="50"/>
-    </row>
-    <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="F39" s="44" t="str">
-        <f>F33</f>
+      <c r="F38" s="44" t="str">
+        <f>F32</f>
         <v>非定型メール送信</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="M39" s="55"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="60"/>
-      <c r="U39" s="60"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="60"/>
-      <c r="X39" s="60"/>
-      <c r="Y39" s="60"/>
-      <c r="Z39" s="60"/>
-      <c r="AA39" s="60"/>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="60"/>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="60"/>
-      <c r="AF39" s="60"/>
-      <c r="AG39" s="60"/>
-      <c r="AH39" s="61"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" s="55"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="61"/>
+    </row>
+    <row r="39" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="32"/>
+      <c r="AG39" s="32"/>
+      <c r="AH39" s="32"/>
     </row>
     <row r="40" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="32"/>
+      <c r="F40" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
@@ -2639,9 +2633,6 @@
       <c r="AH40" s="32"/>
     </row>
     <row r="41" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="29" t="s">
-        <v>96</v>
-      </c>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -2672,6 +2663,9 @@
       <c r="AH41" s="32"/>
     </row>
     <row r="42" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="32" t="s">
+        <v>95</v>
+      </c>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
@@ -2703,7 +2697,7 @@
     </row>
     <row r="43" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -2736,7 +2730,7 @@
     </row>
     <row r="44" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -2769,7 +2763,7 @@
     </row>
     <row r="45" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -2800,10 +2794,8 @@
       <c r="AG45" s="32"/>
       <c r="AH45" s="32"/>
     </row>
-    <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F46" s="32" t="s">
-        <v>100</v>
-      </c>
+    <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
@@ -2812,7 +2804,7 @@
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
       <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
+      <c r="O46" s="49"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
@@ -2833,8 +2825,14 @@
       <c r="AG46" s="32"/>
       <c r="AH46" s="32"/>
     </row>
-    <row r="47" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="32"/>
+    <row r="47" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="30" t="str">
+        <f>D23&amp;"2."</f>
+        <v>6.3.2.2.</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
@@ -2843,7 +2841,7 @@
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="49"/>
+      <c r="O47" s="32"/>
       <c r="P47" s="32"/>
       <c r="Q47" s="32"/>
       <c r="R47" s="32"/>
@@ -2865,12 +2863,9 @@
       <c r="AH47" s="32"/>
     </row>
     <row r="48" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="30" t="str">
-        <f>D24&amp;"2."</f>
-        <v>6.3.2.2.</v>
-      </c>
+      <c r="E48" s="30"/>
       <c r="F48" s="32" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
@@ -2902,9 +2897,8 @@
       <c r="AH48" s="32"/>
     </row>
     <row r="49" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="30"/>
       <c r="F49" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -2936,9 +2930,7 @@
       <c r="AH49" s="32"/>
     </row>
     <row r="50" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="32" t="s">
-        <v>106</v>
-      </c>
+      <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
@@ -2969,7 +2961,9 @@
       <c r="AH50" s="32"/>
     </row>
     <row r="51" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F51" s="32"/>
+      <c r="F51" s="66" t="s">
+        <v>100</v>
+      </c>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
@@ -2999,266 +2993,276 @@
       <c r="AG51" s="32"/>
       <c r="AH51" s="32"/>
     </row>
-    <row r="52" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="32"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="32"/>
-      <c r="AA52" s="32"/>
-      <c r="AB52" s="32"/>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="32"/>
-      <c r="AE52" s="32"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="32"/>
-      <c r="AH52" s="32"/>
-    </row>
+    <row r="52" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="53" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="48" t="str">
+    <row r="54" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="48" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.3.3.</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E54" s="47" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="55" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="48" t="str">
+        <f>D54&amp;"1."</f>
+        <v>6.3.3.1.</v>
+      </c>
+      <c r="F55" s="47" t="str">
+        <f>E54&amp;"手段"</f>
+        <v>メールテンプレート手段</v>
+      </c>
+    </row>
     <row r="56" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="48" t="str">
-        <f>D55&amp;"1."</f>
-        <v>6.3.3.1.</v>
-      </c>
-      <c r="F56" s="47" t="str">
-        <f>E55&amp;"手段"</f>
-        <v>メールテンプレート手段</v>
+      <c r="E56" s="48"/>
+      <c r="F56" s="47" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="48"/>
       <c r="F57" s="47" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="48"/>
-      <c r="F58" s="47" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="59" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="48"/>
+      <c r="F59" s="47" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="60" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="48"/>
       <c r="F60" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="48"/>
-      <c r="F61" s="47" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="62" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="48"/>
+      <c r="F62" s="47" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="63" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="48"/>
       <c r="F63" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="48"/>
-      <c r="F64" s="47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="48"/>
-    </row>
-    <row r="66" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="48"/>
-      <c r="F66" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="48"/>
-    </row>
-    <row r="68" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" s="47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="48"/>
       <c r="F68" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G68" s="47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="48"/>
       <c r="F69" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="48"/>
+    </row>
+    <row r="71" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E71" s="48"/>
+      <c r="F71" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G69" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="48"/>
-      <c r="F70" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="G70" s="47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="48"/>
-    </row>
-    <row r="72" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="48"/>
       <c r="F72" s="47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="48"/>
-      <c r="F73" s="47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D75" s="48" t="str">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="48" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.3.4.</v>
       </c>
-      <c r="E75" s="47" t="s">
+      <c r="E74" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E76" s="24" t="str">
-        <f>D75&amp;"1."</f>
+    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="24" t="str">
+        <f>D74&amp;"1."</f>
         <v>6.3.4.1.</v>
       </c>
-      <c r="F76" s="4" t="str">
-        <f>E75&amp;"手段"</f>
+      <c r="F75" s="4" t="str">
+        <f>E74&amp;"手段"</f>
         <v>メールフォーマット手段</v>
       </c>
     </row>
-    <row r="77" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F77" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="16" t="s">
+    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="16"/>
-      <c r="Y77" s="16"/>
-      <c r="Z77" s="16"/>
-      <c r="AA77" s="16"/>
-      <c r="AB77" s="16"/>
-      <c r="AC77" s="16"/>
-      <c r="AD77" s="16"/>
-      <c r="AE77" s="16"/>
-      <c r="AF77" s="16"/>
-      <c r="AG77" s="16"/>
-      <c r="AH77" s="17"/>
-    </row>
-    <row r="78" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F78" s="44" t="s">
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="16"/>
+      <c r="AE76" s="16"/>
+      <c r="AF76" s="16"/>
+      <c r="AG76" s="16"/>
+      <c r="AH76" s="17"/>
+    </row>
+    <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="60"/>
+      <c r="Q77" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="L78" s="60"/>
-      <c r="M78" s="60"/>
-      <c r="N78" s="60"/>
-      <c r="O78" s="60"/>
-      <c r="P78" s="60"/>
-      <c r="Q78" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="R78" s="60"/>
-      <c r="S78" s="60"/>
-      <c r="T78" s="60"/>
-      <c r="U78" s="60"/>
-      <c r="V78" s="60"/>
-      <c r="W78" s="60"/>
-      <c r="X78" s="60"/>
-      <c r="Y78" s="60"/>
-      <c r="Z78" s="60"/>
-      <c r="AA78" s="60"/>
-      <c r="AB78" s="60"/>
-      <c r="AC78" s="60"/>
-      <c r="AD78" s="60"/>
-      <c r="AE78" s="60"/>
-      <c r="AF78" s="60"/>
-      <c r="AG78" s="60"/>
-      <c r="AH78" s="61"/>
-    </row>
-    <row r="79" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E80" s="24"/>
+      <c r="R77" s="60"/>
+      <c r="S77" s="60"/>
+      <c r="T77" s="60"/>
+      <c r="U77" s="60"/>
+      <c r="V77" s="60"/>
+      <c r="W77" s="60"/>
+      <c r="X77" s="60"/>
+      <c r="Y77" s="60"/>
+      <c r="Z77" s="60"/>
+      <c r="AA77" s="60"/>
+      <c r="AB77" s="60"/>
+      <c r="AC77" s="60"/>
+      <c r="AD77" s="60"/>
+      <c r="AE77" s="60"/>
+      <c r="AF77" s="60"/>
+      <c r="AG77" s="60"/>
+      <c r="AH77" s="61"/>
+    </row>
+    <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E79" s="24"/>
+    </row>
+    <row r="80" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="30" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>6.3.5.</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="28"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="28"/>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="28"/>
+      <c r="AC80" s="28"/>
+      <c r="AD80" s="28"/>
+      <c r="AE80" s="28"/>
+      <c r="AF80" s="28"/>
+      <c r="AG80" s="28"/>
+      <c r="AH80" s="28"/>
+      <c r="AI80" s="28"/>
     </row>
     <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
-      <c r="D81" s="30" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>6.3.5.</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="28"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30" t="str">
+        <f>D80&amp;"1."</f>
+        <v>6.3.5.1.</v>
+      </c>
+      <c r="F81" s="29" t="str">
+        <f>E80&amp;"機能概要"</f>
+        <v>エラー処理機能概要</v>
+      </c>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
@@ -3293,14 +3297,10 @@
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30" t="str">
-        <f>D81&amp;"1."</f>
-        <v>6.3.5.1.</v>
-      </c>
-      <c r="F82" s="29" t="str">
-        <f>E81&amp;"機能概要"</f>
-        <v>エラー処理機能概要</v>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
@@ -3338,9 +3338,7 @@
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="F83" s="28"/>
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
@@ -3376,8 +3374,14 @@
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
+      <c r="E84" s="30" t="str">
+        <f>D80&amp;"2."</f>
+        <v>6.3.5.2.</v>
+      </c>
+      <c r="F84" s="29" t="str">
+        <f>E80&amp;"方法"</f>
+        <v>エラー処理方法</v>
+      </c>
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
@@ -3408,18 +3412,14 @@
       <c r="AH84" s="28"/>
       <c r="AI84" s="28"/>
     </row>
-    <row r="85" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
-      <c r="E85" s="30" t="str">
-        <f>D81&amp;"2."</f>
-        <v>6.3.5.2.</v>
-      </c>
-      <c r="F85" s="29" t="str">
-        <f>E81&amp;"方法"</f>
-        <v>エラー処理方法</v>
+      <c r="E85" s="28"/>
+      <c r="F85" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
@@ -3452,14 +3452,12 @@
       <c r="AI85" s="28"/>
     </row>
     <row r="86" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
-      <c r="F86" s="29" t="s">
-        <v>45</v>
-      </c>
+      <c r="F86" s="28"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
@@ -3492,84 +3490,91 @@
     </row>
     <row r="87" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="43"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="28"/>
-      <c r="P87" s="28"/>
-      <c r="Q87" s="28"/>
-      <c r="R87" s="28"/>
-      <c r="S87" s="28"/>
-      <c r="T87" s="28"/>
-      <c r="U87" s="28"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="28"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="28"/>
-      <c r="AA87" s="28"/>
-      <c r="AB87" s="28"/>
-      <c r="AC87" s="28"/>
-      <c r="AD87" s="28"/>
-      <c r="AE87" s="28"/>
-      <c r="AF87" s="28"/>
-      <c r="AG87" s="28"/>
-      <c r="AH87" s="28"/>
-      <c r="AI87" s="28"/>
+      <c r="F87" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="42"/>
+      <c r="W87" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="41"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="41"/>
+      <c r="AE87" s="41"/>
+      <c r="AF87" s="41"/>
+      <c r="AG87" s="41"/>
+      <c r="AH87" s="42"/>
     </row>
     <row r="88" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="43"/>
+      <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="43"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K88" s="41"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="42"/>
-      <c r="P88" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="41"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="41"/>
-      <c r="U88" s="41"/>
-      <c r="V88" s="42"/>
-      <c r="W88" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="X88" s="41"/>
-      <c r="Y88" s="41"/>
-      <c r="Z88" s="41"/>
-      <c r="AA88" s="41"/>
-      <c r="AB88" s="41"/>
-      <c r="AC88" s="41"/>
-      <c r="AD88" s="41"/>
-      <c r="AE88" s="41"/>
-      <c r="AF88" s="41"/>
-      <c r="AG88" s="41"/>
-      <c r="AH88" s="42"/>
+      <c r="F88" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="37"/>
+      <c r="AA88" s="37"/>
+      <c r="AB88" s="37"/>
+      <c r="AC88" s="37"/>
+      <c r="AD88" s="37"/>
+      <c r="AE88" s="37"/>
+      <c r="AF88" s="37"/>
+      <c r="AG88" s="37"/>
+      <c r="AH88" s="38"/>
     </row>
     <row r="89" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="27"/>
@@ -3578,13 +3583,13 @@
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
       <c r="F89" s="36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89" s="37"/>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K89" s="37"/>
       <c r="L89" s="37"/>
@@ -3592,7 +3597,7 @@
       <c r="N89" s="37"/>
       <c r="O89" s="37"/>
       <c r="P89" s="36" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q89" s="37"/>
       <c r="R89" s="37"/>
@@ -3601,7 +3606,7 @@
       <c r="U89" s="37"/>
       <c r="V89" s="38"/>
       <c r="W89" s="37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X89" s="37"/>
       <c r="Y89" s="37"/>
@@ -3621,43 +3626,37 @@
       <c r="C90" s="43"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
-      <c r="F90" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="X90" s="37"/>
-      <c r="Y90" s="37"/>
-      <c r="Z90" s="37"/>
-      <c r="AA90" s="37"/>
-      <c r="AB90" s="37"/>
-      <c r="AC90" s="37"/>
-      <c r="AD90" s="37"/>
-      <c r="AE90" s="37"/>
-      <c r="AF90" s="37"/>
-      <c r="AG90" s="37"/>
-      <c r="AH90" s="38"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="32"/>
+      <c r="X90" s="32"/>
+      <c r="Y90" s="32"/>
+      <c r="Z90" s="32"/>
+      <c r="AA90" s="32"/>
+      <c r="AB90" s="32"/>
+      <c r="AC90" s="32"/>
+      <c r="AD90" s="32"/>
+      <c r="AE90" s="32"/>
+      <c r="AF90" s="32"/>
+      <c r="AG90" s="32"/>
+      <c r="AH90" s="33"/>
     </row>
     <row r="91" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
@@ -3665,18 +3664,20 @@
       <c r="C91" s="43"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="K91" s="35"/>
       <c r="L91" s="35"/>
       <c r="M91" s="35"/>
       <c r="N91" s="35"/>
       <c r="O91" s="35"/>
       <c r="P91" s="34" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="Q91" s="35"/>
       <c r="R91" s="35"/>
@@ -3684,18 +3685,18 @@
       <c r="T91" s="35"/>
       <c r="U91" s="35"/>
       <c r="V91" s="39"/>
-      <c r="W91" s="32"/>
-      <c r="X91" s="32"/>
-      <c r="Y91" s="32"/>
-      <c r="Z91" s="32"/>
-      <c r="AA91" s="32"/>
-      <c r="AB91" s="32"/>
-      <c r="AC91" s="32"/>
-      <c r="AD91" s="32"/>
-      <c r="AE91" s="32"/>
-      <c r="AF91" s="32"/>
-      <c r="AG91" s="32"/>
-      <c r="AH91" s="33"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
+      <c r="AB91" s="35"/>
+      <c r="AC91" s="35"/>
+      <c r="AD91" s="35"/>
+      <c r="AE91" s="35"/>
+      <c r="AF91" s="35"/>
+      <c r="AG91" s="35"/>
+      <c r="AH91" s="39"/>
     </row>
     <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
@@ -3703,85 +3704,82 @@
       <c r="C92" s="43"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
-      <c r="P92" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="35"/>
-      <c r="Y92" s="35"/>
-      <c r="Z92" s="35"/>
-      <c r="AA92" s="35"/>
-      <c r="AB92" s="35"/>
-      <c r="AC92" s="35"/>
-      <c r="AD92" s="35"/>
-      <c r="AE92" s="35"/>
-      <c r="AF92" s="35"/>
-      <c r="AG92" s="35"/>
-      <c r="AH92" s="39"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="32"/>
+      <c r="S92" s="32"/>
+      <c r="T92" s="32"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="32"/>
+      <c r="W92" s="32"/>
+      <c r="X92" s="32"/>
+      <c r="Y92" s="32"/>
+      <c r="Z92" s="32"/>
+      <c r="AA92" s="32"/>
+      <c r="AB92" s="32"/>
+      <c r="AC92" s="32"/>
+      <c r="AD92" s="32"/>
+      <c r="AE92" s="32"/>
+      <c r="AF92" s="32"/>
+      <c r="AG92" s="32"/>
+      <c r="AH92" s="32"/>
     </row>
     <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="43"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="32"/>
-      <c r="N93" s="32"/>
-      <c r="O93" s="32"/>
-      <c r="P93" s="32"/>
-      <c r="Q93" s="32"/>
-      <c r="R93" s="32"/>
-      <c r="S93" s="32"/>
-      <c r="T93" s="32"/>
-      <c r="U93" s="32"/>
-      <c r="V93" s="32"/>
-      <c r="W93" s="32"/>
-      <c r="X93" s="32"/>
-      <c r="Y93" s="32"/>
-      <c r="Z93" s="32"/>
-      <c r="AA93" s="32"/>
-      <c r="AB93" s="32"/>
-      <c r="AC93" s="32"/>
-      <c r="AD93" s="32"/>
-      <c r="AE93" s="32"/>
-      <c r="AF93" s="32"/>
-      <c r="AG93" s="32"/>
-      <c r="AH93" s="32"/>
+      <c r="F93" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="28"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="28"/>
+      <c r="R93" s="28"/>
+      <c r="S93" s="28"/>
+      <c r="T93" s="28"/>
+      <c r="U93" s="28"/>
+      <c r="V93" s="28"/>
+      <c r="W93" s="28"/>
+      <c r="X93" s="28"/>
+      <c r="Y93" s="28"/>
+      <c r="Z93" s="28"/>
+      <c r="AA93" s="28"/>
+      <c r="AB93" s="28"/>
+      <c r="AC93" s="28"/>
+      <c r="AD93" s="28"/>
+      <c r="AE93" s="28"/>
+      <c r="AF93" s="28"/>
+      <c r="AG93" s="28"/>
+      <c r="AH93" s="28"/>
+      <c r="AI93" s="28"/>
     </row>
     <row r="94" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
-      <c r="F94" s="29" t="s">
-        <v>46</v>
-      </c>
+      <c r="F94" s="28"/>
       <c r="G94" s="28"/>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
@@ -3814,84 +3812,91 @@
     </row>
     <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="43"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="28"/>
-      <c r="O95" s="28"/>
-      <c r="P95" s="28"/>
-      <c r="Q95" s="28"/>
-      <c r="R95" s="28"/>
-      <c r="S95" s="28"/>
-      <c r="T95" s="28"/>
-      <c r="U95" s="28"/>
-      <c r="V95" s="28"/>
-      <c r="W95" s="28"/>
-      <c r="X95" s="28"/>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="28"/>
-      <c r="AA95" s="28"/>
-      <c r="AB95" s="28"/>
-      <c r="AC95" s="28"/>
-      <c r="AD95" s="28"/>
-      <c r="AE95" s="28"/>
-      <c r="AF95" s="28"/>
-      <c r="AG95" s="28"/>
-      <c r="AH95" s="28"/>
-      <c r="AI95" s="28"/>
+      <c r="F95" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K95" s="41"/>
+      <c r="L95" s="41"/>
+      <c r="M95" s="41"/>
+      <c r="N95" s="41"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="41"/>
+      <c r="S95" s="41"/>
+      <c r="T95" s="41"/>
+      <c r="U95" s="41"/>
+      <c r="V95" s="42"/>
+      <c r="W95" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="X95" s="41"/>
+      <c r="Y95" s="41"/>
+      <c r="Z95" s="41"/>
+      <c r="AA95" s="41"/>
+      <c r="AB95" s="41"/>
+      <c r="AC95" s="41"/>
+      <c r="AD95" s="41"/>
+      <c r="AE95" s="41"/>
+      <c r="AF95" s="41"/>
+      <c r="AG95" s="41"/>
+      <c r="AH95" s="42"/>
     </row>
     <row r="96" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="43"/>
+      <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="43"/>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
-      <c r="F96" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="42"/>
-      <c r="P96" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q96" s="41"/>
-      <c r="R96" s="41"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
-      <c r="V96" s="42"/>
-      <c r="W96" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="X96" s="41"/>
-      <c r="Y96" s="41"/>
-      <c r="Z96" s="41"/>
-      <c r="AA96" s="41"/>
-      <c r="AB96" s="41"/>
-      <c r="AC96" s="41"/>
-      <c r="AD96" s="41"/>
-      <c r="AE96" s="41"/>
-      <c r="AF96" s="41"/>
-      <c r="AG96" s="41"/>
-      <c r="AH96" s="42"/>
+      <c r="F96" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
+      <c r="Z96" s="37"/>
+      <c r="AA96" s="37"/>
+      <c r="AB96" s="37"/>
+      <c r="AC96" s="37"/>
+      <c r="AD96" s="37"/>
+      <c r="AE96" s="37"/>
+      <c r="AF96" s="37"/>
+      <c r="AG96" s="37"/>
+      <c r="AH96" s="38"/>
     </row>
     <row r="97" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="27"/>
@@ -3899,208 +3904,165 @@
       <c r="C97" s="43"/>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
-      <c r="F97" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K97" s="37"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="37"/>
-      <c r="O97" s="37"/>
-      <c r="P97" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q97" s="37"/>
-      <c r="R97" s="37"/>
-      <c r="S97" s="37"/>
-      <c r="T97" s="37"/>
-      <c r="U97" s="37"/>
-      <c r="V97" s="38"/>
-      <c r="W97" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="X97" s="37"/>
-      <c r="Y97" s="37"/>
-      <c r="Z97" s="37"/>
-      <c r="AA97" s="37"/>
-      <c r="AB97" s="37"/>
-      <c r="AC97" s="37"/>
-      <c r="AD97" s="37"/>
-      <c r="AE97" s="37"/>
-      <c r="AF97" s="37"/>
-      <c r="AG97" s="37"/>
-      <c r="AH97" s="38"/>
-    </row>
-    <row r="98" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
+      <c r="F97" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K97" s="45"/>
+      <c r="L97" s="45"/>
+      <c r="M97" s="45"/>
+      <c r="N97" s="45"/>
+      <c r="O97" s="45"/>
+      <c r="P97" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q97" s="45"/>
+      <c r="R97" s="45"/>
+      <c r="S97" s="45"/>
+      <c r="T97" s="45"/>
+      <c r="U97" s="45"/>
+      <c r="V97" s="46"/>
+      <c r="W97" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="X97" s="45"/>
+      <c r="Y97" s="45"/>
+      <c r="Z97" s="45"/>
+      <c r="AA97" s="45"/>
+      <c r="AB97" s="45"/>
+      <c r="AC97" s="45"/>
+      <c r="AD97" s="45"/>
+      <c r="AE97" s="45"/>
+      <c r="AF97" s="45"/>
+      <c r="AG97" s="45"/>
+      <c r="AH97" s="46"/>
+    </row>
+    <row r="98" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="43"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="45"/>
-      <c r="J98" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="K98" s="45"/>
-      <c r="L98" s="45"/>
-      <c r="M98" s="45"/>
-      <c r="N98" s="45"/>
-      <c r="O98" s="45"/>
-      <c r="P98" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q98" s="45"/>
-      <c r="R98" s="45"/>
-      <c r="S98" s="45"/>
-      <c r="T98" s="45"/>
-      <c r="U98" s="45"/>
-      <c r="V98" s="46"/>
-      <c r="W98" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="X98" s="45"/>
-      <c r="Y98" s="45"/>
-      <c r="Z98" s="45"/>
-      <c r="AA98" s="45"/>
-      <c r="AB98" s="45"/>
-      <c r="AC98" s="45"/>
-      <c r="AD98" s="45"/>
-      <c r="AE98" s="45"/>
-      <c r="AF98" s="45"/>
-      <c r="AG98" s="45"/>
-      <c r="AH98" s="46"/>
-    </row>
-    <row r="99" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49"/>
-      <c r="L99" s="49"/>
-      <c r="M99" s="49"/>
-      <c r="N99" s="49"/>
-      <c r="O99" s="49"/>
-      <c r="P99" s="49"/>
-      <c r="Q99" s="49"/>
-      <c r="R99" s="49"/>
-      <c r="S99" s="49"/>
-      <c r="T99" s="49"/>
-      <c r="U99" s="49"/>
-      <c r="V99" s="49"/>
-      <c r="W99" s="49"/>
-      <c r="X99" s="49"/>
-      <c r="Y99" s="49"/>
-      <c r="Z99" s="49"/>
-      <c r="AA99" s="49"/>
-      <c r="AB99" s="49"/>
-      <c r="AC99" s="49"/>
-      <c r="AD99" s="49"/>
-      <c r="AE99" s="49"/>
-      <c r="AF99" s="49"/>
-      <c r="AG99" s="49"/>
-      <c r="AH99" s="49"/>
-    </row>
-    <row r="100" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="49"/>
+      <c r="R98" s="49"/>
+      <c r="S98" s="49"/>
+      <c r="T98" s="49"/>
+      <c r="U98" s="49"/>
+      <c r="V98" s="49"/>
+      <c r="W98" s="49"/>
+      <c r="X98" s="49"/>
+      <c r="Y98" s="49"/>
+      <c r="Z98" s="49"/>
+      <c r="AA98" s="49"/>
+      <c r="AB98" s="49"/>
+      <c r="AC98" s="49"/>
+      <c r="AD98" s="49"/>
+      <c r="AE98" s="49"/>
+      <c r="AF98" s="49"/>
+      <c r="AG98" s="49"/>
+      <c r="AH98" s="49"/>
+    </row>
+    <row r="99" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="27"/>
+    </row>
+    <row r="100" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="27"/>
+      <c r="D100" s="25" t="str">
+        <f>$C$7&amp;"6."</f>
+        <v>6.3.6.</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="101" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="27"/>
-      <c r="D101" s="25" t="str">
-        <f>$C$7&amp;"6."</f>
-        <v>6.3.6.</v>
-      </c>
+      <c r="D101" s="25"/>
       <c r="E101" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="27"/>
       <c r="D102" s="25"/>
-      <c r="E102" s="25" t="str">
-        <f>D101&amp;"1."</f>
-        <v>6.3.6.1.</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="103" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="27"/>
       <c r="D103" s="25"/>
-      <c r="F103" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="27"/>
+      <c r="D104" s="53" t="str">
+        <f>$C$7&amp;"7."</f>
+        <v>6.3.7.</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="F104" s="27"/>
     </row>
-    <row r="105" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="27"/>
       <c r="C105" s="27"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27" t="s">
+        <v>64</v>
+      </c>
       <c r="F105" s="27"/>
     </row>
-    <row r="106" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
-      <c r="D106" s="53" t="str">
-        <f>$C$7&amp;"7."</f>
-        <v>6.3.7.</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
       <c r="F106" s="27"/>
     </row>
     <row r="107" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="27"/>
       <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F107" s="27"/>
-    </row>
-    <row r="108" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="27"/>
       <c r="B108" s="27"/>
       <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-    </row>
-    <row r="109" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="25" t="str">
+        <f>$C$7&amp;"8."</f>
+        <v>6.3.8.</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
       <c r="C109" s="27"/>
-    </row>
-    <row r="110" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="25"/>
+      <c r="E109" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="27"/>
       <c r="B110" s="27"/>
       <c r="C110" s="27"/>
-      <c r="D110" s="25" t="str">
-        <f>$C$7&amp;"8."</f>
-        <v>6.3.8.</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>71</v>
+      <c r="D110" s="25"/>
+      <c r="E110" s="29" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4117,128 +4079,125 @@
       <c r="B112" s="27"/>
       <c r="C112" s="27"/>
       <c r="D112" s="25"/>
-      <c r="E112" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="27"/>
       <c r="B113" s="27"/>
       <c r="C113" s="27"/>
-      <c r="D113" s="25"/>
       <c r="E113" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="27"/>
-      <c r="B114" s="27"/>
+        <v>76</v>
+      </c>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="29"/>
+      <c r="R113" s="29"/>
+      <c r="S113" s="29"/>
+      <c r="T113" s="29"/>
+      <c r="U113" s="29"/>
+      <c r="V113" s="29"/>
+    </row>
+    <row r="114" spans="1:22" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="27"/>
-      <c r="D114" s="25"/>
-    </row>
-    <row r="115" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
+    </row>
+    <row r="115" spans="1:22" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="27"/>
-      <c r="E115" s="25" t="str">
-        <f>D110&amp;"1."</f>
-        <v>6.3.8.1.</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E115" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="54"/>
+      <c r="P115" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q115" s="64"/>
+      <c r="R115" s="64"/>
+      <c r="S115" s="65"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+    </row>
+    <row r="116" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="27"/>
-      <c r="F116" s="29" t="s">
+      <c r="E116" s="44">
+        <v>1</v>
+      </c>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="45"/>
+      <c r="J116" s="44" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K116" s="45"/>
+      <c r="L116" s="45"/>
+      <c r="M116" s="45"/>
+      <c r="N116" s="45"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q116" s="45"/>
+      <c r="R116" s="45"/>
+      <c r="S116" s="46"/>
+    </row>
+    <row r="117" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="27"/>
-    </row>
-    <row r="118" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E117" s="34">
+        <v>2</v>
+      </c>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K117" s="35"/>
+      <c r="L117" s="35"/>
+      <c r="M117" s="35"/>
+      <c r="N117" s="35"/>
+      <c r="O117" s="39"/>
+      <c r="P117" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q117" s="45"/>
+      <c r="R117" s="45"/>
+      <c r="S117" s="46"/>
+    </row>
+    <row r="118" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="27"/>
-      <c r="F118" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L118" s="26"/>
-      <c r="M118" s="26"/>
-      <c r="N118" s="26"/>
-      <c r="O118" s="26"/>
-      <c r="P118" s="54"/>
-      <c r="Q118" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="R118" s="64"/>
-      <c r="S118" s="64"/>
-      <c r="T118" s="65"/>
-    </row>
-    <row r="119" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="27"/>
-      <c r="F119" s="44">
-        <v>1</v>
-      </c>
-      <c r="G119" s="45"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="45"/>
-      <c r="J119" s="45"/>
-      <c r="K119" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="L119" s="45"/>
-      <c r="M119" s="45"/>
-      <c r="N119" s="45"/>
-      <c r="O119" s="45"/>
-      <c r="P119" s="46"/>
-      <c r="Q119" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R119" s="45"/>
-      <c r="S119" s="45"/>
-      <c r="T119" s="46"/>
-    </row>
-    <row r="120" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="27"/>
-      <c r="F120" s="34">
-        <v>2</v>
-      </c>
-      <c r="G120" s="35"/>
-      <c r="H120" s="35"/>
-      <c r="I120" s="35"/>
-      <c r="J120" s="35"/>
-      <c r="K120" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L120" s="35"/>
-      <c r="M120" s="35"/>
-      <c r="N120" s="35"/>
-      <c r="O120" s="35"/>
-      <c r="P120" s="39"/>
-      <c r="Q120" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="R120" s="45"/>
-      <c r="S120" s="45"/>
-      <c r="T120" s="46"/>
-    </row>
-    <row r="121" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F121" s="29"/>
-    </row>
-    <row r="122" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="119" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="29"/>
+    </row>
+    <row r="120" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4619,8 +4578,6 @@
     <row r="506" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="507" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="508" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -4637,15 +4594,15 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="F52" r:id="rId1" location="mail-request" xr:uid="{7F374098-5A98-4E90-82A7-CEA6FCC88E5A}"/>
+    <hyperlink ref="F51" r:id="rId1" location="mail-request" xr:uid="{7F374098-5A98-4E90-82A7-CEA6FCC88E5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="22" max="34" man="1"/>
-    <brk id="53" max="34" man="1"/>
-    <brk id="79" max="34" man="1"/>
-    <brk id="108" max="34" man="1"/>
+    <brk id="21" max="34" man="1"/>
+    <brk id="52" max="34" man="1"/>
+    <brk id="78" max="34" man="1"/>
+    <brk id="106" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.3メール送信.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C002D85-FB49-4960-B4F7-D91CCBFE43F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF41399-A5E0-48FD-BC34-DA2F02CD7B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6.3.メール送信'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$112</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$91</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.3.メール送信'!$A$1:$AI$119</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$99</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.3.メール送信'!$A$1:$AI$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -392,16 +392,6 @@
     <t>存在しない</t>
   </si>
   <si>
-    <t>PJ固有の要件</t>
-    <rPh sb="2" eb="4">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>対象</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -409,16 +399,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PJ固有の要件</t>
-    <rPh sb="2" eb="4">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>指定されたテンプレートが</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
@@ -685,19 +665,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchでは、メールテンプレート用のアダプタとして以下を提供している。</t>
-    <rPh sb="20" eb="21">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>①</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -902,6 +869,124 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Nablarchが提供する簡易なテンプレート機能</t>
+    <rPh sb="10" eb="12">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・サードパーティのテンプレートエンジンの機能を利用できるようにするアダプタ</t>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchには、テンプレートを用いてメールの文面を作成する定型メールの機能が用意されている。</t>
+    <rPh sb="18" eb="19">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブンメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テイケイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchが提供する簡易なテンプレート機能では、条件分岐や繰り返しの制御構文がサポートされておらず本システムの要件に合わないため、</t>
+    <rPh sb="9" eb="11">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ジョウケンブンキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>セイギョコウブン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アダプタを使用する方針とする。</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、Nablarchではメールテンプレート用のアダプタとして以下を提供している。</t>
+    <rPh sb="22" eb="23">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そして、テンプレートの処理には大きく以下の2つが用意されている。</t>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨウイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1748,7 +1833,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI501"/>
+  <dimension ref="A1:AI508"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1846,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1782,7 +1867,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S1" s="74"/>
       <c r="T1" s="74"/>
@@ -1916,19 +2001,19 @@
         <v>6.3.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="24"/>
       <c r="E10" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="30"/>
       <c r="E11" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1984,12 +2069,8 @@
     <row r="18" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="51" t="str">
-        <f>$D$9&amp;"1."</f>
-        <v>6.3.1.1.</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>53</v>
+      <c r="E18" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -2000,9 +2081,8 @@
     <row r="19" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
-        <v>22</v>
+      <c r="E19" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -2013,9 +2093,8 @@
     <row r="20" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27" t="s">
-        <v>19</v>
+      <c r="E20" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -2027,9 +2106,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="27" t="s">
-        <v>64</v>
-      </c>
+      <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -2037,7 +2114,6 @@
       <c r="K21" s="27"/>
     </row>
     <row r="22" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -2047,9 +2123,15 @@
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+    <row r="23" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="51" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>6.3.2.</v>
+      </c>
+      <c r="E23" s="27" t="str">
+        <f>D7&amp;"方式"</f>
+        <v>メール送信方式</v>
+      </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -2057,16 +2139,16 @@
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="51" t="str">
-        <f>$C$7&amp;"2."</f>
-        <v>6.3.2.</v>
-      </c>
-      <c r="E24" s="27" t="str">
-        <f>D7&amp;"方式"</f>
-        <v>メール送信方式</v>
-      </c>
-      <c r="F24" s="27"/>
+    <row r="24" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51" t="str">
+        <f>D23&amp;"1."</f>
+        <v>6.3.2.1.</v>
+      </c>
+      <c r="F24" s="27" t="str">
+        <f>E23&amp;"概要"</f>
+        <v>メール送信方式概要</v>
+      </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -2074,14 +2156,10 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="51"/>
-      <c r="E25" s="51" t="str">
-        <f>D24&amp;"1."</f>
-        <v>6.3.2.1.</v>
-      </c>
-      <c r="F25" s="27" t="str">
-        <f>E24&amp;"概要"</f>
-        <v>メール送信方式概要</v>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -2090,91 +2168,113 @@
       <c r="K25" s="27"/>
     </row>
     <row r="26" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" spans="3:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="30"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="29"/>
+      <c r="F27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="17"/>
     </row>
     <row r="28" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="29"/>
-      <c r="F28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="17"/>
+      <c r="F28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="20"/>
     </row>
     <row r="29" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="29"/>
-      <c r="F29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="23"/>
     </row>
     <row r="30" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="29"/>
@@ -2185,7 +2285,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="21" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2218,9 +2318,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="L31" s="21"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
@@ -2246,264 +2344,265 @@
     </row>
     <row r="32" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="29"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="23"/>
+      <c r="F32" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="38"/>
     </row>
     <row r="33" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="29"/>
-      <c r="F33" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="38"/>
-    </row>
-    <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="29"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="39"/>
-    </row>
-    <row r="35" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="39"/>
+    </row>
+    <row r="34" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+    </row>
+    <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="F35" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="F36" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F36" s="15" t="str">
+        <f>F27</f>
+        <v>方法</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="16"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="17"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="F37" s="15" t="str">
+      <c r="F37" s="21" t="str">
         <f>F28</f>
-        <v>方法</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="17"/>
+        <v>定型メール送信</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="56"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="50"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="F38" s="21" t="str">
-        <f>F29</f>
-        <v>定型メール送信</v>
-      </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="M38" s="56"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="49"/>
-      <c r="Z38" s="49"/>
-      <c r="AA38" s="49"/>
-      <c r="AB38" s="49"/>
-      <c r="AC38" s="49"/>
-      <c r="AD38" s="49"/>
-      <c r="AE38" s="49"/>
-      <c r="AF38" s="49"/>
-      <c r="AG38" s="49"/>
-      <c r="AH38" s="50"/>
-    </row>
-    <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="F39" s="44" t="str">
-        <f>F33</f>
+      <c r="F38" s="44" t="str">
+        <f>F32</f>
         <v>非定型メール送信</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="M39" s="55"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="60"/>
-      <c r="U39" s="60"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="60"/>
-      <c r="X39" s="60"/>
-      <c r="Y39" s="60"/>
-      <c r="Z39" s="60"/>
-      <c r="AA39" s="60"/>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="60"/>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="60"/>
-      <c r="AF39" s="60"/>
-      <c r="AG39" s="60"/>
-      <c r="AH39" s="61"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" s="55"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="61"/>
+    </row>
+    <row r="39" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="32"/>
+      <c r="AG39" s="32"/>
+      <c r="AH39" s="32"/>
     </row>
     <row r="40" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="32"/>
+      <c r="F40" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
@@ -2534,9 +2633,6 @@
       <c r="AH40" s="32"/>
     </row>
     <row r="41" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="29" t="s">
-        <v>97</v>
-      </c>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -2567,6 +2663,9 @@
       <c r="AH41" s="32"/>
     </row>
     <row r="42" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="32" t="s">
+        <v>95</v>
+      </c>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
@@ -2598,7 +2697,7 @@
     </row>
     <row r="43" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -2631,7 +2730,7 @@
     </row>
     <row r="44" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -2664,7 +2763,7 @@
     </row>
     <row r="45" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -2695,10 +2794,8 @@
       <c r="AG45" s="32"/>
       <c r="AH45" s="32"/>
     </row>
-    <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F46" s="32" t="s">
-        <v>101</v>
-      </c>
+    <row r="46" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
@@ -2707,7 +2804,7 @@
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
       <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
+      <c r="O46" s="49"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
@@ -2728,8 +2825,14 @@
       <c r="AG46" s="32"/>
       <c r="AH46" s="32"/>
     </row>
-    <row r="47" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="32"/>
+    <row r="47" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="30" t="str">
+        <f>D23&amp;"2."</f>
+        <v>6.3.2.2.</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
@@ -2738,7 +2841,7 @@
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="49"/>
+      <c r="O47" s="32"/>
       <c r="P47" s="32"/>
       <c r="Q47" s="32"/>
       <c r="R47" s="32"/>
@@ -2760,12 +2863,9 @@
       <c r="AH47" s="32"/>
     </row>
     <row r="48" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="30" t="str">
-        <f>D24&amp;"2."</f>
-        <v>6.3.2.2.</v>
-      </c>
+      <c r="E48" s="30"/>
       <c r="F48" s="32" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
@@ -2797,9 +2897,8 @@
       <c r="AH48" s="32"/>
     </row>
     <row r="49" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="30"/>
       <c r="F49" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
@@ -2831,9 +2930,7 @@
       <c r="AH49" s="32"/>
     </row>
     <row r="50" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="32" t="s">
-        <v>107</v>
-      </c>
+      <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
@@ -2864,7 +2961,9 @@
       <c r="AH50" s="32"/>
     </row>
     <row r="51" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F51" s="32"/>
+      <c r="F51" s="66" t="s">
+        <v>100</v>
+      </c>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
@@ -2894,64 +2993,37 @@
       <c r="AG51" s="32"/>
       <c r="AH51" s="32"/>
     </row>
-    <row r="52" spans="4:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="32"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="32"/>
-      <c r="AA52" s="32"/>
-      <c r="AB52" s="32"/>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="32"/>
-      <c r="AE52" s="32"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="32"/>
-      <c r="AH52" s="32"/>
-    </row>
+    <row r="52" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="53" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="48" t="str">
+    <row r="54" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="48" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.3.3.</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E54" s="47" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="55" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="48" t="str">
+        <f>D54&amp;"1."</f>
+        <v>6.3.3.1.</v>
+      </c>
+      <c r="F55" s="47" t="str">
+        <f>E54&amp;"手段"</f>
+        <v>メールテンプレート手段</v>
+      </c>
+    </row>
     <row r="56" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="48" t="str">
-        <f>D55&amp;"1."</f>
-        <v>6.3.3.1.</v>
-      </c>
-      <c r="F56" s="47" t="str">
-        <f>E55&amp;"手段"</f>
-        <v>メールテンプレート手段</v>
+      <c r="E56" s="48"/>
+      <c r="F56" s="47" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="48"/>
       <c r="F57" s="47" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2960,668 +3032,385 @@
     <row r="59" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="48"/>
       <c r="F59" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="G59" s="47" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="48"/>
       <c r="F60" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="G60" s="47" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="48"/>
-      <c r="F61" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" s="47" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="62" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="48"/>
+      <c r="F62" s="47" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="63" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="48"/>
       <c r="F63" s="47" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="4:34" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="48"/>
-      <c r="F64" s="47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="65" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="48"/>
+      <c r="F65" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="66" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D66" s="48" t="str">
+      <c r="E66" s="48"/>
+    </row>
+    <row r="67" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="48"/>
+      <c r="F67" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" s="47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E68" s="48"/>
+      <c r="F68" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E69" s="48"/>
+      <c r="F69" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="48"/>
+    </row>
+    <row r="71" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E71" s="48"/>
+      <c r="F71" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E72" s="48"/>
+      <c r="F72" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:35" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="48" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.3.4.</v>
       </c>
-      <c r="E66" s="47" t="s">
+      <c r="E74" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E67" s="24" t="str">
-        <f>D66&amp;"1."</f>
+    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="24" t="str">
+        <f>D74&amp;"1."</f>
         <v>6.3.4.1.</v>
       </c>
-      <c r="F67" s="4" t="str">
-        <f>E66&amp;"手段"</f>
+      <c r="F75" s="4" t="str">
+        <f>E74&amp;"手段"</f>
         <v>メールフォーマット手段</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F68" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="16" t="s">
+    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="16"/>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="16"/>
-      <c r="AD68" s="16"/>
-      <c r="AE68" s="16"/>
-      <c r="AF68" s="16"/>
-      <c r="AG68" s="16"/>
-      <c r="AH68" s="17"/>
-    </row>
-    <row r="69" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F69" s="44" t="s">
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="16"/>
+      <c r="AE76" s="16"/>
+      <c r="AF76" s="16"/>
+      <c r="AG76" s="16"/>
+      <c r="AH76" s="17"/>
+    </row>
+    <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="60"/>
+      <c r="Q77" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="L69" s="60"/>
-      <c r="M69" s="60"/>
-      <c r="N69" s="60"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="R69" s="60"/>
-      <c r="S69" s="60"/>
-      <c r="T69" s="60"/>
-      <c r="U69" s="60"/>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="60"/>
-      <c r="Z69" s="60"/>
-      <c r="AA69" s="60"/>
-      <c r="AB69" s="60"/>
-      <c r="AC69" s="60"/>
-      <c r="AD69" s="60"/>
-      <c r="AE69" s="60"/>
-      <c r="AF69" s="60"/>
-      <c r="AG69" s="60"/>
-      <c r="AH69" s="61"/>
-    </row>
-    <row r="70" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="24"/>
-    </row>
-    <row r="72" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="30" t="str">
+      <c r="R77" s="60"/>
+      <c r="S77" s="60"/>
+      <c r="T77" s="60"/>
+      <c r="U77" s="60"/>
+      <c r="V77" s="60"/>
+      <c r="W77" s="60"/>
+      <c r="X77" s="60"/>
+      <c r="Y77" s="60"/>
+      <c r="Z77" s="60"/>
+      <c r="AA77" s="60"/>
+      <c r="AB77" s="60"/>
+      <c r="AC77" s="60"/>
+      <c r="AD77" s="60"/>
+      <c r="AE77" s="60"/>
+      <c r="AF77" s="60"/>
+      <c r="AG77" s="60"/>
+      <c r="AH77" s="61"/>
+    </row>
+    <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E79" s="24"/>
+    </row>
+    <row r="80" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="30" t="str">
         <f>$C$7&amp;"5."</f>
         <v>6.3.5.</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E80" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="28"/>
-      <c r="AE72" s="28"/>
-      <c r="AF72" s="28"/>
-      <c r="AG72" s="28"/>
-      <c r="AH72" s="28"/>
-      <c r="AI72" s="28"/>
-    </row>
-    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30" t="str">
-        <f>D72&amp;"1."</f>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="28"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="28"/>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="28"/>
+      <c r="AC80" s="28"/>
+      <c r="AD80" s="28"/>
+      <c r="AE80" s="28"/>
+      <c r="AF80" s="28"/>
+      <c r="AG80" s="28"/>
+      <c r="AH80" s="28"/>
+      <c r="AI80" s="28"/>
+    </row>
+    <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30" t="str">
+        <f>D80&amp;"1."</f>
         <v>6.3.5.1.</v>
       </c>
-      <c r="F73" s="29" t="str">
-        <f>E72&amp;"機能概要"</f>
+      <c r="F81" s="29" t="str">
+        <f>E80&amp;"機能概要"</f>
         <v>エラー処理機能概要</v>
       </c>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="28"/>
-      <c r="AE73" s="28"/>
-      <c r="AF73" s="28"/>
-      <c r="AG73" s="28"/>
-      <c r="AH73" s="28"/>
-      <c r="AI73" s="28"/>
-    </row>
-    <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="28"/>
-      <c r="T74" s="28"/>
-      <c r="U74" s="28"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="28"/>
-      <c r="AE74" s="28"/>
-      <c r="AF74" s="28"/>
-      <c r="AG74" s="28"/>
-      <c r="AH74" s="28"/>
-      <c r="AI74" s="28"/>
-    </row>
-    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="28"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
-      <c r="AB75" s="28"/>
-      <c r="AC75" s="28"/>
-      <c r="AD75" s="28"/>
-      <c r="AE75" s="28"/>
-      <c r="AF75" s="28"/>
-      <c r="AG75" s="28"/>
-      <c r="AH75" s="28"/>
-      <c r="AI75" s="28"/>
-    </row>
-    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="30" t="str">
-        <f>D72&amp;"2."</f>
-        <v>6.3.5.2.</v>
-      </c>
-      <c r="F76" s="29" t="str">
-        <f>E72&amp;"方法"</f>
-        <v>エラー処理方法</v>
-      </c>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="28"/>
-      <c r="U76" s="28"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="28"/>
-      <c r="AC76" s="28"/>
-      <c r="AD76" s="28"/>
-      <c r="AE76" s="28"/>
-      <c r="AF76" s="28"/>
-      <c r="AG76" s="28"/>
-      <c r="AH76" s="28"/>
-      <c r="AI76" s="28"/>
-    </row>
-    <row r="77" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-      <c r="S77" s="28"/>
-      <c r="T77" s="28"/>
-      <c r="U77" s="28"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-      <c r="AC77" s="28"/>
-      <c r="AD77" s="28"/>
-      <c r="AE77" s="28"/>
-      <c r="AF77" s="28"/>
-      <c r="AG77" s="28"/>
-      <c r="AH77" s="28"/>
-      <c r="AI77" s="28"/>
-    </row>
-    <row r="78" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="28"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="28"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="28"/>
-      <c r="AE78" s="28"/>
-      <c r="AF78" s="28"/>
-      <c r="AG78" s="28"/>
-      <c r="AH78" s="28"/>
-      <c r="AI78" s="28"/>
-    </row>
-    <row r="79" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="43"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K79" s="41"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="41"/>
-      <c r="O79" s="42"/>
-      <c r="P79" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q79" s="41"/>
-      <c r="R79" s="41"/>
-      <c r="S79" s="41"/>
-      <c r="T79" s="41"/>
-      <c r="U79" s="41"/>
-      <c r="V79" s="42"/>
-      <c r="W79" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="X79" s="41"/>
-      <c r="Y79" s="41"/>
-      <c r="Z79" s="41"/>
-      <c r="AA79" s="41"/>
-      <c r="AB79" s="41"/>
-      <c r="AC79" s="41"/>
-      <c r="AD79" s="41"/>
-      <c r="AE79" s="41"/>
-      <c r="AF79" s="41"/>
-      <c r="AG79" s="41"/>
-      <c r="AH79" s="42"/>
-    </row>
-    <row r="80" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="38"/>
-      <c r="W80" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="X80" s="37"/>
-      <c r="Y80" s="37"/>
-      <c r="Z80" s="37"/>
-      <c r="AA80" s="37"/>
-      <c r="AB80" s="37"/>
-      <c r="AC80" s="37"/>
-      <c r="AD80" s="37"/>
-      <c r="AE80" s="37"/>
-      <c r="AF80" s="37"/>
-      <c r="AG80" s="37"/>
-      <c r="AH80" s="38"/>
-    </row>
-    <row r="81" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="38"/>
-      <c r="W81" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="37"/>
-      <c r="Z81" s="37"/>
-      <c r="AA81" s="37"/>
-      <c r="AB81" s="37"/>
-      <c r="AC81" s="37"/>
-      <c r="AD81" s="37"/>
-      <c r="AE81" s="37"/>
-      <c r="AF81" s="37"/>
-      <c r="AG81" s="37"/>
-      <c r="AH81" s="38"/>
-    </row>
-    <row r="82" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="43"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="28"/>
+      <c r="Q81" s="28"/>
+      <c r="R81" s="28"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="28"/>
+      <c r="W81" s="28"/>
+      <c r="X81" s="28"/>
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="28"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="28"/>
+      <c r="AC81" s="28"/>
+      <c r="AD81" s="28"/>
+      <c r="AE81" s="28"/>
+      <c r="AF81" s="28"/>
+      <c r="AG81" s="28"/>
+      <c r="AH81" s="28"/>
+      <c r="AI81" s="28"/>
+    </row>
+    <row r="82" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="32"/>
-      <c r="X82" s="32"/>
-      <c r="Y82" s="32"/>
-      <c r="Z82" s="32"/>
-      <c r="AA82" s="32"/>
-      <c r="AB82" s="32"/>
-      <c r="AC82" s="32"/>
-      <c r="AD82" s="32"/>
-      <c r="AE82" s="32"/>
-      <c r="AF82" s="32"/>
-      <c r="AG82" s="32"/>
-      <c r="AH82" s="33"/>
-    </row>
-    <row r="83" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="43"/>
+      <c r="F82" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="28"/>
+      <c r="U82" s="28"/>
+      <c r="V82" s="28"/>
+      <c r="W82" s="28"/>
+      <c r="X82" s="28"/>
+      <c r="Y82" s="28"/>
+      <c r="Z82" s="28"/>
+      <c r="AA82" s="28"/>
+      <c r="AB82" s="28"/>
+      <c r="AC82" s="28"/>
+      <c r="AD82" s="28"/>
+      <c r="AE82" s="28"/>
+      <c r="AF82" s="28"/>
+      <c r="AG82" s="28"/>
+      <c r="AH82" s="28"/>
+      <c r="AI82" s="28"/>
+    </row>
+    <row r="83" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="35"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="35"/>
-      <c r="X83" s="35"/>
-      <c r="Y83" s="35"/>
-      <c r="Z83" s="35"/>
-      <c r="AA83" s="35"/>
-      <c r="AB83" s="35"/>
-      <c r="AC83" s="35"/>
-      <c r="AD83" s="35"/>
-      <c r="AE83" s="35"/>
-      <c r="AF83" s="35"/>
-      <c r="AG83" s="35"/>
-      <c r="AH83" s="39"/>
-    </row>
-    <row r="84" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="43"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="28"/>
+      <c r="R83" s="28"/>
+      <c r="S83" s="28"/>
+      <c r="T83" s="28"/>
+      <c r="U83" s="28"/>
+      <c r="V83" s="28"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="28"/>
+      <c r="Y83" s="28"/>
+      <c r="Z83" s="28"/>
+      <c r="AA83" s="28"/>
+      <c r="AB83" s="28"/>
+      <c r="AC83" s="28"/>
+      <c r="AD83" s="28"/>
+      <c r="AE83" s="28"/>
+      <c r="AF83" s="28"/>
+      <c r="AG83" s="28"/>
+      <c r="AH83" s="28"/>
+      <c r="AI83" s="28"/>
+    </row>
+    <row r="84" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32"/>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="32"/>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
-      <c r="AD84" s="32"/>
-      <c r="AE84" s="32"/>
-      <c r="AF84" s="32"/>
-      <c r="AG84" s="32"/>
-      <c r="AH84" s="32"/>
+      <c r="E84" s="30" t="str">
+        <f>D80&amp;"2."</f>
+        <v>6.3.5.2.</v>
+      </c>
+      <c r="F84" s="29" t="str">
+        <f>E80&amp;"方法"</f>
+        <v>エラー処理方法</v>
+      </c>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="28"/>
+      <c r="S84" s="28"/>
+      <c r="T84" s="28"/>
+      <c r="U84" s="28"/>
+      <c r="V84" s="28"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="28"/>
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
+      <c r="AD84" s="28"/>
+      <c r="AE84" s="28"/>
+      <c r="AF84" s="28"/>
+      <c r="AG84" s="28"/>
+      <c r="AH84" s="28"/>
+      <c r="AI84" s="28"/>
     </row>
     <row r="85" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="28"/>
@@ -3630,7 +3419,7 @@
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
       <c r="F85" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
@@ -3756,7 +3545,7 @@
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="36" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K88" s="37"/>
       <c r="L88" s="37"/>
@@ -3764,7 +3553,7 @@
       <c r="N88" s="37"/>
       <c r="O88" s="37"/>
       <c r="P88" s="36" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q88" s="37"/>
       <c r="R88" s="37"/>
@@ -3773,7 +3562,7 @@
       <c r="U88" s="37"/>
       <c r="V88" s="38"/>
       <c r="W88" s="37" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="X88" s="37"/>
       <c r="Y88" s="37"/>
@@ -3793,311 +3582,622 @@
       <c r="C89" s="43"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="44" t="s">
+      <c r="F89" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="44" t="s">
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="37"/>
+      <c r="Z89" s="37"/>
+      <c r="AA89" s="37"/>
+      <c r="AB89" s="37"/>
+      <c r="AC89" s="37"/>
+      <c r="AD89" s="37"/>
+      <c r="AE89" s="37"/>
+      <c r="AF89" s="37"/>
+      <c r="AG89" s="37"/>
+      <c r="AH89" s="38"/>
+    </row>
+    <row r="90" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="32"/>
+      <c r="X90" s="32"/>
+      <c r="Y90" s="32"/>
+      <c r="Z90" s="32"/>
+      <c r="AA90" s="32"/>
+      <c r="AB90" s="32"/>
+      <c r="AC90" s="32"/>
+      <c r="AD90" s="32"/>
+      <c r="AE90" s="32"/>
+      <c r="AF90" s="32"/>
+      <c r="AG90" s="32"/>
+      <c r="AH90" s="33"/>
+    </row>
+    <row r="91" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
+      <c r="AB91" s="35"/>
+      <c r="AC91" s="35"/>
+      <c r="AD91" s="35"/>
+      <c r="AE91" s="35"/>
+      <c r="AF91" s="35"/>
+      <c r="AG91" s="35"/>
+      <c r="AH91" s="39"/>
+    </row>
+    <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="32"/>
+      <c r="S92" s="32"/>
+      <c r="T92" s="32"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="32"/>
+      <c r="W92" s="32"/>
+      <c r="X92" s="32"/>
+      <c r="Y92" s="32"/>
+      <c r="Z92" s="32"/>
+      <c r="AA92" s="32"/>
+      <c r="AB92" s="32"/>
+      <c r="AC92" s="32"/>
+      <c r="AD92" s="32"/>
+      <c r="AE92" s="32"/>
+      <c r="AF92" s="32"/>
+      <c r="AG92" s="32"/>
+      <c r="AH92" s="32"/>
+    </row>
+    <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="28"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="28"/>
+      <c r="R93" s="28"/>
+      <c r="S93" s="28"/>
+      <c r="T93" s="28"/>
+      <c r="U93" s="28"/>
+      <c r="V93" s="28"/>
+      <c r="W93" s="28"/>
+      <c r="X93" s="28"/>
+      <c r="Y93" s="28"/>
+      <c r="Z93" s="28"/>
+      <c r="AA93" s="28"/>
+      <c r="AB93" s="28"/>
+      <c r="AC93" s="28"/>
+      <c r="AD93" s="28"/>
+      <c r="AE93" s="28"/>
+      <c r="AF93" s="28"/>
+      <c r="AG93" s="28"/>
+      <c r="AH93" s="28"/>
+      <c r="AI93" s="28"/>
+    </row>
+    <row r="94" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="28"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="28"/>
+      <c r="R94" s="28"/>
+      <c r="S94" s="28"/>
+      <c r="T94" s="28"/>
+      <c r="U94" s="28"/>
+      <c r="V94" s="28"/>
+      <c r="W94" s="28"/>
+      <c r="X94" s="28"/>
+      <c r="Y94" s="28"/>
+      <c r="Z94" s="28"/>
+      <c r="AA94" s="28"/>
+      <c r="AB94" s="28"/>
+      <c r="AC94" s="28"/>
+      <c r="AD94" s="28"/>
+      <c r="AE94" s="28"/>
+      <c r="AF94" s="28"/>
+      <c r="AG94" s="28"/>
+      <c r="AH94" s="28"/>
+      <c r="AI94" s="28"/>
+    </row>
+    <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="43"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K95" s="41"/>
+      <c r="L95" s="41"/>
+      <c r="M95" s="41"/>
+      <c r="N95" s="41"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="41"/>
+      <c r="S95" s="41"/>
+      <c r="T95" s="41"/>
+      <c r="U95" s="41"/>
+      <c r="V95" s="42"/>
+      <c r="W95" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="X95" s="41"/>
+      <c r="Y95" s="41"/>
+      <c r="Z95" s="41"/>
+      <c r="AA95" s="41"/>
+      <c r="AB95" s="41"/>
+      <c r="AC95" s="41"/>
+      <c r="AD95" s="41"/>
+      <c r="AE95" s="41"/>
+      <c r="AF95" s="41"/>
+      <c r="AG95" s="41"/>
+      <c r="AH95" s="42"/>
+    </row>
+    <row r="96" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
+      <c r="Z96" s="37"/>
+      <c r="AA96" s="37"/>
+      <c r="AB96" s="37"/>
+      <c r="AC96" s="37"/>
+      <c r="AD96" s="37"/>
+      <c r="AE96" s="37"/>
+      <c r="AF96" s="37"/>
+      <c r="AG96" s="37"/>
+      <c r="AH96" s="38"/>
+    </row>
+    <row r="97" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="K89" s="45"/>
-      <c r="L89" s="45"/>
-      <c r="M89" s="45"/>
-      <c r="N89" s="45"/>
-      <c r="O89" s="45"/>
-      <c r="P89" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q89" s="45"/>
-      <c r="R89" s="45"/>
-      <c r="S89" s="45"/>
-      <c r="T89" s="45"/>
-      <c r="U89" s="45"/>
-      <c r="V89" s="46"/>
-      <c r="W89" s="45" t="s">
+      <c r="K97" s="45"/>
+      <c r="L97" s="45"/>
+      <c r="M97" s="45"/>
+      <c r="N97" s="45"/>
+      <c r="O97" s="45"/>
+      <c r="P97" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q97" s="45"/>
+      <c r="R97" s="45"/>
+      <c r="S97" s="45"/>
+      <c r="T97" s="45"/>
+      <c r="U97" s="45"/>
+      <c r="V97" s="46"/>
+      <c r="W97" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="X89" s="45"/>
-      <c r="Y89" s="45"/>
-      <c r="Z89" s="45"/>
-      <c r="AA89" s="45"/>
-      <c r="AB89" s="45"/>
-      <c r="AC89" s="45"/>
-      <c r="AD89" s="45"/>
-      <c r="AE89" s="45"/>
-      <c r="AF89" s="45"/>
-      <c r="AG89" s="45"/>
-      <c r="AH89" s="46"/>
-    </row>
-    <row r="90" spans="1:35" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="49"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="49"/>
-      <c r="N90" s="49"/>
-      <c r="O90" s="49"/>
-      <c r="P90" s="49"/>
-      <c r="Q90" s="49"/>
-      <c r="R90" s="49"/>
-      <c r="S90" s="49"/>
-      <c r="T90" s="49"/>
-      <c r="U90" s="49"/>
-      <c r="V90" s="49"/>
-      <c r="W90" s="49"/>
-      <c r="X90" s="49"/>
-      <c r="Y90" s="49"/>
-      <c r="Z90" s="49"/>
-      <c r="AA90" s="49"/>
-      <c r="AB90" s="49"/>
-      <c r="AC90" s="49"/>
-      <c r="AD90" s="49"/>
-      <c r="AE90" s="49"/>
-      <c r="AF90" s="49"/>
-      <c r="AG90" s="49"/>
-      <c r="AH90" s="49"/>
-    </row>
-    <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="27"/>
-    </row>
-    <row r="92" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="27"/>
-      <c r="D92" s="25" t="str">
+      <c r="X97" s="45"/>
+      <c r="Y97" s="45"/>
+      <c r="Z97" s="45"/>
+      <c r="AA97" s="45"/>
+      <c r="AB97" s="45"/>
+      <c r="AC97" s="45"/>
+      <c r="AD97" s="45"/>
+      <c r="AE97" s="45"/>
+      <c r="AF97" s="45"/>
+      <c r="AG97" s="45"/>
+      <c r="AH97" s="46"/>
+    </row>
+    <row r="98" spans="1:34" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="49"/>
+      <c r="R98" s="49"/>
+      <c r="S98" s="49"/>
+      <c r="T98" s="49"/>
+      <c r="U98" s="49"/>
+      <c r="V98" s="49"/>
+      <c r="W98" s="49"/>
+      <c r="X98" s="49"/>
+      <c r="Y98" s="49"/>
+      <c r="Z98" s="49"/>
+      <c r="AA98" s="49"/>
+      <c r="AB98" s="49"/>
+      <c r="AC98" s="49"/>
+      <c r="AD98" s="49"/>
+      <c r="AE98" s="49"/>
+      <c r="AF98" s="49"/>
+      <c r="AG98" s="49"/>
+      <c r="AH98" s="49"/>
+    </row>
+    <row r="99" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="27"/>
+    </row>
+    <row r="100" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="27"/>
+      <c r="D100" s="25" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.3.6.</v>
       </c>
-      <c r="E92" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="27"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25" t="str">
-        <f>D92&amp;"1."</f>
-        <v>6.3.6.1.</v>
-      </c>
-      <c r="F93" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="27"/>
-      <c r="D94" s="25"/>
-      <c r="F94" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-    </row>
-    <row r="96" spans="1:35" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-    </row>
-    <row r="97" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="53" t="str">
+      <c r="E100" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="27"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="27"/>
+      <c r="D102" s="25"/>
+    </row>
+    <row r="103" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="27"/>
+      <c r="D103" s="25"/>
+    </row>
+    <row r="104" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="53" t="str">
         <f>$C$7&amp;"7."</f>
         <v>6.3.7.</v>
       </c>
-      <c r="E97" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F97" s="27"/>
-    </row>
-    <row r="98" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F98" s="27"/>
-    </row>
-    <row r="99" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-    </row>
-    <row r="100" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="27"/>
-    </row>
-    <row r="101" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="25" t="str">
+      <c r="E104" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="27"/>
+    </row>
+    <row r="105" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="27"/>
+    </row>
+    <row r="106" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+    </row>
+    <row r="107" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="27"/>
+    </row>
+    <row r="108" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="25" t="str">
         <f>$C$7&amp;"8."</f>
         <v>6.3.8.</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E108" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="29" t="s">
+    <row r="110" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="25"/>
-    </row>
-    <row r="106" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="E106" s="25" t="str">
-        <f>D101&amp;"1."</f>
-        <v>6.3.8.1.</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="27"/>
-      <c r="F107" s="29" t="s">
+    <row r="112" spans="1:34" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="25"/>
+    </row>
+    <row r="113" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="E113" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="29"/>
+      <c r="R113" s="29"/>
+      <c r="S113" s="29"/>
+      <c r="T113" s="29"/>
+      <c r="U113" s="29"/>
+      <c r="V113" s="29"/>
+    </row>
+    <row r="114" spans="1:22" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="27"/>
+    </row>
+    <row r="115" spans="1:22" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="27"/>
+      <c r="E115" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="54"/>
+      <c r="P115" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q115" s="64"/>
+      <c r="R115" s="64"/>
+      <c r="S115" s="65"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+    </row>
+    <row r="116" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="27"/>
+      <c r="E116" s="44">
+        <v>1</v>
+      </c>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="45"/>
+      <c r="J116" s="44" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="27"/>
-    </row>
-    <row r="109" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="27"/>
-      <c r="F109" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="54"/>
-      <c r="Q109" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="R109" s="64"/>
-      <c r="S109" s="64"/>
-      <c r="T109" s="65"/>
-    </row>
-    <row r="110" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="27"/>
-      <c r="F110" s="44">
-        <v>1</v>
-      </c>
-      <c r="G110" s="45"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
-      <c r="K110" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="L110" s="45"/>
-      <c r="M110" s="45"/>
-      <c r="N110" s="45"/>
-      <c r="O110" s="45"/>
-      <c r="P110" s="46"/>
-      <c r="Q110" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="R110" s="45"/>
-      <c r="S110" s="45"/>
-      <c r="T110" s="46"/>
-    </row>
-    <row r="111" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="27"/>
-      <c r="F111" s="34">
+      <c r="K116" s="45"/>
+      <c r="L116" s="45"/>
+      <c r="M116" s="45"/>
+      <c r="N116" s="45"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q116" s="45"/>
+      <c r="R116" s="45"/>
+      <c r="S116" s="46"/>
+    </row>
+    <row r="117" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="27"/>
+      <c r="E117" s="34">
         <v>2</v>
       </c>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L111" s="35"/>
-      <c r="M111" s="35"/>
-      <c r="N111" s="35"/>
-      <c r="O111" s="35"/>
-      <c r="P111" s="39"/>
-      <c r="Q111" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="R111" s="45"/>
-      <c r="S111" s="45"/>
-      <c r="T111" s="46"/>
-    </row>
-    <row r="112" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F112" s="29"/>
-    </row>
-    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K117" s="35"/>
+      <c r="L117" s="35"/>
+      <c r="M117" s="35"/>
+      <c r="N117" s="35"/>
+      <c r="O117" s="39"/>
+      <c r="P117" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q117" s="45"/>
+      <c r="R117" s="45"/>
+      <c r="S117" s="46"/>
+    </row>
+    <row r="118" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="27"/>
+    </row>
+    <row r="119" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="29"/>
+    </row>
+    <row r="120" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4471,6 +4571,13 @@
     <row r="499" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="500" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -4487,15 +4594,15 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="F52" r:id="rId1" location="mail-request" xr:uid="{7F374098-5A98-4E90-82A7-CEA6FCC88E5A}"/>
+    <hyperlink ref="F51" r:id="rId1" location="mail-request" xr:uid="{7F374098-5A98-4E90-82A7-CEA6FCC88E5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="22" max="34" man="1"/>
-    <brk id="53" max="34" man="1"/>
-    <brk id="70" max="34" man="1"/>
-    <brk id="99" max="34" man="1"/>
+    <brk id="21" max="34" man="1"/>
+    <brk id="52" max="34" man="1"/>
+    <brk id="78" max="34" man="1"/>
+    <brk id="106" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>